--- a/volatility/src/xls/27_GBPAUD.xlsx
+++ b/volatility/src/xls/27_GBPAUD.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
         <v>74.599999999999994</v>
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>8321</v>
+        <v>20802</v>
       </c>
       <c r="E6" s="5">
-        <v>112.9</v>
+        <v>183.1</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.1399999999999999</v>
+        <v>1.8419999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.1719999999999999</v>
+        <v>1.8739999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.1079999999999999</v>
+        <v>1.8099999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.1180000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.0860000000000001</v>
+        <v>1.788</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.1500000000000001</v>
+        <v>1.8520000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">

--- a/volatility/src/xls/27_GBPAUD.xlsx
+++ b/volatility/src/xls/27_GBPAUD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -561,19 +561,19 @@
         <v>20802</v>
       </c>
       <c r="E6" s="5">
-        <v>183.1</v>
+        <v>183.8</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.8419999999999999</v>
+        <v>1.849</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.8739999999999999</v>
+        <v>1.881</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.8099999999999998</v>
+        <v>1.8169999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.82</v>
+        <v>1.8270000000000002</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.788</v>
+        <v>1.7950000000000002</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.8520000000000001</v>
+        <v>1.8590000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,11 +620,13 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -638,7 +640,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -667,7 +669,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>2.1109999999999962</v>
+        <v>2.0279999999999854</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +681,23 @@
         <v>27</v>
       </c>
       <c r="B2" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C2">
-        <v>1.8177300000000001</v>
+        <v>1.83114</v>
       </c>
       <c r="D2">
-        <v>1.8385400000000001</v>
+        <v>1.8421099999999999</v>
       </c>
       <c r="E2">
-        <v>1.8174300000000001</v>
+        <v>1.8218300000000001</v>
       </c>
       <c r="F2">
-        <v>1.83135</v>
+        <v>1.8386100000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.5090000000000048</v>
+        <v>2.1109999999999962</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +705,23 @@
         <v>27</v>
       </c>
       <c r="B3" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C3">
-        <v>1.8221499999999999</v>
+        <v>1.8177300000000001</v>
       </c>
       <c r="D3">
-        <v>1.8268200000000001</v>
+        <v>1.8385400000000001</v>
       </c>
       <c r="E3">
-        <v>1.8117300000000001</v>
+        <v>1.8174300000000001</v>
       </c>
       <c r="F3">
-        <v>1.81999</v>
+        <v>1.83135</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>2.1460000000000035</v>
+        <v>1.5090000000000048</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +729,23 @@
         <v>27</v>
       </c>
       <c r="B4" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C4">
-        <v>1.8355600000000001</v>
+        <v>1.8221499999999999</v>
       </c>
       <c r="D4">
-        <v>1.83839</v>
+        <v>1.8268200000000001</v>
       </c>
       <c r="E4">
-        <v>1.8169299999999999</v>
+        <v>1.8117300000000001</v>
       </c>
       <c r="F4">
-        <v>1.8211299999999999</v>
+        <v>1.81999</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>3.176000000000001</v>
+        <v>2.1460000000000035</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +753,23 @@
         <v>27</v>
       </c>
       <c r="B5" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C5">
-        <v>1.8448199999999999</v>
+        <v>1.8355600000000001</v>
       </c>
       <c r="D5">
-        <v>1.8615999999999999</v>
+        <v>1.83839</v>
       </c>
       <c r="E5">
-        <v>1.8298399999999999</v>
+        <v>1.8169299999999999</v>
       </c>
       <c r="F5">
-        <v>1.83483</v>
+        <v>1.8211299999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.1179999999999977</v>
+        <v>3.176000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +777,23 @@
         <v>27</v>
       </c>
       <c r="B6" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C6">
-        <v>1.8576900000000001</v>
+        <v>1.8448199999999999</v>
       </c>
       <c r="D6">
-        <v>1.87155</v>
+        <v>1.8615999999999999</v>
       </c>
       <c r="E6">
-        <v>1.8503700000000001</v>
+        <v>1.8298399999999999</v>
       </c>
       <c r="F6">
-        <v>1.85223</v>
+        <v>1.83483</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>3.4929999999999906</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +801,23 @@
         <v>27</v>
       </c>
       <c r="B7" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C7">
-        <v>1.88351</v>
+        <v>1.8576900000000001</v>
       </c>
       <c r="D7">
-        <v>1.88805</v>
+        <v>1.87155</v>
       </c>
       <c r="E7">
-        <v>1.8531200000000001</v>
+        <v>1.8503700000000001</v>
       </c>
       <c r="F7">
-        <v>1.8575299999999999</v>
+        <v>1.85223</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>4.6859999999999902</v>
+        <v>3.4929999999999906</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +825,23 @@
         <v>27</v>
       </c>
       <c r="B8" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C8">
-        <v>1.8343700000000001</v>
+        <v>1.88351</v>
       </c>
       <c r="D8">
-        <v>1.87693</v>
+        <v>1.88805</v>
       </c>
       <c r="E8">
-        <v>1.8300700000000001</v>
+        <v>1.8531200000000001</v>
       </c>
       <c r="F8">
-        <v>1.8746499999999999</v>
+        <v>1.8575299999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.9220000000000024</v>
+        <v>4.6859999999999902</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +849,23 @@
         <v>27</v>
       </c>
       <c r="B9" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C9">
-        <v>1.81575</v>
+        <v>1.8343700000000001</v>
       </c>
       <c r="D9">
-        <v>1.8448500000000001</v>
+        <v>1.87693</v>
       </c>
       <c r="E9">
-        <v>1.8156300000000001</v>
+        <v>1.8300700000000001</v>
       </c>
       <c r="F9">
-        <v>1.83392</v>
+        <v>1.8746499999999999</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>2.3269999999999902</v>
+        <v>2.9220000000000024</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +873,23 @@
         <v>27</v>
       </c>
       <c r="B10" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C10">
-        <v>1.82121</v>
+        <v>1.81575</v>
       </c>
       <c r="D10">
-        <v>1.8326899999999999</v>
+        <v>1.8448500000000001</v>
       </c>
       <c r="E10">
-        <v>1.80942</v>
+        <v>1.8156300000000001</v>
       </c>
       <c r="F10">
-        <v>1.8160700000000001</v>
+        <v>1.83392</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2.1949999999999914</v>
+        <v>2.3269999999999902</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +897,23 @@
         <v>27</v>
       </c>
       <c r="B11" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C11">
-        <v>1.8324499999999999</v>
+        <v>1.82121</v>
       </c>
       <c r="D11">
-        <v>1.84327</v>
+        <v>1.8326899999999999</v>
       </c>
       <c r="E11">
-        <v>1.8213200000000001</v>
+        <v>1.80942</v>
       </c>
       <c r="F11">
-        <v>1.82256</v>
+        <v>1.8160700000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>3.3689999999999998</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +921,23 @@
         <v>27</v>
       </c>
       <c r="B12" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C12">
-        <v>1.8326199999999999</v>
+        <v>1.8324499999999999</v>
       </c>
       <c r="D12">
-        <v>1.86094</v>
+        <v>1.84327</v>
       </c>
       <c r="E12">
-        <v>1.82725</v>
+        <v>1.8213200000000001</v>
       </c>
       <c r="F12">
-        <v>1.83494</v>
+        <v>1.82256</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>4.335</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +945,23 @@
         <v>27</v>
       </c>
       <c r="B13" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C13">
-        <v>1.86524</v>
+        <v>1.8326199999999999</v>
       </c>
       <c r="D13">
-        <v>1.8731100000000001</v>
+        <v>1.86094</v>
       </c>
       <c r="E13">
-        <v>1.8297600000000001</v>
+        <v>1.82725</v>
       </c>
       <c r="F13">
-        <v>1.8337399999999999</v>
+        <v>1.83494</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>4.4659999999999922</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +969,23 @@
         <v>27</v>
       </c>
       <c r="B14" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C14">
-        <v>1.8763099999999999</v>
+        <v>1.86524</v>
       </c>
       <c r="D14">
-        <v>1.8784099999999999</v>
+        <v>1.8731100000000001</v>
       </c>
       <c r="E14">
-        <v>1.83375</v>
+        <v>1.8297600000000001</v>
       </c>
       <c r="F14">
-        <v>1.86554</v>
+        <v>1.8337399999999999</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>4.7149999999999803</v>
+        <v>4.4659999999999922</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +993,23 @@
         <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C15">
-        <v>1.8452299999999999</v>
+        <v>1.8763099999999999</v>
       </c>
       <c r="D15">
-        <v>1.8861699999999999</v>
+        <v>1.8784099999999999</v>
       </c>
       <c r="E15">
-        <v>1.8390200000000001</v>
+        <v>1.83375</v>
       </c>
       <c r="F15">
-        <v>1.87496</v>
+        <v>1.86554</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>3.4200000000000008</v>
+        <v>4.7149999999999803</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1017,23 @@
         <v>27</v>
       </c>
       <c r="B16" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C16">
-        <v>1.8616299999999999</v>
+        <v>1.8452299999999999</v>
       </c>
       <c r="D16">
-        <v>1.8774</v>
+        <v>1.8861699999999999</v>
       </c>
       <c r="E16">
-        <v>1.8431999999999999</v>
+        <v>1.8390200000000001</v>
       </c>
       <c r="F16">
-        <v>1.8469199999999999</v>
+        <v>1.87496</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>5.2859999999999907</v>
+        <v>3.4200000000000008</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1041,23 @@
         <v>27</v>
       </c>
       <c r="B17" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C17">
-        <v>1.8307500000000001</v>
+        <v>1.8616299999999999</v>
       </c>
       <c r="D17">
-        <v>1.87232</v>
+        <v>1.8774</v>
       </c>
       <c r="E17">
-        <v>1.8194600000000001</v>
+        <v>1.8431999999999999</v>
       </c>
       <c r="F17">
-        <v>1.8667</v>
+        <v>1.8469199999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>4.1469999999999896</v>
+        <v>5.2859999999999907</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1065,23 @@
         <v>27</v>
       </c>
       <c r="B18" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C18">
-        <v>1.8087299999999999</v>
+        <v>1.8307500000000001</v>
       </c>
       <c r="D18">
-        <v>1.8448</v>
+        <v>1.87232</v>
       </c>
       <c r="E18">
-        <v>1.8033300000000001</v>
+        <v>1.8194600000000001</v>
       </c>
       <c r="F18">
-        <v>1.83097</v>
+        <v>1.8667</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>2.6850000000000041</v>
+        <v>4.1469999999999896</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1089,23 @@
         <v>27</v>
       </c>
       <c r="B19" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C19">
-        <v>1.8243100000000001</v>
+        <v>1.8087299999999999</v>
       </c>
       <c r="D19">
-        <v>1.8258000000000001</v>
+        <v>1.8448</v>
       </c>
       <c r="E19">
-        <v>1.79895</v>
+        <v>1.8033300000000001</v>
       </c>
       <c r="F19">
-        <v>1.8051999999999999</v>
+        <v>1.83097</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>4.760999999999993</v>
+        <v>2.6850000000000041</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1113,23 @@
         <v>27</v>
       </c>
       <c r="B20" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C20">
-        <v>1.80227</v>
+        <v>1.8243100000000001</v>
       </c>
       <c r="D20">
-        <v>1.83432</v>
+        <v>1.8258000000000001</v>
       </c>
       <c r="E20">
-        <v>1.78671</v>
+        <v>1.79895</v>
       </c>
       <c r="F20">
-        <v>1.82524</v>
+        <v>1.8051999999999999</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>5.0579999999999847</v>
+        <v>4.760999999999993</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1137,23 @@
         <v>27</v>
       </c>
       <c r="B21" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C21">
-        <v>1.8368100000000001</v>
+        <v>1.80227</v>
       </c>
       <c r="D21">
-        <v>1.84415</v>
+        <v>1.83432</v>
       </c>
       <c r="E21">
-        <v>1.7935700000000001</v>
+        <v>1.78671</v>
       </c>
       <c r="F21">
-        <v>1.8047200000000001</v>
+        <v>1.82524</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>6.0850000000000071</v>
+        <v>5.0579999999999847</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1161,23 @@
         <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C22">
-        <v>1.7959700000000001</v>
+        <v>1.8368100000000001</v>
       </c>
       <c r="D22">
-        <v>1.85222</v>
+        <v>1.84415</v>
       </c>
       <c r="E22">
-        <v>1.7913699999999999</v>
+        <v>1.7935700000000001</v>
       </c>
       <c r="F22">
-        <v>1.83755</v>
+        <v>1.8047200000000001</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>4.6119999999999939</v>
+        <v>6.0850000000000071</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1185,23 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C23">
-        <v>1.7814300000000001</v>
+        <v>1.7959700000000001</v>
       </c>
       <c r="D23">
-        <v>1.81009</v>
+        <v>1.85222</v>
       </c>
       <c r="E23">
-        <v>1.76397</v>
+        <v>1.7913699999999999</v>
       </c>
       <c r="F23">
-        <v>1.79592</v>
+        <v>1.83755</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>3.3160000000000078</v>
+        <v>4.6119999999999939</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1209,23 @@
         <v>27</v>
       </c>
       <c r="B24" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C24">
-        <v>1.78799</v>
+        <v>1.7814300000000001</v>
       </c>
       <c r="D24">
-        <v>1.79433</v>
+        <v>1.81009</v>
       </c>
       <c r="E24">
-        <v>1.7611699999999999</v>
+        <v>1.76397</v>
       </c>
       <c r="F24">
-        <v>1.7800499999999999</v>
+        <v>1.79592</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>6.469999999999998</v>
+        <v>3.3160000000000078</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1233,23 @@
         <v>27</v>
       </c>
       <c r="B25" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C25">
-        <v>1.80176</v>
+        <v>1.78799</v>
       </c>
       <c r="D25">
-        <v>1.85164</v>
+        <v>1.79433</v>
       </c>
       <c r="E25">
-        <v>1.78694</v>
+        <v>1.7611699999999999</v>
       </c>
       <c r="F25">
-        <v>1.7877099999999999</v>
+        <v>1.7800499999999999</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.2189999999999932</v>
+        <v>6.469999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1257,23 @@
         <v>27</v>
       </c>
       <c r="B26" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C26">
-        <v>1.79549</v>
+        <v>1.80176</v>
       </c>
       <c r="D26">
-        <v>1.8082199999999999</v>
+        <v>1.85164</v>
       </c>
       <c r="E26">
-        <v>1.78603</v>
+        <v>1.78694</v>
       </c>
       <c r="F26">
-        <v>1.8032699999999999</v>
+        <v>1.7877099999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>4.430999999999985</v>
+        <v>2.2189999999999932</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1281,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C27">
-        <v>1.7550399999999999</v>
+        <v>1.79549</v>
       </c>
       <c r="D27">
-        <v>1.7945599999999999</v>
+        <v>1.8082199999999999</v>
       </c>
       <c r="E27">
-        <v>1.7502500000000001</v>
+        <v>1.78603</v>
       </c>
       <c r="F27">
-        <v>1.79436</v>
+        <v>1.8032699999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>4.3290000000000051</v>
+        <v>4.430999999999985</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1305,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C28">
-        <v>1.76735</v>
+        <v>1.7550399999999999</v>
       </c>
       <c r="D28">
-        <v>1.7722800000000001</v>
+        <v>1.7945599999999999</v>
       </c>
       <c r="E28">
-        <v>1.72899</v>
+        <v>1.7502500000000001</v>
       </c>
       <c r="F28">
-        <v>1.7521800000000001</v>
+        <v>1.79436</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>5.3470000000000129</v>
+        <v>4.3290000000000051</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1329,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C29">
-        <v>1.7293700000000001</v>
+        <v>1.76735</v>
       </c>
       <c r="D29">
-        <v>1.7743100000000001</v>
+        <v>1.7722800000000001</v>
       </c>
       <c r="E29">
-        <v>1.7208399999999999</v>
+        <v>1.72899</v>
       </c>
       <c r="F29">
-        <v>1.7697499999999999</v>
+        <v>1.7521800000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>3.6529999999999951</v>
+        <v>5.3470000000000129</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1353,23 @@
         <v>27</v>
       </c>
       <c r="B30" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C30">
-        <v>1.77294</v>
+        <v>1.7293700000000001</v>
       </c>
       <c r="D30">
-        <v>1.77555</v>
+        <v>1.7743100000000001</v>
       </c>
       <c r="E30">
-        <v>1.73902</v>
+        <v>1.7208399999999999</v>
       </c>
       <c r="F30">
-        <v>1.7437800000000001</v>
+        <v>1.7697499999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.945999999999982</v>
+        <v>3.6529999999999951</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1377,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C31">
-        <v>1.7568699999999999</v>
+        <v>1.77294</v>
       </c>
       <c r="D31">
-        <v>1.7816799999999999</v>
+        <v>1.77555</v>
       </c>
       <c r="E31">
-        <v>1.7522200000000001</v>
+        <v>1.73902</v>
       </c>
       <c r="F31">
-        <v>1.7718799999999999</v>
+        <v>1.7437800000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>5.8789999999999898</v>
+        <v>2.945999999999982</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1401,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C32">
-        <v>1.7886299999999999</v>
+        <v>1.7568699999999999</v>
       </c>
       <c r="D32">
-        <v>1.8064499999999999</v>
+        <v>1.7816799999999999</v>
       </c>
       <c r="E32">
-        <v>1.74766</v>
+        <v>1.7522200000000001</v>
       </c>
       <c r="F32">
-        <v>1.74864</v>
+        <v>1.7718799999999999</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.1560000000000024</v>
+        <v>5.8789999999999898</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1425,23 @@
         <v>27</v>
       </c>
       <c r="B33" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C33">
-        <v>1.81037</v>
+        <v>1.7886299999999999</v>
       </c>
       <c r="D33">
-        <v>1.8148500000000001</v>
+        <v>1.8064499999999999</v>
       </c>
       <c r="E33">
-        <v>1.7932900000000001</v>
+        <v>1.74766</v>
       </c>
       <c r="F33">
-        <v>1.7946500000000001</v>
+        <v>1.74864</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2.9480000000000173</v>
+        <v>2.1560000000000024</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1449,23 @@
         <v>27</v>
       </c>
       <c r="B34" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C34">
-        <v>1.80806</v>
+        <v>1.81037</v>
       </c>
       <c r="D34">
-        <v>1.8155300000000001</v>
+        <v>1.8148500000000001</v>
       </c>
       <c r="E34">
-        <v>1.7860499999999999</v>
+        <v>1.7932900000000001</v>
       </c>
       <c r="F34">
-        <v>1.80175</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>3.9220000000000033</v>
+        <v>2.9480000000000173</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1473,23 @@
         <v>27</v>
       </c>
       <c r="B35" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C35">
-        <v>1.8342700000000001</v>
+        <v>1.80806</v>
       </c>
       <c r="D35">
-        <v>1.84585</v>
+        <v>1.8155300000000001</v>
       </c>
       <c r="E35">
-        <v>1.80663</v>
+        <v>1.7860499999999999</v>
       </c>
       <c r="F35">
-        <v>1.80952</v>
+        <v>1.80175</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>3.2680000000000042</v>
+        <v>3.9220000000000033</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1497,23 @@
         <v>27</v>
       </c>
       <c r="B36" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C36">
-        <v>1.8421000000000001</v>
+        <v>1.8342700000000001</v>
       </c>
       <c r="D36">
-        <v>1.85626</v>
+        <v>1.84585</v>
       </c>
       <c r="E36">
-        <v>1.82358</v>
+        <v>1.80663</v>
       </c>
       <c r="F36">
-        <v>1.83592</v>
+        <v>1.80952</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>2.909000000000006</v>
+        <v>3.2680000000000042</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1521,23 @@
         <v>27</v>
       </c>
       <c r="B37" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C37">
-        <v>1.8597699999999999</v>
+        <v>1.8421000000000001</v>
       </c>
       <c r="D37">
-        <v>1.87239</v>
+        <v>1.85626</v>
       </c>
       <c r="E37">
-        <v>1.8432999999999999</v>
+        <v>1.82358</v>
       </c>
       <c r="F37">
-        <v>1.8491500000000001</v>
+        <v>1.83592</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>5.9730000000000061</v>
+        <v>2.909000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1545,23 @@
         <v>27</v>
       </c>
       <c r="B38" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C38">
-        <v>1.80436</v>
+        <v>1.8597699999999999</v>
       </c>
       <c r="D38">
-        <v>1.8608</v>
+        <v>1.87239</v>
       </c>
       <c r="E38">
-        <v>1.8010699999999999</v>
+        <v>1.8432999999999999</v>
       </c>
       <c r="F38">
-        <v>1.8590500000000001</v>
+        <v>1.8491500000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>2.517999999999998</v>
+        <v>5.9730000000000061</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1569,23 @@
         <v>27</v>
       </c>
       <c r="B39" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C39">
-        <v>1.7995699999999999</v>
+        <v>1.80436</v>
       </c>
       <c r="D39">
-        <v>1.82169</v>
+        <v>1.8608</v>
       </c>
       <c r="E39">
-        <v>1.7965100000000001</v>
+        <v>1.8010699999999999</v>
       </c>
       <c r="F39">
-        <v>1.8051900000000001</v>
+        <v>1.8590500000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>4.6390000000000153</v>
+        <v>2.517999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1593,23 @@
         <v>27</v>
       </c>
       <c r="B40" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C40">
-        <v>1.8268899999999999</v>
+        <v>1.7995699999999999</v>
       </c>
       <c r="D40">
-        <v>1.8398600000000001</v>
+        <v>1.82169</v>
       </c>
       <c r="E40">
-        <v>1.7934699999999999</v>
+        <v>1.7965100000000001</v>
       </c>
       <c r="F40">
-        <v>1.79575</v>
+        <v>1.8051900000000001</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.6639999999999997</v>
+        <v>4.6390000000000153</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1617,23 @@
         <v>27</v>
       </c>
       <c r="B41" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C41">
-        <v>1.8182199999999999</v>
+        <v>1.8268899999999999</v>
       </c>
       <c r="D41">
-        <v>1.83754</v>
+        <v>1.8398600000000001</v>
       </c>
       <c r="E41">
-        <v>1.8109</v>
+        <v>1.7934699999999999</v>
       </c>
       <c r="F41">
-        <v>1.8264</v>
+        <v>1.79575</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>4.4320000000000137</v>
+        <v>2.6639999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1641,23 @@
         <v>27</v>
       </c>
       <c r="B42" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C42">
-        <v>1.79634</v>
+        <v>1.8182199999999999</v>
       </c>
       <c r="D42">
-        <v>1.8222</v>
+        <v>1.83754</v>
       </c>
       <c r="E42">
-        <v>1.7778799999999999</v>
+        <v>1.8109</v>
       </c>
       <c r="F42">
-        <v>1.8172999999999999</v>
+        <v>1.8264</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>5.4699999999999971</v>
+        <v>4.4320000000000137</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1665,23 @@
         <v>27</v>
       </c>
       <c r="B43" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C43">
-        <v>1.7517499999999999</v>
+        <v>1.79634</v>
       </c>
       <c r="D43">
-        <v>1.8053399999999999</v>
+        <v>1.8222</v>
       </c>
       <c r="E43">
-        <v>1.75064</v>
+        <v>1.7778799999999999</v>
       </c>
       <c r="F43">
-        <v>1.8015000000000001</v>
+        <v>1.8172999999999999</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>2.8350000000000097</v>
+        <v>5.4699999999999971</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1689,23 @@
         <v>27</v>
       </c>
       <c r="B44" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C44">
-        <v>1.74251</v>
+        <v>1.7517499999999999</v>
       </c>
       <c r="D44">
-        <v>1.76932</v>
+        <v>1.8053399999999999</v>
       </c>
       <c r="E44">
-        <v>1.7409699999999999</v>
+        <v>1.75064</v>
       </c>
       <c r="F44">
-        <v>1.7535499999999999</v>
+        <v>1.8015000000000001</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>2.3840000000000083</v>
+        <v>2.8350000000000097</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1713,23 @@
         <v>27</v>
       </c>
       <c r="B45" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C45">
-        <v>1.7509699999999999</v>
+        <v>1.74251</v>
       </c>
       <c r="D45">
-        <v>1.76546</v>
+        <v>1.76932</v>
       </c>
       <c r="E45">
-        <v>1.7416199999999999</v>
+        <v>1.7409699999999999</v>
       </c>
       <c r="F45">
-        <v>1.7428600000000001</v>
+        <v>1.7535499999999999</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>3.0440000000000023</v>
+        <v>2.3840000000000083</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1737,23 @@
         <v>27</v>
       </c>
       <c r="B46" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C46">
-        <v>1.7572000000000001</v>
+        <v>1.7509699999999999</v>
       </c>
       <c r="D46">
-        <v>1.7586299999999999</v>
+        <v>1.76546</v>
       </c>
       <c r="E46">
-        <v>1.7281899999999999</v>
+        <v>1.7416199999999999</v>
       </c>
       <c r="F46">
-        <v>1.74885</v>
+        <v>1.7428600000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>2.6240000000000041</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1761,23 @@
         <v>27</v>
       </c>
       <c r="B47" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C47">
-        <v>1.7705500000000001</v>
+        <v>1.7572000000000001</v>
       </c>
       <c r="D47">
-        <v>1.78233</v>
+        <v>1.7586299999999999</v>
       </c>
       <c r="E47">
-        <v>1.7560899999999999</v>
+        <v>1.7281899999999999</v>
       </c>
       <c r="F47">
-        <v>1.7578</v>
+        <v>1.74885</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.4309999999999823</v>
+        <v>2.6240000000000041</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1785,23 @@
         <v>27</v>
       </c>
       <c r="B48" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C48">
-        <v>1.7683899999999999</v>
+        <v>1.7705500000000001</v>
       </c>
       <c r="D48">
-        <v>1.7802899999999999</v>
+        <v>1.78233</v>
       </c>
       <c r="E48">
-        <v>1.7659800000000001</v>
+        <v>1.7560899999999999</v>
       </c>
       <c r="F48">
-        <v>1.7701899999999999</v>
+        <v>1.7578</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>3.1139999999999946</v>
+        <v>1.4309999999999823</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1809,23 @@
         <v>27</v>
       </c>
       <c r="B49" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C49">
-        <v>1.78345</v>
+        <v>1.7683899999999999</v>
       </c>
       <c r="D49">
-        <v>1.7877799999999999</v>
+        <v>1.7802899999999999</v>
       </c>
       <c r="E49">
-        <v>1.75664</v>
+        <v>1.7659800000000001</v>
       </c>
       <c r="F49">
-        <v>1.76875</v>
+        <v>1.7701899999999999</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>2.7289999999999814</v>
+        <v>3.1139999999999946</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1833,23 @@
         <v>27</v>
       </c>
       <c r="B50" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C50">
-        <v>1.7909900000000001</v>
+        <v>1.78345</v>
       </c>
       <c r="D50">
-        <v>1.7939099999999999</v>
+        <v>1.7877799999999999</v>
       </c>
       <c r="E50">
-        <v>1.7666200000000001</v>
+        <v>1.75664</v>
       </c>
       <c r="F50">
-        <v>1.78328</v>
+        <v>1.76875</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.593</v>
+        <v>2.7289999999999814</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1857,23 @@
         <v>27</v>
       </c>
       <c r="B51" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C51">
-        <v>1.7835700000000001</v>
+        <v>1.7909900000000001</v>
       </c>
       <c r="D51">
-        <v>1.79569</v>
+        <v>1.7939099999999999</v>
       </c>
       <c r="E51">
-        <v>1.77976</v>
+        <v>1.7666200000000001</v>
       </c>
       <c r="F51">
-        <v>1.7869600000000001</v>
+        <v>1.78328</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>2.2230000000000194</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1881,23 @@
         <v>27</v>
       </c>
       <c r="B52" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C52">
-        <v>1.78243</v>
+        <v>1.7835700000000001</v>
       </c>
       <c r="D52">
-        <v>1.7957700000000001</v>
+        <v>1.79569</v>
       </c>
       <c r="E52">
-        <v>1.7735399999999999</v>
+        <v>1.77976</v>
       </c>
       <c r="F52">
-        <v>1.7829999999999999</v>
+        <v>1.7869600000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.2659999999999902</v>
+        <v>2.2230000000000194</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1905,23 @@
         <v>27</v>
       </c>
       <c r="B53" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C53">
-        <v>1.78362</v>
+        <v>1.78243</v>
       </c>
       <c r="D53">
-        <v>1.79789</v>
+        <v>1.7957700000000001</v>
       </c>
       <c r="E53">
-        <v>1.7752300000000001</v>
+        <v>1.7735399999999999</v>
       </c>
       <c r="F53">
-        <v>1.7826900000000001</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>3.1629999999999825</v>
+        <v>2.2659999999999902</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1929,23 @@
         <v>27</v>
       </c>
       <c r="B54" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C54">
-        <v>1.7647299999999999</v>
+        <v>1.78362</v>
       </c>
       <c r="D54">
-        <v>1.7848599999999999</v>
+        <v>1.79789</v>
       </c>
       <c r="E54">
-        <v>1.7532300000000001</v>
+        <v>1.7752300000000001</v>
       </c>
       <c r="F54">
-        <v>1.7844199999999999</v>
+        <v>1.7826900000000001</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>3.4229999999999983</v>
+        <v>3.1629999999999825</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1953,23 @@
         <v>27</v>
       </c>
       <c r="B55" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C55">
-        <v>1.7626999999999999</v>
+        <v>1.7647299999999999</v>
       </c>
       <c r="D55">
-        <v>1.7733300000000001</v>
+        <v>1.7848599999999999</v>
       </c>
       <c r="E55">
-        <v>1.7391000000000001</v>
+        <v>1.7532300000000001</v>
       </c>
       <c r="F55">
-        <v>1.7641500000000001</v>
+        <v>1.7844199999999999</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.0570000000000199</v>
+        <v>3.4229999999999983</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1977,23 @@
         <v>27</v>
       </c>
       <c r="B56" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C56">
-        <v>1.7598</v>
+        <v>1.7626999999999999</v>
       </c>
       <c r="D56">
-        <v>1.7722500000000001</v>
+        <v>1.7733300000000001</v>
       </c>
       <c r="E56">
-        <v>1.7516799999999999</v>
+        <v>1.7391000000000001</v>
       </c>
       <c r="F56">
-        <v>1.76295</v>
+        <v>1.7641500000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>3.3939999999999859</v>
+        <v>2.0570000000000199</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2001,23 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C57">
-        <v>1.78969</v>
+        <v>1.7598</v>
       </c>
       <c r="D57">
-        <v>1.7924199999999999</v>
+        <v>1.7722500000000001</v>
       </c>
       <c r="E57">
-        <v>1.75848</v>
+        <v>1.7516799999999999</v>
       </c>
       <c r="F57">
-        <v>1.7619400000000001</v>
+        <v>1.76295</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.9479999999999942</v>
+        <v>3.3939999999999859</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2025,23 @@
         <v>27</v>
       </c>
       <c r="B58" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C58">
-        <v>1.7946500000000001</v>
+        <v>1.78969</v>
       </c>
       <c r="D58">
-        <v>1.8108599999999999</v>
+        <v>1.7924199999999999</v>
       </c>
       <c r="E58">
-        <v>1.79138</v>
+        <v>1.75848</v>
       </c>
       <c r="F58">
-        <v>1.7944</v>
+        <v>1.7619400000000001</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>3.3549999999999969</v>
+        <v>1.9479999999999942</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2049,23 @@
         <v>27</v>
       </c>
       <c r="B59" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C59">
-        <v>1.7953600000000001</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="D59">
-        <v>1.82396</v>
+        <v>1.8108599999999999</v>
       </c>
       <c r="E59">
-        <v>1.7904100000000001</v>
+        <v>1.79138</v>
       </c>
       <c r="F59">
-        <v>1.79495</v>
+        <v>1.7944</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>3.4410000000000052</v>
+        <v>3.3549999999999969</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2073,23 @@
         <v>27</v>
       </c>
       <c r="B60" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C60">
-        <v>1.8176300000000001</v>
+        <v>1.7953600000000001</v>
       </c>
       <c r="D60">
-        <v>1.82945</v>
+        <v>1.82396</v>
       </c>
       <c r="E60">
-        <v>1.79504</v>
+        <v>1.7904100000000001</v>
       </c>
       <c r="F60">
-        <v>1.7957000000000001</v>
+        <v>1.79495</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>2.9599999999999849</v>
+        <v>3.4410000000000052</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2097,23 @@
         <v>27</v>
       </c>
       <c r="B61" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C61">
-        <v>1.8252600000000001</v>
+        <v>1.8176300000000001</v>
       </c>
       <c r="D61">
-        <v>1.8472999999999999</v>
+        <v>1.82945</v>
       </c>
       <c r="E61">
-        <v>1.8177000000000001</v>
+        <v>1.79504</v>
       </c>
       <c r="F61">
-        <v>1.8178099999999999</v>
+        <v>1.7957000000000001</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>3.0459999999999932</v>
+        <v>2.9599999999999849</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2121,23 @@
         <v>27</v>
       </c>
       <c r="B62" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C62">
-        <v>1.8332599999999999</v>
+        <v>1.8252600000000001</v>
       </c>
       <c r="D62">
-        <v>1.84755</v>
+        <v>1.8472999999999999</v>
       </c>
       <c r="E62">
-        <v>1.8170900000000001</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F62">
-        <v>1.8265499999999999</v>
+        <v>1.8178099999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>2.2310000000000052</v>
+        <v>3.0459999999999932</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2145,23 @@
         <v>27</v>
       </c>
       <c r="B63" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C63">
-        <v>1.83632</v>
+        <v>1.8332599999999999</v>
       </c>
       <c r="D63">
-        <v>1.8457600000000001</v>
+        <v>1.84755</v>
       </c>
       <c r="E63">
-        <v>1.82345</v>
+        <v>1.8170900000000001</v>
       </c>
       <c r="F63">
-        <v>1.83386</v>
+        <v>1.8265499999999999</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>1.9169999999999909</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2169,23 @@
         <v>27</v>
       </c>
       <c r="B64" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C64">
-        <v>1.8239000000000001</v>
+        <v>1.83632</v>
       </c>
       <c r="D64">
-        <v>1.83687</v>
+        <v>1.8457600000000001</v>
       </c>
       <c r="E64">
-        <v>1.8177000000000001</v>
+        <v>1.82345</v>
       </c>
       <c r="F64">
-        <v>1.83525</v>
+        <v>1.83386</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>2.9139999999999944</v>
+        <v>1.9169999999999909</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2193,23 @@
         <v>27</v>
       </c>
       <c r="B65" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C65">
-        <v>1.83656</v>
+        <v>1.8239000000000001</v>
       </c>
       <c r="D65">
-        <v>1.85073</v>
+        <v>1.83687</v>
       </c>
       <c r="E65">
-        <v>1.82159</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F65">
-        <v>1.8250299999999999</v>
+        <v>1.83525</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>3.4329999999999972</v>
+        <v>2.9139999999999944</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2217,23 @@
         <v>27</v>
       </c>
       <c r="B66" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C66">
-        <v>1.80705</v>
+        <v>1.83656</v>
       </c>
       <c r="D66">
-        <v>1.8397399999999999</v>
+        <v>1.85073</v>
       </c>
       <c r="E66">
-        <v>1.80541</v>
+        <v>1.82159</v>
       </c>
       <c r="F66">
-        <v>1.8359399999999999</v>
+        <v>1.8250299999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>4.8669999999999991</v>
+        <v>3.4329999999999972</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2241,23 @@
         <v>27</v>
       </c>
       <c r="B67" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C67">
-        <v>1.7641</v>
+        <v>1.80705</v>
       </c>
       <c r="D67">
-        <v>1.8085</v>
+        <v>1.8397399999999999</v>
       </c>
       <c r="E67">
-        <v>1.75983</v>
+        <v>1.80541</v>
       </c>
       <c r="F67">
-        <v>1.8083</v>
+        <v>1.8359399999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.7009999999999978</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2265,23 @@
         <v>27</v>
       </c>
       <c r="B68" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C68">
-        <v>1.7760199999999999</v>
+        <v>1.7641</v>
       </c>
       <c r="D68">
-        <v>1.79053</v>
+        <v>1.8085</v>
       </c>
       <c r="E68">
-        <v>1.76352</v>
+        <v>1.75983</v>
       </c>
       <c r="F68">
-        <v>1.7646500000000001</v>
+        <v>1.8083</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>2.3700000000000054</v>
+        <v>2.7009999999999978</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2289,23 @@
         <v>27</v>
       </c>
       <c r="B69" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C69">
-        <v>1.7831699999999999</v>
+        <v>1.7760199999999999</v>
       </c>
       <c r="D69">
-        <v>1.79043</v>
+        <v>1.79053</v>
       </c>
       <c r="E69">
-        <v>1.7667299999999999</v>
+        <v>1.76352</v>
       </c>
       <c r="F69">
-        <v>1.77685</v>
+        <v>1.7646500000000001</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>3.0649999999999844</v>
+        <v>2.3700000000000054</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2313,23 @@
         <v>27</v>
       </c>
       <c r="B70" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C70">
-        <v>1.7718400000000001</v>
+        <v>1.7831699999999999</v>
       </c>
       <c r="D70">
-        <v>1.7910699999999999</v>
+        <v>1.79043</v>
       </c>
       <c r="E70">
-        <v>1.7604200000000001</v>
+        <v>1.7667299999999999</v>
       </c>
       <c r="F70">
-        <v>1.78179</v>
+        <v>1.77685</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.3390000000000022</v>
+        <v>3.0649999999999844</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2337,23 @@
         <v>27</v>
       </c>
       <c r="B71" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C71">
-        <v>1.7669600000000001</v>
+        <v>1.7718400000000001</v>
       </c>
       <c r="D71">
-        <v>1.78084</v>
+        <v>1.7910699999999999</v>
       </c>
       <c r="E71">
-        <v>1.75745</v>
+        <v>1.7604200000000001</v>
       </c>
       <c r="F71">
-        <v>1.77223</v>
+        <v>1.78179</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>3.8780000000000037</v>
+        <v>2.3390000000000022</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2361,23 @@
         <v>27</v>
       </c>
       <c r="B72" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C72">
-        <v>1.7817499999999999</v>
+        <v>1.7669600000000001</v>
       </c>
       <c r="D72">
-        <v>1.7997799999999999</v>
+        <v>1.78084</v>
       </c>
       <c r="E72">
-        <v>1.7609999999999999</v>
+        <v>1.75745</v>
       </c>
       <c r="F72">
-        <v>1.7689600000000001</v>
+        <v>1.77223</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>4.9670000000000103</v>
+        <v>3.8780000000000037</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2385,23 @@
         <v>27</v>
       </c>
       <c r="B73" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C73">
-        <v>1.7444200000000001</v>
+        <v>1.7817499999999999</v>
       </c>
       <c r="D73">
-        <v>1.78474</v>
+        <v>1.7997799999999999</v>
       </c>
       <c r="E73">
-        <v>1.7350699999999999</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="F73">
-        <v>1.7819400000000001</v>
+        <v>1.7689600000000001</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>3.8180000000000103</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2409,23 @@
         <v>27</v>
       </c>
       <c r="B74" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C74">
-        <v>1.73603</v>
+        <v>1.7444200000000001</v>
       </c>
       <c r="D74">
-        <v>1.77176</v>
+        <v>1.78474</v>
       </c>
       <c r="E74">
-        <v>1.7335799999999999</v>
+        <v>1.7350699999999999</v>
       </c>
       <c r="F74">
-        <v>1.7443599999999999</v>
+        <v>1.7819400000000001</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.2890000000000068</v>
+        <v>3.8180000000000103</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2433,23 @@
         <v>27</v>
       </c>
       <c r="B75" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C75">
-        <v>1.73665</v>
+        <v>1.73603</v>
       </c>
       <c r="D75">
-        <v>1.7398100000000001</v>
+        <v>1.77176</v>
       </c>
       <c r="E75">
-        <v>1.72692</v>
+        <v>1.7335799999999999</v>
       </c>
       <c r="F75">
-        <v>1.73346</v>
+        <v>1.7443599999999999</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>3.3379999999999965</v>
+        <v>1.2890000000000068</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2457,23 @@
         <v>27</v>
       </c>
       <c r="B76" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C76">
-        <v>1.7245299999999999</v>
+        <v>1.73665</v>
       </c>
       <c r="D76">
-        <v>1.7431099999999999</v>
+        <v>1.7398100000000001</v>
       </c>
       <c r="E76">
-        <v>1.70973</v>
+        <v>1.72692</v>
       </c>
       <c r="F76">
-        <v>1.73491</v>
+        <v>1.73346</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>2.0279999999999854</v>
+        <v>3.3379999999999965</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2481,23 @@
         <v>27</v>
       </c>
       <c r="B77" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C77">
-        <v>1.7304600000000001</v>
+        <v>1.7245299999999999</v>
       </c>
       <c r="D77">
-        <v>1.74152</v>
+        <v>1.7431099999999999</v>
       </c>
       <c r="E77">
-        <v>1.7212400000000001</v>
+        <v>1.70973</v>
       </c>
       <c r="F77">
-        <v>1.7251000000000001</v>
+        <v>1.73491</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.214000000000004</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2505,23 @@
         <v>27</v>
       </c>
       <c r="B78" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C78">
-        <v>1.7316800000000001</v>
+        <v>1.7304600000000001</v>
       </c>
       <c r="D78">
-        <v>1.73359</v>
+        <v>1.74152</v>
       </c>
       <c r="E78">
-        <v>1.7214499999999999</v>
+        <v>1.7212400000000001</v>
       </c>
       <c r="F78">
-        <v>1.7301599999999999</v>
+        <v>1.7251000000000001</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.1009999999999973</v>
+        <v>1.214000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2529,23 @@
         <v>27</v>
       </c>
       <c r="B79" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C79">
-        <v>1.74116</v>
+        <v>1.7316800000000001</v>
       </c>
       <c r="D79">
-        <v>1.75099</v>
+        <v>1.73359</v>
       </c>
       <c r="E79">
-        <v>1.7299800000000001</v>
+        <v>1.7214499999999999</v>
       </c>
       <c r="F79">
-        <v>1.7320500000000001</v>
+        <v>1.7301599999999999</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>4.9000000000000155</v>
+        <v>2.1009999999999973</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2553,23 @@
         <v>27</v>
       </c>
       <c r="B80" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C80">
-        <v>1.78149</v>
+        <v>1.74116</v>
       </c>
       <c r="D80">
-        <v>1.7844500000000001</v>
+        <v>1.75099</v>
       </c>
       <c r="E80">
-        <v>1.7354499999999999</v>
+        <v>1.7299800000000001</v>
       </c>
       <c r="F80">
-        <v>1.74329</v>
+        <v>1.7320500000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>5.0850000000000062</v>
+        <v>4.9000000000000155</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2577,23 @@
         <v>27</v>
       </c>
       <c r="B81" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C81">
-        <v>1.7703100000000001</v>
+        <v>1.78149</v>
       </c>
       <c r="D81">
-        <v>1.79965</v>
+        <v>1.7844500000000001</v>
       </c>
       <c r="E81">
-        <v>1.7487999999999999</v>
+        <v>1.7354499999999999</v>
       </c>
       <c r="F81">
-        <v>1.7845299999999999</v>
+        <v>1.74329</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>5.4619999999999891</v>
+        <v>5.0850000000000062</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2601,23 @@
         <v>27</v>
       </c>
       <c r="B82" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C82">
-        <v>1.7491399999999999</v>
+        <v>1.7703100000000001</v>
       </c>
       <c r="D82">
-        <v>1.7908299999999999</v>
+        <v>1.79965</v>
       </c>
       <c r="E82">
-        <v>1.73621</v>
+        <v>1.7487999999999999</v>
       </c>
       <c r="F82">
-        <v>1.77088</v>
+        <v>1.7845299999999999</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.8199999999999994</v>
+        <v>5.4619999999999891</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2625,23 @@
         <v>27</v>
       </c>
       <c r="B83" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C83">
-        <v>1.7467600000000001</v>
+        <v>1.7491399999999999</v>
       </c>
       <c r="D83">
-        <v>1.7597400000000001</v>
+        <v>1.7908299999999999</v>
       </c>
       <c r="E83">
-        <v>1.7415400000000001</v>
+        <v>1.73621</v>
       </c>
       <c r="F83">
-        <v>1.7492399999999999</v>
+        <v>1.77088</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>4.8750000000000071</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2649,23 @@
         <v>27</v>
       </c>
       <c r="B84" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C84">
-        <v>1.71956</v>
+        <v>1.7467600000000001</v>
       </c>
       <c r="D84">
-        <v>1.7565500000000001</v>
+        <v>1.7597400000000001</v>
       </c>
       <c r="E84">
-        <v>1.7078</v>
+        <v>1.7415400000000001</v>
       </c>
       <c r="F84">
-        <v>1.7468300000000001</v>
+        <v>1.7492399999999999</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>2.2310000000000052</v>
+        <v>4.8750000000000071</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2673,23 @@
         <v>27</v>
       </c>
       <c r="B85" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C85">
-        <v>1.7085399999999999</v>
+        <v>1.71956</v>
       </c>
       <c r="D85">
-        <v>1.72593</v>
+        <v>1.7565500000000001</v>
       </c>
       <c r="E85">
-        <v>1.7036199999999999</v>
+        <v>1.7078</v>
       </c>
       <c r="F85">
-        <v>1.7219599999999999</v>
+        <v>1.7468300000000001</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>4.713999999999996</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2697,23 @@
         <v>27</v>
       </c>
       <c r="B86" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C86">
-        <v>1.7107600000000001</v>
+        <v>1.7085399999999999</v>
       </c>
       <c r="D86">
-        <v>1.73664</v>
+        <v>1.72593</v>
       </c>
       <c r="E86">
-        <v>1.6895</v>
+        <v>1.7036199999999999</v>
       </c>
       <c r="F86">
-        <v>1.7087699999999999</v>
+        <v>1.7219599999999999</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>4.0330000000000199</v>
+        <v>4.713999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2721,23 @@
         <v>27</v>
       </c>
       <c r="B87" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C87">
-        <v>1.6869799999999999</v>
+        <v>1.7107600000000001</v>
       </c>
       <c r="D87">
-        <v>1.7239500000000001</v>
+        <v>1.73664</v>
       </c>
       <c r="E87">
-        <v>1.6836199999999999</v>
+        <v>1.6895</v>
       </c>
       <c r="F87">
-        <v>1.71113</v>
+        <v>1.7087699999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>2.3349999999999982</v>
+        <v>4.0330000000000199</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2745,23 @@
         <v>27</v>
       </c>
       <c r="B88" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C88">
-        <v>1.6858299999999999</v>
+        <v>1.6869799999999999</v>
       </c>
       <c r="D88">
-        <v>1.6917199999999999</v>
+        <v>1.7239500000000001</v>
       </c>
       <c r="E88">
-        <v>1.6683699999999999</v>
+        <v>1.6836199999999999</v>
       </c>
       <c r="F88">
-        <v>1.6870499999999999</v>
+        <v>1.71113</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>2.1120000000000028</v>
+        <v>2.3349999999999982</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2769,23 @@
         <v>27</v>
       </c>
       <c r="B89" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C89">
-        <v>1.6816599999999999</v>
+        <v>1.6858299999999999</v>
       </c>
       <c r="D89">
-        <v>1.7005300000000001</v>
+        <v>1.6917199999999999</v>
       </c>
       <c r="E89">
-        <v>1.6794100000000001</v>
+        <v>1.6683699999999999</v>
       </c>
       <c r="F89">
-        <v>1.6850000000000001</v>
+        <v>1.6870499999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>3.1820000000000181</v>
+        <v>2.1120000000000028</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2793,23 @@
         <v>27</v>
       </c>
       <c r="B90" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C90">
-        <v>1.70713</v>
+        <v>1.6816599999999999</v>
       </c>
       <c r="D90">
-        <v>1.7098500000000001</v>
+        <v>1.7005300000000001</v>
       </c>
       <c r="E90">
-        <v>1.6780299999999999</v>
+        <v>1.6794100000000001</v>
       </c>
       <c r="F90">
-        <v>1.6810400000000001</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>2.5240000000000151</v>
+        <v>3.1820000000000181</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2817,23 @@
         <v>27</v>
       </c>
       <c r="B91" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C91">
-        <v>1.69523</v>
+        <v>1.70713</v>
       </c>
       <c r="D91">
-        <v>1.7181200000000001</v>
+        <v>1.7098500000000001</v>
       </c>
       <c r="E91">
-        <v>1.6928799999999999</v>
+        <v>1.6780299999999999</v>
       </c>
       <c r="F91">
-        <v>1.7092099999999999</v>
+        <v>1.6810400000000001</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>3.8210000000000077</v>
+        <v>2.5240000000000151</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2841,23 @@
         <v>27</v>
       </c>
       <c r="B92" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C92">
-        <v>1.6986300000000001</v>
+        <v>1.69523</v>
       </c>
       <c r="D92">
-        <v>1.71668</v>
+        <v>1.7181200000000001</v>
       </c>
       <c r="E92">
-        <v>1.6784699999999999</v>
+        <v>1.6928799999999999</v>
       </c>
       <c r="F92">
-        <v>1.69374</v>
+        <v>1.7092099999999999</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>6.4889999999999892</v>
+        <v>3.8210000000000077</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2865,23 @@
         <v>27</v>
       </c>
       <c r="B93" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C93">
-        <v>1.6371199999999999</v>
+        <v>1.6986300000000001</v>
       </c>
       <c r="D93">
-        <v>1.70007</v>
+        <v>1.71668</v>
       </c>
       <c r="E93">
-        <v>1.6351800000000001</v>
+        <v>1.6784699999999999</v>
       </c>
       <c r="F93">
-        <v>1.6989799999999999</v>
+        <v>1.69374</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>2.2759999999999891</v>
+        <v>6.4889999999999892</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2889,23 @@
         <v>27</v>
       </c>
       <c r="B94" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C94">
-        <v>1.6295500000000001</v>
+        <v>1.6371199999999999</v>
       </c>
       <c r="D94">
-        <v>1.6395599999999999</v>
+        <v>1.70007</v>
       </c>
       <c r="E94">
-        <v>1.6168</v>
+        <v>1.6351800000000001</v>
       </c>
       <c r="F94">
-        <v>1.6391800000000001</v>
+        <v>1.6989799999999999</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2913,23 @@
         <v>27</v>
       </c>
       <c r="B95" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C95">
-        <v>1.6270100000000001</v>
+        <v>1.6295500000000001</v>
       </c>
       <c r="D95">
-        <v>1.6377900000000001</v>
+        <v>1.6395599999999999</v>
       </c>
       <c r="E95">
-        <v>1.6166</v>
+        <v>1.6168</v>
       </c>
       <c r="F95">
-        <v>1.6260600000000001</v>
+        <v>1.6391800000000001</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.1400000000000077</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2937,23 @@
         <v>27</v>
       </c>
       <c r="B96" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C96">
-        <v>1.6231899999999999</v>
+        <v>1.6270100000000001</v>
       </c>
       <c r="D96">
-        <v>1.62754</v>
+        <v>1.6377900000000001</v>
       </c>
       <c r="E96">
-        <v>1.6161399999999999</v>
+        <v>1.6166</v>
       </c>
       <c r="F96">
-        <v>1.62242</v>
+        <v>1.6260600000000001</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>3.6590000000000122</v>
+        <v>1.1400000000000077</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2961,23 @@
         <v>27</v>
       </c>
       <c r="B97" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C97">
-        <v>1.64822</v>
+        <v>1.6231899999999999</v>
       </c>
       <c r="D97">
-        <v>1.6550400000000001</v>
+        <v>1.62754</v>
       </c>
       <c r="E97">
-        <v>1.6184499999999999</v>
+        <v>1.6161399999999999</v>
       </c>
       <c r="F97">
-        <v>1.62382</v>
+        <v>1.62242</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.7709999999999892</v>
+        <v>3.6590000000000122</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2985,23 @@
         <v>27</v>
       </c>
       <c r="B98" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C98">
-        <v>1.6447700000000001</v>
+        <v>1.64822</v>
       </c>
       <c r="D98">
-        <v>1.65665</v>
+        <v>1.6550400000000001</v>
       </c>
       <c r="E98">
-        <v>1.6389400000000001</v>
+        <v>1.6184499999999999</v>
       </c>
       <c r="F98">
-        <v>1.64859</v>
+        <v>1.62382</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>3.1560000000000032</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3009,23 @@
         <v>27</v>
       </c>
       <c r="B99" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C99">
-        <v>1.64486</v>
+        <v>1.6447700000000001</v>
       </c>
       <c r="D99">
-        <v>1.6735599999999999</v>
+        <v>1.65665</v>
       </c>
       <c r="E99">
-        <v>1.6419999999999999</v>
+        <v>1.6389400000000001</v>
       </c>
       <c r="F99">
-        <v>1.6446799999999999</v>
+        <v>1.64859</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.2440000000000015</v>
+        <v>3.1560000000000032</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3033,23 @@
         <v>27</v>
       </c>
       <c r="B100" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C100">
-        <v>1.64188</v>
+        <v>1.64486</v>
       </c>
       <c r="D100">
-        <v>1.6526700000000001</v>
+        <v>1.6735599999999999</v>
       </c>
       <c r="E100">
-        <v>1.6302300000000001</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="F100">
-        <v>1.64534</v>
+        <v>1.6446799999999999</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>5.0769999999999982</v>
+        <v>2.2440000000000015</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3057,23 @@
         <v>27</v>
       </c>
       <c r="B101" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C101">
-        <v>1.67465</v>
+        <v>1.64188</v>
       </c>
       <c r="D101">
-        <v>1.67757</v>
+        <v>1.6526700000000001</v>
       </c>
       <c r="E101">
-        <v>1.6268</v>
+        <v>1.6302300000000001</v>
       </c>
       <c r="F101">
-        <v>1.6410800000000001</v>
+        <v>1.64534</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>3.6459999999999937</v>
+        <v>5.0769999999999982</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3081,23 @@
         <v>27</v>
       </c>
       <c r="B102" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C102">
-        <v>1.6956100000000001</v>
+        <v>1.67465</v>
       </c>
       <c r="D102">
-        <v>1.69848</v>
+        <v>1.67757</v>
       </c>
       <c r="E102">
-        <v>1.6620200000000001</v>
+        <v>1.6268</v>
       </c>
       <c r="F102">
-        <v>1.67428</v>
+        <v>1.6410800000000001</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>2.7150000000000007</v>
+        <v>3.6459999999999937</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3105,23 @@
         <v>27</v>
       </c>
       <c r="B103" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C103">
-        <v>1.6946000000000001</v>
+        <v>1.6956100000000001</v>
       </c>
       <c r="D103">
-        <v>1.7121999999999999</v>
+        <v>1.69848</v>
       </c>
       <c r="E103">
-        <v>1.6850499999999999</v>
+        <v>1.6620200000000001</v>
       </c>
       <c r="F103">
-        <v>1.6946300000000001</v>
+        <v>1.67428</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>3.3630000000000049</v>
+        <v>2.7150000000000007</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3129,23 @@
         <v>27</v>
       </c>
       <c r="B104" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C104">
-        <v>1.68363</v>
+        <v>1.6946000000000001</v>
       </c>
       <c r="D104">
-        <v>1.7042200000000001</v>
+        <v>1.7121999999999999</v>
       </c>
       <c r="E104">
-        <v>1.67059</v>
+        <v>1.6850499999999999</v>
       </c>
       <c r="F104">
-        <v>1.69411</v>
+        <v>1.6946300000000001</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>2.5390000000000024</v>
+        <v>3.3630000000000049</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3153,23 @@
         <v>27</v>
       </c>
       <c r="B105" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C105">
-        <v>1.6740600000000001</v>
+        <v>1.68363</v>
       </c>
       <c r="D105">
-        <v>1.68648</v>
+        <v>1.7042200000000001</v>
       </c>
       <c r="E105">
-        <v>1.66109</v>
+        <v>1.67059</v>
       </c>
       <c r="F105">
-        <v>1.68085</v>
+        <v>1.69411</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>2.7609999999999912</v>
+        <v>2.5390000000000024</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3177,23 @@
         <v>27</v>
       </c>
       <c r="B106" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C106">
-        <v>1.69011</v>
+        <v>1.6740600000000001</v>
       </c>
       <c r="D106">
-        <v>1.69597</v>
+        <v>1.68648</v>
       </c>
       <c r="E106">
-        <v>1.6683600000000001</v>
+        <v>1.66109</v>
       </c>
       <c r="F106">
-        <v>1.67615</v>
+        <v>1.68085</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>5.6230000000000002</v>
+        <v>2.7609999999999912</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3201,23 @@
         <v>27</v>
       </c>
       <c r="B107" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C107">
-        <v>1.73119</v>
+        <v>1.69011</v>
       </c>
       <c r="D107">
-        <v>1.7332000000000001</v>
+        <v>1.69597</v>
       </c>
       <c r="E107">
-        <v>1.6769700000000001</v>
+        <v>1.6683600000000001</v>
       </c>
       <c r="F107">
-        <v>1.6916199999999999</v>
+        <v>1.67615</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>3.5199999999999898</v>
+        <v>5.6230000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3225,23 @@
         <v>27</v>
       </c>
       <c r="B108" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C108">
-        <v>1.7215199999999999</v>
+        <v>1.73119</v>
       </c>
       <c r="D108">
-        <v>1.74912</v>
+        <v>1.7332000000000001</v>
       </c>
       <c r="E108">
-        <v>1.7139200000000001</v>
+        <v>1.6769700000000001</v>
       </c>
       <c r="F108">
-        <v>1.73092</v>
+        <v>1.6916199999999999</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>3.1270000000000131</v>
+        <v>3.5199999999999898</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3249,23 @@
         <v>27</v>
       </c>
       <c r="B109" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C109">
-        <v>1.7477799999999999</v>
+        <v>1.7215199999999999</v>
       </c>
       <c r="D109">
-        <v>1.7481800000000001</v>
+        <v>1.74912</v>
       </c>
       <c r="E109">
-        <v>1.7169099999999999</v>
+        <v>1.7139200000000001</v>
       </c>
       <c r="F109">
-        <v>1.72058</v>
+        <v>1.73092</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>2.3799999999999821</v>
+        <v>3.1270000000000131</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3273,23 @@
         <v>27</v>
       </c>
       <c r="B110" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C110">
-        <v>1.74315</v>
+        <v>1.7477799999999999</v>
       </c>
       <c r="D110">
-        <v>1.7573399999999999</v>
+        <v>1.7481800000000001</v>
       </c>
       <c r="E110">
-        <v>1.7335400000000001</v>
+        <v>1.7169099999999999</v>
       </c>
       <c r="F110">
-        <v>1.74763</v>
+        <v>1.72058</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>2.9469999999999885</v>
+        <v>2.3799999999999821</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3297,23 @@
         <v>27</v>
       </c>
       <c r="B111" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C111">
-        <v>1.7516400000000001</v>
+        <v>1.74315</v>
       </c>
       <c r="D111">
-        <v>1.7650699999999999</v>
+        <v>1.7573399999999999</v>
       </c>
       <c r="E111">
-        <v>1.7356</v>
+        <v>1.7335400000000001</v>
       </c>
       <c r="F111">
-        <v>1.74343</v>
+        <v>1.74763</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>4.6710000000000029</v>
+        <v>2.9469999999999885</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3321,23 @@
         <v>27</v>
       </c>
       <c r="B112" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C112">
-        <v>1.72888</v>
+        <v>1.7516400000000001</v>
       </c>
       <c r="D112">
-        <v>1.75346</v>
+        <v>1.7650699999999999</v>
       </c>
       <c r="E112">
-        <v>1.70675</v>
+        <v>1.7356</v>
       </c>
       <c r="F112">
-        <v>1.7492099999999999</v>
+        <v>1.74343</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>4.8459999999999948</v>
+        <v>4.6710000000000029</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3345,23 @@
         <v>27</v>
       </c>
       <c r="B113" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C113">
-        <v>1.69275</v>
+        <v>1.72888</v>
       </c>
       <c r="D113">
-        <v>1.73641</v>
+        <v>1.75346</v>
       </c>
       <c r="E113">
-        <v>1.6879500000000001</v>
+        <v>1.70675</v>
       </c>
       <c r="F113">
-        <v>1.72925</v>
+        <v>1.7492099999999999</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>6.0359999999999969</v>
+        <v>4.8459999999999948</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3369,23 @@
         <v>27</v>
       </c>
       <c r="B114" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C114">
-        <v>1.6536200000000001</v>
+        <v>1.69275</v>
       </c>
       <c r="D114">
-        <v>1.71102</v>
+        <v>1.73641</v>
       </c>
       <c r="E114">
-        <v>1.65066</v>
+        <v>1.6879500000000001</v>
       </c>
       <c r="F114">
-        <v>1.69801</v>
+        <v>1.72925</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>2.4700000000000166</v>
+        <v>6.0359999999999969</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3393,23 @@
         <v>27</v>
       </c>
       <c r="B115" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C115">
-        <v>1.6501999999999999</v>
+        <v>1.6536200000000001</v>
       </c>
       <c r="D115">
-        <v>1.6722600000000001</v>
+        <v>1.71102</v>
       </c>
       <c r="E115">
-        <v>1.6475599999999999</v>
+        <v>1.65066</v>
       </c>
       <c r="F115">
-        <v>1.6530499999999999</v>
+        <v>1.69801</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>2.022999999999997</v>
+        <v>2.4700000000000166</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3417,23 @@
         <v>27</v>
       </c>
       <c r="B116" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C116">
-        <v>1.6420600000000001</v>
+        <v>1.6501999999999999</v>
       </c>
       <c r="D116">
-        <v>1.65838</v>
+        <v>1.6722600000000001</v>
       </c>
       <c r="E116">
-        <v>1.63815</v>
+        <v>1.6475599999999999</v>
       </c>
       <c r="F116">
-        <v>1.64825</v>
+        <v>1.6530499999999999</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>3.8719999999999866</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3441,23 @@
         <v>27</v>
       </c>
       <c r="B117" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C117">
-        <v>1.63645</v>
+        <v>1.6420600000000001</v>
       </c>
       <c r="D117">
-        <v>1.6567799999999999</v>
+        <v>1.65838</v>
       </c>
       <c r="E117">
-        <v>1.6180600000000001</v>
+        <v>1.63815</v>
       </c>
       <c r="F117">
-        <v>1.64228</v>
+        <v>1.64825</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>4.669000000000012</v>
+        <v>3.8719999999999866</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3465,23 @@
         <v>27</v>
       </c>
       <c r="B118" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C118">
-        <v>1.6083499999999999</v>
+        <v>1.63645</v>
       </c>
       <c r="D118">
-        <v>1.6426000000000001</v>
+        <v>1.6567799999999999</v>
       </c>
       <c r="E118">
-        <v>1.5959099999999999</v>
+        <v>1.6180600000000001</v>
       </c>
       <c r="F118">
-        <v>1.6377999999999999</v>
+        <v>1.64228</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>2.6490000000000125</v>
+        <v>4.669000000000012</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3489,23 @@
         <v>27</v>
       </c>
       <c r="B119" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C119">
-        <v>1.61178</v>
+        <v>1.6083499999999999</v>
       </c>
       <c r="D119">
-        <v>1.6168800000000001</v>
+        <v>1.6426000000000001</v>
       </c>
       <c r="E119">
-        <v>1.59039</v>
+        <v>1.5959099999999999</v>
       </c>
       <c r="F119">
-        <v>1.6084499999999999</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>2.2029999999999994</v>
+        <v>2.6490000000000125</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3513,23 @@
         <v>27</v>
       </c>
       <c r="B120" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C120">
-        <v>1.6186799999999999</v>
+        <v>1.61178</v>
       </c>
       <c r="D120">
-        <v>1.62354</v>
+        <v>1.6168800000000001</v>
       </c>
       <c r="E120">
-        <v>1.60151</v>
+        <v>1.59039</v>
       </c>
       <c r="F120">
-        <v>1.61243</v>
+        <v>1.6084499999999999</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>2.7670000000000083</v>
+        <v>2.2029999999999994</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3537,23 @@
         <v>27</v>
       </c>
       <c r="B121" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C121">
-        <v>1.6234</v>
+        <v>1.6186799999999999</v>
       </c>
       <c r="D121">
-        <v>1.62693</v>
+        <v>1.62354</v>
       </c>
       <c r="E121">
-        <v>1.5992599999999999</v>
+        <v>1.60151</v>
       </c>
       <c r="F121">
-        <v>1.619</v>
+        <v>1.61243</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.1179999999999977</v>
+        <v>2.7670000000000083</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3561,23 @@
         <v>27</v>
       </c>
       <c r="B122" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C122">
-        <v>1.61633</v>
+        <v>1.6234</v>
       </c>
       <c r="D122">
-        <v>1.6360399999999999</v>
+        <v>1.62693</v>
       </c>
       <c r="E122">
-        <v>1.61486</v>
+        <v>1.5992599999999999</v>
       </c>
       <c r="F122">
-        <v>1.62443</v>
+        <v>1.619</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.7819999999999956</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3585,23 @@
         <v>27</v>
       </c>
       <c r="B123" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C123">
-        <v>1.62425</v>
+        <v>1.61633</v>
       </c>
       <c r="D123">
-        <v>1.6400999999999999</v>
+        <v>1.6360399999999999</v>
       </c>
       <c r="E123">
-        <v>1.6122799999999999</v>
+        <v>1.61486</v>
       </c>
       <c r="F123">
-        <v>1.6190500000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.8279999999999861</v>
+        <v>2.7819999999999956</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3609,23 @@
         <v>27</v>
       </c>
       <c r="B124" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C124">
-        <v>1.62635</v>
+        <v>1.62425</v>
       </c>
       <c r="D124">
-        <v>1.6483399999999999</v>
+        <v>1.6400999999999999</v>
       </c>
       <c r="E124">
-        <v>1.6200600000000001</v>
+        <v>1.6122799999999999</v>
       </c>
       <c r="F124">
-        <v>1.6272500000000001</v>
+        <v>1.6190500000000001</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>5.1530000000000076</v>
+        <v>2.8279999999999861</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3633,23 @@
         <v>27</v>
       </c>
       <c r="B125" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C125">
-        <v>1.66448</v>
+        <v>1.62635</v>
       </c>
       <c r="D125">
-        <v>1.67405</v>
+        <v>1.6483399999999999</v>
       </c>
       <c r="E125">
-        <v>1.62252</v>
+        <v>1.6200600000000001</v>
       </c>
       <c r="F125">
-        <v>1.62538</v>
+        <v>1.6272500000000001</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>4.1300000000000114</v>
+        <v>5.1530000000000076</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3657,23 @@
         <v>27</v>
       </c>
       <c r="B126" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C126">
-        <v>1.6370899999999999</v>
+        <v>1.66448</v>
       </c>
       <c r="D126">
-        <v>1.6766700000000001</v>
+        <v>1.67405</v>
       </c>
       <c r="E126">
-        <v>1.63537</v>
+        <v>1.62252</v>
       </c>
       <c r="F126">
-        <v>1.66208</v>
+        <v>1.62538</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>4.231000000000007</v>
+        <v>4.1300000000000114</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3681,23 @@
         <v>27</v>
       </c>
       <c r="B127" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C127">
-        <v>1.60284</v>
+        <v>1.6370899999999999</v>
       </c>
       <c r="D127">
-        <v>1.6430400000000001</v>
+        <v>1.6766700000000001</v>
       </c>
       <c r="E127">
-        <v>1.60073</v>
+        <v>1.63537</v>
       </c>
       <c r="F127">
-        <v>1.6364300000000001</v>
+        <v>1.66208</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>6.1039999999999983</v>
+        <v>4.231000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3705,23 @@
         <v>27</v>
       </c>
       <c r="B128" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C128">
-        <v>1.67848</v>
+        <v>1.60284</v>
       </c>
       <c r="D128">
-        <v>1.6810799999999999</v>
+        <v>1.6430400000000001</v>
       </c>
       <c r="E128">
-        <v>1.6200399999999999</v>
+        <v>1.60073</v>
       </c>
       <c r="F128">
-        <v>1.6249800000000001</v>
+        <v>1.6364300000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>2.9879999999999907</v>
+        <v>6.1039999999999983</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3729,23 @@
         <v>27</v>
       </c>
       <c r="B129" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C129">
-        <v>1.7075499999999999</v>
+        <v>1.67848</v>
       </c>
       <c r="D129">
-        <v>1.70855</v>
+        <v>1.6810799999999999</v>
       </c>
       <c r="E129">
-        <v>1.6786700000000001</v>
+        <v>1.6200399999999999</v>
       </c>
       <c r="F129">
-        <v>1.6834800000000001</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.0340000000000025</v>
+        <v>2.9879999999999907</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3753,23 @@
         <v>27</v>
       </c>
       <c r="B130" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C130">
-        <v>1.7087000000000001</v>
+        <v>1.7075499999999999</v>
       </c>
       <c r="D130">
-        <v>1.71374</v>
+        <v>1.70855</v>
       </c>
       <c r="E130">
-        <v>1.6934</v>
+        <v>1.6786700000000001</v>
       </c>
       <c r="F130">
-        <v>1.7099500000000001</v>
+        <v>1.6834800000000001</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.7100000000000115</v>
+        <v>2.0340000000000025</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3777,23 @@
         <v>27</v>
       </c>
       <c r="B131" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C131">
-        <v>1.7129000000000001</v>
+        <v>1.7087000000000001</v>
       </c>
       <c r="D131">
-        <v>1.7155</v>
+        <v>1.71374</v>
       </c>
       <c r="E131">
-        <v>1.6983999999999999</v>
+        <v>1.6934</v>
       </c>
       <c r="F131">
-        <v>1.71231</v>
+        <v>1.7099500000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>3.3079999999999998</v>
+        <v>1.7100000000000115</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3801,23 @@
         <v>27</v>
       </c>
       <c r="B132" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C132">
-        <v>1.68824</v>
+        <v>1.7129000000000001</v>
       </c>
       <c r="D132">
-        <v>1.71414</v>
+        <v>1.7155</v>
       </c>
       <c r="E132">
-        <v>1.68106</v>
+        <v>1.6983999999999999</v>
       </c>
       <c r="F132">
-        <v>1.71018</v>
+        <v>1.71231</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>3.3079999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3825,23 @@
         <v>27</v>
       </c>
       <c r="B133" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C133">
-        <v>1.7004300000000001</v>
+        <v>1.68824</v>
       </c>
       <c r="D133">
-        <v>1.71729</v>
+        <v>1.71414</v>
       </c>
       <c r="E133">
-        <v>1.6809000000000001</v>
+        <v>1.68106</v>
       </c>
       <c r="F133">
-        <v>1.68835</v>
+        <v>1.71018</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>6.0719999999999885</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3849,23 @@
         <v>27</v>
       </c>
       <c r="B134" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C134">
-        <v>1.67248</v>
+        <v>1.7004300000000001</v>
       </c>
       <c r="D134">
-        <v>1.7154799999999999</v>
+        <v>1.71729</v>
       </c>
       <c r="E134">
-        <v>1.65476</v>
+        <v>1.6809000000000001</v>
       </c>
       <c r="F134">
-        <v>1.70705</v>
+        <v>1.68835</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>3.3259999999999845</v>
+        <v>6.0719999999999885</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3873,23 @@
         <v>27</v>
       </c>
       <c r="B135" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C135">
-        <v>1.6825000000000001</v>
+        <v>1.67248</v>
       </c>
       <c r="D135">
-        <v>1.69783</v>
+        <v>1.7154799999999999</v>
       </c>
       <c r="E135">
-        <v>1.6645700000000001</v>
+        <v>1.65476</v>
       </c>
       <c r="F135">
-        <v>1.67621</v>
+        <v>1.70705</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>4.5039999999999969</v>
+        <v>3.3259999999999845</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3897,23 @@
         <v>27</v>
       </c>
       <c r="B136" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C136">
-        <v>1.6655500000000001</v>
+        <v>1.6825000000000001</v>
       </c>
       <c r="D136">
-        <v>1.6853499999999999</v>
+        <v>1.69783</v>
       </c>
       <c r="E136">
-        <v>1.6403099999999999</v>
+        <v>1.6645700000000001</v>
       </c>
       <c r="F136">
-        <v>1.6828000000000001</v>
+        <v>1.67621</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>8.5370000000000168</v>
+        <v>4.5039999999999969</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3921,23 @@
         <v>27</v>
       </c>
       <c r="B137" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C137">
-        <v>1.62018</v>
+        <v>1.6655500000000001</v>
       </c>
       <c r="D137">
-        <v>1.6752800000000001</v>
+        <v>1.6853499999999999</v>
       </c>
       <c r="E137">
-        <v>1.5899099999999999</v>
+        <v>1.6403099999999999</v>
       </c>
       <c r="F137">
-        <v>1.6695800000000001</v>
+        <v>1.6828000000000001</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>4.8349999999999893</v>
+        <v>8.5370000000000168</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3945,23 @@
         <v>27</v>
       </c>
       <c r="B138" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C138">
-        <v>1.60361</v>
+        <v>1.62018</v>
       </c>
       <c r="D138">
-        <v>1.63798</v>
+        <v>1.6752800000000001</v>
       </c>
       <c r="E138">
-        <v>1.5896300000000001</v>
+        <v>1.5899099999999999</v>
       </c>
       <c r="F138">
-        <v>1.62978</v>
+        <v>1.6695800000000001</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>3.2340000000000035</v>
+        <v>4.8349999999999893</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3969,23 @@
         <v>27</v>
       </c>
       <c r="B139" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C139">
-        <v>1.6068199999999999</v>
+        <v>1.60361</v>
       </c>
       <c r="D139">
-        <v>1.6113299999999999</v>
+        <v>1.63798</v>
       </c>
       <c r="E139">
-        <v>1.5789899999999999</v>
+        <v>1.5896300000000001</v>
       </c>
       <c r="F139">
-        <v>1.60433</v>
+        <v>1.62978</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>2.3009999999999975</v>
+        <v>3.2340000000000035</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3993,23 @@
         <v>27</v>
       </c>
       <c r="B140" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C140">
-        <v>1.5970500000000001</v>
+        <v>1.6068199999999999</v>
       </c>
       <c r="D140">
-        <v>1.6107899999999999</v>
+        <v>1.6113299999999999</v>
       </c>
       <c r="E140">
-        <v>1.58778</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="F140">
-        <v>1.6079300000000001</v>
+        <v>1.60433</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>4.2519999999999891</v>
+        <v>2.3009999999999975</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4017,23 @@
         <v>27</v>
       </c>
       <c r="B141" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C141">
-        <v>1.63554</v>
+        <v>1.5970500000000001</v>
       </c>
       <c r="D141">
-        <v>1.6382399999999999</v>
+        <v>1.6107899999999999</v>
       </c>
       <c r="E141">
-        <v>1.59572</v>
+        <v>1.58778</v>
       </c>
       <c r="F141">
-        <v>1.6015699999999999</v>
+        <v>1.6079300000000001</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>19.363999999999983</v>
+        <v>4.2519999999999891</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4041,23 @@
         <v>27</v>
       </c>
       <c r="B142" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C142">
-        <v>1.6889099999999999</v>
+        <v>1.63554</v>
       </c>
       <c r="D142">
-        <v>1.6924699999999999</v>
+        <v>1.6382399999999999</v>
       </c>
       <c r="E142">
-        <v>1.4988300000000001</v>
+        <v>1.59572</v>
       </c>
       <c r="F142">
-        <v>1.63985</v>
+        <v>1.6015699999999999</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.0089999999999941</v>
+        <v>19.363999999999983</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4065,23 @@
         <v>27</v>
       </c>
       <c r="B143" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C143">
-        <v>1.7018599999999999</v>
+        <v>1.6889099999999999</v>
       </c>
       <c r="D143">
-        <v>1.7071799999999999</v>
+        <v>1.6924699999999999</v>
       </c>
       <c r="E143">
-        <v>1.68709</v>
+        <v>1.4988300000000001</v>
       </c>
       <c r="F143">
-        <v>1.6942299999999999</v>
+        <v>1.63985</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>4.4009999999999883</v>
+        <v>2.0089999999999941</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4089,23 @@
         <v>27</v>
       </c>
       <c r="B144" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C144">
-        <v>1.7372000000000001</v>
+        <v>1.7018599999999999</v>
       </c>
       <c r="D144">
-        <v>1.73827</v>
+        <v>1.7071799999999999</v>
       </c>
       <c r="E144">
-        <v>1.6942600000000001</v>
+        <v>1.68709</v>
       </c>
       <c r="F144">
-        <v>1.7012499999999999</v>
+        <v>1.6942299999999999</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>4.4789999999999885</v>
+        <v>4.4009999999999883</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4113,23 @@
         <v>27</v>
       </c>
       <c r="B145" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C145">
-        <v>1.75871</v>
+        <v>1.7372000000000001</v>
       </c>
       <c r="D145">
-        <v>1.77999</v>
+        <v>1.73827</v>
       </c>
       <c r="E145">
-        <v>1.7352000000000001</v>
+        <v>1.6942600000000001</v>
       </c>
       <c r="F145">
-        <v>1.7358100000000001</v>
+        <v>1.7012499999999999</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>3.4899999999999931</v>
+        <v>4.4789999999999885</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4137,23 @@
         <v>27</v>
       </c>
       <c r="B146" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C146">
-        <v>1.7556499999999999</v>
+        <v>1.75871</v>
       </c>
       <c r="D146">
-        <v>1.7614799999999999</v>
+        <v>1.77999</v>
       </c>
       <c r="E146">
-        <v>1.72658</v>
+        <v>1.7352000000000001</v>
       </c>
       <c r="F146">
-        <v>1.7608999999999999</v>
+        <v>1.7358100000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>4.1059999999999874</v>
+        <v>3.4899999999999931</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4161,23 @@
         <v>27</v>
       </c>
       <c r="B147" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C147">
-        <v>1.7360800000000001</v>
+        <v>1.7556499999999999</v>
       </c>
       <c r="D147">
-        <v>1.76718</v>
+        <v>1.7614799999999999</v>
       </c>
       <c r="E147">
-        <v>1.7261200000000001</v>
+        <v>1.72658</v>
       </c>
       <c r="F147">
-        <v>1.7563500000000001</v>
+        <v>1.7608999999999999</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.1059999999999874</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4185,23 @@
         <v>27</v>
       </c>
       <c r="B148" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C148">
-        <v>1.7168600000000001</v>
+        <v>1.7360800000000001</v>
       </c>
       <c r="D148">
-        <v>1.7416499999999999</v>
+        <v>1.76718</v>
       </c>
       <c r="E148">
-        <v>1.71373</v>
+        <v>1.7261200000000001</v>
       </c>
       <c r="F148">
-        <v>1.7372300000000001</v>
+        <v>1.7563500000000001</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>5.3949999999999942</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4209,23 @@
         <v>27</v>
       </c>
       <c r="B149" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C149">
-        <v>1.68699</v>
+        <v>1.7168600000000001</v>
       </c>
       <c r="D149">
-        <v>1.7259199999999999</v>
+        <v>1.7416499999999999</v>
       </c>
       <c r="E149">
-        <v>1.67197</v>
+        <v>1.71373</v>
       </c>
       <c r="F149">
-        <v>1.7153799999999999</v>
+        <v>1.7372300000000001</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>4.3619999999999992</v>
+        <v>5.3949999999999942</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4233,23 @@
         <v>27</v>
       </c>
       <c r="B150" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C150">
-        <v>1.71953</v>
+        <v>1.68699</v>
       </c>
       <c r="D150">
-        <v>1.72228</v>
+        <v>1.7259199999999999</v>
       </c>
       <c r="E150">
-        <v>1.67866</v>
+        <v>1.67197</v>
       </c>
       <c r="F150">
-        <v>1.6876500000000001</v>
+        <v>1.7153799999999999</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>5.4929999999999923</v>
+        <v>4.3619999999999992</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4257,23 @@
         <v>27</v>
       </c>
       <c r="B151" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C151">
-        <v>1.7424999999999999</v>
+        <v>1.71953</v>
       </c>
       <c r="D151">
-        <v>1.7617499999999999</v>
+        <v>1.72228</v>
       </c>
       <c r="E151">
-        <v>1.70682</v>
+        <v>1.67866</v>
       </c>
       <c r="F151">
-        <v>1.71513</v>
+        <v>1.6876500000000001</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>3.2189999999999941</v>
+        <v>5.4929999999999923</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4281,23 @@
         <v>27</v>
       </c>
       <c r="B152" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C152">
-        <v>1.7583200000000001</v>
+        <v>1.7424999999999999</v>
       </c>
       <c r="D152">
-        <v>1.7679199999999999</v>
+        <v>1.7617499999999999</v>
       </c>
       <c r="E152">
-        <v>1.73573</v>
+        <v>1.70682</v>
       </c>
       <c r="F152">
-        <v>1.7396199999999999</v>
+        <v>1.71513</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>4.0680000000000049</v>
+        <v>3.2189999999999941</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4305,23 @@
         <v>27</v>
       </c>
       <c r="B153" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C153">
-        <v>1.7383500000000001</v>
+        <v>1.7583200000000001</v>
       </c>
       <c r="D153">
-        <v>1.77871</v>
+        <v>1.7679199999999999</v>
       </c>
       <c r="E153">
-        <v>1.73803</v>
+        <v>1.73573</v>
       </c>
       <c r="F153">
-        <v>1.7556799999999999</v>
+        <v>1.7396199999999999</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>5.9120000000000061</v>
+        <v>4.0680000000000049</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4329,23 @@
         <v>27</v>
       </c>
       <c r="B154" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C154">
-        <v>1.7117199999999999</v>
+        <v>1.7383500000000001</v>
       </c>
       <c r="D154">
-        <v>1.76353</v>
+        <v>1.77871</v>
       </c>
       <c r="E154">
-        <v>1.70441</v>
+        <v>1.73803</v>
       </c>
       <c r="F154">
-        <v>1.73803</v>
+        <v>1.7556799999999999</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>7.0259999999999989</v>
+        <v>5.9120000000000061</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4353,23 @@
         <v>27</v>
       </c>
       <c r="B155" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C155">
-        <v>1.78016</v>
+        <v>1.7117199999999999</v>
       </c>
       <c r="D155">
-        <v>1.78023</v>
+        <v>1.76353</v>
       </c>
       <c r="E155">
-        <v>1.70997</v>
+        <v>1.70441</v>
       </c>
       <c r="F155">
-        <v>1.71139</v>
+        <v>1.73803</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>4.9339999999999939</v>
+        <v>7.0259999999999989</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4377,23 @@
         <v>27</v>
       </c>
       <c r="B156" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C156">
-        <v>1.80535</v>
+        <v>1.78016</v>
       </c>
       <c r="D156">
-        <v>1.8191299999999999</v>
+        <v>1.78023</v>
       </c>
       <c r="E156">
-        <v>1.76979</v>
+        <v>1.70997</v>
       </c>
       <c r="F156">
-        <v>1.7715099999999999</v>
+        <v>1.71139</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>17.331999999999994</v>
+        <v>4.9339999999999939</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4401,23 @@
         <v>27</v>
       </c>
       <c r="B157" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C157">
-        <v>1.94547</v>
+        <v>1.80535</v>
       </c>
       <c r="D157">
-        <v>1.9737199999999999</v>
+        <v>1.8191299999999999</v>
       </c>
       <c r="E157">
-        <v>1.8004</v>
+        <v>1.76979</v>
       </c>
       <c r="F157">
-        <v>1.83073</v>
+        <v>1.7715099999999999</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>4.0959999999999885</v>
+        <v>17.331999999999994</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4425,23 @@
         <v>27</v>
       </c>
       <c r="B158" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C158">
-        <v>1.9313499999999999</v>
+        <v>1.94547</v>
       </c>
       <c r="D158">
-        <v>1.9445699999999999</v>
+        <v>1.9737199999999999</v>
       </c>
       <c r="E158">
-        <v>1.90361</v>
+        <v>1.8004</v>
       </c>
       <c r="F158">
-        <v>1.94198</v>
+        <v>1.83073</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>6.01799999999999</v>
+        <v>4.0959999999999885</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4449,23 @@
         <v>27</v>
       </c>
       <c r="B159" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C159">
-        <v>1.96573</v>
+        <v>1.9313499999999999</v>
       </c>
       <c r="D159">
-        <v>1.9836499999999999</v>
+        <v>1.9445699999999999</v>
       </c>
       <c r="E159">
-        <v>1.92347</v>
+        <v>1.90361</v>
       </c>
       <c r="F159">
-        <v>1.9342600000000001</v>
+        <v>1.94198</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>7.3670000000000124</v>
+        <v>6.01799999999999</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4473,23 @@
         <v>27</v>
       </c>
       <c r="B160" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C160">
-        <v>2.03443</v>
+        <v>1.96573</v>
       </c>
       <c r="D160">
-        <v>2.0437400000000001</v>
+        <v>1.9836499999999999</v>
       </c>
       <c r="E160">
-        <v>1.97007</v>
+        <v>1.92347</v>
       </c>
       <c r="F160">
-        <v>1.97027</v>
+        <v>1.9342600000000001</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>5.2340000000000053</v>
+        <v>7.3670000000000124</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4497,23 @@
         <v>27</v>
       </c>
       <c r="B161" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C161">
-        <v>2.0055800000000001</v>
+        <v>2.03443</v>
       </c>
       <c r="D161">
-        <v>2.0524499999999999</v>
+        <v>2.0437400000000001</v>
       </c>
       <c r="E161">
-        <v>2.0001099999999998</v>
+        <v>1.97007</v>
       </c>
       <c r="F161">
-        <v>2.03268</v>
+        <v>1.97027</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>6.9320000000000048</v>
+        <v>5.2340000000000053</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4521,23 @@
         <v>27</v>
       </c>
       <c r="B162" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C162">
-        <v>1.9771700000000001</v>
+        <v>2.0055800000000001</v>
       </c>
       <c r="D162">
-        <v>2.03525</v>
+        <v>2.0524499999999999</v>
       </c>
       <c r="E162">
-        <v>1.96593</v>
+        <v>2.0001099999999998</v>
       </c>
       <c r="F162">
-        <v>2.0067599999999999</v>
+        <v>2.03268</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>2.737999999999996</v>
+        <v>6.9320000000000048</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4545,23 @@
         <v>27</v>
       </c>
       <c r="B163" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C163">
-        <v>1.9578199999999999</v>
+        <v>1.9771700000000001</v>
       </c>
       <c r="D163">
-        <v>1.9803599999999999</v>
+        <v>2.03525</v>
       </c>
       <c r="E163">
-        <v>1.9529799999999999</v>
+        <v>1.96593</v>
       </c>
       <c r="F163">
-        <v>1.97628</v>
+        <v>2.0067599999999999</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>7.0680000000000076</v>
+        <v>2.737999999999996</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4569,23 @@
         <v>27</v>
       </c>
       <c r="B164" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C164">
-        <v>1.91726</v>
+        <v>1.9578199999999999</v>
       </c>
       <c r="D164">
-        <v>1.97265</v>
+        <v>1.9803599999999999</v>
       </c>
       <c r="E164">
-        <v>1.9019699999999999</v>
+        <v>1.9529799999999999</v>
       </c>
       <c r="F164">
-        <v>1.9577</v>
+        <v>1.97628</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>5.6849999999999845</v>
+        <v>7.0680000000000076</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4593,23 @@
         <v>27</v>
       </c>
       <c r="B165" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C165">
-        <v>1.87521</v>
+        <v>1.91726</v>
       </c>
       <c r="D165">
-        <v>1.9245699999999999</v>
+        <v>1.97265</v>
       </c>
       <c r="E165">
-        <v>1.86772</v>
+        <v>1.9019699999999999</v>
       </c>
       <c r="F165">
-        <v>1.9204000000000001</v>
+        <v>1.9577</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>4.3570000000000109</v>
+        <v>5.6849999999999845</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4617,23 @@
         <v>27</v>
       </c>
       <c r="B166" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C166">
-        <v>1.8510500000000001</v>
+        <v>1.87521</v>
       </c>
       <c r="D166">
-        <v>1.8708</v>
+        <v>1.9245699999999999</v>
       </c>
       <c r="E166">
-        <v>1.8272299999999999</v>
+        <v>1.86772</v>
       </c>
       <c r="F166">
-        <v>1.87035</v>
+        <v>1.9204000000000001</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>5.4980000000000029</v>
+        <v>4.3570000000000109</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4641,23 @@
         <v>27</v>
       </c>
       <c r="B167" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C167">
-        <v>1.8705799999999999</v>
+        <v>1.8510500000000001</v>
       </c>
       <c r="D167">
-        <v>1.8855299999999999</v>
+        <v>1.8708</v>
       </c>
       <c r="E167">
-        <v>1.8305499999999999</v>
+        <v>1.8272299999999999</v>
       </c>
       <c r="F167">
-        <v>1.84005</v>
+        <v>1.87035</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>3.8059999999999983</v>
+        <v>5.4980000000000029</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4665,23 @@
         <v>27</v>
       </c>
       <c r="B168" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C168">
-        <v>1.8517399999999999</v>
+        <v>1.8705799999999999</v>
       </c>
       <c r="D168">
-        <v>1.8889499999999999</v>
+        <v>1.8855299999999999</v>
       </c>
       <c r="E168">
-        <v>1.8508899999999999</v>
+        <v>1.8305499999999999</v>
       </c>
       <c r="F168">
-        <v>1.8709</v>
+        <v>1.84005</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>5.1470000000000127</v>
+        <v>3.8059999999999983</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4689,23 @@
         <v>27</v>
       </c>
       <c r="B169" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C169">
-        <v>1.8815500000000001</v>
+        <v>1.8517399999999999</v>
       </c>
       <c r="D169">
-        <v>1.9002600000000001</v>
+        <v>1.8889499999999999</v>
       </c>
       <c r="E169">
-        <v>1.8487899999999999</v>
+        <v>1.8508899999999999</v>
       </c>
       <c r="F169">
-        <v>1.8521000000000001</v>
+        <v>1.8709</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>4.9670000000000103</v>
+        <v>5.1470000000000127</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4713,23 @@
         <v>27</v>
       </c>
       <c r="B170" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C170">
-        <v>1.9028799999999999</v>
+        <v>1.8815500000000001</v>
       </c>
       <c r="D170">
-        <v>1.9087000000000001</v>
+        <v>1.9002600000000001</v>
       </c>
       <c r="E170">
-        <v>1.85903</v>
+        <v>1.8487899999999999</v>
       </c>
       <c r="F170">
-        <v>1.88409</v>
+        <v>1.8521000000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>4.5259999999999856</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4737,23 @@
         <v>27</v>
       </c>
       <c r="B171" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C171">
-        <v>1.90371</v>
+        <v>1.9028799999999999</v>
       </c>
       <c r="D171">
-        <v>1.9106399999999999</v>
+        <v>1.9087000000000001</v>
       </c>
       <c r="E171">
-        <v>1.86538</v>
+        <v>1.85903</v>
       </c>
       <c r="F171">
-        <v>1.9040999999999999</v>
+        <v>1.88409</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>3.6270000000000024</v>
+        <v>4.5259999999999856</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4761,23 @@
         <v>27</v>
       </c>
       <c r="B172" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C172">
-        <v>1.91988</v>
+        <v>1.90371</v>
       </c>
       <c r="D172">
-        <v>1.92469</v>
+        <v>1.9106399999999999</v>
       </c>
       <c r="E172">
-        <v>1.88842</v>
+        <v>1.86538</v>
       </c>
       <c r="F172">
-        <v>1.9031499999999999</v>
+        <v>1.9040999999999999</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>5.4769999999999985</v>
+        <v>3.6270000000000024</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4785,23 @@
         <v>27</v>
       </c>
       <c r="B173" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C173">
-        <v>1.9454199999999999</v>
+        <v>1.91988</v>
       </c>
       <c r="D173">
-        <v>1.9602999999999999</v>
+        <v>1.92469</v>
       </c>
       <c r="E173">
-        <v>1.9055299999999999</v>
+        <v>1.88842</v>
       </c>
       <c r="F173">
-        <v>1.9137299999999999</v>
+        <v>1.9031499999999999</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>7.7090000000000103</v>
+        <v>5.4769999999999985</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4809,23 @@
         <v>27</v>
       </c>
       <c r="B174" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C174">
-        <v>1.9923999999999999</v>
+        <v>1.9454199999999999</v>
       </c>
       <c r="D174">
-        <v>2.0033300000000001</v>
+        <v>1.9602999999999999</v>
       </c>
       <c r="E174">
-        <v>1.92624</v>
+        <v>1.9055299999999999</v>
       </c>
       <c r="F174">
-        <v>1.9455</v>
+        <v>1.9137299999999999</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>5.3680000000000172</v>
+        <v>7.7090000000000103</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4833,23 @@
         <v>27</v>
       </c>
       <c r="B175" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C175">
-        <v>2.0388299999999999</v>
+        <v>1.9923999999999999</v>
       </c>
       <c r="D175">
-        <v>2.0419800000000001</v>
+        <v>2.0033300000000001</v>
       </c>
       <c r="E175">
-        <v>1.9883</v>
+        <v>1.92624</v>
       </c>
       <c r="F175">
-        <v>2.0116000000000001</v>
+        <v>1.9455</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>3.8689999999999891</v>
+        <v>5.3680000000000172</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4857,23 @@
         <v>27</v>
       </c>
       <c r="B176" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C176">
-        <v>2.04684</v>
+        <v>2.0388299999999999</v>
       </c>
       <c r="D176">
-        <v>2.0662799999999999</v>
+        <v>2.0419800000000001</v>
       </c>
       <c r="E176">
-        <v>2.02759</v>
+        <v>1.9883</v>
       </c>
       <c r="F176">
-        <v>2.04088</v>
+        <v>2.0116000000000001</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>4.6949999999999825</v>
+        <v>3.8689999999999891</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4881,23 @@
         <v>27</v>
       </c>
       <c r="B177" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C177">
-        <v>2.0108799999999998</v>
+        <v>2.04684</v>
       </c>
       <c r="D177">
-        <v>2.0567799999999998</v>
+        <v>2.0662799999999999</v>
       </c>
       <c r="E177">
-        <v>2.00983</v>
+        <v>2.02759</v>
       </c>
       <c r="F177">
-        <v>2.0497299999999998</v>
+        <v>2.04088</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>5.3620000000000001</v>
+        <v>4.6949999999999825</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4905,23 @@
         <v>27</v>
       </c>
       <c r="B178" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C178">
-        <v>2.0353699999999999</v>
+        <v>2.0108799999999998</v>
       </c>
       <c r="D178">
-        <v>2.0532300000000001</v>
+        <v>2.0567799999999998</v>
       </c>
       <c r="E178">
-        <v>1.9996100000000001</v>
+        <v>2.00983</v>
       </c>
       <c r="F178">
-        <v>2.0122800000000001</v>
+        <v>2.0497299999999998</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>6.1029999999999696</v>
+        <v>5.3620000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4929,23 @@
         <v>27</v>
       </c>
       <c r="B179" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C179">
-        <v>2.0832799999999998</v>
+        <v>2.0353699999999999</v>
       </c>
       <c r="D179">
-        <v>2.0832799999999998</v>
+        <v>2.0532300000000001</v>
       </c>
       <c r="E179">
-        <v>2.0222500000000001</v>
+        <v>1.9996100000000001</v>
       </c>
       <c r="F179">
-        <v>2.0359799999999999</v>
+        <v>2.0122800000000001</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>4.980999999999991</v>
+        <v>6.1029999999999696</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4953,23 @@
         <v>27</v>
       </c>
       <c r="B180" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C180">
-        <v>2.08291</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="D180">
-        <v>2.0976900000000001</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="E180">
-        <v>2.0478800000000001</v>
+        <v>2.0222500000000001</v>
       </c>
       <c r="F180">
-        <v>2.0749</v>
+        <v>2.0359799999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>7.2830000000000172</v>
+        <v>4.980999999999991</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4977,23 @@
         <v>27</v>
       </c>
       <c r="B181" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C181">
-        <v>2.02075</v>
+        <v>2.08291</v>
       </c>
       <c r="D181">
-        <v>2.0905800000000001</v>
+        <v>2.0976900000000001</v>
       </c>
       <c r="E181">
-        <v>2.0177499999999999</v>
+        <v>2.0478800000000001</v>
       </c>
       <c r="F181">
-        <v>2.0846499999999999</v>
+        <v>2.0749</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>3.9410000000000167</v>
+        <v>7.2830000000000172</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5001,23 @@
         <v>27</v>
       </c>
       <c r="B182" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C182">
-        <v>2.0453800000000002</v>
+        <v>2.02075</v>
       </c>
       <c r="D182">
-        <v>2.0565600000000002</v>
+        <v>2.0905800000000001</v>
       </c>
       <c r="E182">
-        <v>2.01715</v>
+        <v>2.0177499999999999</v>
       </c>
       <c r="F182">
-        <v>2.0242499999999999</v>
+        <v>2.0846499999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>3.9959999999999773</v>
+        <v>3.9410000000000167</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5025,23 @@
         <v>27</v>
       </c>
       <c r="B183" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C183">
-        <v>2.07795</v>
+        <v>2.0453800000000002</v>
       </c>
       <c r="D183">
-        <v>2.0840999999999998</v>
+        <v>2.0565600000000002</v>
       </c>
       <c r="E183">
-        <v>2.0441400000000001</v>
+        <v>2.01715</v>
       </c>
       <c r="F183">
-        <v>2.0489099999999998</v>
+        <v>2.0242499999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>5.1400000000000112</v>
+        <v>3.9959999999999773</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5049,23 @@
         <v>27</v>
       </c>
       <c r="B184" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C184">
-        <v>2.11374</v>
+        <v>2.07795</v>
       </c>
       <c r="D184">
-        <v>2.1216900000000001</v>
+        <v>2.0840999999999998</v>
       </c>
       <c r="E184">
-        <v>2.07029</v>
+        <v>2.0441400000000001</v>
       </c>
       <c r="F184">
-        <v>2.0785999999999998</v>
+        <v>2.0489099999999998</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>6.2519999999999687</v>
+        <v>5.1400000000000112</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5073,23 @@
         <v>27</v>
       </c>
       <c r="B185" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C185">
-        <v>2.0563600000000002</v>
+        <v>2.11374</v>
       </c>
       <c r="D185">
-        <v>2.1188799999999999</v>
+        <v>2.1216900000000001</v>
       </c>
       <c r="E185">
-        <v>2.0563600000000002</v>
+        <v>2.07029</v>
       </c>
       <c r="F185">
-        <v>2.1173000000000002</v>
+        <v>2.0785999999999998</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>6.1900000000000066</v>
+        <v>6.2519999999999687</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5097,23 @@
         <v>27</v>
       </c>
       <c r="B186" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C186">
-        <v>2.08996</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="D186">
-        <v>2.09599</v>
+        <v>2.1188799999999999</v>
       </c>
       <c r="E186">
-        <v>2.03409</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="F186">
-        <v>2.0584500000000001</v>
+        <v>2.1173000000000002</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>4.4019999999999726</v>
+        <v>6.1900000000000066</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5121,23 @@
         <v>27</v>
       </c>
       <c r="B187" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C187">
-        <v>2.09918</v>
+        <v>2.08996</v>
       </c>
       <c r="D187">
-        <v>2.1170599999999999</v>
+        <v>2.09599</v>
       </c>
       <c r="E187">
-        <v>2.0730400000000002</v>
+        <v>2.03409</v>
       </c>
       <c r="F187">
-        <v>2.09</v>
+        <v>2.0584500000000001</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>5.4419999999999913</v>
+        <v>4.4019999999999726</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5145,23 @@
         <v>27</v>
       </c>
       <c r="B188" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C188">
-        <v>2.13768</v>
+        <v>2.09918</v>
       </c>
       <c r="D188">
-        <v>2.1513499999999999</v>
+        <v>2.1170599999999999</v>
       </c>
       <c r="E188">
-        <v>2.09693</v>
+        <v>2.0730400000000002</v>
       </c>
       <c r="F188">
-        <v>2.09918</v>
+        <v>2.09</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>3.3100000000000129</v>
+        <v>5.4419999999999913</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5169,23 @@
         <v>27</v>
       </c>
       <c r="B189" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C189">
-        <v>2.1417000000000002</v>
+        <v>2.13768</v>
       </c>
       <c r="D189">
-        <v>2.1571500000000001</v>
+        <v>2.1513499999999999</v>
       </c>
       <c r="E189">
-        <v>2.12405</v>
+        <v>2.09693</v>
       </c>
       <c r="F189">
-        <v>2.1373000000000002</v>
+        <v>2.09918</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>5.8140000000000303</v>
+        <v>3.3100000000000129</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5193,23 @@
         <v>27</v>
       </c>
       <c r="B190" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C190">
-        <v>2.1713800000000001</v>
+        <v>2.1417000000000002</v>
       </c>
       <c r="D190">
-        <v>2.1713800000000001</v>
+        <v>2.1571500000000001</v>
       </c>
       <c r="E190">
-        <v>2.1132399999999998</v>
+        <v>2.12405</v>
       </c>
       <c r="F190">
-        <v>2.1365500000000002</v>
+        <v>2.1373000000000002</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>5.9060000000000112</v>
+        <v>5.8140000000000303</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5217,23 @@
         <v>27</v>
       </c>
       <c r="B191" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C191">
-        <v>2.1217800000000002</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="D191">
-        <v>2.1690800000000001</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="E191">
-        <v>2.11002</v>
+        <v>2.1132399999999998</v>
       </c>
       <c r="F191">
-        <v>2.1624300000000001</v>
+        <v>2.1365500000000002</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>3.907000000000016</v>
+        <v>5.9060000000000112</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5241,23 @@
         <v>27</v>
       </c>
       <c r="B192" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C192">
-        <v>2.12459</v>
+        <v>2.1217800000000002</v>
       </c>
       <c r="D192">
-        <v>2.1485500000000002</v>
+        <v>2.1690800000000001</v>
       </c>
       <c r="E192">
-        <v>2.10948</v>
+        <v>2.11002</v>
       </c>
       <c r="F192">
-        <v>2.1212399999999998</v>
+        <v>2.1624300000000001</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>5.168000000000017</v>
+        <v>3.907000000000016</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5265,23 @@
         <v>27</v>
       </c>
       <c r="B193" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C193">
-        <v>2.0911</v>
+        <v>2.12459</v>
       </c>
       <c r="D193">
-        <v>2.13063</v>
+        <v>2.1485500000000002</v>
       </c>
       <c r="E193">
-        <v>2.0789499999999999</v>
+        <v>2.10948</v>
       </c>
       <c r="F193">
-        <v>2.1221299999999998</v>
+        <v>2.1212399999999998</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>7.1470000000000145</v>
+        <v>5.168000000000017</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5289,23 @@
         <v>27</v>
       </c>
       <c r="B194" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C194">
-        <v>2.1492599999999999</v>
+        <v>2.0911</v>
       </c>
       <c r="D194">
-        <v>2.1570800000000001</v>
+        <v>2.13063</v>
       </c>
       <c r="E194">
-        <v>2.08561</v>
+        <v>2.0789499999999999</v>
       </c>
       <c r="F194">
-        <v>2.08928</v>
+        <v>2.1221299999999998</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>4.8669999999999991</v>
+        <v>7.1470000000000145</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5313,23 @@
         <v>27</v>
       </c>
       <c r="B195" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C195">
-        <v>2.1646899999999998</v>
+        <v>2.1492599999999999</v>
       </c>
       <c r="D195">
-        <v>2.1862699999999999</v>
+        <v>2.1570800000000001</v>
       </c>
       <c r="E195">
-        <v>2.1375999999999999</v>
+        <v>2.08561</v>
       </c>
       <c r="F195">
-        <v>2.1524999999999999</v>
+        <v>2.08928</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>4.5319999999999805</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5337,23 @@
         <v>27</v>
       </c>
       <c r="B196" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C196">
-        <v>2.1593399999999998</v>
+        <v>2.1646899999999998</v>
       </c>
       <c r="D196">
-        <v>2.2008299999999998</v>
+        <v>2.1862699999999999</v>
       </c>
       <c r="E196">
-        <v>2.15551</v>
+        <v>2.1375999999999999</v>
       </c>
       <c r="F196">
-        <v>2.1633800000000001</v>
+        <v>2.1524999999999999</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>5.1610000000000156</v>
+        <v>4.5319999999999805</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5361,23 @@
         <v>27</v>
       </c>
       <c r="B197" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C197">
-        <v>2.1772</v>
+        <v>2.1593399999999998</v>
       </c>
       <c r="D197">
-        <v>2.1869800000000001</v>
+        <v>2.2008299999999998</v>
       </c>
       <c r="E197">
-        <v>2.13537</v>
+        <v>2.15551</v>
       </c>
       <c r="F197">
-        <v>2.1593900000000001</v>
+        <v>2.1633800000000001</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>4.3260000000000076</v>
+        <v>5.1610000000000156</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5385,23 @@
         <v>27</v>
       </c>
       <c r="B198" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C198">
-        <v>2.1942599999999999</v>
+        <v>2.1772</v>
       </c>
       <c r="D198">
-        <v>2.21075</v>
+        <v>2.1869800000000001</v>
       </c>
       <c r="E198">
-        <v>2.1674899999999999</v>
+        <v>2.13537</v>
       </c>
       <c r="F198">
-        <v>2.1763499999999998</v>
+        <v>2.1593900000000001</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>5.08099999999998</v>
+        <v>4.3260000000000076</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5409,23 @@
         <v>27</v>
       </c>
       <c r="B199" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C199">
-        <v>2.1503000000000001</v>
+        <v>2.1942599999999999</v>
       </c>
       <c r="D199">
-        <v>2.2005499999999998</v>
+        <v>2.21075</v>
       </c>
       <c r="E199">
-        <v>2.14974</v>
+        <v>2.1674899999999999</v>
       </c>
       <c r="F199">
-        <v>2.19435</v>
+        <v>2.1763499999999998</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>9.9700000000000344</v>
+        <v>5.08099999999998</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,22 +5433,23 @@
         <v>27</v>
       </c>
       <c r="B200" s="8">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C200">
-        <v>2.14723</v>
+        <v>2.1503000000000001</v>
       </c>
       <c r="D200">
-        <v>2.2395900000000002</v>
+        <v>2.2005499999999998</v>
       </c>
       <c r="E200">
-        <v>2.1398899999999998</v>
+        <v>2.14974</v>
       </c>
       <c r="F200">
-        <v>2.1482000000000001</v>
+        <v>2.19435</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/27_GBPAUD.xlsx
+++ b/volatility/src/xls/27_GBPAUD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="13400" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>74.599999999999994</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,32 +554,32 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>3.2220000000000026</v>
+        <v>3.2815000000000039</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>20802</v>
+        <v>24122</v>
       </c>
       <c r="E6" s="5">
-        <v>183.8</v>
+        <v>180.5</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.849</v>
+        <v>1.8159999999999998</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.881</v>
+        <v>1.8489999999999998</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.8169999999999999</v>
+        <v>1.7829999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
       <c r="B8" s="1">
         <f>ROUND(B6,1)</f>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.8270000000000002</v>
+        <v>1.794</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.7950000000000002</v>
+        <v>1.7610000000000001</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.8590000000000002</v>
+        <v>1.827</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,13 +620,11 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -669,11 +667,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>2.0279999999999854</v>
+        <v>3.2950000000000035</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>3.2220000000000026</v>
+        <v>3.2815000000000039</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -681,23 +679,23 @@
         <v>27</v>
       </c>
       <c r="B2" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C2">
-        <v>1.83114</v>
+        <v>1.8371299999999999</v>
       </c>
       <c r="D2">
-        <v>1.8421099999999999</v>
+        <v>1.83849</v>
       </c>
       <c r="E2">
-        <v>1.8218300000000001</v>
+        <v>1.8055399999999999</v>
       </c>
       <c r="F2">
-        <v>1.8386100000000001</v>
+        <v>1.80785</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>2.1109999999999962</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -705,23 +703,23 @@
         <v>27</v>
       </c>
       <c r="B3" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C3">
-        <v>1.8177300000000001</v>
+        <v>1.83114</v>
       </c>
       <c r="D3">
-        <v>1.8385400000000001</v>
+        <v>1.8421099999999999</v>
       </c>
       <c r="E3">
-        <v>1.8174300000000001</v>
+        <v>1.8218300000000001</v>
       </c>
       <c r="F3">
-        <v>1.83135</v>
+        <v>1.8386100000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.5090000000000048</v>
+        <v>2.1109999999999962</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -729,23 +727,23 @@
         <v>27</v>
       </c>
       <c r="B4" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C4">
-        <v>1.8221499999999999</v>
+        <v>1.8177300000000001</v>
       </c>
       <c r="D4">
-        <v>1.8268200000000001</v>
+        <v>1.8385400000000001</v>
       </c>
       <c r="E4">
-        <v>1.8117300000000001</v>
+        <v>1.8174300000000001</v>
       </c>
       <c r="F4">
-        <v>1.81999</v>
+        <v>1.83135</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>2.1460000000000035</v>
+        <v>1.5090000000000048</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -753,23 +751,23 @@
         <v>27</v>
       </c>
       <c r="B5" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C5">
-        <v>1.8355600000000001</v>
+        <v>1.8221499999999999</v>
       </c>
       <c r="D5">
-        <v>1.83839</v>
+        <v>1.8268200000000001</v>
       </c>
       <c r="E5">
-        <v>1.8169299999999999</v>
+        <v>1.8117300000000001</v>
       </c>
       <c r="F5">
-        <v>1.8211299999999999</v>
+        <v>1.81999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>3.176000000000001</v>
+        <v>2.1460000000000035</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -777,23 +775,23 @@
         <v>27</v>
       </c>
       <c r="B6" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C6">
-        <v>1.8448199999999999</v>
+        <v>1.8355600000000001</v>
       </c>
       <c r="D6">
-        <v>1.8615999999999999</v>
+        <v>1.83839</v>
       </c>
       <c r="E6">
-        <v>1.8298399999999999</v>
+        <v>1.8169299999999999</v>
       </c>
       <c r="F6">
-        <v>1.83483</v>
+        <v>1.8211299999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.1179999999999977</v>
+        <v>3.176000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -801,23 +799,23 @@
         <v>27</v>
       </c>
       <c r="B7" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C7">
-        <v>1.8576900000000001</v>
+        <v>1.8448199999999999</v>
       </c>
       <c r="D7">
-        <v>1.87155</v>
+        <v>1.8615999999999999</v>
       </c>
       <c r="E7">
-        <v>1.8503700000000001</v>
+        <v>1.8298399999999999</v>
       </c>
       <c r="F7">
-        <v>1.85223</v>
+        <v>1.83483</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>3.4929999999999906</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -825,23 +823,23 @@
         <v>27</v>
       </c>
       <c r="B8" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C8">
-        <v>1.88351</v>
+        <v>1.8576900000000001</v>
       </c>
       <c r="D8">
-        <v>1.88805</v>
+        <v>1.87155</v>
       </c>
       <c r="E8">
-        <v>1.8531200000000001</v>
+        <v>1.8503700000000001</v>
       </c>
       <c r="F8">
-        <v>1.8575299999999999</v>
+        <v>1.85223</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>4.6859999999999902</v>
+        <v>3.4929999999999906</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -849,23 +847,23 @@
         <v>27</v>
       </c>
       <c r="B9" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C9">
-        <v>1.8343700000000001</v>
+        <v>1.88351</v>
       </c>
       <c r="D9">
-        <v>1.87693</v>
+        <v>1.88805</v>
       </c>
       <c r="E9">
-        <v>1.8300700000000001</v>
+        <v>1.8531200000000001</v>
       </c>
       <c r="F9">
-        <v>1.8746499999999999</v>
+        <v>1.8575299999999999</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>2.9220000000000024</v>
+        <v>4.6859999999999902</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -873,23 +871,23 @@
         <v>27</v>
       </c>
       <c r="B10" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C10">
-        <v>1.81575</v>
+        <v>1.8343700000000001</v>
       </c>
       <c r="D10">
-        <v>1.8448500000000001</v>
+        <v>1.87693</v>
       </c>
       <c r="E10">
-        <v>1.8156300000000001</v>
+        <v>1.8300700000000001</v>
       </c>
       <c r="F10">
-        <v>1.83392</v>
+        <v>1.8746499999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2.3269999999999902</v>
+        <v>2.9220000000000024</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -897,23 +895,23 @@
         <v>27</v>
       </c>
       <c r="B11" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C11">
-        <v>1.82121</v>
+        <v>1.81575</v>
       </c>
       <c r="D11">
-        <v>1.8326899999999999</v>
+        <v>1.8448500000000001</v>
       </c>
       <c r="E11">
-        <v>1.80942</v>
+        <v>1.8156300000000001</v>
       </c>
       <c r="F11">
-        <v>1.8160700000000001</v>
+        <v>1.83392</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.1949999999999914</v>
+        <v>2.3269999999999902</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -921,23 +919,23 @@
         <v>27</v>
       </c>
       <c r="B12" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C12">
-        <v>1.8324499999999999</v>
+        <v>1.82121</v>
       </c>
       <c r="D12">
-        <v>1.84327</v>
+        <v>1.8326899999999999</v>
       </c>
       <c r="E12">
-        <v>1.8213200000000001</v>
+        <v>1.80942</v>
       </c>
       <c r="F12">
-        <v>1.82256</v>
+        <v>1.8160700000000001</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>3.3689999999999998</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -945,23 +943,23 @@
         <v>27</v>
       </c>
       <c r="B13" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C13">
-        <v>1.8326199999999999</v>
+        <v>1.8324499999999999</v>
       </c>
       <c r="D13">
-        <v>1.86094</v>
+        <v>1.84327</v>
       </c>
       <c r="E13">
-        <v>1.82725</v>
+        <v>1.8213200000000001</v>
       </c>
       <c r="F13">
-        <v>1.83494</v>
+        <v>1.82256</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>4.335</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -969,23 +967,23 @@
         <v>27</v>
       </c>
       <c r="B14" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C14">
-        <v>1.86524</v>
+        <v>1.8326199999999999</v>
       </c>
       <c r="D14">
-        <v>1.8731100000000001</v>
+        <v>1.86094</v>
       </c>
       <c r="E14">
-        <v>1.8297600000000001</v>
+        <v>1.82725</v>
       </c>
       <c r="F14">
-        <v>1.8337399999999999</v>
+        <v>1.83494</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>4.4659999999999922</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -993,23 +991,23 @@
         <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C15">
-        <v>1.8763099999999999</v>
+        <v>1.86524</v>
       </c>
       <c r="D15">
-        <v>1.8784099999999999</v>
+        <v>1.8731100000000001</v>
       </c>
       <c r="E15">
-        <v>1.83375</v>
+        <v>1.8297600000000001</v>
       </c>
       <c r="F15">
-        <v>1.86554</v>
+        <v>1.8337399999999999</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>4.7149999999999803</v>
+        <v>4.4659999999999922</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1017,23 +1015,23 @@
         <v>27</v>
       </c>
       <c r="B16" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C16">
-        <v>1.8452299999999999</v>
+        <v>1.8763099999999999</v>
       </c>
       <c r="D16">
-        <v>1.8861699999999999</v>
+        <v>1.8784099999999999</v>
       </c>
       <c r="E16">
-        <v>1.8390200000000001</v>
+        <v>1.83375</v>
       </c>
       <c r="F16">
-        <v>1.87496</v>
+        <v>1.86554</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>3.4200000000000008</v>
+        <v>4.7149999999999803</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1041,23 +1039,23 @@
         <v>27</v>
       </c>
       <c r="B17" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C17">
-        <v>1.8616299999999999</v>
+        <v>1.8452299999999999</v>
       </c>
       <c r="D17">
-        <v>1.8774</v>
+        <v>1.8861699999999999</v>
       </c>
       <c r="E17">
-        <v>1.8431999999999999</v>
+        <v>1.8390200000000001</v>
       </c>
       <c r="F17">
-        <v>1.8469199999999999</v>
+        <v>1.87496</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>5.2859999999999907</v>
+        <v>3.4200000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1065,23 +1063,23 @@
         <v>27</v>
       </c>
       <c r="B18" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C18">
-        <v>1.8307500000000001</v>
+        <v>1.8616299999999999</v>
       </c>
       <c r="D18">
-        <v>1.87232</v>
+        <v>1.8774</v>
       </c>
       <c r="E18">
-        <v>1.8194600000000001</v>
+        <v>1.8431999999999999</v>
       </c>
       <c r="F18">
-        <v>1.8667</v>
+        <v>1.8469199999999999</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>4.1469999999999896</v>
+        <v>5.2859999999999907</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1089,23 +1087,23 @@
         <v>27</v>
       </c>
       <c r="B19" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C19">
-        <v>1.8087299999999999</v>
+        <v>1.8307500000000001</v>
       </c>
       <c r="D19">
-        <v>1.8448</v>
+        <v>1.87232</v>
       </c>
       <c r="E19">
-        <v>1.8033300000000001</v>
+        <v>1.8194600000000001</v>
       </c>
       <c r="F19">
-        <v>1.83097</v>
+        <v>1.8667</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2.6850000000000041</v>
+        <v>4.1469999999999896</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1113,23 +1111,23 @@
         <v>27</v>
       </c>
       <c r="B20" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C20">
-        <v>1.8243100000000001</v>
+        <v>1.8087299999999999</v>
       </c>
       <c r="D20">
-        <v>1.8258000000000001</v>
+        <v>1.8448</v>
       </c>
       <c r="E20">
-        <v>1.79895</v>
+        <v>1.8033300000000001</v>
       </c>
       <c r="F20">
-        <v>1.8051999999999999</v>
+        <v>1.83097</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>4.760999999999993</v>
+        <v>2.6850000000000041</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1137,23 +1135,23 @@
         <v>27</v>
       </c>
       <c r="B21" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C21">
-        <v>1.80227</v>
+        <v>1.8243100000000001</v>
       </c>
       <c r="D21">
-        <v>1.83432</v>
+        <v>1.8258000000000001</v>
       </c>
       <c r="E21">
-        <v>1.78671</v>
+        <v>1.79895</v>
       </c>
       <c r="F21">
-        <v>1.82524</v>
+        <v>1.8051999999999999</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>5.0579999999999847</v>
+        <v>4.760999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1161,23 +1159,23 @@
         <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C22">
-        <v>1.8368100000000001</v>
+        <v>1.80227</v>
       </c>
       <c r="D22">
-        <v>1.84415</v>
+        <v>1.83432</v>
       </c>
       <c r="E22">
-        <v>1.7935700000000001</v>
+        <v>1.78671</v>
       </c>
       <c r="F22">
-        <v>1.8047200000000001</v>
+        <v>1.82524</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>6.0850000000000071</v>
+        <v>5.0579999999999847</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1185,23 +1183,23 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C23">
-        <v>1.7959700000000001</v>
+        <v>1.8368100000000001</v>
       </c>
       <c r="D23">
-        <v>1.85222</v>
+        <v>1.84415</v>
       </c>
       <c r="E23">
-        <v>1.7913699999999999</v>
+        <v>1.7935700000000001</v>
       </c>
       <c r="F23">
-        <v>1.83755</v>
+        <v>1.8047200000000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>4.6119999999999939</v>
+        <v>6.0850000000000071</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1209,23 +1207,23 @@
         <v>27</v>
       </c>
       <c r="B24" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C24">
-        <v>1.7814300000000001</v>
+        <v>1.7959700000000001</v>
       </c>
       <c r="D24">
-        <v>1.81009</v>
+        <v>1.85222</v>
       </c>
       <c r="E24">
-        <v>1.76397</v>
+        <v>1.7913699999999999</v>
       </c>
       <c r="F24">
-        <v>1.79592</v>
+        <v>1.83755</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>3.3160000000000078</v>
+        <v>4.6119999999999939</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1233,23 +1231,23 @@
         <v>27</v>
       </c>
       <c r="B25" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C25">
-        <v>1.78799</v>
+        <v>1.7814300000000001</v>
       </c>
       <c r="D25">
-        <v>1.79433</v>
+        <v>1.81009</v>
       </c>
       <c r="E25">
-        <v>1.7611699999999999</v>
+        <v>1.76397</v>
       </c>
       <c r="F25">
-        <v>1.7800499999999999</v>
+        <v>1.79592</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>6.469999999999998</v>
+        <v>3.3160000000000078</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1257,23 +1255,23 @@
         <v>27</v>
       </c>
       <c r="B26" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C26">
-        <v>1.80176</v>
+        <v>1.78799</v>
       </c>
       <c r="D26">
-        <v>1.85164</v>
+        <v>1.79433</v>
       </c>
       <c r="E26">
-        <v>1.78694</v>
+        <v>1.7611699999999999</v>
       </c>
       <c r="F26">
-        <v>1.7877099999999999</v>
+        <v>1.7800499999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.2189999999999932</v>
+        <v>6.469999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1281,23 +1279,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C27">
-        <v>1.79549</v>
+        <v>1.80176</v>
       </c>
       <c r="D27">
-        <v>1.8082199999999999</v>
+        <v>1.85164</v>
       </c>
       <c r="E27">
-        <v>1.78603</v>
+        <v>1.78694</v>
       </c>
       <c r="F27">
-        <v>1.8032699999999999</v>
+        <v>1.7877099999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>4.430999999999985</v>
+        <v>2.2189999999999932</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1305,23 +1303,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C28">
-        <v>1.7550399999999999</v>
+        <v>1.79549</v>
       </c>
       <c r="D28">
-        <v>1.7945599999999999</v>
+        <v>1.8082199999999999</v>
       </c>
       <c r="E28">
-        <v>1.7502500000000001</v>
+        <v>1.78603</v>
       </c>
       <c r="F28">
-        <v>1.79436</v>
+        <v>1.8032699999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>4.3290000000000051</v>
+        <v>4.430999999999985</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1329,23 +1327,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C29">
-        <v>1.76735</v>
+        <v>1.7550399999999999</v>
       </c>
       <c r="D29">
-        <v>1.7722800000000001</v>
+        <v>1.7945599999999999</v>
       </c>
       <c r="E29">
-        <v>1.72899</v>
+        <v>1.7502500000000001</v>
       </c>
       <c r="F29">
-        <v>1.7521800000000001</v>
+        <v>1.79436</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>5.3470000000000129</v>
+        <v>4.3290000000000051</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1353,23 +1351,23 @@
         <v>27</v>
       </c>
       <c r="B30" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C30">
-        <v>1.7293700000000001</v>
+        <v>1.76735</v>
       </c>
       <c r="D30">
-        <v>1.7743100000000001</v>
+        <v>1.7722800000000001</v>
       </c>
       <c r="E30">
-        <v>1.7208399999999999</v>
+        <v>1.72899</v>
       </c>
       <c r="F30">
-        <v>1.7697499999999999</v>
+        <v>1.7521800000000001</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>3.6529999999999951</v>
+        <v>5.3470000000000129</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1377,23 +1375,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C31">
-        <v>1.77294</v>
+        <v>1.7293700000000001</v>
       </c>
       <c r="D31">
-        <v>1.77555</v>
+        <v>1.7743100000000001</v>
       </c>
       <c r="E31">
-        <v>1.73902</v>
+        <v>1.7208399999999999</v>
       </c>
       <c r="F31">
-        <v>1.7437800000000001</v>
+        <v>1.7697499999999999</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>2.945999999999982</v>
+        <v>3.6529999999999951</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1401,23 +1399,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C32">
-        <v>1.7568699999999999</v>
+        <v>1.77294</v>
       </c>
       <c r="D32">
-        <v>1.7816799999999999</v>
+        <v>1.77555</v>
       </c>
       <c r="E32">
-        <v>1.7522200000000001</v>
+        <v>1.73902</v>
       </c>
       <c r="F32">
-        <v>1.7718799999999999</v>
+        <v>1.7437800000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>5.8789999999999898</v>
+        <v>2.945999999999982</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1425,23 +1423,23 @@
         <v>27</v>
       </c>
       <c r="B33" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C33">
-        <v>1.7886299999999999</v>
+        <v>1.7568699999999999</v>
       </c>
       <c r="D33">
-        <v>1.8064499999999999</v>
+        <v>1.7816799999999999</v>
       </c>
       <c r="E33">
-        <v>1.74766</v>
+        <v>1.7522200000000001</v>
       </c>
       <c r="F33">
-        <v>1.74864</v>
+        <v>1.7718799999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2.1560000000000024</v>
+        <v>5.8789999999999898</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1449,23 +1447,23 @@
         <v>27</v>
       </c>
       <c r="B34" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C34">
-        <v>1.81037</v>
+        <v>1.7886299999999999</v>
       </c>
       <c r="D34">
-        <v>1.8148500000000001</v>
+        <v>1.8064499999999999</v>
       </c>
       <c r="E34">
-        <v>1.7932900000000001</v>
+        <v>1.74766</v>
       </c>
       <c r="F34">
-        <v>1.7946500000000001</v>
+        <v>1.74864</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>2.9480000000000173</v>
+        <v>2.1560000000000024</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1473,23 +1471,23 @@
         <v>27</v>
       </c>
       <c r="B35" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C35">
-        <v>1.80806</v>
+        <v>1.81037</v>
       </c>
       <c r="D35">
-        <v>1.8155300000000001</v>
+        <v>1.8148500000000001</v>
       </c>
       <c r="E35">
-        <v>1.7860499999999999</v>
+        <v>1.7932900000000001</v>
       </c>
       <c r="F35">
-        <v>1.80175</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>3.9220000000000033</v>
+        <v>2.9480000000000173</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1497,23 +1495,23 @@
         <v>27</v>
       </c>
       <c r="B36" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C36">
-        <v>1.8342700000000001</v>
+        <v>1.80806</v>
       </c>
       <c r="D36">
-        <v>1.84585</v>
+        <v>1.8155300000000001</v>
       </c>
       <c r="E36">
-        <v>1.80663</v>
+        <v>1.7860499999999999</v>
       </c>
       <c r="F36">
-        <v>1.80952</v>
+        <v>1.80175</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>3.2680000000000042</v>
+        <v>3.9220000000000033</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1521,23 +1519,23 @@
         <v>27</v>
       </c>
       <c r="B37" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C37">
-        <v>1.8421000000000001</v>
+        <v>1.8342700000000001</v>
       </c>
       <c r="D37">
-        <v>1.85626</v>
+        <v>1.84585</v>
       </c>
       <c r="E37">
-        <v>1.82358</v>
+        <v>1.80663</v>
       </c>
       <c r="F37">
-        <v>1.83592</v>
+        <v>1.80952</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.909000000000006</v>
+        <v>3.2680000000000042</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1545,23 +1543,23 @@
         <v>27</v>
       </c>
       <c r="B38" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C38">
-        <v>1.8597699999999999</v>
+        <v>1.8421000000000001</v>
       </c>
       <c r="D38">
-        <v>1.87239</v>
+        <v>1.85626</v>
       </c>
       <c r="E38">
-        <v>1.8432999999999999</v>
+        <v>1.82358</v>
       </c>
       <c r="F38">
-        <v>1.8491500000000001</v>
+        <v>1.83592</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>5.9730000000000061</v>
+        <v>2.909000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1569,23 +1567,23 @@
         <v>27</v>
       </c>
       <c r="B39" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C39">
-        <v>1.80436</v>
+        <v>1.8597699999999999</v>
       </c>
       <c r="D39">
-        <v>1.8608</v>
+        <v>1.87239</v>
       </c>
       <c r="E39">
-        <v>1.8010699999999999</v>
+        <v>1.8432999999999999</v>
       </c>
       <c r="F39">
-        <v>1.8590500000000001</v>
+        <v>1.8491500000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>2.517999999999998</v>
+        <v>5.9730000000000061</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1593,23 +1591,23 @@
         <v>27</v>
       </c>
       <c r="B40" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C40">
-        <v>1.7995699999999999</v>
+        <v>1.80436</v>
       </c>
       <c r="D40">
-        <v>1.82169</v>
+        <v>1.8608</v>
       </c>
       <c r="E40">
-        <v>1.7965100000000001</v>
+        <v>1.8010699999999999</v>
       </c>
       <c r="F40">
-        <v>1.8051900000000001</v>
+        <v>1.8590500000000001</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>4.6390000000000153</v>
+        <v>2.517999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1617,23 +1615,23 @@
         <v>27</v>
       </c>
       <c r="B41" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C41">
-        <v>1.8268899999999999</v>
+        <v>1.7995699999999999</v>
       </c>
       <c r="D41">
-        <v>1.8398600000000001</v>
+        <v>1.82169</v>
       </c>
       <c r="E41">
-        <v>1.7934699999999999</v>
+        <v>1.7965100000000001</v>
       </c>
       <c r="F41">
-        <v>1.79575</v>
+        <v>1.8051900000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.6639999999999997</v>
+        <v>4.6390000000000153</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1641,23 +1639,23 @@
         <v>27</v>
       </c>
       <c r="B42" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C42">
-        <v>1.8182199999999999</v>
+        <v>1.8268899999999999</v>
       </c>
       <c r="D42">
-        <v>1.83754</v>
+        <v>1.8398600000000001</v>
       </c>
       <c r="E42">
-        <v>1.8109</v>
+        <v>1.7934699999999999</v>
       </c>
       <c r="F42">
-        <v>1.8264</v>
+        <v>1.79575</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>4.4320000000000137</v>
+        <v>2.6639999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1665,23 +1663,23 @@
         <v>27</v>
       </c>
       <c r="B43" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C43">
-        <v>1.79634</v>
+        <v>1.8182199999999999</v>
       </c>
       <c r="D43">
-        <v>1.8222</v>
+        <v>1.83754</v>
       </c>
       <c r="E43">
-        <v>1.7778799999999999</v>
+        <v>1.8109</v>
       </c>
       <c r="F43">
-        <v>1.8172999999999999</v>
+        <v>1.8264</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>5.4699999999999971</v>
+        <v>4.4320000000000137</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1689,23 +1687,23 @@
         <v>27</v>
       </c>
       <c r="B44" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C44">
-        <v>1.7517499999999999</v>
+        <v>1.79634</v>
       </c>
       <c r="D44">
-        <v>1.8053399999999999</v>
+        <v>1.8222</v>
       </c>
       <c r="E44">
-        <v>1.75064</v>
+        <v>1.7778799999999999</v>
       </c>
       <c r="F44">
-        <v>1.8015000000000001</v>
+        <v>1.8172999999999999</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>2.8350000000000097</v>
+        <v>5.4699999999999971</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1713,23 +1711,23 @@
         <v>27</v>
       </c>
       <c r="B45" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C45">
-        <v>1.74251</v>
+        <v>1.7517499999999999</v>
       </c>
       <c r="D45">
-        <v>1.76932</v>
+        <v>1.8053399999999999</v>
       </c>
       <c r="E45">
-        <v>1.7409699999999999</v>
+        <v>1.75064</v>
       </c>
       <c r="F45">
-        <v>1.7535499999999999</v>
+        <v>1.8015000000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>2.3840000000000083</v>
+        <v>2.8350000000000097</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1737,23 +1735,23 @@
         <v>27</v>
       </c>
       <c r="B46" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C46">
-        <v>1.7509699999999999</v>
+        <v>1.74251</v>
       </c>
       <c r="D46">
-        <v>1.76546</v>
+        <v>1.76932</v>
       </c>
       <c r="E46">
-        <v>1.7416199999999999</v>
+        <v>1.7409699999999999</v>
       </c>
       <c r="F46">
-        <v>1.7428600000000001</v>
+        <v>1.7535499999999999</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>3.0440000000000023</v>
+        <v>2.3840000000000083</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1761,23 +1759,23 @@
         <v>27</v>
       </c>
       <c r="B47" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C47">
-        <v>1.7572000000000001</v>
+        <v>1.7509699999999999</v>
       </c>
       <c r="D47">
-        <v>1.7586299999999999</v>
+        <v>1.76546</v>
       </c>
       <c r="E47">
-        <v>1.7281899999999999</v>
+        <v>1.7416199999999999</v>
       </c>
       <c r="F47">
-        <v>1.74885</v>
+        <v>1.7428600000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>2.6240000000000041</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1785,23 +1783,23 @@
         <v>27</v>
       </c>
       <c r="B48" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C48">
-        <v>1.7705500000000001</v>
+        <v>1.7572000000000001</v>
       </c>
       <c r="D48">
-        <v>1.78233</v>
+        <v>1.7586299999999999</v>
       </c>
       <c r="E48">
-        <v>1.7560899999999999</v>
+        <v>1.7281899999999999</v>
       </c>
       <c r="F48">
-        <v>1.7578</v>
+        <v>1.74885</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.4309999999999823</v>
+        <v>2.6240000000000041</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1809,23 +1807,23 @@
         <v>27</v>
       </c>
       <c r="B49" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C49">
-        <v>1.7683899999999999</v>
+        <v>1.7705500000000001</v>
       </c>
       <c r="D49">
-        <v>1.7802899999999999</v>
+        <v>1.78233</v>
       </c>
       <c r="E49">
-        <v>1.7659800000000001</v>
+        <v>1.7560899999999999</v>
       </c>
       <c r="F49">
-        <v>1.7701899999999999</v>
+        <v>1.7578</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>3.1139999999999946</v>
+        <v>1.4309999999999823</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1833,23 +1831,23 @@
         <v>27</v>
       </c>
       <c r="B50" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C50">
-        <v>1.78345</v>
+        <v>1.7683899999999999</v>
       </c>
       <c r="D50">
-        <v>1.7877799999999999</v>
+        <v>1.7802899999999999</v>
       </c>
       <c r="E50">
-        <v>1.75664</v>
+        <v>1.7659800000000001</v>
       </c>
       <c r="F50">
-        <v>1.76875</v>
+        <v>1.7701899999999999</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>2.7289999999999814</v>
+        <v>3.1139999999999946</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1857,23 +1855,23 @@
         <v>27</v>
       </c>
       <c r="B51" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C51">
-        <v>1.7909900000000001</v>
+        <v>1.78345</v>
       </c>
       <c r="D51">
-        <v>1.7939099999999999</v>
+        <v>1.7877799999999999</v>
       </c>
       <c r="E51">
-        <v>1.7666200000000001</v>
+        <v>1.75664</v>
       </c>
       <c r="F51">
-        <v>1.78328</v>
+        <v>1.76875</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.593</v>
+        <v>2.7289999999999814</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1881,23 +1879,23 @@
         <v>27</v>
       </c>
       <c r="B52" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C52">
-        <v>1.7835700000000001</v>
+        <v>1.7909900000000001</v>
       </c>
       <c r="D52">
-        <v>1.79569</v>
+        <v>1.7939099999999999</v>
       </c>
       <c r="E52">
-        <v>1.77976</v>
+        <v>1.7666200000000001</v>
       </c>
       <c r="F52">
-        <v>1.7869600000000001</v>
+        <v>1.78328</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.2230000000000194</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1905,23 +1903,23 @@
         <v>27</v>
       </c>
       <c r="B53" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C53">
-        <v>1.78243</v>
+        <v>1.7835700000000001</v>
       </c>
       <c r="D53">
-        <v>1.7957700000000001</v>
+        <v>1.79569</v>
       </c>
       <c r="E53">
-        <v>1.7735399999999999</v>
+        <v>1.77976</v>
       </c>
       <c r="F53">
-        <v>1.7829999999999999</v>
+        <v>1.7869600000000001</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.2659999999999902</v>
+        <v>2.2230000000000194</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1929,23 +1927,23 @@
         <v>27</v>
       </c>
       <c r="B54" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C54">
-        <v>1.78362</v>
+        <v>1.78243</v>
       </c>
       <c r="D54">
-        <v>1.79789</v>
+        <v>1.7957700000000001</v>
       </c>
       <c r="E54">
-        <v>1.7752300000000001</v>
+        <v>1.7735399999999999</v>
       </c>
       <c r="F54">
-        <v>1.7826900000000001</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>3.1629999999999825</v>
+        <v>2.2659999999999902</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1953,23 +1951,23 @@
         <v>27</v>
       </c>
       <c r="B55" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C55">
-        <v>1.7647299999999999</v>
+        <v>1.78362</v>
       </c>
       <c r="D55">
-        <v>1.7848599999999999</v>
+        <v>1.79789</v>
       </c>
       <c r="E55">
-        <v>1.7532300000000001</v>
+        <v>1.7752300000000001</v>
       </c>
       <c r="F55">
-        <v>1.7844199999999999</v>
+        <v>1.7826900000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>3.4229999999999983</v>
+        <v>3.1629999999999825</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1977,23 +1975,23 @@
         <v>27</v>
       </c>
       <c r="B56" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C56">
-        <v>1.7626999999999999</v>
+        <v>1.7647299999999999</v>
       </c>
       <c r="D56">
-        <v>1.7733300000000001</v>
+        <v>1.7848599999999999</v>
       </c>
       <c r="E56">
-        <v>1.7391000000000001</v>
+        <v>1.7532300000000001</v>
       </c>
       <c r="F56">
-        <v>1.7641500000000001</v>
+        <v>1.7844199999999999</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.0570000000000199</v>
+        <v>3.4229999999999983</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2001,23 +1999,23 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C57">
-        <v>1.7598</v>
+        <v>1.7626999999999999</v>
       </c>
       <c r="D57">
-        <v>1.7722500000000001</v>
+        <v>1.7733300000000001</v>
       </c>
       <c r="E57">
-        <v>1.7516799999999999</v>
+        <v>1.7391000000000001</v>
       </c>
       <c r="F57">
-        <v>1.76295</v>
+        <v>1.7641500000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>3.3939999999999859</v>
+        <v>2.0570000000000199</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2025,23 +2023,23 @@
         <v>27</v>
       </c>
       <c r="B58" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C58">
-        <v>1.78969</v>
+        <v>1.7598</v>
       </c>
       <c r="D58">
-        <v>1.7924199999999999</v>
+        <v>1.7722500000000001</v>
       </c>
       <c r="E58">
-        <v>1.75848</v>
+        <v>1.7516799999999999</v>
       </c>
       <c r="F58">
-        <v>1.7619400000000001</v>
+        <v>1.76295</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.9479999999999942</v>
+        <v>3.3939999999999859</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2049,23 +2047,23 @@
         <v>27</v>
       </c>
       <c r="B59" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C59">
-        <v>1.7946500000000001</v>
+        <v>1.78969</v>
       </c>
       <c r="D59">
-        <v>1.8108599999999999</v>
+        <v>1.7924199999999999</v>
       </c>
       <c r="E59">
-        <v>1.79138</v>
+        <v>1.75848</v>
       </c>
       <c r="F59">
-        <v>1.7944</v>
+        <v>1.7619400000000001</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>3.3549999999999969</v>
+        <v>1.9479999999999942</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2073,23 +2071,23 @@
         <v>27</v>
       </c>
       <c r="B60" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C60">
-        <v>1.7953600000000001</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="D60">
-        <v>1.82396</v>
+        <v>1.8108599999999999</v>
       </c>
       <c r="E60">
-        <v>1.7904100000000001</v>
+        <v>1.79138</v>
       </c>
       <c r="F60">
-        <v>1.79495</v>
+        <v>1.7944</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>3.4410000000000052</v>
+        <v>3.3549999999999969</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2097,23 +2095,23 @@
         <v>27</v>
       </c>
       <c r="B61" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C61">
-        <v>1.8176300000000001</v>
+        <v>1.7953600000000001</v>
       </c>
       <c r="D61">
-        <v>1.82945</v>
+        <v>1.82396</v>
       </c>
       <c r="E61">
-        <v>1.79504</v>
+        <v>1.7904100000000001</v>
       </c>
       <c r="F61">
-        <v>1.7957000000000001</v>
+        <v>1.79495</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>2.9599999999999849</v>
+        <v>3.4410000000000052</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2121,23 +2119,23 @@
         <v>27</v>
       </c>
       <c r="B62" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C62">
-        <v>1.8252600000000001</v>
+        <v>1.8176300000000001</v>
       </c>
       <c r="D62">
-        <v>1.8472999999999999</v>
+        <v>1.82945</v>
       </c>
       <c r="E62">
-        <v>1.8177000000000001</v>
+        <v>1.79504</v>
       </c>
       <c r="F62">
-        <v>1.8178099999999999</v>
+        <v>1.7957000000000001</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>3.0459999999999932</v>
+        <v>2.9599999999999849</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2145,23 +2143,23 @@
         <v>27</v>
       </c>
       <c r="B63" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C63">
-        <v>1.8332599999999999</v>
+        <v>1.8252600000000001</v>
       </c>
       <c r="D63">
-        <v>1.84755</v>
+        <v>1.8472999999999999</v>
       </c>
       <c r="E63">
-        <v>1.8170900000000001</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F63">
-        <v>1.8265499999999999</v>
+        <v>1.8178099999999999</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>2.2310000000000052</v>
+        <v>3.0459999999999932</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2169,23 +2167,23 @@
         <v>27</v>
       </c>
       <c r="B64" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C64">
-        <v>1.83632</v>
+        <v>1.8332599999999999</v>
       </c>
       <c r="D64">
-        <v>1.8457600000000001</v>
+        <v>1.84755</v>
       </c>
       <c r="E64">
-        <v>1.82345</v>
+        <v>1.8170900000000001</v>
       </c>
       <c r="F64">
-        <v>1.83386</v>
+        <v>1.8265499999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.9169999999999909</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2193,23 +2191,23 @@
         <v>27</v>
       </c>
       <c r="B65" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C65">
-        <v>1.8239000000000001</v>
+        <v>1.83632</v>
       </c>
       <c r="D65">
-        <v>1.83687</v>
+        <v>1.8457600000000001</v>
       </c>
       <c r="E65">
-        <v>1.8177000000000001</v>
+        <v>1.82345</v>
       </c>
       <c r="F65">
-        <v>1.83525</v>
+        <v>1.83386</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>2.9139999999999944</v>
+        <v>1.9169999999999909</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2217,23 +2215,23 @@
         <v>27</v>
       </c>
       <c r="B66" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C66">
-        <v>1.83656</v>
+        <v>1.8239000000000001</v>
       </c>
       <c r="D66">
-        <v>1.85073</v>
+        <v>1.83687</v>
       </c>
       <c r="E66">
-        <v>1.82159</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F66">
-        <v>1.8250299999999999</v>
+        <v>1.83525</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>3.4329999999999972</v>
+        <v>2.9139999999999944</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2241,23 +2239,23 @@
         <v>27</v>
       </c>
       <c r="B67" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C67">
-        <v>1.80705</v>
+        <v>1.83656</v>
       </c>
       <c r="D67">
-        <v>1.8397399999999999</v>
+        <v>1.85073</v>
       </c>
       <c r="E67">
-        <v>1.80541</v>
+        <v>1.82159</v>
       </c>
       <c r="F67">
-        <v>1.8359399999999999</v>
+        <v>1.8250299999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>4.8669999999999991</v>
+        <v>3.4329999999999972</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2265,23 +2263,23 @@
         <v>27</v>
       </c>
       <c r="B68" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C68">
-        <v>1.7641</v>
+        <v>1.80705</v>
       </c>
       <c r="D68">
-        <v>1.8085</v>
+        <v>1.8397399999999999</v>
       </c>
       <c r="E68">
-        <v>1.75983</v>
+        <v>1.80541</v>
       </c>
       <c r="F68">
-        <v>1.8083</v>
+        <v>1.8359399999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>2.7009999999999978</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2289,23 +2287,23 @@
         <v>27</v>
       </c>
       <c r="B69" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C69">
-        <v>1.7760199999999999</v>
+        <v>1.7641</v>
       </c>
       <c r="D69">
-        <v>1.79053</v>
+        <v>1.8085</v>
       </c>
       <c r="E69">
-        <v>1.76352</v>
+        <v>1.75983</v>
       </c>
       <c r="F69">
-        <v>1.7646500000000001</v>
+        <v>1.8083</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>2.3700000000000054</v>
+        <v>2.7009999999999978</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2313,23 +2311,23 @@
         <v>27</v>
       </c>
       <c r="B70" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C70">
-        <v>1.7831699999999999</v>
+        <v>1.7760199999999999</v>
       </c>
       <c r="D70">
-        <v>1.79043</v>
+        <v>1.79053</v>
       </c>
       <c r="E70">
-        <v>1.7667299999999999</v>
+        <v>1.76352</v>
       </c>
       <c r="F70">
-        <v>1.77685</v>
+        <v>1.7646500000000001</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>3.0649999999999844</v>
+        <v>2.3700000000000054</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2337,23 +2335,23 @@
         <v>27</v>
       </c>
       <c r="B71" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C71">
-        <v>1.7718400000000001</v>
+        <v>1.7831699999999999</v>
       </c>
       <c r="D71">
-        <v>1.7910699999999999</v>
+        <v>1.79043</v>
       </c>
       <c r="E71">
-        <v>1.7604200000000001</v>
+        <v>1.7667299999999999</v>
       </c>
       <c r="F71">
-        <v>1.78179</v>
+        <v>1.77685</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.3390000000000022</v>
+        <v>3.0649999999999844</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2361,23 +2359,23 @@
         <v>27</v>
       </c>
       <c r="B72" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C72">
-        <v>1.7669600000000001</v>
+        <v>1.7718400000000001</v>
       </c>
       <c r="D72">
-        <v>1.78084</v>
+        <v>1.7910699999999999</v>
       </c>
       <c r="E72">
-        <v>1.75745</v>
+        <v>1.7604200000000001</v>
       </c>
       <c r="F72">
-        <v>1.77223</v>
+        <v>1.78179</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>3.8780000000000037</v>
+        <v>2.3390000000000022</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2385,23 +2383,23 @@
         <v>27</v>
       </c>
       <c r="B73" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C73">
-        <v>1.7817499999999999</v>
+        <v>1.7669600000000001</v>
       </c>
       <c r="D73">
-        <v>1.7997799999999999</v>
+        <v>1.78084</v>
       </c>
       <c r="E73">
-        <v>1.7609999999999999</v>
+        <v>1.75745</v>
       </c>
       <c r="F73">
-        <v>1.7689600000000001</v>
+        <v>1.77223</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>4.9670000000000103</v>
+        <v>3.8780000000000037</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2409,23 +2407,23 @@
         <v>27</v>
       </c>
       <c r="B74" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C74">
-        <v>1.7444200000000001</v>
+        <v>1.7817499999999999</v>
       </c>
       <c r="D74">
-        <v>1.78474</v>
+        <v>1.7997799999999999</v>
       </c>
       <c r="E74">
-        <v>1.7350699999999999</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="F74">
-        <v>1.7819400000000001</v>
+        <v>1.7689600000000001</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>3.8180000000000103</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2433,23 +2431,23 @@
         <v>27</v>
       </c>
       <c r="B75" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C75">
-        <v>1.73603</v>
+        <v>1.7444200000000001</v>
       </c>
       <c r="D75">
-        <v>1.77176</v>
+        <v>1.78474</v>
       </c>
       <c r="E75">
-        <v>1.7335799999999999</v>
+        <v>1.7350699999999999</v>
       </c>
       <c r="F75">
-        <v>1.7443599999999999</v>
+        <v>1.7819400000000001</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.2890000000000068</v>
+        <v>3.8180000000000103</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2457,23 +2455,23 @@
         <v>27</v>
       </c>
       <c r="B76" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C76">
-        <v>1.73665</v>
+        <v>1.73603</v>
       </c>
       <c r="D76">
-        <v>1.7398100000000001</v>
+        <v>1.77176</v>
       </c>
       <c r="E76">
-        <v>1.72692</v>
+        <v>1.7335799999999999</v>
       </c>
       <c r="F76">
-        <v>1.73346</v>
+        <v>1.7443599999999999</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>3.3379999999999965</v>
+        <v>1.2890000000000068</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2481,23 +2479,23 @@
         <v>27</v>
       </c>
       <c r="B77" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C77">
-        <v>1.7245299999999999</v>
+        <v>1.73665</v>
       </c>
       <c r="D77">
-        <v>1.7431099999999999</v>
+        <v>1.7398100000000001</v>
       </c>
       <c r="E77">
-        <v>1.70973</v>
+        <v>1.72692</v>
       </c>
       <c r="F77">
-        <v>1.73491</v>
+        <v>1.73346</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>2.0279999999999854</v>
+        <v>3.3379999999999965</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2505,23 +2503,23 @@
         <v>27</v>
       </c>
       <c r="B78" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C78">
-        <v>1.7304600000000001</v>
+        <v>1.7245299999999999</v>
       </c>
       <c r="D78">
-        <v>1.74152</v>
+        <v>1.7431099999999999</v>
       </c>
       <c r="E78">
-        <v>1.7212400000000001</v>
+        <v>1.70973</v>
       </c>
       <c r="F78">
-        <v>1.7251000000000001</v>
+        <v>1.73491</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>1.214000000000004</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2529,23 +2527,23 @@
         <v>27</v>
       </c>
       <c r="B79" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C79">
-        <v>1.7316800000000001</v>
+        <v>1.7304600000000001</v>
       </c>
       <c r="D79">
-        <v>1.73359</v>
+        <v>1.74152</v>
       </c>
       <c r="E79">
-        <v>1.7214499999999999</v>
+        <v>1.7212400000000001</v>
       </c>
       <c r="F79">
-        <v>1.7301599999999999</v>
+        <v>1.7251000000000001</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>2.1009999999999973</v>
+        <v>1.214000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2553,23 +2551,23 @@
         <v>27</v>
       </c>
       <c r="B80" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C80">
-        <v>1.74116</v>
+        <v>1.7316800000000001</v>
       </c>
       <c r="D80">
-        <v>1.75099</v>
+        <v>1.73359</v>
       </c>
       <c r="E80">
-        <v>1.7299800000000001</v>
+        <v>1.7214499999999999</v>
       </c>
       <c r="F80">
-        <v>1.7320500000000001</v>
+        <v>1.7301599999999999</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>4.9000000000000155</v>
+        <v>2.1009999999999973</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2577,23 +2575,23 @@
         <v>27</v>
       </c>
       <c r="B81" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C81">
-        <v>1.78149</v>
+        <v>1.74116</v>
       </c>
       <c r="D81">
-        <v>1.7844500000000001</v>
+        <v>1.75099</v>
       </c>
       <c r="E81">
-        <v>1.7354499999999999</v>
+        <v>1.7299800000000001</v>
       </c>
       <c r="F81">
-        <v>1.74329</v>
+        <v>1.7320500000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>5.0850000000000062</v>
+        <v>4.9000000000000155</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2601,23 +2599,23 @@
         <v>27</v>
       </c>
       <c r="B82" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C82">
-        <v>1.7703100000000001</v>
+        <v>1.78149</v>
       </c>
       <c r="D82">
-        <v>1.79965</v>
+        <v>1.7844500000000001</v>
       </c>
       <c r="E82">
-        <v>1.7487999999999999</v>
+        <v>1.7354499999999999</v>
       </c>
       <c r="F82">
-        <v>1.7845299999999999</v>
+        <v>1.74329</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>5.4619999999999891</v>
+        <v>5.0850000000000062</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2625,23 +2623,23 @@
         <v>27</v>
       </c>
       <c r="B83" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C83">
-        <v>1.7491399999999999</v>
+        <v>1.7703100000000001</v>
       </c>
       <c r="D83">
-        <v>1.7908299999999999</v>
+        <v>1.79965</v>
       </c>
       <c r="E83">
-        <v>1.73621</v>
+        <v>1.7487999999999999</v>
       </c>
       <c r="F83">
-        <v>1.77088</v>
+        <v>1.7845299999999999</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.8199999999999994</v>
+        <v>5.4619999999999891</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2649,23 +2647,23 @@
         <v>27</v>
       </c>
       <c r="B84" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C84">
-        <v>1.7467600000000001</v>
+        <v>1.7491399999999999</v>
       </c>
       <c r="D84">
-        <v>1.7597400000000001</v>
+        <v>1.7908299999999999</v>
       </c>
       <c r="E84">
-        <v>1.7415400000000001</v>
+        <v>1.73621</v>
       </c>
       <c r="F84">
-        <v>1.7492399999999999</v>
+        <v>1.77088</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>4.8750000000000071</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2673,23 +2671,23 @@
         <v>27</v>
       </c>
       <c r="B85" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C85">
-        <v>1.71956</v>
+        <v>1.7467600000000001</v>
       </c>
       <c r="D85">
-        <v>1.7565500000000001</v>
+        <v>1.7597400000000001</v>
       </c>
       <c r="E85">
-        <v>1.7078</v>
+        <v>1.7415400000000001</v>
       </c>
       <c r="F85">
-        <v>1.7468300000000001</v>
+        <v>1.7492399999999999</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>2.2310000000000052</v>
+        <v>4.8750000000000071</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2697,23 +2695,23 @@
         <v>27</v>
       </c>
       <c r="B86" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C86">
-        <v>1.7085399999999999</v>
+        <v>1.71956</v>
       </c>
       <c r="D86">
-        <v>1.72593</v>
+        <v>1.7565500000000001</v>
       </c>
       <c r="E86">
-        <v>1.7036199999999999</v>
+        <v>1.7078</v>
       </c>
       <c r="F86">
-        <v>1.7219599999999999</v>
+        <v>1.7468300000000001</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>4.713999999999996</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2721,23 +2719,23 @@
         <v>27</v>
       </c>
       <c r="B87" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C87">
-        <v>1.7107600000000001</v>
+        <v>1.7085399999999999</v>
       </c>
       <c r="D87">
-        <v>1.73664</v>
+        <v>1.72593</v>
       </c>
       <c r="E87">
-        <v>1.6895</v>
+        <v>1.7036199999999999</v>
       </c>
       <c r="F87">
-        <v>1.7087699999999999</v>
+        <v>1.7219599999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>4.0330000000000199</v>
+        <v>4.713999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2745,23 +2743,23 @@
         <v>27</v>
       </c>
       <c r="B88" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C88">
-        <v>1.6869799999999999</v>
+        <v>1.7107600000000001</v>
       </c>
       <c r="D88">
-        <v>1.7239500000000001</v>
+        <v>1.73664</v>
       </c>
       <c r="E88">
-        <v>1.6836199999999999</v>
+        <v>1.6895</v>
       </c>
       <c r="F88">
-        <v>1.71113</v>
+        <v>1.7087699999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>2.3349999999999982</v>
+        <v>4.0330000000000199</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2769,23 +2767,23 @@
         <v>27</v>
       </c>
       <c r="B89" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C89">
-        <v>1.6858299999999999</v>
+        <v>1.6869799999999999</v>
       </c>
       <c r="D89">
-        <v>1.6917199999999999</v>
+        <v>1.7239500000000001</v>
       </c>
       <c r="E89">
-        <v>1.6683699999999999</v>
+        <v>1.6836199999999999</v>
       </c>
       <c r="F89">
-        <v>1.6870499999999999</v>
+        <v>1.71113</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>2.1120000000000028</v>
+        <v>2.3349999999999982</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2793,23 +2791,23 @@
         <v>27</v>
       </c>
       <c r="B90" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C90">
-        <v>1.6816599999999999</v>
+        <v>1.6858299999999999</v>
       </c>
       <c r="D90">
-        <v>1.7005300000000001</v>
+        <v>1.6917199999999999</v>
       </c>
       <c r="E90">
-        <v>1.6794100000000001</v>
+        <v>1.6683699999999999</v>
       </c>
       <c r="F90">
-        <v>1.6850000000000001</v>
+        <v>1.6870499999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>3.1820000000000181</v>
+        <v>2.1120000000000028</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2817,23 +2815,23 @@
         <v>27</v>
       </c>
       <c r="B91" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C91">
-        <v>1.70713</v>
+        <v>1.6816599999999999</v>
       </c>
       <c r="D91">
-        <v>1.7098500000000001</v>
+        <v>1.7005300000000001</v>
       </c>
       <c r="E91">
-        <v>1.6780299999999999</v>
+        <v>1.6794100000000001</v>
       </c>
       <c r="F91">
-        <v>1.6810400000000001</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>2.5240000000000151</v>
+        <v>3.1820000000000181</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2841,23 +2839,23 @@
         <v>27</v>
       </c>
       <c r="B92" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C92">
-        <v>1.69523</v>
+        <v>1.70713</v>
       </c>
       <c r="D92">
-        <v>1.7181200000000001</v>
+        <v>1.7098500000000001</v>
       </c>
       <c r="E92">
-        <v>1.6928799999999999</v>
+        <v>1.6780299999999999</v>
       </c>
       <c r="F92">
-        <v>1.7092099999999999</v>
+        <v>1.6810400000000001</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>3.8210000000000077</v>
+        <v>2.5240000000000151</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2865,23 +2863,23 @@
         <v>27</v>
       </c>
       <c r="B93" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C93">
-        <v>1.6986300000000001</v>
+        <v>1.69523</v>
       </c>
       <c r="D93">
-        <v>1.71668</v>
+        <v>1.7181200000000001</v>
       </c>
       <c r="E93">
-        <v>1.6784699999999999</v>
+        <v>1.6928799999999999</v>
       </c>
       <c r="F93">
-        <v>1.69374</v>
+        <v>1.7092099999999999</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>6.4889999999999892</v>
+        <v>3.8210000000000077</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2889,23 +2887,23 @@
         <v>27</v>
       </c>
       <c r="B94" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C94">
-        <v>1.6371199999999999</v>
+        <v>1.6986300000000001</v>
       </c>
       <c r="D94">
-        <v>1.70007</v>
+        <v>1.71668</v>
       </c>
       <c r="E94">
-        <v>1.6351800000000001</v>
+        <v>1.6784699999999999</v>
       </c>
       <c r="F94">
-        <v>1.6989799999999999</v>
+        <v>1.69374</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>2.2759999999999891</v>
+        <v>6.4889999999999892</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2913,23 +2911,23 @@
         <v>27</v>
       </c>
       <c r="B95" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C95">
-        <v>1.6295500000000001</v>
+        <v>1.6371199999999999</v>
       </c>
       <c r="D95">
-        <v>1.6395599999999999</v>
+        <v>1.70007</v>
       </c>
       <c r="E95">
-        <v>1.6168</v>
+        <v>1.6351800000000001</v>
       </c>
       <c r="F95">
-        <v>1.6391800000000001</v>
+        <v>1.6989799999999999</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2937,23 +2935,23 @@
         <v>27</v>
       </c>
       <c r="B96" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C96">
-        <v>1.6270100000000001</v>
+        <v>1.6295500000000001</v>
       </c>
       <c r="D96">
-        <v>1.6377900000000001</v>
+        <v>1.6395599999999999</v>
       </c>
       <c r="E96">
-        <v>1.6166</v>
+        <v>1.6168</v>
       </c>
       <c r="F96">
-        <v>1.6260600000000001</v>
+        <v>1.6391800000000001</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.1400000000000077</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2961,23 +2959,23 @@
         <v>27</v>
       </c>
       <c r="B97" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C97">
-        <v>1.6231899999999999</v>
+        <v>1.6270100000000001</v>
       </c>
       <c r="D97">
-        <v>1.62754</v>
+        <v>1.6377900000000001</v>
       </c>
       <c r="E97">
-        <v>1.6161399999999999</v>
+        <v>1.6166</v>
       </c>
       <c r="F97">
-        <v>1.62242</v>
+        <v>1.6260600000000001</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>3.6590000000000122</v>
+        <v>1.1400000000000077</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2985,23 +2983,23 @@
         <v>27</v>
       </c>
       <c r="B98" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C98">
-        <v>1.64822</v>
+        <v>1.6231899999999999</v>
       </c>
       <c r="D98">
-        <v>1.6550400000000001</v>
+        <v>1.62754</v>
       </c>
       <c r="E98">
-        <v>1.6184499999999999</v>
+        <v>1.6161399999999999</v>
       </c>
       <c r="F98">
-        <v>1.62382</v>
+        <v>1.62242</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.7709999999999892</v>
+        <v>3.6590000000000122</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3009,23 +3007,23 @@
         <v>27</v>
       </c>
       <c r="B99" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C99">
-        <v>1.6447700000000001</v>
+        <v>1.64822</v>
       </c>
       <c r="D99">
-        <v>1.65665</v>
+        <v>1.6550400000000001</v>
       </c>
       <c r="E99">
-        <v>1.6389400000000001</v>
+        <v>1.6184499999999999</v>
       </c>
       <c r="F99">
-        <v>1.64859</v>
+        <v>1.62382</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>3.1560000000000032</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3033,23 +3031,23 @@
         <v>27</v>
       </c>
       <c r="B100" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C100">
-        <v>1.64486</v>
+        <v>1.6447700000000001</v>
       </c>
       <c r="D100">
-        <v>1.6735599999999999</v>
+        <v>1.65665</v>
       </c>
       <c r="E100">
-        <v>1.6419999999999999</v>
+        <v>1.6389400000000001</v>
       </c>
       <c r="F100">
-        <v>1.6446799999999999</v>
+        <v>1.64859</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>2.2440000000000015</v>
+        <v>3.1560000000000032</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3057,23 +3055,23 @@
         <v>27</v>
       </c>
       <c r="B101" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C101">
-        <v>1.64188</v>
+        <v>1.64486</v>
       </c>
       <c r="D101">
-        <v>1.6526700000000001</v>
+        <v>1.6735599999999999</v>
       </c>
       <c r="E101">
-        <v>1.6302300000000001</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="F101">
-        <v>1.64534</v>
+        <v>1.6446799999999999</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>5.0769999999999982</v>
+        <v>2.2440000000000015</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3081,23 +3079,23 @@
         <v>27</v>
       </c>
       <c r="B102" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C102">
-        <v>1.67465</v>
+        <v>1.64188</v>
       </c>
       <c r="D102">
-        <v>1.67757</v>
+        <v>1.6526700000000001</v>
       </c>
       <c r="E102">
-        <v>1.6268</v>
+        <v>1.6302300000000001</v>
       </c>
       <c r="F102">
-        <v>1.6410800000000001</v>
+        <v>1.64534</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>3.6459999999999937</v>
+        <v>5.0769999999999982</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3105,23 +3103,23 @@
         <v>27</v>
       </c>
       <c r="B103" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C103">
-        <v>1.6956100000000001</v>
+        <v>1.67465</v>
       </c>
       <c r="D103">
-        <v>1.69848</v>
+        <v>1.67757</v>
       </c>
       <c r="E103">
-        <v>1.6620200000000001</v>
+        <v>1.6268</v>
       </c>
       <c r="F103">
-        <v>1.67428</v>
+        <v>1.6410800000000001</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>2.7150000000000007</v>
+        <v>3.6459999999999937</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3129,23 +3127,23 @@
         <v>27</v>
       </c>
       <c r="B104" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C104">
-        <v>1.6946000000000001</v>
+        <v>1.6956100000000001</v>
       </c>
       <c r="D104">
-        <v>1.7121999999999999</v>
+        <v>1.69848</v>
       </c>
       <c r="E104">
-        <v>1.6850499999999999</v>
+        <v>1.6620200000000001</v>
       </c>
       <c r="F104">
-        <v>1.6946300000000001</v>
+        <v>1.67428</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>3.3630000000000049</v>
+        <v>2.7150000000000007</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3153,23 +3151,23 @@
         <v>27</v>
       </c>
       <c r="B105" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C105">
-        <v>1.68363</v>
+        <v>1.6946000000000001</v>
       </c>
       <c r="D105">
-        <v>1.7042200000000001</v>
+        <v>1.7121999999999999</v>
       </c>
       <c r="E105">
-        <v>1.67059</v>
+        <v>1.6850499999999999</v>
       </c>
       <c r="F105">
-        <v>1.69411</v>
+        <v>1.6946300000000001</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>2.5390000000000024</v>
+        <v>3.3630000000000049</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3177,23 +3175,23 @@
         <v>27</v>
       </c>
       <c r="B106" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C106">
-        <v>1.6740600000000001</v>
+        <v>1.68363</v>
       </c>
       <c r="D106">
-        <v>1.68648</v>
+        <v>1.7042200000000001</v>
       </c>
       <c r="E106">
-        <v>1.66109</v>
+        <v>1.67059</v>
       </c>
       <c r="F106">
-        <v>1.68085</v>
+        <v>1.69411</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>2.7609999999999912</v>
+        <v>2.5390000000000024</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3201,23 +3199,23 @@
         <v>27</v>
       </c>
       <c r="B107" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C107">
-        <v>1.69011</v>
+        <v>1.6740600000000001</v>
       </c>
       <c r="D107">
-        <v>1.69597</v>
+        <v>1.68648</v>
       </c>
       <c r="E107">
-        <v>1.6683600000000001</v>
+        <v>1.66109</v>
       </c>
       <c r="F107">
-        <v>1.67615</v>
+        <v>1.68085</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>5.6230000000000002</v>
+        <v>2.7609999999999912</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3225,23 +3223,23 @@
         <v>27</v>
       </c>
       <c r="B108" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C108">
-        <v>1.73119</v>
+        <v>1.69011</v>
       </c>
       <c r="D108">
-        <v>1.7332000000000001</v>
+        <v>1.69597</v>
       </c>
       <c r="E108">
-        <v>1.6769700000000001</v>
+        <v>1.6683600000000001</v>
       </c>
       <c r="F108">
-        <v>1.6916199999999999</v>
+        <v>1.67615</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>3.5199999999999898</v>
+        <v>5.6230000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3249,23 +3247,23 @@
         <v>27</v>
       </c>
       <c r="B109" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C109">
-        <v>1.7215199999999999</v>
+        <v>1.73119</v>
       </c>
       <c r="D109">
-        <v>1.74912</v>
+        <v>1.7332000000000001</v>
       </c>
       <c r="E109">
-        <v>1.7139200000000001</v>
+        <v>1.6769700000000001</v>
       </c>
       <c r="F109">
-        <v>1.73092</v>
+        <v>1.6916199999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>3.1270000000000131</v>
+        <v>3.5199999999999898</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3273,23 +3271,23 @@
         <v>27</v>
       </c>
       <c r="B110" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C110">
-        <v>1.7477799999999999</v>
+        <v>1.7215199999999999</v>
       </c>
       <c r="D110">
-        <v>1.7481800000000001</v>
+        <v>1.74912</v>
       </c>
       <c r="E110">
-        <v>1.7169099999999999</v>
+        <v>1.7139200000000001</v>
       </c>
       <c r="F110">
-        <v>1.72058</v>
+        <v>1.73092</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>2.3799999999999821</v>
+        <v>3.1270000000000131</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3297,23 +3295,23 @@
         <v>27</v>
       </c>
       <c r="B111" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C111">
-        <v>1.74315</v>
+        <v>1.7477799999999999</v>
       </c>
       <c r="D111">
-        <v>1.7573399999999999</v>
+        <v>1.7481800000000001</v>
       </c>
       <c r="E111">
-        <v>1.7335400000000001</v>
+        <v>1.7169099999999999</v>
       </c>
       <c r="F111">
-        <v>1.74763</v>
+        <v>1.72058</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>2.9469999999999885</v>
+        <v>2.3799999999999821</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3321,23 +3319,23 @@
         <v>27</v>
       </c>
       <c r="B112" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C112">
-        <v>1.7516400000000001</v>
+        <v>1.74315</v>
       </c>
       <c r="D112">
-        <v>1.7650699999999999</v>
+        <v>1.7573399999999999</v>
       </c>
       <c r="E112">
-        <v>1.7356</v>
+        <v>1.7335400000000001</v>
       </c>
       <c r="F112">
-        <v>1.74343</v>
+        <v>1.74763</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>4.6710000000000029</v>
+        <v>2.9469999999999885</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3345,23 +3343,23 @@
         <v>27</v>
       </c>
       <c r="B113" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C113">
-        <v>1.72888</v>
+        <v>1.7516400000000001</v>
       </c>
       <c r="D113">
-        <v>1.75346</v>
+        <v>1.7650699999999999</v>
       </c>
       <c r="E113">
-        <v>1.70675</v>
+        <v>1.7356</v>
       </c>
       <c r="F113">
-        <v>1.7492099999999999</v>
+        <v>1.74343</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>4.8459999999999948</v>
+        <v>4.6710000000000029</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3369,23 +3367,23 @@
         <v>27</v>
       </c>
       <c r="B114" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C114">
-        <v>1.69275</v>
+        <v>1.72888</v>
       </c>
       <c r="D114">
-        <v>1.73641</v>
+        <v>1.75346</v>
       </c>
       <c r="E114">
-        <v>1.6879500000000001</v>
+        <v>1.70675</v>
       </c>
       <c r="F114">
-        <v>1.72925</v>
+        <v>1.7492099999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>6.0359999999999969</v>
+        <v>4.8459999999999948</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3393,23 +3391,23 @@
         <v>27</v>
       </c>
       <c r="B115" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C115">
-        <v>1.6536200000000001</v>
+        <v>1.69275</v>
       </c>
       <c r="D115">
-        <v>1.71102</v>
+        <v>1.73641</v>
       </c>
       <c r="E115">
-        <v>1.65066</v>
+        <v>1.6879500000000001</v>
       </c>
       <c r="F115">
-        <v>1.69801</v>
+        <v>1.72925</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>2.4700000000000166</v>
+        <v>6.0359999999999969</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3417,23 +3415,23 @@
         <v>27</v>
       </c>
       <c r="B116" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C116">
-        <v>1.6501999999999999</v>
+        <v>1.6536200000000001</v>
       </c>
       <c r="D116">
-        <v>1.6722600000000001</v>
+        <v>1.71102</v>
       </c>
       <c r="E116">
-        <v>1.6475599999999999</v>
+        <v>1.65066</v>
       </c>
       <c r="F116">
-        <v>1.6530499999999999</v>
+        <v>1.69801</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>2.022999999999997</v>
+        <v>2.4700000000000166</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3441,23 +3439,23 @@
         <v>27</v>
       </c>
       <c r="B117" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C117">
-        <v>1.6420600000000001</v>
+        <v>1.6501999999999999</v>
       </c>
       <c r="D117">
-        <v>1.65838</v>
+        <v>1.6722600000000001</v>
       </c>
       <c r="E117">
-        <v>1.63815</v>
+        <v>1.6475599999999999</v>
       </c>
       <c r="F117">
-        <v>1.64825</v>
+        <v>1.6530499999999999</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>3.8719999999999866</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3465,23 +3463,23 @@
         <v>27</v>
       </c>
       <c r="B118" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C118">
-        <v>1.63645</v>
+        <v>1.6420600000000001</v>
       </c>
       <c r="D118">
-        <v>1.6567799999999999</v>
+        <v>1.65838</v>
       </c>
       <c r="E118">
-        <v>1.6180600000000001</v>
+        <v>1.63815</v>
       </c>
       <c r="F118">
-        <v>1.64228</v>
+        <v>1.64825</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>4.669000000000012</v>
+        <v>3.8719999999999866</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3489,23 +3487,23 @@
         <v>27</v>
       </c>
       <c r="B119" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C119">
-        <v>1.6083499999999999</v>
+        <v>1.63645</v>
       </c>
       <c r="D119">
-        <v>1.6426000000000001</v>
+        <v>1.6567799999999999</v>
       </c>
       <c r="E119">
-        <v>1.5959099999999999</v>
+        <v>1.6180600000000001</v>
       </c>
       <c r="F119">
-        <v>1.6377999999999999</v>
+        <v>1.64228</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>2.6490000000000125</v>
+        <v>4.669000000000012</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3513,23 +3511,23 @@
         <v>27</v>
       </c>
       <c r="B120" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C120">
-        <v>1.61178</v>
+        <v>1.6083499999999999</v>
       </c>
       <c r="D120">
-        <v>1.6168800000000001</v>
+        <v>1.6426000000000001</v>
       </c>
       <c r="E120">
-        <v>1.59039</v>
+        <v>1.5959099999999999</v>
       </c>
       <c r="F120">
-        <v>1.6084499999999999</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>2.2029999999999994</v>
+        <v>2.6490000000000125</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3537,23 +3535,23 @@
         <v>27</v>
       </c>
       <c r="B121" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C121">
-        <v>1.6186799999999999</v>
+        <v>1.61178</v>
       </c>
       <c r="D121">
-        <v>1.62354</v>
+        <v>1.6168800000000001</v>
       </c>
       <c r="E121">
-        <v>1.60151</v>
+        <v>1.59039</v>
       </c>
       <c r="F121">
-        <v>1.61243</v>
+        <v>1.6084499999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.7670000000000083</v>
+        <v>2.2029999999999994</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3561,23 +3559,23 @@
         <v>27</v>
       </c>
       <c r="B122" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C122">
-        <v>1.6234</v>
+        <v>1.6186799999999999</v>
       </c>
       <c r="D122">
-        <v>1.62693</v>
+        <v>1.62354</v>
       </c>
       <c r="E122">
-        <v>1.5992599999999999</v>
+        <v>1.60151</v>
       </c>
       <c r="F122">
-        <v>1.619</v>
+        <v>1.61243</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.1179999999999977</v>
+        <v>2.7670000000000083</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3585,23 +3583,23 @@
         <v>27</v>
       </c>
       <c r="B123" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C123">
-        <v>1.61633</v>
+        <v>1.6234</v>
       </c>
       <c r="D123">
-        <v>1.6360399999999999</v>
+        <v>1.62693</v>
       </c>
       <c r="E123">
-        <v>1.61486</v>
+        <v>1.5992599999999999</v>
       </c>
       <c r="F123">
-        <v>1.62443</v>
+        <v>1.619</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.7819999999999956</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3609,23 +3607,23 @@
         <v>27</v>
       </c>
       <c r="B124" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C124">
-        <v>1.62425</v>
+        <v>1.61633</v>
       </c>
       <c r="D124">
-        <v>1.6400999999999999</v>
+        <v>1.6360399999999999</v>
       </c>
       <c r="E124">
-        <v>1.6122799999999999</v>
+        <v>1.61486</v>
       </c>
       <c r="F124">
-        <v>1.6190500000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.8279999999999861</v>
+        <v>2.7819999999999956</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3633,23 +3631,23 @@
         <v>27</v>
       </c>
       <c r="B125" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C125">
-        <v>1.62635</v>
+        <v>1.62425</v>
       </c>
       <c r="D125">
-        <v>1.6483399999999999</v>
+        <v>1.6400999999999999</v>
       </c>
       <c r="E125">
-        <v>1.6200600000000001</v>
+        <v>1.6122799999999999</v>
       </c>
       <c r="F125">
-        <v>1.6272500000000001</v>
+        <v>1.6190500000000001</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>5.1530000000000076</v>
+        <v>2.8279999999999861</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3657,23 +3655,23 @@
         <v>27</v>
       </c>
       <c r="B126" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C126">
-        <v>1.66448</v>
+        <v>1.62635</v>
       </c>
       <c r="D126">
-        <v>1.67405</v>
+        <v>1.6483399999999999</v>
       </c>
       <c r="E126">
-        <v>1.62252</v>
+        <v>1.6200600000000001</v>
       </c>
       <c r="F126">
-        <v>1.62538</v>
+        <v>1.6272500000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>4.1300000000000114</v>
+        <v>5.1530000000000076</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3681,23 +3679,23 @@
         <v>27</v>
       </c>
       <c r="B127" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C127">
-        <v>1.6370899999999999</v>
+        <v>1.66448</v>
       </c>
       <c r="D127">
-        <v>1.6766700000000001</v>
+        <v>1.67405</v>
       </c>
       <c r="E127">
-        <v>1.63537</v>
+        <v>1.62252</v>
       </c>
       <c r="F127">
-        <v>1.66208</v>
+        <v>1.62538</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>4.231000000000007</v>
+        <v>4.1300000000000114</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3705,23 +3703,23 @@
         <v>27</v>
       </c>
       <c r="B128" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C128">
-        <v>1.60284</v>
+        <v>1.6370899999999999</v>
       </c>
       <c r="D128">
-        <v>1.6430400000000001</v>
+        <v>1.6766700000000001</v>
       </c>
       <c r="E128">
-        <v>1.60073</v>
+        <v>1.63537</v>
       </c>
       <c r="F128">
-        <v>1.6364300000000001</v>
+        <v>1.66208</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>6.1039999999999983</v>
+        <v>4.231000000000007</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3729,23 +3727,23 @@
         <v>27</v>
       </c>
       <c r="B129" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C129">
-        <v>1.67848</v>
+        <v>1.60284</v>
       </c>
       <c r="D129">
-        <v>1.6810799999999999</v>
+        <v>1.6430400000000001</v>
       </c>
       <c r="E129">
-        <v>1.6200399999999999</v>
+        <v>1.60073</v>
       </c>
       <c r="F129">
-        <v>1.6249800000000001</v>
+        <v>1.6364300000000001</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.9879999999999907</v>
+        <v>6.1039999999999983</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3753,23 +3751,23 @@
         <v>27</v>
       </c>
       <c r="B130" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C130">
-        <v>1.7075499999999999</v>
+        <v>1.67848</v>
       </c>
       <c r="D130">
-        <v>1.70855</v>
+        <v>1.6810799999999999</v>
       </c>
       <c r="E130">
-        <v>1.6786700000000001</v>
+        <v>1.6200399999999999</v>
       </c>
       <c r="F130">
-        <v>1.6834800000000001</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>2.0340000000000025</v>
+        <v>2.9879999999999907</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3777,23 +3775,23 @@
         <v>27</v>
       </c>
       <c r="B131" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C131">
-        <v>1.7087000000000001</v>
+        <v>1.7075499999999999</v>
       </c>
       <c r="D131">
-        <v>1.71374</v>
+        <v>1.70855</v>
       </c>
       <c r="E131">
-        <v>1.6934</v>
+        <v>1.6786700000000001</v>
       </c>
       <c r="F131">
-        <v>1.7099500000000001</v>
+        <v>1.6834800000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>1.7100000000000115</v>
+        <v>2.0340000000000025</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3801,23 +3799,23 @@
         <v>27</v>
       </c>
       <c r="B132" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C132">
-        <v>1.7129000000000001</v>
+        <v>1.7087000000000001</v>
       </c>
       <c r="D132">
-        <v>1.7155</v>
+        <v>1.71374</v>
       </c>
       <c r="E132">
-        <v>1.6983999999999999</v>
+        <v>1.6934</v>
       </c>
       <c r="F132">
-        <v>1.71231</v>
+        <v>1.7099500000000001</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>3.3079999999999998</v>
+        <v>1.7100000000000115</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3825,23 +3823,23 @@
         <v>27</v>
       </c>
       <c r="B133" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C133">
-        <v>1.68824</v>
+        <v>1.7129000000000001</v>
       </c>
       <c r="D133">
-        <v>1.71414</v>
+        <v>1.7155</v>
       </c>
       <c r="E133">
-        <v>1.68106</v>
+        <v>1.6983999999999999</v>
       </c>
       <c r="F133">
-        <v>1.71018</v>
+        <v>1.71231</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>3.3079999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3849,23 +3847,23 @@
         <v>27</v>
       </c>
       <c r="B134" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C134">
-        <v>1.7004300000000001</v>
+        <v>1.68824</v>
       </c>
       <c r="D134">
-        <v>1.71729</v>
+        <v>1.71414</v>
       </c>
       <c r="E134">
-        <v>1.6809000000000001</v>
+        <v>1.68106</v>
       </c>
       <c r="F134">
-        <v>1.68835</v>
+        <v>1.71018</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>6.0719999999999885</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3873,23 +3871,23 @@
         <v>27</v>
       </c>
       <c r="B135" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C135">
-        <v>1.67248</v>
+        <v>1.7004300000000001</v>
       </c>
       <c r="D135">
-        <v>1.7154799999999999</v>
+        <v>1.71729</v>
       </c>
       <c r="E135">
-        <v>1.65476</v>
+        <v>1.6809000000000001</v>
       </c>
       <c r="F135">
-        <v>1.70705</v>
+        <v>1.68835</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>3.3259999999999845</v>
+        <v>6.0719999999999885</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3897,23 +3895,23 @@
         <v>27</v>
       </c>
       <c r="B136" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C136">
-        <v>1.6825000000000001</v>
+        <v>1.67248</v>
       </c>
       <c r="D136">
-        <v>1.69783</v>
+        <v>1.7154799999999999</v>
       </c>
       <c r="E136">
-        <v>1.6645700000000001</v>
+        <v>1.65476</v>
       </c>
       <c r="F136">
-        <v>1.67621</v>
+        <v>1.70705</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>4.5039999999999969</v>
+        <v>3.3259999999999845</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3921,23 +3919,23 @@
         <v>27</v>
       </c>
       <c r="B137" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C137">
-        <v>1.6655500000000001</v>
+        <v>1.6825000000000001</v>
       </c>
       <c r="D137">
-        <v>1.6853499999999999</v>
+        <v>1.69783</v>
       </c>
       <c r="E137">
-        <v>1.6403099999999999</v>
+        <v>1.6645700000000001</v>
       </c>
       <c r="F137">
-        <v>1.6828000000000001</v>
+        <v>1.67621</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>8.5370000000000168</v>
+        <v>4.5039999999999969</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3945,23 +3943,23 @@
         <v>27</v>
       </c>
       <c r="B138" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C138">
-        <v>1.62018</v>
+        <v>1.6655500000000001</v>
       </c>
       <c r="D138">
-        <v>1.6752800000000001</v>
+        <v>1.6853499999999999</v>
       </c>
       <c r="E138">
-        <v>1.5899099999999999</v>
+        <v>1.6403099999999999</v>
       </c>
       <c r="F138">
-        <v>1.6695800000000001</v>
+        <v>1.6828000000000001</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>4.8349999999999893</v>
+        <v>8.5370000000000168</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3969,23 +3967,23 @@
         <v>27</v>
       </c>
       <c r="B139" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C139">
-        <v>1.60361</v>
+        <v>1.62018</v>
       </c>
       <c r="D139">
-        <v>1.63798</v>
+        <v>1.6752800000000001</v>
       </c>
       <c r="E139">
-        <v>1.5896300000000001</v>
+        <v>1.5899099999999999</v>
       </c>
       <c r="F139">
-        <v>1.62978</v>
+        <v>1.6695800000000001</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>3.2340000000000035</v>
+        <v>4.8349999999999893</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3993,23 +3991,23 @@
         <v>27</v>
       </c>
       <c r="B140" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C140">
-        <v>1.6068199999999999</v>
+        <v>1.60361</v>
       </c>
       <c r="D140">
-        <v>1.6113299999999999</v>
+        <v>1.63798</v>
       </c>
       <c r="E140">
-        <v>1.5789899999999999</v>
+        <v>1.5896300000000001</v>
       </c>
       <c r="F140">
-        <v>1.60433</v>
+        <v>1.62978</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>2.3009999999999975</v>
+        <v>3.2340000000000035</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4017,23 +4015,23 @@
         <v>27</v>
       </c>
       <c r="B141" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C141">
-        <v>1.5970500000000001</v>
+        <v>1.6068199999999999</v>
       </c>
       <c r="D141">
-        <v>1.6107899999999999</v>
+        <v>1.6113299999999999</v>
       </c>
       <c r="E141">
-        <v>1.58778</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="F141">
-        <v>1.6079300000000001</v>
+        <v>1.60433</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>4.2519999999999891</v>
+        <v>2.3009999999999975</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4041,23 +4039,23 @@
         <v>27</v>
       </c>
       <c r="B142" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C142">
-        <v>1.63554</v>
+        <v>1.5970500000000001</v>
       </c>
       <c r="D142">
-        <v>1.6382399999999999</v>
+        <v>1.6107899999999999</v>
       </c>
       <c r="E142">
-        <v>1.59572</v>
+        <v>1.58778</v>
       </c>
       <c r="F142">
-        <v>1.6015699999999999</v>
+        <v>1.6079300000000001</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>19.363999999999983</v>
+        <v>4.2519999999999891</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4065,23 +4063,23 @@
         <v>27</v>
       </c>
       <c r="B143" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C143">
-        <v>1.6889099999999999</v>
+        <v>1.63554</v>
       </c>
       <c r="D143">
-        <v>1.6924699999999999</v>
+        <v>1.6382399999999999</v>
       </c>
       <c r="E143">
-        <v>1.4988300000000001</v>
+        <v>1.59572</v>
       </c>
       <c r="F143">
-        <v>1.63985</v>
+        <v>1.6015699999999999</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.0089999999999941</v>
+        <v>19.363999999999983</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4089,23 +4087,23 @@
         <v>27</v>
       </c>
       <c r="B144" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C144">
-        <v>1.7018599999999999</v>
+        <v>1.6889099999999999</v>
       </c>
       <c r="D144">
-        <v>1.7071799999999999</v>
+        <v>1.6924699999999999</v>
       </c>
       <c r="E144">
-        <v>1.68709</v>
+        <v>1.4988300000000001</v>
       </c>
       <c r="F144">
-        <v>1.6942299999999999</v>
+        <v>1.63985</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>4.4009999999999883</v>
+        <v>2.0089999999999941</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4113,23 +4111,23 @@
         <v>27</v>
       </c>
       <c r="B145" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C145">
-        <v>1.7372000000000001</v>
+        <v>1.7018599999999999</v>
       </c>
       <c r="D145">
-        <v>1.73827</v>
+        <v>1.7071799999999999</v>
       </c>
       <c r="E145">
-        <v>1.6942600000000001</v>
+        <v>1.68709</v>
       </c>
       <c r="F145">
-        <v>1.7012499999999999</v>
+        <v>1.6942299999999999</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>4.4789999999999885</v>
+        <v>4.4009999999999883</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4137,23 +4135,23 @@
         <v>27</v>
       </c>
       <c r="B146" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C146">
-        <v>1.75871</v>
+        <v>1.7372000000000001</v>
       </c>
       <c r="D146">
-        <v>1.77999</v>
+        <v>1.73827</v>
       </c>
       <c r="E146">
-        <v>1.7352000000000001</v>
+        <v>1.6942600000000001</v>
       </c>
       <c r="F146">
-        <v>1.7358100000000001</v>
+        <v>1.7012499999999999</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>3.4899999999999931</v>
+        <v>4.4789999999999885</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4161,23 +4159,23 @@
         <v>27</v>
       </c>
       <c r="B147" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C147">
-        <v>1.7556499999999999</v>
+        <v>1.75871</v>
       </c>
       <c r="D147">
-        <v>1.7614799999999999</v>
+        <v>1.77999</v>
       </c>
       <c r="E147">
-        <v>1.72658</v>
+        <v>1.7352000000000001</v>
       </c>
       <c r="F147">
-        <v>1.7608999999999999</v>
+        <v>1.7358100000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>4.1059999999999874</v>
+        <v>3.4899999999999931</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4185,23 +4183,23 @@
         <v>27</v>
       </c>
       <c r="B148" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C148">
-        <v>1.7360800000000001</v>
+        <v>1.7556499999999999</v>
       </c>
       <c r="D148">
-        <v>1.76718</v>
+        <v>1.7614799999999999</v>
       </c>
       <c r="E148">
-        <v>1.7261200000000001</v>
+        <v>1.72658</v>
       </c>
       <c r="F148">
-        <v>1.7563500000000001</v>
+        <v>1.7608999999999999</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.1059999999999874</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4209,23 +4207,23 @@
         <v>27</v>
       </c>
       <c r="B149" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C149">
-        <v>1.7168600000000001</v>
+        <v>1.7360800000000001</v>
       </c>
       <c r="D149">
-        <v>1.7416499999999999</v>
+        <v>1.76718</v>
       </c>
       <c r="E149">
-        <v>1.71373</v>
+        <v>1.7261200000000001</v>
       </c>
       <c r="F149">
-        <v>1.7372300000000001</v>
+        <v>1.7563500000000001</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>5.3949999999999942</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4233,23 +4231,23 @@
         <v>27</v>
       </c>
       <c r="B150" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C150">
-        <v>1.68699</v>
+        <v>1.7168600000000001</v>
       </c>
       <c r="D150">
-        <v>1.7259199999999999</v>
+        <v>1.7416499999999999</v>
       </c>
       <c r="E150">
-        <v>1.67197</v>
+        <v>1.71373</v>
       </c>
       <c r="F150">
-        <v>1.7153799999999999</v>
+        <v>1.7372300000000001</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>4.3619999999999992</v>
+        <v>5.3949999999999942</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4257,23 +4255,23 @@
         <v>27</v>
       </c>
       <c r="B151" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C151">
-        <v>1.71953</v>
+        <v>1.68699</v>
       </c>
       <c r="D151">
-        <v>1.72228</v>
+        <v>1.7259199999999999</v>
       </c>
       <c r="E151">
-        <v>1.67866</v>
+        <v>1.67197</v>
       </c>
       <c r="F151">
-        <v>1.6876500000000001</v>
+        <v>1.7153799999999999</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>5.4929999999999923</v>
+        <v>4.3619999999999992</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4281,23 +4279,23 @@
         <v>27</v>
       </c>
       <c r="B152" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C152">
-        <v>1.7424999999999999</v>
+        <v>1.71953</v>
       </c>
       <c r="D152">
-        <v>1.7617499999999999</v>
+        <v>1.72228</v>
       </c>
       <c r="E152">
-        <v>1.70682</v>
+        <v>1.67866</v>
       </c>
       <c r="F152">
-        <v>1.71513</v>
+        <v>1.6876500000000001</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>3.2189999999999941</v>
+        <v>5.4929999999999923</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4305,23 +4303,23 @@
         <v>27</v>
       </c>
       <c r="B153" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C153">
-        <v>1.7583200000000001</v>
+        <v>1.7424999999999999</v>
       </c>
       <c r="D153">
-        <v>1.7679199999999999</v>
+        <v>1.7617499999999999</v>
       </c>
       <c r="E153">
-        <v>1.73573</v>
+        <v>1.70682</v>
       </c>
       <c r="F153">
-        <v>1.7396199999999999</v>
+        <v>1.71513</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>4.0680000000000049</v>
+        <v>3.2189999999999941</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4329,23 +4327,23 @@
         <v>27</v>
       </c>
       <c r="B154" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C154">
-        <v>1.7383500000000001</v>
+        <v>1.7583200000000001</v>
       </c>
       <c r="D154">
-        <v>1.77871</v>
+        <v>1.7679199999999999</v>
       </c>
       <c r="E154">
-        <v>1.73803</v>
+        <v>1.73573</v>
       </c>
       <c r="F154">
-        <v>1.7556799999999999</v>
+        <v>1.7396199999999999</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>5.9120000000000061</v>
+        <v>4.0680000000000049</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4353,23 +4351,23 @@
         <v>27</v>
       </c>
       <c r="B155" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C155">
-        <v>1.7117199999999999</v>
+        <v>1.7383500000000001</v>
       </c>
       <c r="D155">
-        <v>1.76353</v>
+        <v>1.77871</v>
       </c>
       <c r="E155">
-        <v>1.70441</v>
+        <v>1.73803</v>
       </c>
       <c r="F155">
-        <v>1.73803</v>
+        <v>1.7556799999999999</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>7.0259999999999989</v>
+        <v>5.9120000000000061</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4377,23 +4375,23 @@
         <v>27</v>
       </c>
       <c r="B156" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C156">
-        <v>1.78016</v>
+        <v>1.7117199999999999</v>
       </c>
       <c r="D156">
-        <v>1.78023</v>
+        <v>1.76353</v>
       </c>
       <c r="E156">
-        <v>1.70997</v>
+        <v>1.70441</v>
       </c>
       <c r="F156">
-        <v>1.71139</v>
+        <v>1.73803</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>4.9339999999999939</v>
+        <v>7.0259999999999989</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4401,23 +4399,23 @@
         <v>27</v>
       </c>
       <c r="B157" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C157">
-        <v>1.80535</v>
+        <v>1.78016</v>
       </c>
       <c r="D157">
-        <v>1.8191299999999999</v>
+        <v>1.78023</v>
       </c>
       <c r="E157">
-        <v>1.76979</v>
+        <v>1.70997</v>
       </c>
       <c r="F157">
-        <v>1.7715099999999999</v>
+        <v>1.71139</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>17.331999999999994</v>
+        <v>4.9339999999999939</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4425,23 +4423,23 @@
         <v>27</v>
       </c>
       <c r="B158" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C158">
-        <v>1.94547</v>
+        <v>1.80535</v>
       </c>
       <c r="D158">
-        <v>1.9737199999999999</v>
+        <v>1.8191299999999999</v>
       </c>
       <c r="E158">
-        <v>1.8004</v>
+        <v>1.76979</v>
       </c>
       <c r="F158">
-        <v>1.83073</v>
+        <v>1.7715099999999999</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>4.0959999999999885</v>
+        <v>17.331999999999994</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4449,23 +4447,23 @@
         <v>27</v>
       </c>
       <c r="B159" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C159">
-        <v>1.9313499999999999</v>
+        <v>1.94547</v>
       </c>
       <c r="D159">
-        <v>1.9445699999999999</v>
+        <v>1.9737199999999999</v>
       </c>
       <c r="E159">
-        <v>1.90361</v>
+        <v>1.8004</v>
       </c>
       <c r="F159">
-        <v>1.94198</v>
+        <v>1.83073</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>6.01799999999999</v>
+        <v>4.0959999999999885</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4473,23 +4471,23 @@
         <v>27</v>
       </c>
       <c r="B160" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C160">
-        <v>1.96573</v>
+        <v>1.9313499999999999</v>
       </c>
       <c r="D160">
-        <v>1.9836499999999999</v>
+        <v>1.9445699999999999</v>
       </c>
       <c r="E160">
-        <v>1.92347</v>
+        <v>1.90361</v>
       </c>
       <c r="F160">
-        <v>1.9342600000000001</v>
+        <v>1.94198</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>7.3670000000000124</v>
+        <v>6.01799999999999</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4497,23 +4495,23 @@
         <v>27</v>
       </c>
       <c r="B161" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C161">
-        <v>2.03443</v>
+        <v>1.96573</v>
       </c>
       <c r="D161">
-        <v>2.0437400000000001</v>
+        <v>1.9836499999999999</v>
       </c>
       <c r="E161">
-        <v>1.97007</v>
+        <v>1.92347</v>
       </c>
       <c r="F161">
-        <v>1.97027</v>
+        <v>1.9342600000000001</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>5.2340000000000053</v>
+        <v>7.3670000000000124</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4521,23 +4519,23 @@
         <v>27</v>
       </c>
       <c r="B162" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C162">
-        <v>2.0055800000000001</v>
+        <v>2.03443</v>
       </c>
       <c r="D162">
-        <v>2.0524499999999999</v>
+        <v>2.0437400000000001</v>
       </c>
       <c r="E162">
-        <v>2.0001099999999998</v>
+        <v>1.97007</v>
       </c>
       <c r="F162">
-        <v>2.03268</v>
+        <v>1.97027</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>6.9320000000000048</v>
+        <v>5.2340000000000053</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4545,23 +4543,23 @@
         <v>27</v>
       </c>
       <c r="B163" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C163">
-        <v>1.9771700000000001</v>
+        <v>2.0055800000000001</v>
       </c>
       <c r="D163">
-        <v>2.03525</v>
+        <v>2.0524499999999999</v>
       </c>
       <c r="E163">
-        <v>1.96593</v>
+        <v>2.0001099999999998</v>
       </c>
       <c r="F163">
-        <v>2.0067599999999999</v>
+        <v>2.03268</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>2.737999999999996</v>
+        <v>6.9320000000000048</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4569,23 +4567,23 @@
         <v>27</v>
       </c>
       <c r="B164" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C164">
-        <v>1.9578199999999999</v>
+        <v>1.9771700000000001</v>
       </c>
       <c r="D164">
-        <v>1.9803599999999999</v>
+        <v>2.03525</v>
       </c>
       <c r="E164">
-        <v>1.9529799999999999</v>
+        <v>1.96593</v>
       </c>
       <c r="F164">
-        <v>1.97628</v>
+        <v>2.0067599999999999</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>7.0680000000000076</v>
+        <v>2.737999999999996</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4593,23 +4591,23 @@
         <v>27</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C165">
-        <v>1.91726</v>
+        <v>1.9578199999999999</v>
       </c>
       <c r="D165">
-        <v>1.97265</v>
+        <v>1.9803599999999999</v>
       </c>
       <c r="E165">
-        <v>1.9019699999999999</v>
+        <v>1.9529799999999999</v>
       </c>
       <c r="F165">
-        <v>1.9577</v>
+        <v>1.97628</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>5.6849999999999845</v>
+        <v>7.0680000000000076</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4617,23 +4615,23 @@
         <v>27</v>
       </c>
       <c r="B166" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C166">
-        <v>1.87521</v>
+        <v>1.91726</v>
       </c>
       <c r="D166">
-        <v>1.9245699999999999</v>
+        <v>1.97265</v>
       </c>
       <c r="E166">
-        <v>1.86772</v>
+        <v>1.9019699999999999</v>
       </c>
       <c r="F166">
-        <v>1.9204000000000001</v>
+        <v>1.9577</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>4.3570000000000109</v>
+        <v>5.6849999999999845</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4641,23 +4639,23 @@
         <v>27</v>
       </c>
       <c r="B167" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C167">
-        <v>1.8510500000000001</v>
+        <v>1.87521</v>
       </c>
       <c r="D167">
-        <v>1.8708</v>
+        <v>1.9245699999999999</v>
       </c>
       <c r="E167">
-        <v>1.8272299999999999</v>
+        <v>1.86772</v>
       </c>
       <c r="F167">
-        <v>1.87035</v>
+        <v>1.9204000000000001</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>5.4980000000000029</v>
+        <v>4.3570000000000109</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4665,23 +4663,23 @@
         <v>27</v>
       </c>
       <c r="B168" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C168">
-        <v>1.8705799999999999</v>
+        <v>1.8510500000000001</v>
       </c>
       <c r="D168">
-        <v>1.8855299999999999</v>
+        <v>1.8708</v>
       </c>
       <c r="E168">
-        <v>1.8305499999999999</v>
+        <v>1.8272299999999999</v>
       </c>
       <c r="F168">
-        <v>1.84005</v>
+        <v>1.87035</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>3.8059999999999983</v>
+        <v>5.4980000000000029</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4689,23 +4687,23 @@
         <v>27</v>
       </c>
       <c r="B169" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C169">
-        <v>1.8517399999999999</v>
+        <v>1.8705799999999999</v>
       </c>
       <c r="D169">
-        <v>1.8889499999999999</v>
+        <v>1.8855299999999999</v>
       </c>
       <c r="E169">
-        <v>1.8508899999999999</v>
+        <v>1.8305499999999999</v>
       </c>
       <c r="F169">
-        <v>1.8709</v>
+        <v>1.84005</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>5.1470000000000127</v>
+        <v>3.8059999999999983</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4713,23 +4711,23 @@
         <v>27</v>
       </c>
       <c r="B170" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C170">
-        <v>1.8815500000000001</v>
+        <v>1.8517399999999999</v>
       </c>
       <c r="D170">
-        <v>1.9002600000000001</v>
+        <v>1.8889499999999999</v>
       </c>
       <c r="E170">
-        <v>1.8487899999999999</v>
+        <v>1.8508899999999999</v>
       </c>
       <c r="F170">
-        <v>1.8521000000000001</v>
+        <v>1.8709</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>4.9670000000000103</v>
+        <v>5.1470000000000127</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4737,23 +4735,23 @@
         <v>27</v>
       </c>
       <c r="B171" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C171">
-        <v>1.9028799999999999</v>
+        <v>1.8815500000000001</v>
       </c>
       <c r="D171">
-        <v>1.9087000000000001</v>
+        <v>1.9002600000000001</v>
       </c>
       <c r="E171">
-        <v>1.85903</v>
+        <v>1.8487899999999999</v>
       </c>
       <c r="F171">
-        <v>1.88409</v>
+        <v>1.8521000000000001</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>4.5259999999999856</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4761,23 +4759,23 @@
         <v>27</v>
       </c>
       <c r="B172" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C172">
-        <v>1.90371</v>
+        <v>1.9028799999999999</v>
       </c>
       <c r="D172">
-        <v>1.9106399999999999</v>
+        <v>1.9087000000000001</v>
       </c>
       <c r="E172">
-        <v>1.86538</v>
+        <v>1.85903</v>
       </c>
       <c r="F172">
-        <v>1.9040999999999999</v>
+        <v>1.88409</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>3.6270000000000024</v>
+        <v>4.5259999999999856</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4785,23 +4783,23 @@
         <v>27</v>
       </c>
       <c r="B173" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C173">
-        <v>1.91988</v>
+        <v>1.90371</v>
       </c>
       <c r="D173">
-        <v>1.92469</v>
+        <v>1.9106399999999999</v>
       </c>
       <c r="E173">
-        <v>1.88842</v>
+        <v>1.86538</v>
       </c>
       <c r="F173">
-        <v>1.9031499999999999</v>
+        <v>1.9040999999999999</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>5.4769999999999985</v>
+        <v>3.6270000000000024</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4809,23 +4807,23 @@
         <v>27</v>
       </c>
       <c r="B174" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C174">
-        <v>1.9454199999999999</v>
+        <v>1.91988</v>
       </c>
       <c r="D174">
-        <v>1.9602999999999999</v>
+        <v>1.92469</v>
       </c>
       <c r="E174">
-        <v>1.9055299999999999</v>
+        <v>1.88842</v>
       </c>
       <c r="F174">
-        <v>1.9137299999999999</v>
+        <v>1.9031499999999999</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>7.7090000000000103</v>
+        <v>5.4769999999999985</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4833,23 +4831,23 @@
         <v>27</v>
       </c>
       <c r="B175" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C175">
-        <v>1.9923999999999999</v>
+        <v>1.9454199999999999</v>
       </c>
       <c r="D175">
-        <v>2.0033300000000001</v>
+        <v>1.9602999999999999</v>
       </c>
       <c r="E175">
-        <v>1.92624</v>
+        <v>1.9055299999999999</v>
       </c>
       <c r="F175">
-        <v>1.9455</v>
+        <v>1.9137299999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>5.3680000000000172</v>
+        <v>7.7090000000000103</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4857,23 +4855,23 @@
         <v>27</v>
       </c>
       <c r="B176" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C176">
-        <v>2.0388299999999999</v>
+        <v>1.9923999999999999</v>
       </c>
       <c r="D176">
-        <v>2.0419800000000001</v>
+        <v>2.0033300000000001</v>
       </c>
       <c r="E176">
-        <v>1.9883</v>
+        <v>1.92624</v>
       </c>
       <c r="F176">
-        <v>2.0116000000000001</v>
+        <v>1.9455</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>3.8689999999999891</v>
+        <v>5.3680000000000172</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4881,23 +4879,23 @@
         <v>27</v>
       </c>
       <c r="B177" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C177">
-        <v>2.04684</v>
+        <v>2.0388299999999999</v>
       </c>
       <c r="D177">
-        <v>2.0662799999999999</v>
+        <v>2.0419800000000001</v>
       </c>
       <c r="E177">
-        <v>2.02759</v>
+        <v>1.9883</v>
       </c>
       <c r="F177">
-        <v>2.04088</v>
+        <v>2.0116000000000001</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>4.6949999999999825</v>
+        <v>3.8689999999999891</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4905,23 +4903,23 @@
         <v>27</v>
       </c>
       <c r="B178" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C178">
-        <v>2.0108799999999998</v>
+        <v>2.04684</v>
       </c>
       <c r="D178">
-        <v>2.0567799999999998</v>
+        <v>2.0662799999999999</v>
       </c>
       <c r="E178">
-        <v>2.00983</v>
+        <v>2.02759</v>
       </c>
       <c r="F178">
-        <v>2.0497299999999998</v>
+        <v>2.04088</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>5.3620000000000001</v>
+        <v>4.6949999999999825</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4929,23 +4927,23 @@
         <v>27</v>
       </c>
       <c r="B179" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C179">
-        <v>2.0353699999999999</v>
+        <v>2.0108799999999998</v>
       </c>
       <c r="D179">
-        <v>2.0532300000000001</v>
+        <v>2.0567799999999998</v>
       </c>
       <c r="E179">
-        <v>1.9996100000000001</v>
+        <v>2.00983</v>
       </c>
       <c r="F179">
-        <v>2.0122800000000001</v>
+        <v>2.0497299999999998</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>6.1029999999999696</v>
+        <v>5.3620000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4953,23 +4951,23 @@
         <v>27</v>
       </c>
       <c r="B180" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C180">
-        <v>2.0832799999999998</v>
+        <v>2.0353699999999999</v>
       </c>
       <c r="D180">
-        <v>2.0832799999999998</v>
+        <v>2.0532300000000001</v>
       </c>
       <c r="E180">
-        <v>2.0222500000000001</v>
+        <v>1.9996100000000001</v>
       </c>
       <c r="F180">
-        <v>2.0359799999999999</v>
+        <v>2.0122800000000001</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>4.980999999999991</v>
+        <v>6.1029999999999696</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4977,23 +4975,23 @@
         <v>27</v>
       </c>
       <c r="B181" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C181">
-        <v>2.08291</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="D181">
-        <v>2.0976900000000001</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="E181">
-        <v>2.0478800000000001</v>
+        <v>2.0222500000000001</v>
       </c>
       <c r="F181">
-        <v>2.0749</v>
+        <v>2.0359799999999999</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>7.2830000000000172</v>
+        <v>4.980999999999991</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5001,23 +4999,23 @@
         <v>27</v>
       </c>
       <c r="B182" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C182">
-        <v>2.02075</v>
+        <v>2.08291</v>
       </c>
       <c r="D182">
-        <v>2.0905800000000001</v>
+        <v>2.0976900000000001</v>
       </c>
       <c r="E182">
-        <v>2.0177499999999999</v>
+        <v>2.0478800000000001</v>
       </c>
       <c r="F182">
-        <v>2.0846499999999999</v>
+        <v>2.0749</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>3.9410000000000167</v>
+        <v>7.2830000000000172</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5025,23 +5023,23 @@
         <v>27</v>
       </c>
       <c r="B183" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C183">
-        <v>2.0453800000000002</v>
+        <v>2.02075</v>
       </c>
       <c r="D183">
-        <v>2.0565600000000002</v>
+        <v>2.0905800000000001</v>
       </c>
       <c r="E183">
-        <v>2.01715</v>
+        <v>2.0177499999999999</v>
       </c>
       <c r="F183">
-        <v>2.0242499999999999</v>
+        <v>2.0846499999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>3.9959999999999773</v>
+        <v>3.9410000000000167</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5049,23 +5047,23 @@
         <v>27</v>
       </c>
       <c r="B184" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C184">
-        <v>2.07795</v>
+        <v>2.0453800000000002</v>
       </c>
       <c r="D184">
-        <v>2.0840999999999998</v>
+        <v>2.0565600000000002</v>
       </c>
       <c r="E184">
-        <v>2.0441400000000001</v>
+        <v>2.01715</v>
       </c>
       <c r="F184">
-        <v>2.0489099999999998</v>
+        <v>2.0242499999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>5.1400000000000112</v>
+        <v>3.9959999999999773</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5073,23 +5071,23 @@
         <v>27</v>
       </c>
       <c r="B185" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C185">
-        <v>2.11374</v>
+        <v>2.07795</v>
       </c>
       <c r="D185">
-        <v>2.1216900000000001</v>
+        <v>2.0840999999999998</v>
       </c>
       <c r="E185">
-        <v>2.07029</v>
+        <v>2.0441400000000001</v>
       </c>
       <c r="F185">
-        <v>2.0785999999999998</v>
+        <v>2.0489099999999998</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>6.2519999999999687</v>
+        <v>5.1400000000000112</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5097,23 +5095,23 @@
         <v>27</v>
       </c>
       <c r="B186" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C186">
-        <v>2.0563600000000002</v>
+        <v>2.11374</v>
       </c>
       <c r="D186">
-        <v>2.1188799999999999</v>
+        <v>2.1216900000000001</v>
       </c>
       <c r="E186">
-        <v>2.0563600000000002</v>
+        <v>2.07029</v>
       </c>
       <c r="F186">
-        <v>2.1173000000000002</v>
+        <v>2.0785999999999998</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>6.1900000000000066</v>
+        <v>6.2519999999999687</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5121,23 +5119,23 @@
         <v>27</v>
       </c>
       <c r="B187" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C187">
-        <v>2.08996</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="D187">
-        <v>2.09599</v>
+        <v>2.1188799999999999</v>
       </c>
       <c r="E187">
-        <v>2.03409</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="F187">
-        <v>2.0584500000000001</v>
+        <v>2.1173000000000002</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>4.4019999999999726</v>
+        <v>6.1900000000000066</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5145,23 +5143,23 @@
         <v>27</v>
       </c>
       <c r="B188" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C188">
-        <v>2.09918</v>
+        <v>2.08996</v>
       </c>
       <c r="D188">
-        <v>2.1170599999999999</v>
+        <v>2.09599</v>
       </c>
       <c r="E188">
-        <v>2.0730400000000002</v>
+        <v>2.03409</v>
       </c>
       <c r="F188">
-        <v>2.09</v>
+        <v>2.0584500000000001</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>5.4419999999999913</v>
+        <v>4.4019999999999726</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5169,23 +5167,23 @@
         <v>27</v>
       </c>
       <c r="B189" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C189">
-        <v>2.13768</v>
+        <v>2.09918</v>
       </c>
       <c r="D189">
-        <v>2.1513499999999999</v>
+        <v>2.1170599999999999</v>
       </c>
       <c r="E189">
-        <v>2.09693</v>
+        <v>2.0730400000000002</v>
       </c>
       <c r="F189">
-        <v>2.09918</v>
+        <v>2.09</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>3.3100000000000129</v>
+        <v>5.4419999999999913</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5193,23 +5191,23 @@
         <v>27</v>
       </c>
       <c r="B190" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C190">
-        <v>2.1417000000000002</v>
+        <v>2.13768</v>
       </c>
       <c r="D190">
-        <v>2.1571500000000001</v>
+        <v>2.1513499999999999</v>
       </c>
       <c r="E190">
-        <v>2.12405</v>
+        <v>2.09693</v>
       </c>
       <c r="F190">
-        <v>2.1373000000000002</v>
+        <v>2.09918</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>5.8140000000000303</v>
+        <v>3.3100000000000129</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5217,23 +5215,23 @@
         <v>27</v>
       </c>
       <c r="B191" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C191">
-        <v>2.1713800000000001</v>
+        <v>2.1417000000000002</v>
       </c>
       <c r="D191">
-        <v>2.1713800000000001</v>
+        <v>2.1571500000000001</v>
       </c>
       <c r="E191">
-        <v>2.1132399999999998</v>
+        <v>2.12405</v>
       </c>
       <c r="F191">
-        <v>2.1365500000000002</v>
+        <v>2.1373000000000002</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>5.9060000000000112</v>
+        <v>5.8140000000000303</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5241,23 +5239,23 @@
         <v>27</v>
       </c>
       <c r="B192" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C192">
-        <v>2.1217800000000002</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="D192">
-        <v>2.1690800000000001</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="E192">
-        <v>2.11002</v>
+        <v>2.1132399999999998</v>
       </c>
       <c r="F192">
-        <v>2.1624300000000001</v>
+        <v>2.1365500000000002</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>3.907000000000016</v>
+        <v>5.9060000000000112</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5265,23 +5263,23 @@
         <v>27</v>
       </c>
       <c r="B193" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C193">
-        <v>2.12459</v>
+        <v>2.1217800000000002</v>
       </c>
       <c r="D193">
-        <v>2.1485500000000002</v>
+        <v>2.1690800000000001</v>
       </c>
       <c r="E193">
-        <v>2.10948</v>
+        <v>2.11002</v>
       </c>
       <c r="F193">
-        <v>2.1212399999999998</v>
+        <v>2.1624300000000001</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>5.168000000000017</v>
+        <v>3.907000000000016</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5289,23 +5287,23 @@
         <v>27</v>
       </c>
       <c r="B194" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C194">
-        <v>2.0911</v>
+        <v>2.12459</v>
       </c>
       <c r="D194">
-        <v>2.13063</v>
+        <v>2.1485500000000002</v>
       </c>
       <c r="E194">
-        <v>2.0789499999999999</v>
+        <v>2.10948</v>
       </c>
       <c r="F194">
-        <v>2.1221299999999998</v>
+        <v>2.1212399999999998</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>7.1470000000000145</v>
+        <v>5.168000000000017</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5313,23 +5311,23 @@
         <v>27</v>
       </c>
       <c r="B195" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C195">
-        <v>2.1492599999999999</v>
+        <v>2.0911</v>
       </c>
       <c r="D195">
-        <v>2.1570800000000001</v>
+        <v>2.13063</v>
       </c>
       <c r="E195">
-        <v>2.08561</v>
+        <v>2.0789499999999999</v>
       </c>
       <c r="F195">
-        <v>2.08928</v>
+        <v>2.1221299999999998</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>4.8669999999999991</v>
+        <v>7.1470000000000145</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5337,23 +5335,23 @@
         <v>27</v>
       </c>
       <c r="B196" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C196">
-        <v>2.1646899999999998</v>
+        <v>2.1492599999999999</v>
       </c>
       <c r="D196">
-        <v>2.1862699999999999</v>
+        <v>2.1570800000000001</v>
       </c>
       <c r="E196">
-        <v>2.1375999999999999</v>
+        <v>2.08561</v>
       </c>
       <c r="F196">
-        <v>2.1524999999999999</v>
+        <v>2.08928</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>4.5319999999999805</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5361,23 +5359,23 @@
         <v>27</v>
       </c>
       <c r="B197" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C197">
-        <v>2.1593399999999998</v>
+        <v>2.1646899999999998</v>
       </c>
       <c r="D197">
-        <v>2.2008299999999998</v>
+        <v>2.1862699999999999</v>
       </c>
       <c r="E197">
-        <v>2.15551</v>
+        <v>2.1375999999999999</v>
       </c>
       <c r="F197">
-        <v>2.1633800000000001</v>
+        <v>2.1524999999999999</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>5.1610000000000156</v>
+        <v>4.5319999999999805</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5385,23 +5383,23 @@
         <v>27</v>
       </c>
       <c r="B198" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C198">
-        <v>2.1772</v>
+        <v>2.1593399999999998</v>
       </c>
       <c r="D198">
-        <v>2.1869800000000001</v>
+        <v>2.2008299999999998</v>
       </c>
       <c r="E198">
-        <v>2.13537</v>
+        <v>2.15551</v>
       </c>
       <c r="F198">
-        <v>2.1593900000000001</v>
+        <v>2.1633800000000001</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>4.3260000000000076</v>
+        <v>5.1610000000000156</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5409,23 +5407,23 @@
         <v>27</v>
       </c>
       <c r="B199" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C199">
-        <v>2.1942599999999999</v>
+        <v>2.1772</v>
       </c>
       <c r="D199">
-        <v>2.21075</v>
+        <v>2.1869800000000001</v>
       </c>
       <c r="E199">
-        <v>2.1674899999999999</v>
+        <v>2.13537</v>
       </c>
       <c r="F199">
-        <v>2.1763499999999998</v>
+        <v>2.1593900000000001</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>5.08099999999998</v>
+        <v>4.3260000000000076</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5433,23 +5431,22 @@
         <v>27</v>
       </c>
       <c r="B200" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C200">
-        <v>2.1503000000000001</v>
+        <v>2.1942599999999999</v>
       </c>
       <c r="D200">
-        <v>2.2005499999999998</v>
+        <v>2.21075</v>
       </c>
       <c r="E200">
-        <v>2.14974</v>
+        <v>2.1674899999999999</v>
       </c>
       <c r="F200">
-        <v>2.19435</v>
+        <v>2.1763499999999998</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/27_GBPAUD.xlsx
+++ b/volatility/src/xls/27_GBPAUD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
+    <workbookView xWindow="160" yWindow="-80" windowWidth="23380" windowHeight="20980" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>75.8</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>24122</v>
+        <v>40203</v>
       </c>
       <c r="E6" s="5">
         <v>180.5</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>3.2950000000000035</v>
+        <v>3.1749999999999945</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +679,23 @@
         <v>27</v>
       </c>
       <c r="B2" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C2">
-        <v>1.8371299999999999</v>
+        <v>1.8051999999999999</v>
       </c>
       <c r="D2">
-        <v>1.83849</v>
+        <v>1.8170599999999999</v>
       </c>
       <c r="E2">
-        <v>1.8055399999999999</v>
+        <v>1.78531</v>
       </c>
       <c r="F2">
-        <v>1.80785</v>
+        <v>1.7940400000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>2.0279999999999854</v>
+        <v>3.2950000000000035</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +703,23 @@
         <v>27</v>
       </c>
       <c r="B3" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C3">
-        <v>1.83114</v>
+        <v>1.8371299999999999</v>
       </c>
       <c r="D3">
-        <v>1.8421099999999999</v>
+        <v>1.83849</v>
       </c>
       <c r="E3">
-        <v>1.8218300000000001</v>
+        <v>1.8055399999999999</v>
       </c>
       <c r="F3">
-        <v>1.8386100000000001</v>
+        <v>1.80785</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>2.1109999999999962</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +727,23 @@
         <v>27</v>
       </c>
       <c r="B4" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C4">
-        <v>1.8177300000000001</v>
+        <v>1.83114</v>
       </c>
       <c r="D4">
-        <v>1.8385400000000001</v>
+        <v>1.8421099999999999</v>
       </c>
       <c r="E4">
-        <v>1.8174300000000001</v>
+        <v>1.8218300000000001</v>
       </c>
       <c r="F4">
-        <v>1.83135</v>
+        <v>1.8386100000000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.5090000000000048</v>
+        <v>2.1109999999999962</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +751,23 @@
         <v>27</v>
       </c>
       <c r="B5" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C5">
-        <v>1.8221499999999999</v>
+        <v>1.8177300000000001</v>
       </c>
       <c r="D5">
-        <v>1.8268200000000001</v>
+        <v>1.8385400000000001</v>
       </c>
       <c r="E5">
-        <v>1.8117300000000001</v>
+        <v>1.8174300000000001</v>
       </c>
       <c r="F5">
-        <v>1.81999</v>
+        <v>1.83135</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.1460000000000035</v>
+        <v>1.5090000000000048</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +775,23 @@
         <v>27</v>
       </c>
       <c r="B6" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C6">
-        <v>1.8355600000000001</v>
+        <v>1.8221499999999999</v>
       </c>
       <c r="D6">
-        <v>1.83839</v>
+        <v>1.8268200000000001</v>
       </c>
       <c r="E6">
-        <v>1.8169299999999999</v>
+        <v>1.8117300000000001</v>
       </c>
       <c r="F6">
-        <v>1.8211299999999999</v>
+        <v>1.81999</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>3.176000000000001</v>
+        <v>2.1460000000000035</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +799,23 @@
         <v>27</v>
       </c>
       <c r="B7" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C7">
-        <v>1.8448199999999999</v>
+        <v>1.8355600000000001</v>
       </c>
       <c r="D7">
-        <v>1.8615999999999999</v>
+        <v>1.83839</v>
       </c>
       <c r="E7">
-        <v>1.8298399999999999</v>
+        <v>1.8169299999999999</v>
       </c>
       <c r="F7">
-        <v>1.83483</v>
+        <v>1.8211299999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>2.1179999999999977</v>
+        <v>3.176000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +823,23 @@
         <v>27</v>
       </c>
       <c r="B8" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C8">
-        <v>1.8576900000000001</v>
+        <v>1.8448199999999999</v>
       </c>
       <c r="D8">
-        <v>1.87155</v>
+        <v>1.8615999999999999</v>
       </c>
       <c r="E8">
-        <v>1.8503700000000001</v>
+        <v>1.8298399999999999</v>
       </c>
       <c r="F8">
-        <v>1.85223</v>
+        <v>1.83483</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>3.4929999999999906</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +847,23 @@
         <v>27</v>
       </c>
       <c r="B9" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C9">
-        <v>1.88351</v>
+        <v>1.8576900000000001</v>
       </c>
       <c r="D9">
-        <v>1.88805</v>
+        <v>1.87155</v>
       </c>
       <c r="E9">
-        <v>1.8531200000000001</v>
+        <v>1.8503700000000001</v>
       </c>
       <c r="F9">
-        <v>1.8575299999999999</v>
+        <v>1.85223</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>4.6859999999999902</v>
+        <v>3.4929999999999906</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +871,23 @@
         <v>27</v>
       </c>
       <c r="B10" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C10">
-        <v>1.8343700000000001</v>
+        <v>1.88351</v>
       </c>
       <c r="D10">
-        <v>1.87693</v>
+        <v>1.88805</v>
       </c>
       <c r="E10">
-        <v>1.8300700000000001</v>
+        <v>1.8531200000000001</v>
       </c>
       <c r="F10">
-        <v>1.8746499999999999</v>
+        <v>1.8575299999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>2.9220000000000024</v>
+        <v>4.6859999999999902</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +895,23 @@
         <v>27</v>
       </c>
       <c r="B11" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C11">
-        <v>1.81575</v>
+        <v>1.8343700000000001</v>
       </c>
       <c r="D11">
-        <v>1.8448500000000001</v>
+        <v>1.87693</v>
       </c>
       <c r="E11">
-        <v>1.8156300000000001</v>
+        <v>1.8300700000000001</v>
       </c>
       <c r="F11">
-        <v>1.83392</v>
+        <v>1.8746499999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.3269999999999902</v>
+        <v>2.9220000000000024</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +919,23 @@
         <v>27</v>
       </c>
       <c r="B12" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C12">
-        <v>1.82121</v>
+        <v>1.81575</v>
       </c>
       <c r="D12">
-        <v>1.8326899999999999</v>
+        <v>1.8448500000000001</v>
       </c>
       <c r="E12">
-        <v>1.80942</v>
+        <v>1.8156300000000001</v>
       </c>
       <c r="F12">
-        <v>1.8160700000000001</v>
+        <v>1.83392</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>2.1949999999999914</v>
+        <v>2.3269999999999902</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +943,23 @@
         <v>27</v>
       </c>
       <c r="B13" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C13">
-        <v>1.8324499999999999</v>
+        <v>1.82121</v>
       </c>
       <c r="D13">
-        <v>1.84327</v>
+        <v>1.8326899999999999</v>
       </c>
       <c r="E13">
-        <v>1.8213200000000001</v>
+        <v>1.80942</v>
       </c>
       <c r="F13">
-        <v>1.82256</v>
+        <v>1.8160700000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>3.3689999999999998</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +967,23 @@
         <v>27</v>
       </c>
       <c r="B14" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C14">
-        <v>1.8326199999999999</v>
+        <v>1.8324499999999999</v>
       </c>
       <c r="D14">
-        <v>1.86094</v>
+        <v>1.84327</v>
       </c>
       <c r="E14">
-        <v>1.82725</v>
+        <v>1.8213200000000001</v>
       </c>
       <c r="F14">
-        <v>1.83494</v>
+        <v>1.82256</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>4.335</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +991,23 @@
         <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C15">
-        <v>1.86524</v>
+        <v>1.8326199999999999</v>
       </c>
       <c r="D15">
-        <v>1.8731100000000001</v>
+        <v>1.86094</v>
       </c>
       <c r="E15">
-        <v>1.8297600000000001</v>
+        <v>1.82725</v>
       </c>
       <c r="F15">
-        <v>1.8337399999999999</v>
+        <v>1.83494</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>4.4659999999999922</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1015,23 @@
         <v>27</v>
       </c>
       <c r="B16" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C16">
-        <v>1.8763099999999999</v>
+        <v>1.86524</v>
       </c>
       <c r="D16">
-        <v>1.8784099999999999</v>
+        <v>1.8731100000000001</v>
       </c>
       <c r="E16">
-        <v>1.83375</v>
+        <v>1.8297600000000001</v>
       </c>
       <c r="F16">
-        <v>1.86554</v>
+        <v>1.8337399999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>4.7149999999999803</v>
+        <v>4.4659999999999922</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1039,23 @@
         <v>27</v>
       </c>
       <c r="B17" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C17">
-        <v>1.8452299999999999</v>
+        <v>1.8763099999999999</v>
       </c>
       <c r="D17">
-        <v>1.8861699999999999</v>
+        <v>1.8784099999999999</v>
       </c>
       <c r="E17">
-        <v>1.8390200000000001</v>
+        <v>1.83375</v>
       </c>
       <c r="F17">
-        <v>1.87496</v>
+        <v>1.86554</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>3.4200000000000008</v>
+        <v>4.7149999999999803</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1063,23 @@
         <v>27</v>
       </c>
       <c r="B18" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C18">
-        <v>1.8616299999999999</v>
+        <v>1.8452299999999999</v>
       </c>
       <c r="D18">
-        <v>1.8774</v>
+        <v>1.8861699999999999</v>
       </c>
       <c r="E18">
-        <v>1.8431999999999999</v>
+        <v>1.8390200000000001</v>
       </c>
       <c r="F18">
-        <v>1.8469199999999999</v>
+        <v>1.87496</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>5.2859999999999907</v>
+        <v>3.4200000000000008</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1087,23 @@
         <v>27</v>
       </c>
       <c r="B19" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C19">
-        <v>1.8307500000000001</v>
+        <v>1.8616299999999999</v>
       </c>
       <c r="D19">
-        <v>1.87232</v>
+        <v>1.8774</v>
       </c>
       <c r="E19">
-        <v>1.8194600000000001</v>
+        <v>1.8431999999999999</v>
       </c>
       <c r="F19">
-        <v>1.8667</v>
+        <v>1.8469199999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>4.1469999999999896</v>
+        <v>5.2859999999999907</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1111,23 @@
         <v>27</v>
       </c>
       <c r="B20" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C20">
-        <v>1.8087299999999999</v>
+        <v>1.8307500000000001</v>
       </c>
       <c r="D20">
-        <v>1.8448</v>
+        <v>1.87232</v>
       </c>
       <c r="E20">
-        <v>1.8033300000000001</v>
+        <v>1.8194600000000001</v>
       </c>
       <c r="F20">
-        <v>1.83097</v>
+        <v>1.8667</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.6850000000000041</v>
+        <v>4.1469999999999896</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1135,23 @@
         <v>27</v>
       </c>
       <c r="B21" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C21">
-        <v>1.8243100000000001</v>
+        <v>1.8087299999999999</v>
       </c>
       <c r="D21">
-        <v>1.8258000000000001</v>
+        <v>1.8448</v>
       </c>
       <c r="E21">
-        <v>1.79895</v>
+        <v>1.8033300000000001</v>
       </c>
       <c r="F21">
-        <v>1.8051999999999999</v>
+        <v>1.83097</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>4.760999999999993</v>
+        <v>2.6850000000000041</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1159,23 @@
         <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C22">
-        <v>1.80227</v>
+        <v>1.8243100000000001</v>
       </c>
       <c r="D22">
-        <v>1.83432</v>
+        <v>1.8258000000000001</v>
       </c>
       <c r="E22">
-        <v>1.78671</v>
+        <v>1.79895</v>
       </c>
       <c r="F22">
-        <v>1.82524</v>
+        <v>1.8051999999999999</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>5.0579999999999847</v>
+        <v>4.760999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1183,23 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C23">
-        <v>1.8368100000000001</v>
+        <v>1.80227</v>
       </c>
       <c r="D23">
-        <v>1.84415</v>
+        <v>1.83432</v>
       </c>
       <c r="E23">
-        <v>1.7935700000000001</v>
+        <v>1.78671</v>
       </c>
       <c r="F23">
-        <v>1.8047200000000001</v>
+        <v>1.82524</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>6.0850000000000071</v>
+        <v>5.0579999999999847</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1207,23 @@
         <v>27</v>
       </c>
       <c r="B24" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C24">
-        <v>1.7959700000000001</v>
+        <v>1.8368100000000001</v>
       </c>
       <c r="D24">
-        <v>1.85222</v>
+        <v>1.84415</v>
       </c>
       <c r="E24">
-        <v>1.7913699999999999</v>
+        <v>1.7935700000000001</v>
       </c>
       <c r="F24">
-        <v>1.83755</v>
+        <v>1.8047200000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>4.6119999999999939</v>
+        <v>6.0850000000000071</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1231,23 @@
         <v>27</v>
       </c>
       <c r="B25" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C25">
-        <v>1.7814300000000001</v>
+        <v>1.7959700000000001</v>
       </c>
       <c r="D25">
-        <v>1.81009</v>
+        <v>1.85222</v>
       </c>
       <c r="E25">
-        <v>1.76397</v>
+        <v>1.7913699999999999</v>
       </c>
       <c r="F25">
-        <v>1.79592</v>
+        <v>1.83755</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>3.3160000000000078</v>
+        <v>4.6119999999999939</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1255,23 @@
         <v>27</v>
       </c>
       <c r="B26" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C26">
-        <v>1.78799</v>
+        <v>1.7814300000000001</v>
       </c>
       <c r="D26">
-        <v>1.79433</v>
+        <v>1.81009</v>
       </c>
       <c r="E26">
-        <v>1.7611699999999999</v>
+        <v>1.76397</v>
       </c>
       <c r="F26">
-        <v>1.7800499999999999</v>
+        <v>1.79592</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>6.469999999999998</v>
+        <v>3.3160000000000078</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1279,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C27">
-        <v>1.80176</v>
+        <v>1.78799</v>
       </c>
       <c r="D27">
-        <v>1.85164</v>
+        <v>1.79433</v>
       </c>
       <c r="E27">
-        <v>1.78694</v>
+        <v>1.7611699999999999</v>
       </c>
       <c r="F27">
-        <v>1.7877099999999999</v>
+        <v>1.7800499999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>2.2189999999999932</v>
+        <v>6.469999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1303,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C28">
-        <v>1.79549</v>
+        <v>1.80176</v>
       </c>
       <c r="D28">
-        <v>1.8082199999999999</v>
+        <v>1.85164</v>
       </c>
       <c r="E28">
-        <v>1.78603</v>
+        <v>1.78694</v>
       </c>
       <c r="F28">
-        <v>1.8032699999999999</v>
+        <v>1.7877099999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>4.430999999999985</v>
+        <v>2.2189999999999932</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1327,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C29">
-        <v>1.7550399999999999</v>
+        <v>1.79549</v>
       </c>
       <c r="D29">
-        <v>1.7945599999999999</v>
+        <v>1.8082199999999999</v>
       </c>
       <c r="E29">
-        <v>1.7502500000000001</v>
+        <v>1.78603</v>
       </c>
       <c r="F29">
-        <v>1.79436</v>
+        <v>1.8032699999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>4.3290000000000051</v>
+        <v>4.430999999999985</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1351,23 @@
         <v>27</v>
       </c>
       <c r="B30" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C30">
-        <v>1.76735</v>
+        <v>1.7550399999999999</v>
       </c>
       <c r="D30">
-        <v>1.7722800000000001</v>
+        <v>1.7945599999999999</v>
       </c>
       <c r="E30">
-        <v>1.72899</v>
+        <v>1.7502500000000001</v>
       </c>
       <c r="F30">
-        <v>1.7521800000000001</v>
+        <v>1.79436</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>5.3470000000000129</v>
+        <v>4.3290000000000051</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1375,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C31">
-        <v>1.7293700000000001</v>
+        <v>1.76735</v>
       </c>
       <c r="D31">
-        <v>1.7743100000000001</v>
+        <v>1.7722800000000001</v>
       </c>
       <c r="E31">
-        <v>1.7208399999999999</v>
+        <v>1.72899</v>
       </c>
       <c r="F31">
-        <v>1.7697499999999999</v>
+        <v>1.7521800000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>3.6529999999999951</v>
+        <v>5.3470000000000129</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1399,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C32">
-        <v>1.77294</v>
+        <v>1.7293700000000001</v>
       </c>
       <c r="D32">
-        <v>1.77555</v>
+        <v>1.7743100000000001</v>
       </c>
       <c r="E32">
-        <v>1.73902</v>
+        <v>1.7208399999999999</v>
       </c>
       <c r="F32">
-        <v>1.7437800000000001</v>
+        <v>1.7697499999999999</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>2.945999999999982</v>
+        <v>3.6529999999999951</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1423,23 @@
         <v>27</v>
       </c>
       <c r="B33" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C33">
-        <v>1.7568699999999999</v>
+        <v>1.77294</v>
       </c>
       <c r="D33">
-        <v>1.7816799999999999</v>
+        <v>1.77555</v>
       </c>
       <c r="E33">
-        <v>1.7522200000000001</v>
+        <v>1.73902</v>
       </c>
       <c r="F33">
-        <v>1.7718799999999999</v>
+        <v>1.7437800000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>5.8789999999999898</v>
+        <v>2.945999999999982</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1447,23 @@
         <v>27</v>
       </c>
       <c r="B34" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C34">
-        <v>1.7886299999999999</v>
+        <v>1.7568699999999999</v>
       </c>
       <c r="D34">
-        <v>1.8064499999999999</v>
+        <v>1.7816799999999999</v>
       </c>
       <c r="E34">
-        <v>1.74766</v>
+        <v>1.7522200000000001</v>
       </c>
       <c r="F34">
-        <v>1.74864</v>
+        <v>1.7718799999999999</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>2.1560000000000024</v>
+        <v>5.8789999999999898</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1471,23 @@
         <v>27</v>
       </c>
       <c r="B35" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C35">
-        <v>1.81037</v>
+        <v>1.7886299999999999</v>
       </c>
       <c r="D35">
-        <v>1.8148500000000001</v>
+        <v>1.8064499999999999</v>
       </c>
       <c r="E35">
-        <v>1.7932900000000001</v>
+        <v>1.74766</v>
       </c>
       <c r="F35">
-        <v>1.7946500000000001</v>
+        <v>1.74864</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.9480000000000173</v>
+        <v>2.1560000000000024</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1495,23 @@
         <v>27</v>
       </c>
       <c r="B36" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C36">
-        <v>1.80806</v>
+        <v>1.81037</v>
       </c>
       <c r="D36">
-        <v>1.8155300000000001</v>
+        <v>1.8148500000000001</v>
       </c>
       <c r="E36">
-        <v>1.7860499999999999</v>
+        <v>1.7932900000000001</v>
       </c>
       <c r="F36">
-        <v>1.80175</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>3.9220000000000033</v>
+        <v>2.9480000000000173</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1519,23 @@
         <v>27</v>
       </c>
       <c r="B37" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C37">
-        <v>1.8342700000000001</v>
+        <v>1.80806</v>
       </c>
       <c r="D37">
-        <v>1.84585</v>
+        <v>1.8155300000000001</v>
       </c>
       <c r="E37">
-        <v>1.80663</v>
+        <v>1.7860499999999999</v>
       </c>
       <c r="F37">
-        <v>1.80952</v>
+        <v>1.80175</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>3.2680000000000042</v>
+        <v>3.9220000000000033</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1543,23 @@
         <v>27</v>
       </c>
       <c r="B38" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C38">
-        <v>1.8421000000000001</v>
+        <v>1.8342700000000001</v>
       </c>
       <c r="D38">
-        <v>1.85626</v>
+        <v>1.84585</v>
       </c>
       <c r="E38">
-        <v>1.82358</v>
+        <v>1.80663</v>
       </c>
       <c r="F38">
-        <v>1.83592</v>
+        <v>1.80952</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>2.909000000000006</v>
+        <v>3.2680000000000042</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1567,23 @@
         <v>27</v>
       </c>
       <c r="B39" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C39">
-        <v>1.8597699999999999</v>
+        <v>1.8421000000000001</v>
       </c>
       <c r="D39">
-        <v>1.87239</v>
+        <v>1.85626</v>
       </c>
       <c r="E39">
-        <v>1.8432999999999999</v>
+        <v>1.82358</v>
       </c>
       <c r="F39">
-        <v>1.8491500000000001</v>
+        <v>1.83592</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>5.9730000000000061</v>
+        <v>2.909000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1591,23 @@
         <v>27</v>
       </c>
       <c r="B40" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C40">
-        <v>1.80436</v>
+        <v>1.8597699999999999</v>
       </c>
       <c r="D40">
-        <v>1.8608</v>
+        <v>1.87239</v>
       </c>
       <c r="E40">
-        <v>1.8010699999999999</v>
+        <v>1.8432999999999999</v>
       </c>
       <c r="F40">
-        <v>1.8590500000000001</v>
+        <v>1.8491500000000001</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.517999999999998</v>
+        <v>5.9730000000000061</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1615,23 @@
         <v>27</v>
       </c>
       <c r="B41" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C41">
-        <v>1.7995699999999999</v>
+        <v>1.80436</v>
       </c>
       <c r="D41">
-        <v>1.82169</v>
+        <v>1.8608</v>
       </c>
       <c r="E41">
-        <v>1.7965100000000001</v>
+        <v>1.8010699999999999</v>
       </c>
       <c r="F41">
-        <v>1.8051900000000001</v>
+        <v>1.8590500000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>4.6390000000000153</v>
+        <v>2.517999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1639,23 @@
         <v>27</v>
       </c>
       <c r="B42" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C42">
-        <v>1.8268899999999999</v>
+        <v>1.7995699999999999</v>
       </c>
       <c r="D42">
-        <v>1.8398600000000001</v>
+        <v>1.82169</v>
       </c>
       <c r="E42">
-        <v>1.7934699999999999</v>
+        <v>1.7965100000000001</v>
       </c>
       <c r="F42">
-        <v>1.79575</v>
+        <v>1.8051900000000001</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.6639999999999997</v>
+        <v>4.6390000000000153</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1663,23 @@
         <v>27</v>
       </c>
       <c r="B43" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C43">
-        <v>1.8182199999999999</v>
+        <v>1.8268899999999999</v>
       </c>
       <c r="D43">
-        <v>1.83754</v>
+        <v>1.8398600000000001</v>
       </c>
       <c r="E43">
-        <v>1.8109</v>
+        <v>1.7934699999999999</v>
       </c>
       <c r="F43">
-        <v>1.8264</v>
+        <v>1.79575</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>4.4320000000000137</v>
+        <v>2.6639999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1687,23 @@
         <v>27</v>
       </c>
       <c r="B44" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C44">
-        <v>1.79634</v>
+        <v>1.8182199999999999</v>
       </c>
       <c r="D44">
-        <v>1.8222</v>
+        <v>1.83754</v>
       </c>
       <c r="E44">
-        <v>1.7778799999999999</v>
+        <v>1.8109</v>
       </c>
       <c r="F44">
-        <v>1.8172999999999999</v>
+        <v>1.8264</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>5.4699999999999971</v>
+        <v>4.4320000000000137</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1711,23 @@
         <v>27</v>
       </c>
       <c r="B45" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C45">
-        <v>1.7517499999999999</v>
+        <v>1.79634</v>
       </c>
       <c r="D45">
-        <v>1.8053399999999999</v>
+        <v>1.8222</v>
       </c>
       <c r="E45">
-        <v>1.75064</v>
+        <v>1.7778799999999999</v>
       </c>
       <c r="F45">
-        <v>1.8015000000000001</v>
+        <v>1.8172999999999999</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>2.8350000000000097</v>
+        <v>5.4699999999999971</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1735,23 @@
         <v>27</v>
       </c>
       <c r="B46" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C46">
-        <v>1.74251</v>
+        <v>1.7517499999999999</v>
       </c>
       <c r="D46">
-        <v>1.76932</v>
+        <v>1.8053399999999999</v>
       </c>
       <c r="E46">
-        <v>1.7409699999999999</v>
+        <v>1.75064</v>
       </c>
       <c r="F46">
-        <v>1.7535499999999999</v>
+        <v>1.8015000000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>2.3840000000000083</v>
+        <v>2.8350000000000097</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1759,23 @@
         <v>27</v>
       </c>
       <c r="B47" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C47">
-        <v>1.7509699999999999</v>
+        <v>1.74251</v>
       </c>
       <c r="D47">
-        <v>1.76546</v>
+        <v>1.76932</v>
       </c>
       <c r="E47">
-        <v>1.7416199999999999</v>
+        <v>1.7409699999999999</v>
       </c>
       <c r="F47">
-        <v>1.7428600000000001</v>
+        <v>1.7535499999999999</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>3.0440000000000023</v>
+        <v>2.3840000000000083</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1783,23 @@
         <v>27</v>
       </c>
       <c r="B48" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C48">
-        <v>1.7572000000000001</v>
+        <v>1.7509699999999999</v>
       </c>
       <c r="D48">
-        <v>1.7586299999999999</v>
+        <v>1.76546</v>
       </c>
       <c r="E48">
-        <v>1.7281899999999999</v>
+        <v>1.7416199999999999</v>
       </c>
       <c r="F48">
-        <v>1.74885</v>
+        <v>1.7428600000000001</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>2.6240000000000041</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1807,23 @@
         <v>27</v>
       </c>
       <c r="B49" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C49">
-        <v>1.7705500000000001</v>
+        <v>1.7572000000000001</v>
       </c>
       <c r="D49">
-        <v>1.78233</v>
+        <v>1.7586299999999999</v>
       </c>
       <c r="E49">
-        <v>1.7560899999999999</v>
+        <v>1.7281899999999999</v>
       </c>
       <c r="F49">
-        <v>1.7578</v>
+        <v>1.74885</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.4309999999999823</v>
+        <v>2.6240000000000041</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1831,23 @@
         <v>27</v>
       </c>
       <c r="B50" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C50">
-        <v>1.7683899999999999</v>
+        <v>1.7705500000000001</v>
       </c>
       <c r="D50">
-        <v>1.7802899999999999</v>
+        <v>1.78233</v>
       </c>
       <c r="E50">
-        <v>1.7659800000000001</v>
+        <v>1.7560899999999999</v>
       </c>
       <c r="F50">
-        <v>1.7701899999999999</v>
+        <v>1.7578</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>3.1139999999999946</v>
+        <v>1.4309999999999823</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1855,23 @@
         <v>27</v>
       </c>
       <c r="B51" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C51">
-        <v>1.78345</v>
+        <v>1.7683899999999999</v>
       </c>
       <c r="D51">
-        <v>1.7877799999999999</v>
+        <v>1.7802899999999999</v>
       </c>
       <c r="E51">
-        <v>1.75664</v>
+        <v>1.7659800000000001</v>
       </c>
       <c r="F51">
-        <v>1.76875</v>
+        <v>1.7701899999999999</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>2.7289999999999814</v>
+        <v>3.1139999999999946</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1879,23 @@
         <v>27</v>
       </c>
       <c r="B52" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C52">
-        <v>1.7909900000000001</v>
+        <v>1.78345</v>
       </c>
       <c r="D52">
-        <v>1.7939099999999999</v>
+        <v>1.7877799999999999</v>
       </c>
       <c r="E52">
-        <v>1.7666200000000001</v>
+        <v>1.75664</v>
       </c>
       <c r="F52">
-        <v>1.78328</v>
+        <v>1.76875</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.593</v>
+        <v>2.7289999999999814</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1903,23 @@
         <v>27</v>
       </c>
       <c r="B53" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C53">
-        <v>1.7835700000000001</v>
+        <v>1.7909900000000001</v>
       </c>
       <c r="D53">
-        <v>1.79569</v>
+        <v>1.7939099999999999</v>
       </c>
       <c r="E53">
-        <v>1.77976</v>
+        <v>1.7666200000000001</v>
       </c>
       <c r="F53">
-        <v>1.7869600000000001</v>
+        <v>1.78328</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.2230000000000194</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1927,23 @@
         <v>27</v>
       </c>
       <c r="B54" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C54">
-        <v>1.78243</v>
+        <v>1.7835700000000001</v>
       </c>
       <c r="D54">
-        <v>1.7957700000000001</v>
+        <v>1.79569</v>
       </c>
       <c r="E54">
-        <v>1.7735399999999999</v>
+        <v>1.77976</v>
       </c>
       <c r="F54">
-        <v>1.7829999999999999</v>
+        <v>1.7869600000000001</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.2659999999999902</v>
+        <v>2.2230000000000194</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1951,23 @@
         <v>27</v>
       </c>
       <c r="B55" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C55">
-        <v>1.78362</v>
+        <v>1.78243</v>
       </c>
       <c r="D55">
-        <v>1.79789</v>
+        <v>1.7957700000000001</v>
       </c>
       <c r="E55">
-        <v>1.7752300000000001</v>
+        <v>1.7735399999999999</v>
       </c>
       <c r="F55">
-        <v>1.7826900000000001</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>3.1629999999999825</v>
+        <v>2.2659999999999902</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1975,23 @@
         <v>27</v>
       </c>
       <c r="B56" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C56">
-        <v>1.7647299999999999</v>
+        <v>1.78362</v>
       </c>
       <c r="D56">
-        <v>1.7848599999999999</v>
+        <v>1.79789</v>
       </c>
       <c r="E56">
-        <v>1.7532300000000001</v>
+        <v>1.7752300000000001</v>
       </c>
       <c r="F56">
-        <v>1.7844199999999999</v>
+        <v>1.7826900000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>3.4229999999999983</v>
+        <v>3.1629999999999825</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +1999,23 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C57">
-        <v>1.7626999999999999</v>
+        <v>1.7647299999999999</v>
       </c>
       <c r="D57">
-        <v>1.7733300000000001</v>
+        <v>1.7848599999999999</v>
       </c>
       <c r="E57">
-        <v>1.7391000000000001</v>
+        <v>1.7532300000000001</v>
       </c>
       <c r="F57">
-        <v>1.7641500000000001</v>
+        <v>1.7844199999999999</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.0570000000000199</v>
+        <v>3.4229999999999983</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2023,23 @@
         <v>27</v>
       </c>
       <c r="B58" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C58">
-        <v>1.7598</v>
+        <v>1.7626999999999999</v>
       </c>
       <c r="D58">
-        <v>1.7722500000000001</v>
+        <v>1.7733300000000001</v>
       </c>
       <c r="E58">
-        <v>1.7516799999999999</v>
+        <v>1.7391000000000001</v>
       </c>
       <c r="F58">
-        <v>1.76295</v>
+        <v>1.7641500000000001</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>3.3939999999999859</v>
+        <v>2.0570000000000199</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2047,23 @@
         <v>27</v>
       </c>
       <c r="B59" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C59">
-        <v>1.78969</v>
+        <v>1.7598</v>
       </c>
       <c r="D59">
-        <v>1.7924199999999999</v>
+        <v>1.7722500000000001</v>
       </c>
       <c r="E59">
-        <v>1.75848</v>
+        <v>1.7516799999999999</v>
       </c>
       <c r="F59">
-        <v>1.7619400000000001</v>
+        <v>1.76295</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.9479999999999942</v>
+        <v>3.3939999999999859</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2071,23 @@
         <v>27</v>
       </c>
       <c r="B60" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C60">
-        <v>1.7946500000000001</v>
+        <v>1.78969</v>
       </c>
       <c r="D60">
-        <v>1.8108599999999999</v>
+        <v>1.7924199999999999</v>
       </c>
       <c r="E60">
-        <v>1.79138</v>
+        <v>1.75848</v>
       </c>
       <c r="F60">
-        <v>1.7944</v>
+        <v>1.7619400000000001</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>3.3549999999999969</v>
+        <v>1.9479999999999942</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2095,23 @@
         <v>27</v>
       </c>
       <c r="B61" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C61">
-        <v>1.7953600000000001</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="D61">
-        <v>1.82396</v>
+        <v>1.8108599999999999</v>
       </c>
       <c r="E61">
-        <v>1.7904100000000001</v>
+        <v>1.79138</v>
       </c>
       <c r="F61">
-        <v>1.79495</v>
+        <v>1.7944</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>3.4410000000000052</v>
+        <v>3.3549999999999969</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2119,23 @@
         <v>27</v>
       </c>
       <c r="B62" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C62">
-        <v>1.8176300000000001</v>
+        <v>1.7953600000000001</v>
       </c>
       <c r="D62">
-        <v>1.82945</v>
+        <v>1.82396</v>
       </c>
       <c r="E62">
-        <v>1.79504</v>
+        <v>1.7904100000000001</v>
       </c>
       <c r="F62">
-        <v>1.7957000000000001</v>
+        <v>1.79495</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>2.9599999999999849</v>
+        <v>3.4410000000000052</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2143,23 @@
         <v>27</v>
       </c>
       <c r="B63" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C63">
-        <v>1.8252600000000001</v>
+        <v>1.8176300000000001</v>
       </c>
       <c r="D63">
-        <v>1.8472999999999999</v>
+        <v>1.82945</v>
       </c>
       <c r="E63">
-        <v>1.8177000000000001</v>
+        <v>1.79504</v>
       </c>
       <c r="F63">
-        <v>1.8178099999999999</v>
+        <v>1.7957000000000001</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>3.0459999999999932</v>
+        <v>2.9599999999999849</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2167,23 @@
         <v>27</v>
       </c>
       <c r="B64" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C64">
-        <v>1.8332599999999999</v>
+        <v>1.8252600000000001</v>
       </c>
       <c r="D64">
-        <v>1.84755</v>
+        <v>1.8472999999999999</v>
       </c>
       <c r="E64">
-        <v>1.8170900000000001</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F64">
-        <v>1.8265499999999999</v>
+        <v>1.8178099999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>2.2310000000000052</v>
+        <v>3.0459999999999932</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2191,23 @@
         <v>27</v>
       </c>
       <c r="B65" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C65">
-        <v>1.83632</v>
+        <v>1.8332599999999999</v>
       </c>
       <c r="D65">
-        <v>1.8457600000000001</v>
+        <v>1.84755</v>
       </c>
       <c r="E65">
-        <v>1.82345</v>
+        <v>1.8170900000000001</v>
       </c>
       <c r="F65">
-        <v>1.83386</v>
+        <v>1.8265499999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.9169999999999909</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2215,23 @@
         <v>27</v>
       </c>
       <c r="B66" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C66">
-        <v>1.8239000000000001</v>
+        <v>1.83632</v>
       </c>
       <c r="D66">
-        <v>1.83687</v>
+        <v>1.8457600000000001</v>
       </c>
       <c r="E66">
-        <v>1.8177000000000001</v>
+        <v>1.82345</v>
       </c>
       <c r="F66">
-        <v>1.83525</v>
+        <v>1.83386</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>2.9139999999999944</v>
+        <v>1.9169999999999909</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2239,23 @@
         <v>27</v>
       </c>
       <c r="B67" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C67">
-        <v>1.83656</v>
+        <v>1.8239000000000001</v>
       </c>
       <c r="D67">
-        <v>1.85073</v>
+        <v>1.83687</v>
       </c>
       <c r="E67">
-        <v>1.82159</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F67">
-        <v>1.8250299999999999</v>
+        <v>1.83525</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>3.4329999999999972</v>
+        <v>2.9139999999999944</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2263,23 @@
         <v>27</v>
       </c>
       <c r="B68" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C68">
-        <v>1.80705</v>
+        <v>1.83656</v>
       </c>
       <c r="D68">
-        <v>1.8397399999999999</v>
+        <v>1.85073</v>
       </c>
       <c r="E68">
-        <v>1.80541</v>
+        <v>1.82159</v>
       </c>
       <c r="F68">
-        <v>1.8359399999999999</v>
+        <v>1.8250299999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>4.8669999999999991</v>
+        <v>3.4329999999999972</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2287,23 @@
         <v>27</v>
       </c>
       <c r="B69" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C69">
-        <v>1.7641</v>
+        <v>1.80705</v>
       </c>
       <c r="D69">
-        <v>1.8085</v>
+        <v>1.8397399999999999</v>
       </c>
       <c r="E69">
-        <v>1.75983</v>
+        <v>1.80541</v>
       </c>
       <c r="F69">
-        <v>1.8083</v>
+        <v>1.8359399999999999</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>2.7009999999999978</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2311,23 @@
         <v>27</v>
       </c>
       <c r="B70" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C70">
-        <v>1.7760199999999999</v>
+        <v>1.7641</v>
       </c>
       <c r="D70">
-        <v>1.79053</v>
+        <v>1.8085</v>
       </c>
       <c r="E70">
-        <v>1.76352</v>
+        <v>1.75983</v>
       </c>
       <c r="F70">
-        <v>1.7646500000000001</v>
+        <v>1.8083</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.3700000000000054</v>
+        <v>2.7009999999999978</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2335,23 @@
         <v>27</v>
       </c>
       <c r="B71" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C71">
-        <v>1.7831699999999999</v>
+        <v>1.7760199999999999</v>
       </c>
       <c r="D71">
-        <v>1.79043</v>
+        <v>1.79053</v>
       </c>
       <c r="E71">
-        <v>1.7667299999999999</v>
+        <v>1.76352</v>
       </c>
       <c r="F71">
-        <v>1.77685</v>
+        <v>1.7646500000000001</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>3.0649999999999844</v>
+        <v>2.3700000000000054</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2359,23 @@
         <v>27</v>
       </c>
       <c r="B72" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C72">
-        <v>1.7718400000000001</v>
+        <v>1.7831699999999999</v>
       </c>
       <c r="D72">
-        <v>1.7910699999999999</v>
+        <v>1.79043</v>
       </c>
       <c r="E72">
-        <v>1.7604200000000001</v>
+        <v>1.7667299999999999</v>
       </c>
       <c r="F72">
-        <v>1.78179</v>
+        <v>1.77685</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>2.3390000000000022</v>
+        <v>3.0649999999999844</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2383,23 @@
         <v>27</v>
       </c>
       <c r="B73" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C73">
-        <v>1.7669600000000001</v>
+        <v>1.7718400000000001</v>
       </c>
       <c r="D73">
-        <v>1.78084</v>
+        <v>1.7910699999999999</v>
       </c>
       <c r="E73">
-        <v>1.75745</v>
+        <v>1.7604200000000001</v>
       </c>
       <c r="F73">
-        <v>1.77223</v>
+        <v>1.78179</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>3.8780000000000037</v>
+        <v>2.3390000000000022</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2407,23 @@
         <v>27</v>
       </c>
       <c r="B74" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C74">
-        <v>1.7817499999999999</v>
+        <v>1.7669600000000001</v>
       </c>
       <c r="D74">
-        <v>1.7997799999999999</v>
+        <v>1.78084</v>
       </c>
       <c r="E74">
-        <v>1.7609999999999999</v>
+        <v>1.75745</v>
       </c>
       <c r="F74">
-        <v>1.7689600000000001</v>
+        <v>1.77223</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>4.9670000000000103</v>
+        <v>3.8780000000000037</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2431,23 @@
         <v>27</v>
       </c>
       <c r="B75" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C75">
-        <v>1.7444200000000001</v>
+        <v>1.7817499999999999</v>
       </c>
       <c r="D75">
-        <v>1.78474</v>
+        <v>1.7997799999999999</v>
       </c>
       <c r="E75">
-        <v>1.7350699999999999</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="F75">
-        <v>1.7819400000000001</v>
+        <v>1.7689600000000001</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>3.8180000000000103</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2455,23 @@
         <v>27</v>
       </c>
       <c r="B76" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C76">
-        <v>1.73603</v>
+        <v>1.7444200000000001</v>
       </c>
       <c r="D76">
-        <v>1.77176</v>
+        <v>1.78474</v>
       </c>
       <c r="E76">
-        <v>1.7335799999999999</v>
+        <v>1.7350699999999999</v>
       </c>
       <c r="F76">
-        <v>1.7443599999999999</v>
+        <v>1.7819400000000001</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.2890000000000068</v>
+        <v>3.8180000000000103</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2479,23 @@
         <v>27</v>
       </c>
       <c r="B77" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C77">
-        <v>1.73665</v>
+        <v>1.73603</v>
       </c>
       <c r="D77">
-        <v>1.7398100000000001</v>
+        <v>1.77176</v>
       </c>
       <c r="E77">
-        <v>1.72692</v>
+        <v>1.7335799999999999</v>
       </c>
       <c r="F77">
-        <v>1.73346</v>
+        <v>1.7443599999999999</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>3.3379999999999965</v>
+        <v>1.2890000000000068</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2503,23 @@
         <v>27</v>
       </c>
       <c r="B78" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C78">
-        <v>1.7245299999999999</v>
+        <v>1.73665</v>
       </c>
       <c r="D78">
-        <v>1.7431099999999999</v>
+        <v>1.7398100000000001</v>
       </c>
       <c r="E78">
-        <v>1.70973</v>
+        <v>1.72692</v>
       </c>
       <c r="F78">
-        <v>1.73491</v>
+        <v>1.73346</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.0279999999999854</v>
+        <v>3.3379999999999965</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2527,23 @@
         <v>27</v>
       </c>
       <c r="B79" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C79">
-        <v>1.7304600000000001</v>
+        <v>1.7245299999999999</v>
       </c>
       <c r="D79">
-        <v>1.74152</v>
+        <v>1.7431099999999999</v>
       </c>
       <c r="E79">
-        <v>1.7212400000000001</v>
+        <v>1.70973</v>
       </c>
       <c r="F79">
-        <v>1.7251000000000001</v>
+        <v>1.73491</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.214000000000004</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2551,23 @@
         <v>27</v>
       </c>
       <c r="B80" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C80">
-        <v>1.7316800000000001</v>
+        <v>1.7304600000000001</v>
       </c>
       <c r="D80">
-        <v>1.73359</v>
+        <v>1.74152</v>
       </c>
       <c r="E80">
-        <v>1.7214499999999999</v>
+        <v>1.7212400000000001</v>
       </c>
       <c r="F80">
-        <v>1.7301599999999999</v>
+        <v>1.7251000000000001</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>2.1009999999999973</v>
+        <v>1.214000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2575,23 @@
         <v>27</v>
       </c>
       <c r="B81" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C81">
-        <v>1.74116</v>
+        <v>1.7316800000000001</v>
       </c>
       <c r="D81">
-        <v>1.75099</v>
+        <v>1.73359</v>
       </c>
       <c r="E81">
-        <v>1.7299800000000001</v>
+        <v>1.7214499999999999</v>
       </c>
       <c r="F81">
-        <v>1.7320500000000001</v>
+        <v>1.7301599999999999</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>4.9000000000000155</v>
+        <v>2.1009999999999973</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2599,23 @@
         <v>27</v>
       </c>
       <c r="B82" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C82">
-        <v>1.78149</v>
+        <v>1.74116</v>
       </c>
       <c r="D82">
-        <v>1.7844500000000001</v>
+        <v>1.75099</v>
       </c>
       <c r="E82">
-        <v>1.7354499999999999</v>
+        <v>1.7299800000000001</v>
       </c>
       <c r="F82">
-        <v>1.74329</v>
+        <v>1.7320500000000001</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>5.0850000000000062</v>
+        <v>4.9000000000000155</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2623,23 @@
         <v>27</v>
       </c>
       <c r="B83" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C83">
-        <v>1.7703100000000001</v>
+        <v>1.78149</v>
       </c>
       <c r="D83">
-        <v>1.79965</v>
+        <v>1.7844500000000001</v>
       </c>
       <c r="E83">
-        <v>1.7487999999999999</v>
+        <v>1.7354499999999999</v>
       </c>
       <c r="F83">
-        <v>1.7845299999999999</v>
+        <v>1.74329</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>5.4619999999999891</v>
+        <v>5.0850000000000062</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2647,23 @@
         <v>27</v>
       </c>
       <c r="B84" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C84">
-        <v>1.7491399999999999</v>
+        <v>1.7703100000000001</v>
       </c>
       <c r="D84">
-        <v>1.7908299999999999</v>
+        <v>1.79965</v>
       </c>
       <c r="E84">
-        <v>1.73621</v>
+        <v>1.7487999999999999</v>
       </c>
       <c r="F84">
-        <v>1.77088</v>
+        <v>1.7845299999999999</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.8199999999999994</v>
+        <v>5.4619999999999891</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2671,23 @@
         <v>27</v>
       </c>
       <c r="B85" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C85">
-        <v>1.7467600000000001</v>
+        <v>1.7491399999999999</v>
       </c>
       <c r="D85">
-        <v>1.7597400000000001</v>
+        <v>1.7908299999999999</v>
       </c>
       <c r="E85">
-        <v>1.7415400000000001</v>
+        <v>1.73621</v>
       </c>
       <c r="F85">
-        <v>1.7492399999999999</v>
+        <v>1.77088</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>4.8750000000000071</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2695,23 @@
         <v>27</v>
       </c>
       <c r="B86" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C86">
-        <v>1.71956</v>
+        <v>1.7467600000000001</v>
       </c>
       <c r="D86">
-        <v>1.7565500000000001</v>
+        <v>1.7597400000000001</v>
       </c>
       <c r="E86">
-        <v>1.7078</v>
+        <v>1.7415400000000001</v>
       </c>
       <c r="F86">
-        <v>1.7468300000000001</v>
+        <v>1.7492399999999999</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>2.2310000000000052</v>
+        <v>4.8750000000000071</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2719,23 @@
         <v>27</v>
       </c>
       <c r="B87" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C87">
-        <v>1.7085399999999999</v>
+        <v>1.71956</v>
       </c>
       <c r="D87">
-        <v>1.72593</v>
+        <v>1.7565500000000001</v>
       </c>
       <c r="E87">
-        <v>1.7036199999999999</v>
+        <v>1.7078</v>
       </c>
       <c r="F87">
-        <v>1.7219599999999999</v>
+        <v>1.7468300000000001</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>4.713999999999996</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2743,23 @@
         <v>27</v>
       </c>
       <c r="B88" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C88">
-        <v>1.7107600000000001</v>
+        <v>1.7085399999999999</v>
       </c>
       <c r="D88">
-        <v>1.73664</v>
+        <v>1.72593</v>
       </c>
       <c r="E88">
-        <v>1.6895</v>
+        <v>1.7036199999999999</v>
       </c>
       <c r="F88">
-        <v>1.7087699999999999</v>
+        <v>1.7219599999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>4.0330000000000199</v>
+        <v>4.713999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2767,23 @@
         <v>27</v>
       </c>
       <c r="B89" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C89">
-        <v>1.6869799999999999</v>
+        <v>1.7107600000000001</v>
       </c>
       <c r="D89">
-        <v>1.7239500000000001</v>
+        <v>1.73664</v>
       </c>
       <c r="E89">
-        <v>1.6836199999999999</v>
+        <v>1.6895</v>
       </c>
       <c r="F89">
-        <v>1.71113</v>
+        <v>1.7087699999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>2.3349999999999982</v>
+        <v>4.0330000000000199</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2791,23 @@
         <v>27</v>
       </c>
       <c r="B90" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C90">
-        <v>1.6858299999999999</v>
+        <v>1.6869799999999999</v>
       </c>
       <c r="D90">
-        <v>1.6917199999999999</v>
+        <v>1.7239500000000001</v>
       </c>
       <c r="E90">
-        <v>1.6683699999999999</v>
+        <v>1.6836199999999999</v>
       </c>
       <c r="F90">
-        <v>1.6870499999999999</v>
+        <v>1.71113</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>2.1120000000000028</v>
+        <v>2.3349999999999982</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2815,23 @@
         <v>27</v>
       </c>
       <c r="B91" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C91">
-        <v>1.6816599999999999</v>
+        <v>1.6858299999999999</v>
       </c>
       <c r="D91">
-        <v>1.7005300000000001</v>
+        <v>1.6917199999999999</v>
       </c>
       <c r="E91">
-        <v>1.6794100000000001</v>
+        <v>1.6683699999999999</v>
       </c>
       <c r="F91">
-        <v>1.6850000000000001</v>
+        <v>1.6870499999999999</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>3.1820000000000181</v>
+        <v>2.1120000000000028</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2839,23 @@
         <v>27</v>
       </c>
       <c r="B92" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C92">
-        <v>1.70713</v>
+        <v>1.6816599999999999</v>
       </c>
       <c r="D92">
-        <v>1.7098500000000001</v>
+        <v>1.7005300000000001</v>
       </c>
       <c r="E92">
-        <v>1.6780299999999999</v>
+        <v>1.6794100000000001</v>
       </c>
       <c r="F92">
-        <v>1.6810400000000001</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>2.5240000000000151</v>
+        <v>3.1820000000000181</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2863,23 @@
         <v>27</v>
       </c>
       <c r="B93" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C93">
-        <v>1.69523</v>
+        <v>1.70713</v>
       </c>
       <c r="D93">
-        <v>1.7181200000000001</v>
+        <v>1.7098500000000001</v>
       </c>
       <c r="E93">
-        <v>1.6928799999999999</v>
+        <v>1.6780299999999999</v>
       </c>
       <c r="F93">
-        <v>1.7092099999999999</v>
+        <v>1.6810400000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>3.8210000000000077</v>
+        <v>2.5240000000000151</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2887,23 @@
         <v>27</v>
       </c>
       <c r="B94" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C94">
-        <v>1.6986300000000001</v>
+        <v>1.69523</v>
       </c>
       <c r="D94">
-        <v>1.71668</v>
+        <v>1.7181200000000001</v>
       </c>
       <c r="E94">
-        <v>1.6784699999999999</v>
+        <v>1.6928799999999999</v>
       </c>
       <c r="F94">
-        <v>1.69374</v>
+        <v>1.7092099999999999</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>6.4889999999999892</v>
+        <v>3.8210000000000077</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2911,23 @@
         <v>27</v>
       </c>
       <c r="B95" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C95">
-        <v>1.6371199999999999</v>
+        <v>1.6986300000000001</v>
       </c>
       <c r="D95">
-        <v>1.70007</v>
+        <v>1.71668</v>
       </c>
       <c r="E95">
-        <v>1.6351800000000001</v>
+        <v>1.6784699999999999</v>
       </c>
       <c r="F95">
-        <v>1.6989799999999999</v>
+        <v>1.69374</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>2.2759999999999891</v>
+        <v>6.4889999999999892</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2935,23 @@
         <v>27</v>
       </c>
       <c r="B96" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C96">
-        <v>1.6295500000000001</v>
+        <v>1.6371199999999999</v>
       </c>
       <c r="D96">
-        <v>1.6395599999999999</v>
+        <v>1.70007</v>
       </c>
       <c r="E96">
-        <v>1.6168</v>
+        <v>1.6351800000000001</v>
       </c>
       <c r="F96">
-        <v>1.6391800000000001</v>
+        <v>1.6989799999999999</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2959,23 @@
         <v>27</v>
       </c>
       <c r="B97" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C97">
-        <v>1.6270100000000001</v>
+        <v>1.6295500000000001</v>
       </c>
       <c r="D97">
-        <v>1.6377900000000001</v>
+        <v>1.6395599999999999</v>
       </c>
       <c r="E97">
-        <v>1.6166</v>
+        <v>1.6168</v>
       </c>
       <c r="F97">
-        <v>1.6260600000000001</v>
+        <v>1.6391800000000001</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.1400000000000077</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2983,23 @@
         <v>27</v>
       </c>
       <c r="B98" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C98">
-        <v>1.6231899999999999</v>
+        <v>1.6270100000000001</v>
       </c>
       <c r="D98">
-        <v>1.62754</v>
+        <v>1.6377900000000001</v>
       </c>
       <c r="E98">
-        <v>1.6161399999999999</v>
+        <v>1.6166</v>
       </c>
       <c r="F98">
-        <v>1.62242</v>
+        <v>1.6260600000000001</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>3.6590000000000122</v>
+        <v>1.1400000000000077</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3007,23 @@
         <v>27</v>
       </c>
       <c r="B99" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C99">
-        <v>1.64822</v>
+        <v>1.6231899999999999</v>
       </c>
       <c r="D99">
-        <v>1.6550400000000001</v>
+        <v>1.62754</v>
       </c>
       <c r="E99">
-        <v>1.6184499999999999</v>
+        <v>1.6161399999999999</v>
       </c>
       <c r="F99">
-        <v>1.62382</v>
+        <v>1.62242</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.7709999999999892</v>
+        <v>3.6590000000000122</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3031,23 @@
         <v>27</v>
       </c>
       <c r="B100" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C100">
-        <v>1.6447700000000001</v>
+        <v>1.64822</v>
       </c>
       <c r="D100">
-        <v>1.65665</v>
+        <v>1.6550400000000001</v>
       </c>
       <c r="E100">
-        <v>1.6389400000000001</v>
+        <v>1.6184499999999999</v>
       </c>
       <c r="F100">
-        <v>1.64859</v>
+        <v>1.62382</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>3.1560000000000032</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3055,23 @@
         <v>27</v>
       </c>
       <c r="B101" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C101">
-        <v>1.64486</v>
+        <v>1.6447700000000001</v>
       </c>
       <c r="D101">
-        <v>1.6735599999999999</v>
+        <v>1.65665</v>
       </c>
       <c r="E101">
-        <v>1.6419999999999999</v>
+        <v>1.6389400000000001</v>
       </c>
       <c r="F101">
-        <v>1.6446799999999999</v>
+        <v>1.64859</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>2.2440000000000015</v>
+        <v>3.1560000000000032</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3079,23 @@
         <v>27</v>
       </c>
       <c r="B102" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C102">
-        <v>1.64188</v>
+        <v>1.64486</v>
       </c>
       <c r="D102">
-        <v>1.6526700000000001</v>
+        <v>1.6735599999999999</v>
       </c>
       <c r="E102">
-        <v>1.6302300000000001</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="F102">
-        <v>1.64534</v>
+        <v>1.6446799999999999</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>5.0769999999999982</v>
+        <v>2.2440000000000015</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3103,23 @@
         <v>27</v>
       </c>
       <c r="B103" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C103">
-        <v>1.67465</v>
+        <v>1.64188</v>
       </c>
       <c r="D103">
-        <v>1.67757</v>
+        <v>1.6526700000000001</v>
       </c>
       <c r="E103">
-        <v>1.6268</v>
+        <v>1.6302300000000001</v>
       </c>
       <c r="F103">
-        <v>1.6410800000000001</v>
+        <v>1.64534</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>3.6459999999999937</v>
+        <v>5.0769999999999982</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3127,23 @@
         <v>27</v>
       </c>
       <c r="B104" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C104">
-        <v>1.6956100000000001</v>
+        <v>1.67465</v>
       </c>
       <c r="D104">
-        <v>1.69848</v>
+        <v>1.67757</v>
       </c>
       <c r="E104">
-        <v>1.6620200000000001</v>
+        <v>1.6268</v>
       </c>
       <c r="F104">
-        <v>1.67428</v>
+        <v>1.6410800000000001</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>2.7150000000000007</v>
+        <v>3.6459999999999937</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3151,23 @@
         <v>27</v>
       </c>
       <c r="B105" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C105">
-        <v>1.6946000000000001</v>
+        <v>1.6956100000000001</v>
       </c>
       <c r="D105">
-        <v>1.7121999999999999</v>
+        <v>1.69848</v>
       </c>
       <c r="E105">
-        <v>1.6850499999999999</v>
+        <v>1.6620200000000001</v>
       </c>
       <c r="F105">
-        <v>1.6946300000000001</v>
+        <v>1.67428</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>3.3630000000000049</v>
+        <v>2.7150000000000007</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3175,23 @@
         <v>27</v>
       </c>
       <c r="B106" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C106">
-        <v>1.68363</v>
+        <v>1.6946000000000001</v>
       </c>
       <c r="D106">
-        <v>1.7042200000000001</v>
+        <v>1.7121999999999999</v>
       </c>
       <c r="E106">
-        <v>1.67059</v>
+        <v>1.6850499999999999</v>
       </c>
       <c r="F106">
-        <v>1.69411</v>
+        <v>1.6946300000000001</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>2.5390000000000024</v>
+        <v>3.3630000000000049</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3199,23 @@
         <v>27</v>
       </c>
       <c r="B107" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C107">
-        <v>1.6740600000000001</v>
+        <v>1.68363</v>
       </c>
       <c r="D107">
-        <v>1.68648</v>
+        <v>1.7042200000000001</v>
       </c>
       <c r="E107">
-        <v>1.66109</v>
+        <v>1.67059</v>
       </c>
       <c r="F107">
-        <v>1.68085</v>
+        <v>1.69411</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>2.7609999999999912</v>
+        <v>2.5390000000000024</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3223,23 @@
         <v>27</v>
       </c>
       <c r="B108" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C108">
-        <v>1.69011</v>
+        <v>1.6740600000000001</v>
       </c>
       <c r="D108">
-        <v>1.69597</v>
+        <v>1.68648</v>
       </c>
       <c r="E108">
-        <v>1.6683600000000001</v>
+        <v>1.66109</v>
       </c>
       <c r="F108">
-        <v>1.67615</v>
+        <v>1.68085</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>5.6230000000000002</v>
+        <v>2.7609999999999912</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3247,23 @@
         <v>27</v>
       </c>
       <c r="B109" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C109">
-        <v>1.73119</v>
+        <v>1.69011</v>
       </c>
       <c r="D109">
-        <v>1.7332000000000001</v>
+        <v>1.69597</v>
       </c>
       <c r="E109">
-        <v>1.6769700000000001</v>
+        <v>1.6683600000000001</v>
       </c>
       <c r="F109">
-        <v>1.6916199999999999</v>
+        <v>1.67615</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>3.5199999999999898</v>
+        <v>5.6230000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3271,23 @@
         <v>27</v>
       </c>
       <c r="B110" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C110">
-        <v>1.7215199999999999</v>
+        <v>1.73119</v>
       </c>
       <c r="D110">
-        <v>1.74912</v>
+        <v>1.7332000000000001</v>
       </c>
       <c r="E110">
-        <v>1.7139200000000001</v>
+        <v>1.6769700000000001</v>
       </c>
       <c r="F110">
-        <v>1.73092</v>
+        <v>1.6916199999999999</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>3.1270000000000131</v>
+        <v>3.5199999999999898</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3295,23 @@
         <v>27</v>
       </c>
       <c r="B111" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C111">
-        <v>1.7477799999999999</v>
+        <v>1.7215199999999999</v>
       </c>
       <c r="D111">
-        <v>1.7481800000000001</v>
+        <v>1.74912</v>
       </c>
       <c r="E111">
-        <v>1.7169099999999999</v>
+        <v>1.7139200000000001</v>
       </c>
       <c r="F111">
-        <v>1.72058</v>
+        <v>1.73092</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>2.3799999999999821</v>
+        <v>3.1270000000000131</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3319,23 @@
         <v>27</v>
       </c>
       <c r="B112" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C112">
-        <v>1.74315</v>
+        <v>1.7477799999999999</v>
       </c>
       <c r="D112">
-        <v>1.7573399999999999</v>
+        <v>1.7481800000000001</v>
       </c>
       <c r="E112">
-        <v>1.7335400000000001</v>
+        <v>1.7169099999999999</v>
       </c>
       <c r="F112">
-        <v>1.74763</v>
+        <v>1.72058</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>2.9469999999999885</v>
+        <v>2.3799999999999821</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3343,23 @@
         <v>27</v>
       </c>
       <c r="B113" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C113">
-        <v>1.7516400000000001</v>
+        <v>1.74315</v>
       </c>
       <c r="D113">
-        <v>1.7650699999999999</v>
+        <v>1.7573399999999999</v>
       </c>
       <c r="E113">
-        <v>1.7356</v>
+        <v>1.7335400000000001</v>
       </c>
       <c r="F113">
-        <v>1.74343</v>
+        <v>1.74763</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>4.6710000000000029</v>
+        <v>2.9469999999999885</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3367,23 @@
         <v>27</v>
       </c>
       <c r="B114" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C114">
-        <v>1.72888</v>
+        <v>1.7516400000000001</v>
       </c>
       <c r="D114">
-        <v>1.75346</v>
+        <v>1.7650699999999999</v>
       </c>
       <c r="E114">
-        <v>1.70675</v>
+        <v>1.7356</v>
       </c>
       <c r="F114">
-        <v>1.7492099999999999</v>
+        <v>1.74343</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>4.8459999999999948</v>
+        <v>4.6710000000000029</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3391,23 @@
         <v>27</v>
       </c>
       <c r="B115" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>1.69275</v>
+        <v>1.72888</v>
       </c>
       <c r="D115">
-        <v>1.73641</v>
+        <v>1.75346</v>
       </c>
       <c r="E115">
-        <v>1.6879500000000001</v>
+        <v>1.70675</v>
       </c>
       <c r="F115">
-        <v>1.72925</v>
+        <v>1.7492099999999999</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>6.0359999999999969</v>
+        <v>4.8459999999999948</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3415,23 @@
         <v>27</v>
       </c>
       <c r="B116" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C116">
-        <v>1.6536200000000001</v>
+        <v>1.69275</v>
       </c>
       <c r="D116">
-        <v>1.71102</v>
+        <v>1.73641</v>
       </c>
       <c r="E116">
-        <v>1.65066</v>
+        <v>1.6879500000000001</v>
       </c>
       <c r="F116">
-        <v>1.69801</v>
+        <v>1.72925</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>2.4700000000000166</v>
+        <v>6.0359999999999969</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3439,23 @@
         <v>27</v>
       </c>
       <c r="B117" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C117">
-        <v>1.6501999999999999</v>
+        <v>1.6536200000000001</v>
       </c>
       <c r="D117">
-        <v>1.6722600000000001</v>
+        <v>1.71102</v>
       </c>
       <c r="E117">
-        <v>1.6475599999999999</v>
+        <v>1.65066</v>
       </c>
       <c r="F117">
-        <v>1.6530499999999999</v>
+        <v>1.69801</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>2.022999999999997</v>
+        <v>2.4700000000000166</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3463,23 @@
         <v>27</v>
       </c>
       <c r="B118" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C118">
-        <v>1.6420600000000001</v>
+        <v>1.6501999999999999</v>
       </c>
       <c r="D118">
-        <v>1.65838</v>
+        <v>1.6722600000000001</v>
       </c>
       <c r="E118">
-        <v>1.63815</v>
+        <v>1.6475599999999999</v>
       </c>
       <c r="F118">
-        <v>1.64825</v>
+        <v>1.6530499999999999</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>3.8719999999999866</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3487,23 @@
         <v>27</v>
       </c>
       <c r="B119" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C119">
-        <v>1.63645</v>
+        <v>1.6420600000000001</v>
       </c>
       <c r="D119">
-        <v>1.6567799999999999</v>
+        <v>1.65838</v>
       </c>
       <c r="E119">
-        <v>1.6180600000000001</v>
+        <v>1.63815</v>
       </c>
       <c r="F119">
-        <v>1.64228</v>
+        <v>1.64825</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>4.669000000000012</v>
+        <v>3.8719999999999866</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3511,23 @@
         <v>27</v>
       </c>
       <c r="B120" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C120">
-        <v>1.6083499999999999</v>
+        <v>1.63645</v>
       </c>
       <c r="D120">
-        <v>1.6426000000000001</v>
+        <v>1.6567799999999999</v>
       </c>
       <c r="E120">
-        <v>1.5959099999999999</v>
+        <v>1.6180600000000001</v>
       </c>
       <c r="F120">
-        <v>1.6377999999999999</v>
+        <v>1.64228</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>2.6490000000000125</v>
+        <v>4.669000000000012</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3535,23 @@
         <v>27</v>
       </c>
       <c r="B121" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C121">
-        <v>1.61178</v>
+        <v>1.6083499999999999</v>
       </c>
       <c r="D121">
-        <v>1.6168800000000001</v>
+        <v>1.6426000000000001</v>
       </c>
       <c r="E121">
-        <v>1.59039</v>
+        <v>1.5959099999999999</v>
       </c>
       <c r="F121">
-        <v>1.6084499999999999</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.2029999999999994</v>
+        <v>2.6490000000000125</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3559,23 @@
         <v>27</v>
       </c>
       <c r="B122" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C122">
-        <v>1.6186799999999999</v>
+        <v>1.61178</v>
       </c>
       <c r="D122">
-        <v>1.62354</v>
+        <v>1.6168800000000001</v>
       </c>
       <c r="E122">
-        <v>1.60151</v>
+        <v>1.59039</v>
       </c>
       <c r="F122">
-        <v>1.61243</v>
+        <v>1.6084499999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.7670000000000083</v>
+        <v>2.2029999999999994</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3583,23 @@
         <v>27</v>
       </c>
       <c r="B123" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C123">
-        <v>1.6234</v>
+        <v>1.6186799999999999</v>
       </c>
       <c r="D123">
-        <v>1.62693</v>
+        <v>1.62354</v>
       </c>
       <c r="E123">
-        <v>1.5992599999999999</v>
+        <v>1.60151</v>
       </c>
       <c r="F123">
-        <v>1.619</v>
+        <v>1.61243</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.1179999999999977</v>
+        <v>2.7670000000000083</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3607,23 @@
         <v>27</v>
       </c>
       <c r="B124" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C124">
-        <v>1.61633</v>
+        <v>1.6234</v>
       </c>
       <c r="D124">
-        <v>1.6360399999999999</v>
+        <v>1.62693</v>
       </c>
       <c r="E124">
-        <v>1.61486</v>
+        <v>1.5992599999999999</v>
       </c>
       <c r="F124">
-        <v>1.62443</v>
+        <v>1.619</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.7819999999999956</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3631,23 @@
         <v>27</v>
       </c>
       <c r="B125" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C125">
-        <v>1.62425</v>
+        <v>1.61633</v>
       </c>
       <c r="D125">
-        <v>1.6400999999999999</v>
+        <v>1.6360399999999999</v>
       </c>
       <c r="E125">
-        <v>1.6122799999999999</v>
+        <v>1.61486</v>
       </c>
       <c r="F125">
-        <v>1.6190500000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.8279999999999861</v>
+        <v>2.7819999999999956</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3655,23 @@
         <v>27</v>
       </c>
       <c r="B126" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C126">
-        <v>1.62635</v>
+        <v>1.62425</v>
       </c>
       <c r="D126">
-        <v>1.6483399999999999</v>
+        <v>1.6400999999999999</v>
       </c>
       <c r="E126">
-        <v>1.6200600000000001</v>
+        <v>1.6122799999999999</v>
       </c>
       <c r="F126">
-        <v>1.6272500000000001</v>
+        <v>1.6190500000000001</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>5.1530000000000076</v>
+        <v>2.8279999999999861</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3679,23 @@
         <v>27</v>
       </c>
       <c r="B127" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C127">
-        <v>1.66448</v>
+        <v>1.62635</v>
       </c>
       <c r="D127">
-        <v>1.67405</v>
+        <v>1.6483399999999999</v>
       </c>
       <c r="E127">
-        <v>1.62252</v>
+        <v>1.6200600000000001</v>
       </c>
       <c r="F127">
-        <v>1.62538</v>
+        <v>1.6272500000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>4.1300000000000114</v>
+        <v>5.1530000000000076</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3703,23 @@
         <v>27</v>
       </c>
       <c r="B128" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C128">
-        <v>1.6370899999999999</v>
+        <v>1.66448</v>
       </c>
       <c r="D128">
-        <v>1.6766700000000001</v>
+        <v>1.67405</v>
       </c>
       <c r="E128">
-        <v>1.63537</v>
+        <v>1.62252</v>
       </c>
       <c r="F128">
-        <v>1.66208</v>
+        <v>1.62538</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>4.231000000000007</v>
+        <v>4.1300000000000114</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3727,23 @@
         <v>27</v>
       </c>
       <c r="B129" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C129">
-        <v>1.60284</v>
+        <v>1.6370899999999999</v>
       </c>
       <c r="D129">
-        <v>1.6430400000000001</v>
+        <v>1.6766700000000001</v>
       </c>
       <c r="E129">
-        <v>1.60073</v>
+        <v>1.63537</v>
       </c>
       <c r="F129">
-        <v>1.6364300000000001</v>
+        <v>1.66208</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>6.1039999999999983</v>
+        <v>4.231000000000007</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3751,23 @@
         <v>27</v>
       </c>
       <c r="B130" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C130">
-        <v>1.67848</v>
+        <v>1.60284</v>
       </c>
       <c r="D130">
-        <v>1.6810799999999999</v>
+        <v>1.6430400000000001</v>
       </c>
       <c r="E130">
-        <v>1.6200399999999999</v>
+        <v>1.60073</v>
       </c>
       <c r="F130">
-        <v>1.6249800000000001</v>
+        <v>1.6364300000000001</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>2.9879999999999907</v>
+        <v>6.1039999999999983</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3775,23 @@
         <v>27</v>
       </c>
       <c r="B131" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C131">
-        <v>1.7075499999999999</v>
+        <v>1.67848</v>
       </c>
       <c r="D131">
-        <v>1.70855</v>
+        <v>1.6810799999999999</v>
       </c>
       <c r="E131">
-        <v>1.6786700000000001</v>
+        <v>1.6200399999999999</v>
       </c>
       <c r="F131">
-        <v>1.6834800000000001</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.0340000000000025</v>
+        <v>2.9879999999999907</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3799,23 @@
         <v>27</v>
       </c>
       <c r="B132" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C132">
-        <v>1.7087000000000001</v>
+        <v>1.7075499999999999</v>
       </c>
       <c r="D132">
-        <v>1.71374</v>
+        <v>1.70855</v>
       </c>
       <c r="E132">
-        <v>1.6934</v>
+        <v>1.6786700000000001</v>
       </c>
       <c r="F132">
-        <v>1.7099500000000001</v>
+        <v>1.6834800000000001</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>1.7100000000000115</v>
+        <v>2.0340000000000025</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3823,23 @@
         <v>27</v>
       </c>
       <c r="B133" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C133">
-        <v>1.7129000000000001</v>
+        <v>1.7087000000000001</v>
       </c>
       <c r="D133">
-        <v>1.7155</v>
+        <v>1.71374</v>
       </c>
       <c r="E133">
-        <v>1.6983999999999999</v>
+        <v>1.6934</v>
       </c>
       <c r="F133">
-        <v>1.71231</v>
+        <v>1.7099500000000001</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.3079999999999998</v>
+        <v>1.7100000000000115</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3847,23 @@
         <v>27</v>
       </c>
       <c r="B134" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C134">
-        <v>1.68824</v>
+        <v>1.7129000000000001</v>
       </c>
       <c r="D134">
-        <v>1.71414</v>
+        <v>1.7155</v>
       </c>
       <c r="E134">
-        <v>1.68106</v>
+        <v>1.6983999999999999</v>
       </c>
       <c r="F134">
-        <v>1.71018</v>
+        <v>1.71231</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>3.3079999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3871,23 @@
         <v>27</v>
       </c>
       <c r="B135" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C135">
-        <v>1.7004300000000001</v>
+        <v>1.68824</v>
       </c>
       <c r="D135">
-        <v>1.71729</v>
+        <v>1.71414</v>
       </c>
       <c r="E135">
-        <v>1.6809000000000001</v>
+        <v>1.68106</v>
       </c>
       <c r="F135">
-        <v>1.68835</v>
+        <v>1.71018</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>6.0719999999999885</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3895,23 @@
         <v>27</v>
       </c>
       <c r="B136" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C136">
-        <v>1.67248</v>
+        <v>1.7004300000000001</v>
       </c>
       <c r="D136">
-        <v>1.7154799999999999</v>
+        <v>1.71729</v>
       </c>
       <c r="E136">
-        <v>1.65476</v>
+        <v>1.6809000000000001</v>
       </c>
       <c r="F136">
-        <v>1.70705</v>
+        <v>1.68835</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>3.3259999999999845</v>
+        <v>6.0719999999999885</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3919,23 @@
         <v>27</v>
       </c>
       <c r="B137" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C137">
-        <v>1.6825000000000001</v>
+        <v>1.67248</v>
       </c>
       <c r="D137">
-        <v>1.69783</v>
+        <v>1.7154799999999999</v>
       </c>
       <c r="E137">
-        <v>1.6645700000000001</v>
+        <v>1.65476</v>
       </c>
       <c r="F137">
-        <v>1.67621</v>
+        <v>1.70705</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>4.5039999999999969</v>
+        <v>3.3259999999999845</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3943,23 @@
         <v>27</v>
       </c>
       <c r="B138" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C138">
-        <v>1.6655500000000001</v>
+        <v>1.6825000000000001</v>
       </c>
       <c r="D138">
-        <v>1.6853499999999999</v>
+        <v>1.69783</v>
       </c>
       <c r="E138">
-        <v>1.6403099999999999</v>
+        <v>1.6645700000000001</v>
       </c>
       <c r="F138">
-        <v>1.6828000000000001</v>
+        <v>1.67621</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>8.5370000000000168</v>
+        <v>4.5039999999999969</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3967,23 @@
         <v>27</v>
       </c>
       <c r="B139" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C139">
-        <v>1.62018</v>
+        <v>1.6655500000000001</v>
       </c>
       <c r="D139">
-        <v>1.6752800000000001</v>
+        <v>1.6853499999999999</v>
       </c>
       <c r="E139">
-        <v>1.5899099999999999</v>
+        <v>1.6403099999999999</v>
       </c>
       <c r="F139">
-        <v>1.6695800000000001</v>
+        <v>1.6828000000000001</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>4.8349999999999893</v>
+        <v>8.5370000000000168</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3991,23 @@
         <v>27</v>
       </c>
       <c r="B140" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C140">
-        <v>1.60361</v>
+        <v>1.62018</v>
       </c>
       <c r="D140">
-        <v>1.63798</v>
+        <v>1.6752800000000001</v>
       </c>
       <c r="E140">
-        <v>1.5896300000000001</v>
+        <v>1.5899099999999999</v>
       </c>
       <c r="F140">
-        <v>1.62978</v>
+        <v>1.6695800000000001</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>3.2340000000000035</v>
+        <v>4.8349999999999893</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4015,23 @@
         <v>27</v>
       </c>
       <c r="B141" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C141">
-        <v>1.6068199999999999</v>
+        <v>1.60361</v>
       </c>
       <c r="D141">
-        <v>1.6113299999999999</v>
+        <v>1.63798</v>
       </c>
       <c r="E141">
-        <v>1.5789899999999999</v>
+        <v>1.5896300000000001</v>
       </c>
       <c r="F141">
-        <v>1.60433</v>
+        <v>1.62978</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>2.3009999999999975</v>
+        <v>3.2340000000000035</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4039,23 @@
         <v>27</v>
       </c>
       <c r="B142" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C142">
-        <v>1.5970500000000001</v>
+        <v>1.6068199999999999</v>
       </c>
       <c r="D142">
-        <v>1.6107899999999999</v>
+        <v>1.6113299999999999</v>
       </c>
       <c r="E142">
-        <v>1.58778</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="F142">
-        <v>1.6079300000000001</v>
+        <v>1.60433</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>4.2519999999999891</v>
+        <v>2.3009999999999975</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4063,23 @@
         <v>27</v>
       </c>
       <c r="B143" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C143">
-        <v>1.63554</v>
+        <v>1.5970500000000001</v>
       </c>
       <c r="D143">
-        <v>1.6382399999999999</v>
+        <v>1.6107899999999999</v>
       </c>
       <c r="E143">
-        <v>1.59572</v>
+        <v>1.58778</v>
       </c>
       <c r="F143">
-        <v>1.6015699999999999</v>
+        <v>1.6079300000000001</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>19.363999999999983</v>
+        <v>4.2519999999999891</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4087,23 @@
         <v>27</v>
       </c>
       <c r="B144" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C144">
-        <v>1.6889099999999999</v>
+        <v>1.63554</v>
       </c>
       <c r="D144">
-        <v>1.6924699999999999</v>
+        <v>1.6382399999999999</v>
       </c>
       <c r="E144">
-        <v>1.4988300000000001</v>
+        <v>1.59572</v>
       </c>
       <c r="F144">
-        <v>1.63985</v>
+        <v>1.6015699999999999</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.0089999999999941</v>
+        <v>19.363999999999983</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4111,23 @@
         <v>27</v>
       </c>
       <c r="B145" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C145">
-        <v>1.7018599999999999</v>
+        <v>1.6889099999999999</v>
       </c>
       <c r="D145">
-        <v>1.7071799999999999</v>
+        <v>1.6924699999999999</v>
       </c>
       <c r="E145">
-        <v>1.68709</v>
+        <v>1.4988300000000001</v>
       </c>
       <c r="F145">
-        <v>1.6942299999999999</v>
+        <v>1.63985</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>4.4009999999999883</v>
+        <v>2.0089999999999941</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4135,23 @@
         <v>27</v>
       </c>
       <c r="B146" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C146">
-        <v>1.7372000000000001</v>
+        <v>1.7018599999999999</v>
       </c>
       <c r="D146">
-        <v>1.73827</v>
+        <v>1.7071799999999999</v>
       </c>
       <c r="E146">
-        <v>1.6942600000000001</v>
+        <v>1.68709</v>
       </c>
       <c r="F146">
-        <v>1.7012499999999999</v>
+        <v>1.6942299999999999</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>4.4789999999999885</v>
+        <v>4.4009999999999883</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4159,23 @@
         <v>27</v>
       </c>
       <c r="B147" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C147">
-        <v>1.75871</v>
+        <v>1.7372000000000001</v>
       </c>
       <c r="D147">
-        <v>1.77999</v>
+        <v>1.73827</v>
       </c>
       <c r="E147">
-        <v>1.7352000000000001</v>
+        <v>1.6942600000000001</v>
       </c>
       <c r="F147">
-        <v>1.7358100000000001</v>
+        <v>1.7012499999999999</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>3.4899999999999931</v>
+        <v>4.4789999999999885</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4183,23 @@
         <v>27</v>
       </c>
       <c r="B148" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C148">
-        <v>1.7556499999999999</v>
+        <v>1.75871</v>
       </c>
       <c r="D148">
-        <v>1.7614799999999999</v>
+        <v>1.77999</v>
       </c>
       <c r="E148">
-        <v>1.72658</v>
+        <v>1.7352000000000001</v>
       </c>
       <c r="F148">
-        <v>1.7608999999999999</v>
+        <v>1.7358100000000001</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>4.1059999999999874</v>
+        <v>3.4899999999999931</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4207,23 @@
         <v>27</v>
       </c>
       <c r="B149" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C149">
-        <v>1.7360800000000001</v>
+        <v>1.7556499999999999</v>
       </c>
       <c r="D149">
-        <v>1.76718</v>
+        <v>1.7614799999999999</v>
       </c>
       <c r="E149">
-        <v>1.7261200000000001</v>
+        <v>1.72658</v>
       </c>
       <c r="F149">
-        <v>1.7563500000000001</v>
+        <v>1.7608999999999999</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.1059999999999874</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4231,23 @@
         <v>27</v>
       </c>
       <c r="B150" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C150">
-        <v>1.7168600000000001</v>
+        <v>1.7360800000000001</v>
       </c>
       <c r="D150">
-        <v>1.7416499999999999</v>
+        <v>1.76718</v>
       </c>
       <c r="E150">
-        <v>1.71373</v>
+        <v>1.7261200000000001</v>
       </c>
       <c r="F150">
-        <v>1.7372300000000001</v>
+        <v>1.7563500000000001</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>5.3949999999999942</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4255,23 @@
         <v>27</v>
       </c>
       <c r="B151" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C151">
-        <v>1.68699</v>
+        <v>1.7168600000000001</v>
       </c>
       <c r="D151">
-        <v>1.7259199999999999</v>
+        <v>1.7416499999999999</v>
       </c>
       <c r="E151">
-        <v>1.67197</v>
+        <v>1.71373</v>
       </c>
       <c r="F151">
-        <v>1.7153799999999999</v>
+        <v>1.7372300000000001</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>4.3619999999999992</v>
+        <v>5.3949999999999942</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4279,23 @@
         <v>27</v>
       </c>
       <c r="B152" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C152">
-        <v>1.71953</v>
+        <v>1.68699</v>
       </c>
       <c r="D152">
-        <v>1.72228</v>
+        <v>1.7259199999999999</v>
       </c>
       <c r="E152">
-        <v>1.67866</v>
+        <v>1.67197</v>
       </c>
       <c r="F152">
-        <v>1.6876500000000001</v>
+        <v>1.7153799999999999</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>5.4929999999999923</v>
+        <v>4.3619999999999992</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4303,23 @@
         <v>27</v>
       </c>
       <c r="B153" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C153">
-        <v>1.7424999999999999</v>
+        <v>1.71953</v>
       </c>
       <c r="D153">
-        <v>1.7617499999999999</v>
+        <v>1.72228</v>
       </c>
       <c r="E153">
-        <v>1.70682</v>
+        <v>1.67866</v>
       </c>
       <c r="F153">
-        <v>1.71513</v>
+        <v>1.6876500000000001</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>3.2189999999999941</v>
+        <v>5.4929999999999923</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4327,23 @@
         <v>27</v>
       </c>
       <c r="B154" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C154">
-        <v>1.7583200000000001</v>
+        <v>1.7424999999999999</v>
       </c>
       <c r="D154">
-        <v>1.7679199999999999</v>
+        <v>1.7617499999999999</v>
       </c>
       <c r="E154">
-        <v>1.73573</v>
+        <v>1.70682</v>
       </c>
       <c r="F154">
-        <v>1.7396199999999999</v>
+        <v>1.71513</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>4.0680000000000049</v>
+        <v>3.2189999999999941</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4351,23 @@
         <v>27</v>
       </c>
       <c r="B155" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C155">
-        <v>1.7383500000000001</v>
+        <v>1.7583200000000001</v>
       </c>
       <c r="D155">
-        <v>1.77871</v>
+        <v>1.7679199999999999</v>
       </c>
       <c r="E155">
-        <v>1.73803</v>
+        <v>1.73573</v>
       </c>
       <c r="F155">
-        <v>1.7556799999999999</v>
+        <v>1.7396199999999999</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>5.9120000000000061</v>
+        <v>4.0680000000000049</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4375,23 @@
         <v>27</v>
       </c>
       <c r="B156" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C156">
-        <v>1.7117199999999999</v>
+        <v>1.7383500000000001</v>
       </c>
       <c r="D156">
-        <v>1.76353</v>
+        <v>1.77871</v>
       </c>
       <c r="E156">
-        <v>1.70441</v>
+        <v>1.73803</v>
       </c>
       <c r="F156">
-        <v>1.73803</v>
+        <v>1.7556799999999999</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>7.0259999999999989</v>
+        <v>5.9120000000000061</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4399,23 @@
         <v>27</v>
       </c>
       <c r="B157" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C157">
-        <v>1.78016</v>
+        <v>1.7117199999999999</v>
       </c>
       <c r="D157">
-        <v>1.78023</v>
+        <v>1.76353</v>
       </c>
       <c r="E157">
-        <v>1.70997</v>
+        <v>1.70441</v>
       </c>
       <c r="F157">
-        <v>1.71139</v>
+        <v>1.73803</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>4.9339999999999939</v>
+        <v>7.0259999999999989</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4423,23 @@
         <v>27</v>
       </c>
       <c r="B158" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C158">
-        <v>1.80535</v>
+        <v>1.78016</v>
       </c>
       <c r="D158">
-        <v>1.8191299999999999</v>
+        <v>1.78023</v>
       </c>
       <c r="E158">
-        <v>1.76979</v>
+        <v>1.70997</v>
       </c>
       <c r="F158">
-        <v>1.7715099999999999</v>
+        <v>1.71139</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>17.331999999999994</v>
+        <v>4.9339999999999939</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4447,23 @@
         <v>27</v>
       </c>
       <c r="B159" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C159">
-        <v>1.94547</v>
+        <v>1.80535</v>
       </c>
       <c r="D159">
-        <v>1.9737199999999999</v>
+        <v>1.8191299999999999</v>
       </c>
       <c r="E159">
-        <v>1.8004</v>
+        <v>1.76979</v>
       </c>
       <c r="F159">
-        <v>1.83073</v>
+        <v>1.7715099999999999</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>4.0959999999999885</v>
+        <v>17.331999999999994</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4471,23 @@
         <v>27</v>
       </c>
       <c r="B160" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C160">
-        <v>1.9313499999999999</v>
+        <v>1.94547</v>
       </c>
       <c r="D160">
-        <v>1.9445699999999999</v>
+        <v>1.9737199999999999</v>
       </c>
       <c r="E160">
-        <v>1.90361</v>
+        <v>1.8004</v>
       </c>
       <c r="F160">
-        <v>1.94198</v>
+        <v>1.83073</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>6.01799999999999</v>
+        <v>4.0959999999999885</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4495,23 @@
         <v>27</v>
       </c>
       <c r="B161" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C161">
-        <v>1.96573</v>
+        <v>1.9313499999999999</v>
       </c>
       <c r="D161">
-        <v>1.9836499999999999</v>
+        <v>1.9445699999999999</v>
       </c>
       <c r="E161">
-        <v>1.92347</v>
+        <v>1.90361</v>
       </c>
       <c r="F161">
-        <v>1.9342600000000001</v>
+        <v>1.94198</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>7.3670000000000124</v>
+        <v>6.01799999999999</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4519,23 @@
         <v>27</v>
       </c>
       <c r="B162" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C162">
-        <v>2.03443</v>
+        <v>1.96573</v>
       </c>
       <c r="D162">
-        <v>2.0437400000000001</v>
+        <v>1.9836499999999999</v>
       </c>
       <c r="E162">
-        <v>1.97007</v>
+        <v>1.92347</v>
       </c>
       <c r="F162">
-        <v>1.97027</v>
+        <v>1.9342600000000001</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>5.2340000000000053</v>
+        <v>7.3670000000000124</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4543,23 @@
         <v>27</v>
       </c>
       <c r="B163" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C163">
-        <v>2.0055800000000001</v>
+        <v>2.03443</v>
       </c>
       <c r="D163">
-        <v>2.0524499999999999</v>
+        <v>2.0437400000000001</v>
       </c>
       <c r="E163">
-        <v>2.0001099999999998</v>
+        <v>1.97007</v>
       </c>
       <c r="F163">
-        <v>2.03268</v>
+        <v>1.97027</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>6.9320000000000048</v>
+        <v>5.2340000000000053</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4567,23 @@
         <v>27</v>
       </c>
       <c r="B164" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C164">
-        <v>1.9771700000000001</v>
+        <v>2.0055800000000001</v>
       </c>
       <c r="D164">
-        <v>2.03525</v>
+        <v>2.0524499999999999</v>
       </c>
       <c r="E164">
-        <v>1.96593</v>
+        <v>2.0001099999999998</v>
       </c>
       <c r="F164">
-        <v>2.0067599999999999</v>
+        <v>2.03268</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.737999999999996</v>
+        <v>6.9320000000000048</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4591,23 @@
         <v>27</v>
       </c>
       <c r="B165" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C165">
-        <v>1.9578199999999999</v>
+        <v>1.9771700000000001</v>
       </c>
       <c r="D165">
-        <v>1.9803599999999999</v>
+        <v>2.03525</v>
       </c>
       <c r="E165">
-        <v>1.9529799999999999</v>
+        <v>1.96593</v>
       </c>
       <c r="F165">
-        <v>1.97628</v>
+        <v>2.0067599999999999</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>7.0680000000000076</v>
+        <v>2.737999999999996</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4615,23 @@
         <v>27</v>
       </c>
       <c r="B166" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C166">
-        <v>1.91726</v>
+        <v>1.9578199999999999</v>
       </c>
       <c r="D166">
-        <v>1.97265</v>
+        <v>1.9803599999999999</v>
       </c>
       <c r="E166">
-        <v>1.9019699999999999</v>
+        <v>1.9529799999999999</v>
       </c>
       <c r="F166">
-        <v>1.9577</v>
+        <v>1.97628</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>5.6849999999999845</v>
+        <v>7.0680000000000076</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4639,23 @@
         <v>27</v>
       </c>
       <c r="B167" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C167">
-        <v>1.87521</v>
+        <v>1.91726</v>
       </c>
       <c r="D167">
-        <v>1.9245699999999999</v>
+        <v>1.97265</v>
       </c>
       <c r="E167">
-        <v>1.86772</v>
+        <v>1.9019699999999999</v>
       </c>
       <c r="F167">
-        <v>1.9204000000000001</v>
+        <v>1.9577</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>4.3570000000000109</v>
+        <v>5.6849999999999845</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4663,23 @@
         <v>27</v>
       </c>
       <c r="B168" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C168">
-        <v>1.8510500000000001</v>
+        <v>1.87521</v>
       </c>
       <c r="D168">
-        <v>1.8708</v>
+        <v>1.9245699999999999</v>
       </c>
       <c r="E168">
-        <v>1.8272299999999999</v>
+        <v>1.86772</v>
       </c>
       <c r="F168">
-        <v>1.87035</v>
+        <v>1.9204000000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>5.4980000000000029</v>
+        <v>4.3570000000000109</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4687,23 @@
         <v>27</v>
       </c>
       <c r="B169" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C169">
-        <v>1.8705799999999999</v>
+        <v>1.8510500000000001</v>
       </c>
       <c r="D169">
-        <v>1.8855299999999999</v>
+        <v>1.8708</v>
       </c>
       <c r="E169">
-        <v>1.8305499999999999</v>
+        <v>1.8272299999999999</v>
       </c>
       <c r="F169">
-        <v>1.84005</v>
+        <v>1.87035</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>3.8059999999999983</v>
+        <v>5.4980000000000029</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4711,23 @@
         <v>27</v>
       </c>
       <c r="B170" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C170">
-        <v>1.8517399999999999</v>
+        <v>1.8705799999999999</v>
       </c>
       <c r="D170">
-        <v>1.8889499999999999</v>
+        <v>1.8855299999999999</v>
       </c>
       <c r="E170">
-        <v>1.8508899999999999</v>
+        <v>1.8305499999999999</v>
       </c>
       <c r="F170">
-        <v>1.8709</v>
+        <v>1.84005</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>5.1470000000000127</v>
+        <v>3.8059999999999983</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4735,23 @@
         <v>27</v>
       </c>
       <c r="B171" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C171">
-        <v>1.8815500000000001</v>
+        <v>1.8517399999999999</v>
       </c>
       <c r="D171">
-        <v>1.9002600000000001</v>
+        <v>1.8889499999999999</v>
       </c>
       <c r="E171">
-        <v>1.8487899999999999</v>
+        <v>1.8508899999999999</v>
       </c>
       <c r="F171">
-        <v>1.8521000000000001</v>
+        <v>1.8709</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>4.9670000000000103</v>
+        <v>5.1470000000000127</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4759,23 @@
         <v>27</v>
       </c>
       <c r="B172" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C172">
-        <v>1.9028799999999999</v>
+        <v>1.8815500000000001</v>
       </c>
       <c r="D172">
-        <v>1.9087000000000001</v>
+        <v>1.9002600000000001</v>
       </c>
       <c r="E172">
-        <v>1.85903</v>
+        <v>1.8487899999999999</v>
       </c>
       <c r="F172">
-        <v>1.88409</v>
+        <v>1.8521000000000001</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>4.5259999999999856</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4783,23 @@
         <v>27</v>
       </c>
       <c r="B173" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C173">
-        <v>1.90371</v>
+        <v>1.9028799999999999</v>
       </c>
       <c r="D173">
-        <v>1.9106399999999999</v>
+        <v>1.9087000000000001</v>
       </c>
       <c r="E173">
-        <v>1.86538</v>
+        <v>1.85903</v>
       </c>
       <c r="F173">
-        <v>1.9040999999999999</v>
+        <v>1.88409</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>3.6270000000000024</v>
+        <v>4.5259999999999856</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4807,23 @@
         <v>27</v>
       </c>
       <c r="B174" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C174">
-        <v>1.91988</v>
+        <v>1.90371</v>
       </c>
       <c r="D174">
-        <v>1.92469</v>
+        <v>1.9106399999999999</v>
       </c>
       <c r="E174">
-        <v>1.88842</v>
+        <v>1.86538</v>
       </c>
       <c r="F174">
-        <v>1.9031499999999999</v>
+        <v>1.9040999999999999</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>5.4769999999999985</v>
+        <v>3.6270000000000024</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4831,23 @@
         <v>27</v>
       </c>
       <c r="B175" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C175">
-        <v>1.9454199999999999</v>
+        <v>1.91988</v>
       </c>
       <c r="D175">
-        <v>1.9602999999999999</v>
+        <v>1.92469</v>
       </c>
       <c r="E175">
-        <v>1.9055299999999999</v>
+        <v>1.88842</v>
       </c>
       <c r="F175">
-        <v>1.9137299999999999</v>
+        <v>1.9031499999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>7.7090000000000103</v>
+        <v>5.4769999999999985</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4855,23 @@
         <v>27</v>
       </c>
       <c r="B176" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C176">
-        <v>1.9923999999999999</v>
+        <v>1.9454199999999999</v>
       </c>
       <c r="D176">
-        <v>2.0033300000000001</v>
+        <v>1.9602999999999999</v>
       </c>
       <c r="E176">
-        <v>1.92624</v>
+        <v>1.9055299999999999</v>
       </c>
       <c r="F176">
-        <v>1.9455</v>
+        <v>1.9137299999999999</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>5.3680000000000172</v>
+        <v>7.7090000000000103</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4879,23 @@
         <v>27</v>
       </c>
       <c r="B177" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C177">
-        <v>2.0388299999999999</v>
+        <v>1.9923999999999999</v>
       </c>
       <c r="D177">
-        <v>2.0419800000000001</v>
+        <v>2.0033300000000001</v>
       </c>
       <c r="E177">
-        <v>1.9883</v>
+        <v>1.92624</v>
       </c>
       <c r="F177">
-        <v>2.0116000000000001</v>
+        <v>1.9455</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>3.8689999999999891</v>
+        <v>5.3680000000000172</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4903,23 @@
         <v>27</v>
       </c>
       <c r="B178" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C178">
-        <v>2.04684</v>
+        <v>2.0388299999999999</v>
       </c>
       <c r="D178">
-        <v>2.0662799999999999</v>
+        <v>2.0419800000000001</v>
       </c>
       <c r="E178">
-        <v>2.02759</v>
+        <v>1.9883</v>
       </c>
       <c r="F178">
-        <v>2.04088</v>
+        <v>2.0116000000000001</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>4.6949999999999825</v>
+        <v>3.8689999999999891</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4927,23 @@
         <v>27</v>
       </c>
       <c r="B179" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C179">
-        <v>2.0108799999999998</v>
+        <v>2.04684</v>
       </c>
       <c r="D179">
-        <v>2.0567799999999998</v>
+        <v>2.0662799999999999</v>
       </c>
       <c r="E179">
-        <v>2.00983</v>
+        <v>2.02759</v>
       </c>
       <c r="F179">
-        <v>2.0497299999999998</v>
+        <v>2.04088</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>5.3620000000000001</v>
+        <v>4.6949999999999825</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4951,23 @@
         <v>27</v>
       </c>
       <c r="B180" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C180">
-        <v>2.0353699999999999</v>
+        <v>2.0108799999999998</v>
       </c>
       <c r="D180">
-        <v>2.0532300000000001</v>
+        <v>2.0567799999999998</v>
       </c>
       <c r="E180">
-        <v>1.9996100000000001</v>
+        <v>2.00983</v>
       </c>
       <c r="F180">
-        <v>2.0122800000000001</v>
+        <v>2.0497299999999998</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>6.1029999999999696</v>
+        <v>5.3620000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4975,23 @@
         <v>27</v>
       </c>
       <c r="B181" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C181">
-        <v>2.0832799999999998</v>
+        <v>2.0353699999999999</v>
       </c>
       <c r="D181">
-        <v>2.0832799999999998</v>
+        <v>2.0532300000000001</v>
       </c>
       <c r="E181">
-        <v>2.0222500000000001</v>
+        <v>1.9996100000000001</v>
       </c>
       <c r="F181">
-        <v>2.0359799999999999</v>
+        <v>2.0122800000000001</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>4.980999999999991</v>
+        <v>6.1029999999999696</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +4999,23 @@
         <v>27</v>
       </c>
       <c r="B182" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C182">
-        <v>2.08291</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="D182">
-        <v>2.0976900000000001</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="E182">
-        <v>2.0478800000000001</v>
+        <v>2.0222500000000001</v>
       </c>
       <c r="F182">
-        <v>2.0749</v>
+        <v>2.0359799999999999</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>7.2830000000000172</v>
+        <v>4.980999999999991</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5023,23 @@
         <v>27</v>
       </c>
       <c r="B183" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C183">
-        <v>2.02075</v>
+        <v>2.08291</v>
       </c>
       <c r="D183">
-        <v>2.0905800000000001</v>
+        <v>2.0976900000000001</v>
       </c>
       <c r="E183">
-        <v>2.0177499999999999</v>
+        <v>2.0478800000000001</v>
       </c>
       <c r="F183">
-        <v>2.0846499999999999</v>
+        <v>2.0749</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>3.9410000000000167</v>
+        <v>7.2830000000000172</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5047,23 @@
         <v>27</v>
       </c>
       <c r="B184" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C184">
-        <v>2.0453800000000002</v>
+        <v>2.02075</v>
       </c>
       <c r="D184">
-        <v>2.0565600000000002</v>
+        <v>2.0905800000000001</v>
       </c>
       <c r="E184">
-        <v>2.01715</v>
+        <v>2.0177499999999999</v>
       </c>
       <c r="F184">
-        <v>2.0242499999999999</v>
+        <v>2.0846499999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>3.9959999999999773</v>
+        <v>3.9410000000000167</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5071,23 @@
         <v>27</v>
       </c>
       <c r="B185" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C185">
-        <v>2.07795</v>
+        <v>2.0453800000000002</v>
       </c>
       <c r="D185">
-        <v>2.0840999999999998</v>
+        <v>2.0565600000000002</v>
       </c>
       <c r="E185">
-        <v>2.0441400000000001</v>
+        <v>2.01715</v>
       </c>
       <c r="F185">
-        <v>2.0489099999999998</v>
+        <v>2.0242499999999999</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>5.1400000000000112</v>
+        <v>3.9959999999999773</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5095,23 @@
         <v>27</v>
       </c>
       <c r="B186" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C186">
-        <v>2.11374</v>
+        <v>2.07795</v>
       </c>
       <c r="D186">
-        <v>2.1216900000000001</v>
+        <v>2.0840999999999998</v>
       </c>
       <c r="E186">
-        <v>2.07029</v>
+        <v>2.0441400000000001</v>
       </c>
       <c r="F186">
-        <v>2.0785999999999998</v>
+        <v>2.0489099999999998</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>6.2519999999999687</v>
+        <v>5.1400000000000112</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5119,23 @@
         <v>27</v>
       </c>
       <c r="B187" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C187">
-        <v>2.0563600000000002</v>
+        <v>2.11374</v>
       </c>
       <c r="D187">
-        <v>2.1188799999999999</v>
+        <v>2.1216900000000001</v>
       </c>
       <c r="E187">
-        <v>2.0563600000000002</v>
+        <v>2.07029</v>
       </c>
       <c r="F187">
-        <v>2.1173000000000002</v>
+        <v>2.0785999999999998</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>6.1900000000000066</v>
+        <v>6.2519999999999687</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5143,23 @@
         <v>27</v>
       </c>
       <c r="B188" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C188">
-        <v>2.08996</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="D188">
-        <v>2.09599</v>
+        <v>2.1188799999999999</v>
       </c>
       <c r="E188">
-        <v>2.03409</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="F188">
-        <v>2.0584500000000001</v>
+        <v>2.1173000000000002</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>4.4019999999999726</v>
+        <v>6.1900000000000066</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5167,23 @@
         <v>27</v>
       </c>
       <c r="B189" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C189">
-        <v>2.09918</v>
+        <v>2.08996</v>
       </c>
       <c r="D189">
-        <v>2.1170599999999999</v>
+        <v>2.09599</v>
       </c>
       <c r="E189">
-        <v>2.0730400000000002</v>
+        <v>2.03409</v>
       </c>
       <c r="F189">
-        <v>2.09</v>
+        <v>2.0584500000000001</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>5.4419999999999913</v>
+        <v>4.4019999999999726</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5191,23 @@
         <v>27</v>
       </c>
       <c r="B190" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C190">
-        <v>2.13768</v>
+        <v>2.09918</v>
       </c>
       <c r="D190">
-        <v>2.1513499999999999</v>
+        <v>2.1170599999999999</v>
       </c>
       <c r="E190">
-        <v>2.09693</v>
+        <v>2.0730400000000002</v>
       </c>
       <c r="F190">
-        <v>2.09918</v>
+        <v>2.09</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>3.3100000000000129</v>
+        <v>5.4419999999999913</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5215,23 @@
         <v>27</v>
       </c>
       <c r="B191" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C191">
-        <v>2.1417000000000002</v>
+        <v>2.13768</v>
       </c>
       <c r="D191">
-        <v>2.1571500000000001</v>
+        <v>2.1513499999999999</v>
       </c>
       <c r="E191">
-        <v>2.12405</v>
+        <v>2.09693</v>
       </c>
       <c r="F191">
-        <v>2.1373000000000002</v>
+        <v>2.09918</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>5.8140000000000303</v>
+        <v>3.3100000000000129</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5239,23 @@
         <v>27</v>
       </c>
       <c r="B192" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C192">
-        <v>2.1713800000000001</v>
+        <v>2.1417000000000002</v>
       </c>
       <c r="D192">
-        <v>2.1713800000000001</v>
+        <v>2.1571500000000001</v>
       </c>
       <c r="E192">
-        <v>2.1132399999999998</v>
+        <v>2.12405</v>
       </c>
       <c r="F192">
-        <v>2.1365500000000002</v>
+        <v>2.1373000000000002</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>5.9060000000000112</v>
+        <v>5.8140000000000303</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5263,23 @@
         <v>27</v>
       </c>
       <c r="B193" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C193">
-        <v>2.1217800000000002</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="D193">
-        <v>2.1690800000000001</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="E193">
-        <v>2.11002</v>
+        <v>2.1132399999999998</v>
       </c>
       <c r="F193">
-        <v>2.1624300000000001</v>
+        <v>2.1365500000000002</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>3.907000000000016</v>
+        <v>5.9060000000000112</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5287,23 @@
         <v>27</v>
       </c>
       <c r="B194" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C194">
-        <v>2.12459</v>
+        <v>2.1217800000000002</v>
       </c>
       <c r="D194">
-        <v>2.1485500000000002</v>
+        <v>2.1690800000000001</v>
       </c>
       <c r="E194">
-        <v>2.10948</v>
+        <v>2.11002</v>
       </c>
       <c r="F194">
-        <v>2.1212399999999998</v>
+        <v>2.1624300000000001</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>5.168000000000017</v>
+        <v>3.907000000000016</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5311,23 @@
         <v>27</v>
       </c>
       <c r="B195" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C195">
-        <v>2.0911</v>
+        <v>2.12459</v>
       </c>
       <c r="D195">
-        <v>2.13063</v>
+        <v>2.1485500000000002</v>
       </c>
       <c r="E195">
-        <v>2.0789499999999999</v>
+        <v>2.10948</v>
       </c>
       <c r="F195">
-        <v>2.1221299999999998</v>
+        <v>2.1212399999999998</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>7.1470000000000145</v>
+        <v>5.168000000000017</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5335,23 @@
         <v>27</v>
       </c>
       <c r="B196" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C196">
-        <v>2.1492599999999999</v>
+        <v>2.0911</v>
       </c>
       <c r="D196">
-        <v>2.1570800000000001</v>
+        <v>2.13063</v>
       </c>
       <c r="E196">
-        <v>2.08561</v>
+        <v>2.0789499999999999</v>
       </c>
       <c r="F196">
-        <v>2.08928</v>
+        <v>2.1221299999999998</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>4.8669999999999991</v>
+        <v>7.1470000000000145</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5359,23 @@
         <v>27</v>
       </c>
       <c r="B197" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C197">
-        <v>2.1646899999999998</v>
+        <v>2.1492599999999999</v>
       </c>
       <c r="D197">
-        <v>2.1862699999999999</v>
+        <v>2.1570800000000001</v>
       </c>
       <c r="E197">
-        <v>2.1375999999999999</v>
+        <v>2.08561</v>
       </c>
       <c r="F197">
-        <v>2.1524999999999999</v>
+        <v>2.08928</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>4.5319999999999805</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5383,23 @@
         <v>27</v>
       </c>
       <c r="B198" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C198">
-        <v>2.1593399999999998</v>
+        <v>2.1646899999999998</v>
       </c>
       <c r="D198">
-        <v>2.2008299999999998</v>
+        <v>2.1862699999999999</v>
       </c>
       <c r="E198">
-        <v>2.15551</v>
+        <v>2.1375999999999999</v>
       </c>
       <c r="F198">
-        <v>2.1633800000000001</v>
+        <v>2.1524999999999999</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>5.1610000000000156</v>
+        <v>4.5319999999999805</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5407,23 @@
         <v>27</v>
       </c>
       <c r="B199" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C199">
-        <v>2.1772</v>
+        <v>2.1593399999999998</v>
       </c>
       <c r="D199">
-        <v>2.1869800000000001</v>
+        <v>2.2008299999999998</v>
       </c>
       <c r="E199">
-        <v>2.13537</v>
+        <v>2.15551</v>
       </c>
       <c r="F199">
-        <v>2.1593900000000001</v>
+        <v>2.1633800000000001</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>4.3260000000000076</v>
+        <v>5.1610000000000156</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5431,19 @@
         <v>27</v>
       </c>
       <c r="B200" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C200">
-        <v>2.1942599999999999</v>
+        <v>2.1772</v>
       </c>
       <c r="D200">
-        <v>2.21075</v>
+        <v>2.1869800000000001</v>
       </c>
       <c r="E200">
-        <v>2.1674899999999999</v>
+        <v>2.13537</v>
       </c>
       <c r="F200">
-        <v>2.1763499999999998</v>
+        <v>2.1593900000000001</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/xls/27_GBPAUD.xlsx
+++ b/volatility/src/xls/27_GBPAUD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Amount</t>
     <phoneticPr fontId="1"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>open</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buy</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -78,6 +74,18 @@
   </si>
   <si>
     <t>終値</t>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,7 +509,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -542,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="24" customHeight="1">
@@ -561,19 +569,19 @@
         <v>40203</v>
       </c>
       <c r="E6" s="5">
-        <v>180.5</v>
+        <v>1.794</v>
       </c>
       <c r="G6" s="5">
-        <f>(E6+B9)/100</f>
-        <v>1.8159999999999998</v>
+        <f>E6+(B9/100)</f>
+        <v>1.8049999999999999</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.8489999999999998</v>
+        <v>1.8379999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.7829999999999999</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -588,13 +596,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K9" s="7"/>
     </row>
@@ -602,16 +610,16 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="5">
-        <f>(E6-B9)/100</f>
-        <v>1.794</v>
+        <f>E6-(B9/100)</f>
+        <v>1.7830000000000001</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.7610000000000001</v>
+        <v>1.7500000000000002</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.827</v>
+        <v>1.8160000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -638,7 +646,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F200"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -648,26 +656,26 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>3.1749999999999945</v>
+        <v>1.4859999999999873</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +687,23 @@
         <v>27</v>
       </c>
       <c r="B2" s="8">
-        <v>42185</v>
+        <v>42192</v>
       </c>
       <c r="C2">
-        <v>1.8051999999999999</v>
+        <v>1.7941499999999999</v>
       </c>
       <c r="D2">
-        <v>1.8170599999999999</v>
+        <v>1.8039799999999999</v>
       </c>
       <c r="E2">
-        <v>1.78531</v>
+        <v>1.78912</v>
       </c>
       <c r="F2">
-        <v>1.7940400000000001</v>
+        <v>1.7906</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>3.2950000000000035</v>
+        <v>3.1749999999999945</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +711,23 @@
         <v>27</v>
       </c>
       <c r="B3" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C3">
-        <v>1.8371299999999999</v>
+        <v>1.8051999999999999</v>
       </c>
       <c r="D3">
-        <v>1.83849</v>
+        <v>1.8170599999999999</v>
       </c>
       <c r="E3">
-        <v>1.8055399999999999</v>
+        <v>1.78531</v>
       </c>
       <c r="F3">
-        <v>1.80785</v>
+        <v>1.7940400000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>2.0279999999999854</v>
+        <v>3.2950000000000035</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +735,23 @@
         <v>27</v>
       </c>
       <c r="B4" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C4">
-        <v>1.83114</v>
+        <v>1.8371299999999999</v>
       </c>
       <c r="D4">
-        <v>1.8421099999999999</v>
+        <v>1.83849</v>
       </c>
       <c r="E4">
-        <v>1.8218300000000001</v>
+        <v>1.8055399999999999</v>
       </c>
       <c r="F4">
-        <v>1.8386100000000001</v>
+        <v>1.80785</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>2.1109999999999962</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +759,23 @@
         <v>27</v>
       </c>
       <c r="B5" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C5">
-        <v>1.8177300000000001</v>
+        <v>1.83114</v>
       </c>
       <c r="D5">
-        <v>1.8385400000000001</v>
+        <v>1.8421099999999999</v>
       </c>
       <c r="E5">
-        <v>1.8174300000000001</v>
+        <v>1.8218300000000001</v>
       </c>
       <c r="F5">
-        <v>1.83135</v>
+        <v>1.8386100000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.5090000000000048</v>
+        <v>2.1109999999999962</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +783,23 @@
         <v>27</v>
       </c>
       <c r="B6" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C6">
-        <v>1.8221499999999999</v>
+        <v>1.8177300000000001</v>
       </c>
       <c r="D6">
-        <v>1.8268200000000001</v>
+        <v>1.8385400000000001</v>
       </c>
       <c r="E6">
-        <v>1.8117300000000001</v>
+        <v>1.8174300000000001</v>
       </c>
       <c r="F6">
-        <v>1.81999</v>
+        <v>1.83135</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.1460000000000035</v>
+        <v>1.5090000000000048</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +807,23 @@
         <v>27</v>
       </c>
       <c r="B7" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C7">
-        <v>1.8355600000000001</v>
+        <v>1.8221499999999999</v>
       </c>
       <c r="D7">
-        <v>1.83839</v>
+        <v>1.8268200000000001</v>
       </c>
       <c r="E7">
-        <v>1.8169299999999999</v>
+        <v>1.8117300000000001</v>
       </c>
       <c r="F7">
-        <v>1.8211299999999999</v>
+        <v>1.81999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>3.176000000000001</v>
+        <v>2.1460000000000035</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +831,23 @@
         <v>27</v>
       </c>
       <c r="B8" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C8">
-        <v>1.8448199999999999</v>
+        <v>1.8355600000000001</v>
       </c>
       <c r="D8">
-        <v>1.8615999999999999</v>
+        <v>1.83839</v>
       </c>
       <c r="E8">
-        <v>1.8298399999999999</v>
+        <v>1.8169299999999999</v>
       </c>
       <c r="F8">
-        <v>1.83483</v>
+        <v>1.8211299999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.1179999999999977</v>
+        <v>3.176000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +855,23 @@
         <v>27</v>
       </c>
       <c r="B9" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C9">
-        <v>1.8576900000000001</v>
+        <v>1.8448199999999999</v>
       </c>
       <c r="D9">
-        <v>1.87155</v>
+        <v>1.8615999999999999</v>
       </c>
       <c r="E9">
-        <v>1.8503700000000001</v>
+        <v>1.8298399999999999</v>
       </c>
       <c r="F9">
-        <v>1.85223</v>
+        <v>1.83483</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>3.4929999999999906</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +879,23 @@
         <v>27</v>
       </c>
       <c r="B10" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C10">
-        <v>1.88351</v>
+        <v>1.8576900000000001</v>
       </c>
       <c r="D10">
-        <v>1.88805</v>
+        <v>1.87155</v>
       </c>
       <c r="E10">
-        <v>1.8531200000000001</v>
+        <v>1.8503700000000001</v>
       </c>
       <c r="F10">
-        <v>1.8575299999999999</v>
+        <v>1.85223</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>4.6859999999999902</v>
+        <v>3.4929999999999906</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +903,23 @@
         <v>27</v>
       </c>
       <c r="B11" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C11">
-        <v>1.8343700000000001</v>
+        <v>1.88351</v>
       </c>
       <c r="D11">
-        <v>1.87693</v>
+        <v>1.88805</v>
       </c>
       <c r="E11">
-        <v>1.8300700000000001</v>
+        <v>1.8531200000000001</v>
       </c>
       <c r="F11">
-        <v>1.8746499999999999</v>
+        <v>1.8575299999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.9220000000000024</v>
+        <v>4.6859999999999902</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +927,23 @@
         <v>27</v>
       </c>
       <c r="B12" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C12">
-        <v>1.81575</v>
+        <v>1.8343700000000001</v>
       </c>
       <c r="D12">
-        <v>1.8448500000000001</v>
+        <v>1.87693</v>
       </c>
       <c r="E12">
-        <v>1.8156300000000001</v>
+        <v>1.8300700000000001</v>
       </c>
       <c r="F12">
-        <v>1.83392</v>
+        <v>1.8746499999999999</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>2.3269999999999902</v>
+        <v>2.9220000000000024</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +951,23 @@
         <v>27</v>
       </c>
       <c r="B13" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C13">
-        <v>1.82121</v>
+        <v>1.81575</v>
       </c>
       <c r="D13">
-        <v>1.8326899999999999</v>
+        <v>1.8448500000000001</v>
       </c>
       <c r="E13">
-        <v>1.80942</v>
+        <v>1.8156300000000001</v>
       </c>
       <c r="F13">
-        <v>1.8160700000000001</v>
+        <v>1.83392</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>2.1949999999999914</v>
+        <v>2.3269999999999902</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +975,23 @@
         <v>27</v>
       </c>
       <c r="B14" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C14">
-        <v>1.8324499999999999</v>
+        <v>1.82121</v>
       </c>
       <c r="D14">
-        <v>1.84327</v>
+        <v>1.8326899999999999</v>
       </c>
       <c r="E14">
-        <v>1.8213200000000001</v>
+        <v>1.80942</v>
       </c>
       <c r="F14">
-        <v>1.82256</v>
+        <v>1.8160700000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>3.3689999999999998</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +999,23 @@
         <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C15">
-        <v>1.8326199999999999</v>
+        <v>1.8324499999999999</v>
       </c>
       <c r="D15">
-        <v>1.86094</v>
+        <v>1.84327</v>
       </c>
       <c r="E15">
-        <v>1.82725</v>
+        <v>1.8213200000000001</v>
       </c>
       <c r="F15">
-        <v>1.83494</v>
+        <v>1.82256</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>4.335</v>
+        <v>3.3689999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1023,23 @@
         <v>27</v>
       </c>
       <c r="B16" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C16">
-        <v>1.86524</v>
+        <v>1.8326199999999999</v>
       </c>
       <c r="D16">
-        <v>1.8731100000000001</v>
+        <v>1.86094</v>
       </c>
       <c r="E16">
-        <v>1.8297600000000001</v>
+        <v>1.82725</v>
       </c>
       <c r="F16">
-        <v>1.8337399999999999</v>
+        <v>1.83494</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>4.4659999999999922</v>
+        <v>4.335</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1047,23 @@
         <v>27</v>
       </c>
       <c r="B17" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C17">
-        <v>1.8763099999999999</v>
+        <v>1.86524</v>
       </c>
       <c r="D17">
-        <v>1.8784099999999999</v>
+        <v>1.8731100000000001</v>
       </c>
       <c r="E17">
-        <v>1.83375</v>
+        <v>1.8297600000000001</v>
       </c>
       <c r="F17">
-        <v>1.86554</v>
+        <v>1.8337399999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>4.7149999999999803</v>
+        <v>4.4659999999999922</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1071,23 @@
         <v>27</v>
       </c>
       <c r="B18" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C18">
-        <v>1.8452299999999999</v>
+        <v>1.8763099999999999</v>
       </c>
       <c r="D18">
-        <v>1.8861699999999999</v>
+        <v>1.8784099999999999</v>
       </c>
       <c r="E18">
-        <v>1.8390200000000001</v>
+        <v>1.83375</v>
       </c>
       <c r="F18">
-        <v>1.87496</v>
+        <v>1.86554</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>3.4200000000000008</v>
+        <v>4.7149999999999803</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1095,23 @@
         <v>27</v>
       </c>
       <c r="B19" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C19">
-        <v>1.8616299999999999</v>
+        <v>1.8452299999999999</v>
       </c>
       <c r="D19">
-        <v>1.8774</v>
+        <v>1.8861699999999999</v>
       </c>
       <c r="E19">
-        <v>1.8431999999999999</v>
+        <v>1.8390200000000001</v>
       </c>
       <c r="F19">
-        <v>1.8469199999999999</v>
+        <v>1.87496</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>5.2859999999999907</v>
+        <v>3.4200000000000008</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1119,23 @@
         <v>27</v>
       </c>
       <c r="B20" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C20">
-        <v>1.8307500000000001</v>
+        <v>1.8616299999999999</v>
       </c>
       <c r="D20">
-        <v>1.87232</v>
+        <v>1.8774</v>
       </c>
       <c r="E20">
-        <v>1.8194600000000001</v>
+        <v>1.8431999999999999</v>
       </c>
       <c r="F20">
-        <v>1.8667</v>
+        <v>1.8469199999999999</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>4.1469999999999896</v>
+        <v>5.2859999999999907</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1143,23 @@
         <v>27</v>
       </c>
       <c r="B21" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C21">
-        <v>1.8087299999999999</v>
+        <v>1.8307500000000001</v>
       </c>
       <c r="D21">
-        <v>1.8448</v>
+        <v>1.87232</v>
       </c>
       <c r="E21">
-        <v>1.8033300000000001</v>
+        <v>1.8194600000000001</v>
       </c>
       <c r="F21">
-        <v>1.83097</v>
+        <v>1.8667</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2.6850000000000041</v>
+        <v>4.1469999999999896</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1167,23 @@
         <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C22">
-        <v>1.8243100000000001</v>
+        <v>1.8087299999999999</v>
       </c>
       <c r="D22">
-        <v>1.8258000000000001</v>
+        <v>1.8448</v>
       </c>
       <c r="E22">
-        <v>1.79895</v>
+        <v>1.8033300000000001</v>
       </c>
       <c r="F22">
-        <v>1.8051999999999999</v>
+        <v>1.83097</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>4.760999999999993</v>
+        <v>2.6850000000000041</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1191,23 @@
         <v>27</v>
       </c>
       <c r="B23" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C23">
-        <v>1.80227</v>
+        <v>1.8243100000000001</v>
       </c>
       <c r="D23">
-        <v>1.83432</v>
+        <v>1.8258000000000001</v>
       </c>
       <c r="E23">
-        <v>1.78671</v>
+        <v>1.79895</v>
       </c>
       <c r="F23">
-        <v>1.82524</v>
+        <v>1.8051999999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>5.0579999999999847</v>
+        <v>4.760999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1215,23 @@
         <v>27</v>
       </c>
       <c r="B24" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C24">
-        <v>1.8368100000000001</v>
+        <v>1.80227</v>
       </c>
       <c r="D24">
-        <v>1.84415</v>
+        <v>1.83432</v>
       </c>
       <c r="E24">
-        <v>1.7935700000000001</v>
+        <v>1.78671</v>
       </c>
       <c r="F24">
-        <v>1.8047200000000001</v>
+        <v>1.82524</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>6.0850000000000071</v>
+        <v>5.0579999999999847</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1239,23 @@
         <v>27</v>
       </c>
       <c r="B25" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C25">
-        <v>1.7959700000000001</v>
+        <v>1.8368100000000001</v>
       </c>
       <c r="D25">
-        <v>1.85222</v>
+        <v>1.84415</v>
       </c>
       <c r="E25">
-        <v>1.7913699999999999</v>
+        <v>1.7935700000000001</v>
       </c>
       <c r="F25">
-        <v>1.83755</v>
+        <v>1.8047200000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>4.6119999999999939</v>
+        <v>6.0850000000000071</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1263,23 @@
         <v>27</v>
       </c>
       <c r="B26" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C26">
-        <v>1.7814300000000001</v>
+        <v>1.7959700000000001</v>
       </c>
       <c r="D26">
-        <v>1.81009</v>
+        <v>1.85222</v>
       </c>
       <c r="E26">
-        <v>1.76397</v>
+        <v>1.7913699999999999</v>
       </c>
       <c r="F26">
-        <v>1.79592</v>
+        <v>1.83755</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>3.3160000000000078</v>
+        <v>4.6119999999999939</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1287,23 @@
         <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C27">
-        <v>1.78799</v>
+        <v>1.7814300000000001</v>
       </c>
       <c r="D27">
-        <v>1.79433</v>
+        <v>1.81009</v>
       </c>
       <c r="E27">
-        <v>1.7611699999999999</v>
+        <v>1.76397</v>
       </c>
       <c r="F27">
-        <v>1.7800499999999999</v>
+        <v>1.79592</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>6.469999999999998</v>
+        <v>3.3160000000000078</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1311,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C28">
-        <v>1.80176</v>
+        <v>1.78799</v>
       </c>
       <c r="D28">
-        <v>1.85164</v>
+        <v>1.79433</v>
       </c>
       <c r="E28">
-        <v>1.78694</v>
+        <v>1.7611699999999999</v>
       </c>
       <c r="F28">
-        <v>1.7877099999999999</v>
+        <v>1.7800499999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2.2189999999999932</v>
+        <v>6.469999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1335,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C29">
-        <v>1.79549</v>
+        <v>1.80176</v>
       </c>
       <c r="D29">
-        <v>1.8082199999999999</v>
+        <v>1.85164</v>
       </c>
       <c r="E29">
-        <v>1.78603</v>
+        <v>1.78694</v>
       </c>
       <c r="F29">
-        <v>1.8032699999999999</v>
+        <v>1.7877099999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>4.430999999999985</v>
+        <v>2.2189999999999932</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1359,23 @@
         <v>27</v>
       </c>
       <c r="B30" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C30">
-        <v>1.7550399999999999</v>
+        <v>1.79549</v>
       </c>
       <c r="D30">
-        <v>1.7945599999999999</v>
+        <v>1.8082199999999999</v>
       </c>
       <c r="E30">
-        <v>1.7502500000000001</v>
+        <v>1.78603</v>
       </c>
       <c r="F30">
-        <v>1.79436</v>
+        <v>1.8032699999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>4.3290000000000051</v>
+        <v>4.430999999999985</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1383,23 @@
         <v>27</v>
       </c>
       <c r="B31" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C31">
-        <v>1.76735</v>
+        <v>1.7550399999999999</v>
       </c>
       <c r="D31">
-        <v>1.7722800000000001</v>
+        <v>1.7945599999999999</v>
       </c>
       <c r="E31">
-        <v>1.72899</v>
+        <v>1.7502500000000001</v>
       </c>
       <c r="F31">
-        <v>1.7521800000000001</v>
+        <v>1.79436</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>5.3470000000000129</v>
+        <v>4.3290000000000051</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1407,23 @@
         <v>27</v>
       </c>
       <c r="B32" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C32">
-        <v>1.7293700000000001</v>
+        <v>1.76735</v>
       </c>
       <c r="D32">
-        <v>1.7743100000000001</v>
+        <v>1.7722800000000001</v>
       </c>
       <c r="E32">
-        <v>1.7208399999999999</v>
+        <v>1.72899</v>
       </c>
       <c r="F32">
-        <v>1.7697499999999999</v>
+        <v>1.7521800000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>3.6529999999999951</v>
+        <v>5.3470000000000129</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1431,23 @@
         <v>27</v>
       </c>
       <c r="B33" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C33">
-        <v>1.77294</v>
+        <v>1.7293700000000001</v>
       </c>
       <c r="D33">
-        <v>1.77555</v>
+        <v>1.7743100000000001</v>
       </c>
       <c r="E33">
-        <v>1.73902</v>
+        <v>1.7208399999999999</v>
       </c>
       <c r="F33">
-        <v>1.7437800000000001</v>
+        <v>1.7697499999999999</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>2.945999999999982</v>
+        <v>3.6529999999999951</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1455,23 @@
         <v>27</v>
       </c>
       <c r="B34" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C34">
-        <v>1.7568699999999999</v>
+        <v>1.77294</v>
       </c>
       <c r="D34">
-        <v>1.7816799999999999</v>
+        <v>1.77555</v>
       </c>
       <c r="E34">
-        <v>1.7522200000000001</v>
+        <v>1.73902</v>
       </c>
       <c r="F34">
-        <v>1.7718799999999999</v>
+        <v>1.7437800000000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>5.8789999999999898</v>
+        <v>2.945999999999982</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1479,23 @@
         <v>27</v>
       </c>
       <c r="B35" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C35">
-        <v>1.7886299999999999</v>
+        <v>1.7568699999999999</v>
       </c>
       <c r="D35">
-        <v>1.8064499999999999</v>
+        <v>1.7816799999999999</v>
       </c>
       <c r="E35">
-        <v>1.74766</v>
+        <v>1.7522200000000001</v>
       </c>
       <c r="F35">
-        <v>1.74864</v>
+        <v>1.7718799999999999</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.1560000000000024</v>
+        <v>5.8789999999999898</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1503,23 @@
         <v>27</v>
       </c>
       <c r="B36" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C36">
-        <v>1.81037</v>
+        <v>1.7886299999999999</v>
       </c>
       <c r="D36">
-        <v>1.8148500000000001</v>
+        <v>1.8064499999999999</v>
       </c>
       <c r="E36">
-        <v>1.7932900000000001</v>
+        <v>1.74766</v>
       </c>
       <c r="F36">
-        <v>1.7946500000000001</v>
+        <v>1.74864</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>2.9480000000000173</v>
+        <v>2.1560000000000024</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1527,23 @@
         <v>27</v>
       </c>
       <c r="B37" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C37">
-        <v>1.80806</v>
+        <v>1.81037</v>
       </c>
       <c r="D37">
-        <v>1.8155300000000001</v>
+        <v>1.8148500000000001</v>
       </c>
       <c r="E37">
-        <v>1.7860499999999999</v>
+        <v>1.7932900000000001</v>
       </c>
       <c r="F37">
-        <v>1.80175</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>3.9220000000000033</v>
+        <v>2.9480000000000173</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1551,23 @@
         <v>27</v>
       </c>
       <c r="B38" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C38">
-        <v>1.8342700000000001</v>
+        <v>1.80806</v>
       </c>
       <c r="D38">
-        <v>1.84585</v>
+        <v>1.8155300000000001</v>
       </c>
       <c r="E38">
-        <v>1.80663</v>
+        <v>1.7860499999999999</v>
       </c>
       <c r="F38">
-        <v>1.80952</v>
+        <v>1.80175</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>3.2680000000000042</v>
+        <v>3.9220000000000033</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1575,23 @@
         <v>27</v>
       </c>
       <c r="B39" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C39">
-        <v>1.8421000000000001</v>
+        <v>1.8342700000000001</v>
       </c>
       <c r="D39">
-        <v>1.85626</v>
+        <v>1.84585</v>
       </c>
       <c r="E39">
-        <v>1.82358</v>
+        <v>1.80663</v>
       </c>
       <c r="F39">
-        <v>1.83592</v>
+        <v>1.80952</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>2.909000000000006</v>
+        <v>3.2680000000000042</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1599,23 @@
         <v>27</v>
       </c>
       <c r="B40" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C40">
-        <v>1.8597699999999999</v>
+        <v>1.8421000000000001</v>
       </c>
       <c r="D40">
-        <v>1.87239</v>
+        <v>1.85626</v>
       </c>
       <c r="E40">
-        <v>1.8432999999999999</v>
+        <v>1.82358</v>
       </c>
       <c r="F40">
-        <v>1.8491500000000001</v>
+        <v>1.83592</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>5.9730000000000061</v>
+        <v>2.909000000000006</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1623,23 @@
         <v>27</v>
       </c>
       <c r="B41" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C41">
-        <v>1.80436</v>
+        <v>1.8597699999999999</v>
       </c>
       <c r="D41">
-        <v>1.8608</v>
+        <v>1.87239</v>
       </c>
       <c r="E41">
-        <v>1.8010699999999999</v>
+        <v>1.8432999999999999</v>
       </c>
       <c r="F41">
-        <v>1.8590500000000001</v>
+        <v>1.8491500000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.517999999999998</v>
+        <v>5.9730000000000061</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1647,23 @@
         <v>27</v>
       </c>
       <c r="B42" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C42">
-        <v>1.7995699999999999</v>
+        <v>1.80436</v>
       </c>
       <c r="D42">
-        <v>1.82169</v>
+        <v>1.8608</v>
       </c>
       <c r="E42">
-        <v>1.7965100000000001</v>
+        <v>1.8010699999999999</v>
       </c>
       <c r="F42">
-        <v>1.8051900000000001</v>
+        <v>1.8590500000000001</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>4.6390000000000153</v>
+        <v>2.517999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1671,23 @@
         <v>27</v>
       </c>
       <c r="B43" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C43">
-        <v>1.8268899999999999</v>
+        <v>1.7995699999999999</v>
       </c>
       <c r="D43">
-        <v>1.8398600000000001</v>
+        <v>1.82169</v>
       </c>
       <c r="E43">
-        <v>1.7934699999999999</v>
+        <v>1.7965100000000001</v>
       </c>
       <c r="F43">
-        <v>1.79575</v>
+        <v>1.8051900000000001</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>2.6639999999999997</v>
+        <v>4.6390000000000153</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1695,23 @@
         <v>27</v>
       </c>
       <c r="B44" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C44">
-        <v>1.8182199999999999</v>
+        <v>1.8268899999999999</v>
       </c>
       <c r="D44">
-        <v>1.83754</v>
+        <v>1.8398600000000001</v>
       </c>
       <c r="E44">
-        <v>1.8109</v>
+        <v>1.7934699999999999</v>
       </c>
       <c r="F44">
-        <v>1.8264</v>
+        <v>1.79575</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>4.4320000000000137</v>
+        <v>2.6639999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1719,23 @@
         <v>27</v>
       </c>
       <c r="B45" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C45">
-        <v>1.79634</v>
+        <v>1.8182199999999999</v>
       </c>
       <c r="D45">
-        <v>1.8222</v>
+        <v>1.83754</v>
       </c>
       <c r="E45">
-        <v>1.7778799999999999</v>
+        <v>1.8109</v>
       </c>
       <c r="F45">
-        <v>1.8172999999999999</v>
+        <v>1.8264</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>5.4699999999999971</v>
+        <v>4.4320000000000137</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1743,23 @@
         <v>27</v>
       </c>
       <c r="B46" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C46">
-        <v>1.7517499999999999</v>
+        <v>1.79634</v>
       </c>
       <c r="D46">
-        <v>1.8053399999999999</v>
+        <v>1.8222</v>
       </c>
       <c r="E46">
-        <v>1.75064</v>
+        <v>1.7778799999999999</v>
       </c>
       <c r="F46">
-        <v>1.8015000000000001</v>
+        <v>1.8172999999999999</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>2.8350000000000097</v>
+        <v>5.4699999999999971</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1767,23 @@
         <v>27</v>
       </c>
       <c r="B47" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C47">
-        <v>1.74251</v>
+        <v>1.7517499999999999</v>
       </c>
       <c r="D47">
-        <v>1.76932</v>
+        <v>1.8053399999999999</v>
       </c>
       <c r="E47">
-        <v>1.7409699999999999</v>
+        <v>1.75064</v>
       </c>
       <c r="F47">
-        <v>1.7535499999999999</v>
+        <v>1.8015000000000001</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>2.3840000000000083</v>
+        <v>2.8350000000000097</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1791,23 @@
         <v>27</v>
       </c>
       <c r="B48" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C48">
-        <v>1.7509699999999999</v>
+        <v>1.74251</v>
       </c>
       <c r="D48">
-        <v>1.76546</v>
+        <v>1.76932</v>
       </c>
       <c r="E48">
-        <v>1.7416199999999999</v>
+        <v>1.7409699999999999</v>
       </c>
       <c r="F48">
-        <v>1.7428600000000001</v>
+        <v>1.7535499999999999</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>3.0440000000000023</v>
+        <v>2.3840000000000083</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1815,23 @@
         <v>27</v>
       </c>
       <c r="B49" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C49">
-        <v>1.7572000000000001</v>
+        <v>1.7509699999999999</v>
       </c>
       <c r="D49">
-        <v>1.7586299999999999</v>
+        <v>1.76546</v>
       </c>
       <c r="E49">
-        <v>1.7281899999999999</v>
+        <v>1.7416199999999999</v>
       </c>
       <c r="F49">
-        <v>1.74885</v>
+        <v>1.7428600000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>2.6240000000000041</v>
+        <v>3.0440000000000023</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1839,23 @@
         <v>27</v>
       </c>
       <c r="B50" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C50">
-        <v>1.7705500000000001</v>
+        <v>1.7572000000000001</v>
       </c>
       <c r="D50">
-        <v>1.78233</v>
+        <v>1.7586299999999999</v>
       </c>
       <c r="E50">
-        <v>1.7560899999999999</v>
+        <v>1.7281899999999999</v>
       </c>
       <c r="F50">
-        <v>1.7578</v>
+        <v>1.74885</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.4309999999999823</v>
+        <v>2.6240000000000041</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1863,23 @@
         <v>27</v>
       </c>
       <c r="B51" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C51">
-        <v>1.7683899999999999</v>
+        <v>1.7705500000000001</v>
       </c>
       <c r="D51">
-        <v>1.7802899999999999</v>
+        <v>1.78233</v>
       </c>
       <c r="E51">
-        <v>1.7659800000000001</v>
+        <v>1.7560899999999999</v>
       </c>
       <c r="F51">
-        <v>1.7701899999999999</v>
+        <v>1.7578</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>3.1139999999999946</v>
+        <v>1.4309999999999823</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1887,23 @@
         <v>27</v>
       </c>
       <c r="B52" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C52">
-        <v>1.78345</v>
+        <v>1.7683899999999999</v>
       </c>
       <c r="D52">
-        <v>1.7877799999999999</v>
+        <v>1.7802899999999999</v>
       </c>
       <c r="E52">
-        <v>1.75664</v>
+        <v>1.7659800000000001</v>
       </c>
       <c r="F52">
-        <v>1.76875</v>
+        <v>1.7701899999999999</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.7289999999999814</v>
+        <v>3.1139999999999946</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1911,23 @@
         <v>27</v>
       </c>
       <c r="B53" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C53">
-        <v>1.7909900000000001</v>
+        <v>1.78345</v>
       </c>
       <c r="D53">
-        <v>1.7939099999999999</v>
+        <v>1.7877799999999999</v>
       </c>
       <c r="E53">
-        <v>1.7666200000000001</v>
+        <v>1.75664</v>
       </c>
       <c r="F53">
-        <v>1.78328</v>
+        <v>1.76875</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1.593</v>
+        <v>2.7289999999999814</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1935,23 @@
         <v>27</v>
       </c>
       <c r="B54" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C54">
-        <v>1.7835700000000001</v>
+        <v>1.7909900000000001</v>
       </c>
       <c r="D54">
-        <v>1.79569</v>
+        <v>1.7939099999999999</v>
       </c>
       <c r="E54">
-        <v>1.77976</v>
+        <v>1.7666200000000001</v>
       </c>
       <c r="F54">
-        <v>1.7869600000000001</v>
+        <v>1.78328</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.2230000000000194</v>
+        <v>1.593</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1959,23 @@
         <v>27</v>
       </c>
       <c r="B55" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C55">
-        <v>1.78243</v>
+        <v>1.7835700000000001</v>
       </c>
       <c r="D55">
-        <v>1.7957700000000001</v>
+        <v>1.79569</v>
       </c>
       <c r="E55">
-        <v>1.7735399999999999</v>
+        <v>1.77976</v>
       </c>
       <c r="F55">
-        <v>1.7829999999999999</v>
+        <v>1.7869600000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.2659999999999902</v>
+        <v>2.2230000000000194</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1983,23 @@
         <v>27</v>
       </c>
       <c r="B56" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C56">
-        <v>1.78362</v>
+        <v>1.78243</v>
       </c>
       <c r="D56">
-        <v>1.79789</v>
+        <v>1.7957700000000001</v>
       </c>
       <c r="E56">
-        <v>1.7752300000000001</v>
+        <v>1.7735399999999999</v>
       </c>
       <c r="F56">
-        <v>1.7826900000000001</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>3.1629999999999825</v>
+        <v>2.2659999999999902</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2007,23 @@
         <v>27</v>
       </c>
       <c r="B57" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C57">
-        <v>1.7647299999999999</v>
+        <v>1.78362</v>
       </c>
       <c r="D57">
-        <v>1.7848599999999999</v>
+        <v>1.79789</v>
       </c>
       <c r="E57">
-        <v>1.7532300000000001</v>
+        <v>1.7752300000000001</v>
       </c>
       <c r="F57">
-        <v>1.7844199999999999</v>
+        <v>1.7826900000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>3.4229999999999983</v>
+        <v>3.1629999999999825</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2031,23 @@
         <v>27</v>
       </c>
       <c r="B58" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C58">
-        <v>1.7626999999999999</v>
+        <v>1.7647299999999999</v>
       </c>
       <c r="D58">
-        <v>1.7733300000000001</v>
+        <v>1.7848599999999999</v>
       </c>
       <c r="E58">
-        <v>1.7391000000000001</v>
+        <v>1.7532300000000001</v>
       </c>
       <c r="F58">
-        <v>1.7641500000000001</v>
+        <v>1.7844199999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.0570000000000199</v>
+        <v>3.4229999999999983</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2055,23 @@
         <v>27</v>
       </c>
       <c r="B59" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C59">
-        <v>1.7598</v>
+        <v>1.7626999999999999</v>
       </c>
       <c r="D59">
-        <v>1.7722500000000001</v>
+        <v>1.7733300000000001</v>
       </c>
       <c r="E59">
-        <v>1.7516799999999999</v>
+        <v>1.7391000000000001</v>
       </c>
       <c r="F59">
-        <v>1.76295</v>
+        <v>1.7641500000000001</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>3.3939999999999859</v>
+        <v>2.0570000000000199</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2079,23 @@
         <v>27</v>
       </c>
       <c r="B60" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C60">
-        <v>1.78969</v>
+        <v>1.7598</v>
       </c>
       <c r="D60">
-        <v>1.7924199999999999</v>
+        <v>1.7722500000000001</v>
       </c>
       <c r="E60">
-        <v>1.75848</v>
+        <v>1.7516799999999999</v>
       </c>
       <c r="F60">
-        <v>1.7619400000000001</v>
+        <v>1.76295</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.9479999999999942</v>
+        <v>3.3939999999999859</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2103,23 @@
         <v>27</v>
       </c>
       <c r="B61" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C61">
-        <v>1.7946500000000001</v>
+        <v>1.78969</v>
       </c>
       <c r="D61">
-        <v>1.8108599999999999</v>
+        <v>1.7924199999999999</v>
       </c>
       <c r="E61">
-        <v>1.79138</v>
+        <v>1.75848</v>
       </c>
       <c r="F61">
-        <v>1.7944</v>
+        <v>1.7619400000000001</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>3.3549999999999969</v>
+        <v>1.9479999999999942</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2127,23 @@
         <v>27</v>
       </c>
       <c r="B62" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C62">
-        <v>1.7953600000000001</v>
+        <v>1.7946500000000001</v>
       </c>
       <c r="D62">
-        <v>1.82396</v>
+        <v>1.8108599999999999</v>
       </c>
       <c r="E62">
-        <v>1.7904100000000001</v>
+        <v>1.79138</v>
       </c>
       <c r="F62">
-        <v>1.79495</v>
+        <v>1.7944</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>3.4410000000000052</v>
+        <v>3.3549999999999969</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2151,23 @@
         <v>27</v>
       </c>
       <c r="B63" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C63">
-        <v>1.8176300000000001</v>
+        <v>1.7953600000000001</v>
       </c>
       <c r="D63">
-        <v>1.82945</v>
+        <v>1.82396</v>
       </c>
       <c r="E63">
-        <v>1.79504</v>
+        <v>1.7904100000000001</v>
       </c>
       <c r="F63">
-        <v>1.7957000000000001</v>
+        <v>1.79495</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>2.9599999999999849</v>
+        <v>3.4410000000000052</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2175,23 @@
         <v>27</v>
       </c>
       <c r="B64" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C64">
-        <v>1.8252600000000001</v>
+        <v>1.8176300000000001</v>
       </c>
       <c r="D64">
-        <v>1.8472999999999999</v>
+        <v>1.82945</v>
       </c>
       <c r="E64">
-        <v>1.8177000000000001</v>
+        <v>1.79504</v>
       </c>
       <c r="F64">
-        <v>1.8178099999999999</v>
+        <v>1.7957000000000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>3.0459999999999932</v>
+        <v>2.9599999999999849</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2199,23 @@
         <v>27</v>
       </c>
       <c r="B65" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C65">
-        <v>1.8332599999999999</v>
+        <v>1.8252600000000001</v>
       </c>
       <c r="D65">
-        <v>1.84755</v>
+        <v>1.8472999999999999</v>
       </c>
       <c r="E65">
-        <v>1.8170900000000001</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F65">
-        <v>1.8265499999999999</v>
+        <v>1.8178099999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>2.2310000000000052</v>
+        <v>3.0459999999999932</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2223,23 @@
         <v>27</v>
       </c>
       <c r="B66" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C66">
-        <v>1.83632</v>
+        <v>1.8332599999999999</v>
       </c>
       <c r="D66">
-        <v>1.8457600000000001</v>
+        <v>1.84755</v>
       </c>
       <c r="E66">
-        <v>1.82345</v>
+        <v>1.8170900000000001</v>
       </c>
       <c r="F66">
-        <v>1.83386</v>
+        <v>1.8265499999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.9169999999999909</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2247,23 @@
         <v>27</v>
       </c>
       <c r="B67" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C67">
-        <v>1.8239000000000001</v>
+        <v>1.83632</v>
       </c>
       <c r="D67">
-        <v>1.83687</v>
+        <v>1.8457600000000001</v>
       </c>
       <c r="E67">
-        <v>1.8177000000000001</v>
+        <v>1.82345</v>
       </c>
       <c r="F67">
-        <v>1.83525</v>
+        <v>1.83386</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.9139999999999944</v>
+        <v>1.9169999999999909</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2271,23 @@
         <v>27</v>
       </c>
       <c r="B68" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C68">
-        <v>1.83656</v>
+        <v>1.8239000000000001</v>
       </c>
       <c r="D68">
-        <v>1.85073</v>
+        <v>1.83687</v>
       </c>
       <c r="E68">
-        <v>1.82159</v>
+        <v>1.8177000000000001</v>
       </c>
       <c r="F68">
-        <v>1.8250299999999999</v>
+        <v>1.83525</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>3.4329999999999972</v>
+        <v>2.9139999999999944</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2295,23 @@
         <v>27</v>
       </c>
       <c r="B69" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C69">
-        <v>1.80705</v>
+        <v>1.83656</v>
       </c>
       <c r="D69">
-        <v>1.8397399999999999</v>
+        <v>1.85073</v>
       </c>
       <c r="E69">
-        <v>1.80541</v>
+        <v>1.82159</v>
       </c>
       <c r="F69">
-        <v>1.8359399999999999</v>
+        <v>1.8250299999999999</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>4.8669999999999991</v>
+        <v>3.4329999999999972</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2319,23 @@
         <v>27</v>
       </c>
       <c r="B70" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C70">
-        <v>1.7641</v>
+        <v>1.80705</v>
       </c>
       <c r="D70">
-        <v>1.8085</v>
+        <v>1.8397399999999999</v>
       </c>
       <c r="E70">
-        <v>1.75983</v>
+        <v>1.80541</v>
       </c>
       <c r="F70">
-        <v>1.8083</v>
+        <v>1.8359399999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.7009999999999978</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2343,23 @@
         <v>27</v>
       </c>
       <c r="B71" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C71">
-        <v>1.7760199999999999</v>
+        <v>1.7641</v>
       </c>
       <c r="D71">
-        <v>1.79053</v>
+        <v>1.8085</v>
       </c>
       <c r="E71">
-        <v>1.76352</v>
+        <v>1.75983</v>
       </c>
       <c r="F71">
-        <v>1.7646500000000001</v>
+        <v>1.8083</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.3700000000000054</v>
+        <v>2.7009999999999978</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2367,23 @@
         <v>27</v>
       </c>
       <c r="B72" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C72">
-        <v>1.7831699999999999</v>
+        <v>1.7760199999999999</v>
       </c>
       <c r="D72">
-        <v>1.79043</v>
+        <v>1.79053</v>
       </c>
       <c r="E72">
-        <v>1.7667299999999999</v>
+        <v>1.76352</v>
       </c>
       <c r="F72">
-        <v>1.77685</v>
+        <v>1.7646500000000001</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>3.0649999999999844</v>
+        <v>2.3700000000000054</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2391,23 @@
         <v>27</v>
       </c>
       <c r="B73" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C73">
-        <v>1.7718400000000001</v>
+        <v>1.7831699999999999</v>
       </c>
       <c r="D73">
-        <v>1.7910699999999999</v>
+        <v>1.79043</v>
       </c>
       <c r="E73">
-        <v>1.7604200000000001</v>
+        <v>1.7667299999999999</v>
       </c>
       <c r="F73">
-        <v>1.78179</v>
+        <v>1.77685</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>2.3390000000000022</v>
+        <v>3.0649999999999844</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2415,23 @@
         <v>27</v>
       </c>
       <c r="B74" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C74">
-        <v>1.7669600000000001</v>
+        <v>1.7718400000000001</v>
       </c>
       <c r="D74">
-        <v>1.78084</v>
+        <v>1.7910699999999999</v>
       </c>
       <c r="E74">
-        <v>1.75745</v>
+        <v>1.7604200000000001</v>
       </c>
       <c r="F74">
-        <v>1.77223</v>
+        <v>1.78179</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>3.8780000000000037</v>
+        <v>2.3390000000000022</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2439,23 @@
         <v>27</v>
       </c>
       <c r="B75" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C75">
-        <v>1.7817499999999999</v>
+        <v>1.7669600000000001</v>
       </c>
       <c r="D75">
-        <v>1.7997799999999999</v>
+        <v>1.78084</v>
       </c>
       <c r="E75">
-        <v>1.7609999999999999</v>
+        <v>1.75745</v>
       </c>
       <c r="F75">
-        <v>1.7689600000000001</v>
+        <v>1.77223</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>4.9670000000000103</v>
+        <v>3.8780000000000037</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2463,23 @@
         <v>27</v>
       </c>
       <c r="B76" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C76">
-        <v>1.7444200000000001</v>
+        <v>1.7817499999999999</v>
       </c>
       <c r="D76">
-        <v>1.78474</v>
+        <v>1.7997799999999999</v>
       </c>
       <c r="E76">
-        <v>1.7350699999999999</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="F76">
-        <v>1.7819400000000001</v>
+        <v>1.7689600000000001</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>3.8180000000000103</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2487,23 @@
         <v>27</v>
       </c>
       <c r="B77" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C77">
-        <v>1.73603</v>
+        <v>1.7444200000000001</v>
       </c>
       <c r="D77">
-        <v>1.77176</v>
+        <v>1.78474</v>
       </c>
       <c r="E77">
-        <v>1.7335799999999999</v>
+        <v>1.7350699999999999</v>
       </c>
       <c r="F77">
-        <v>1.7443599999999999</v>
+        <v>1.7819400000000001</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>1.2890000000000068</v>
+        <v>3.8180000000000103</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2511,23 @@
         <v>27</v>
       </c>
       <c r="B78" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C78">
-        <v>1.73665</v>
+        <v>1.73603</v>
       </c>
       <c r="D78">
-        <v>1.7398100000000001</v>
+        <v>1.77176</v>
       </c>
       <c r="E78">
-        <v>1.72692</v>
+        <v>1.7335799999999999</v>
       </c>
       <c r="F78">
-        <v>1.73346</v>
+        <v>1.7443599999999999</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>3.3379999999999965</v>
+        <v>1.2890000000000068</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2535,23 @@
         <v>27</v>
       </c>
       <c r="B79" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C79">
-        <v>1.7245299999999999</v>
+        <v>1.73665</v>
       </c>
       <c r="D79">
-        <v>1.7431099999999999</v>
+        <v>1.7398100000000001</v>
       </c>
       <c r="E79">
-        <v>1.70973</v>
+        <v>1.72692</v>
       </c>
       <c r="F79">
-        <v>1.73491</v>
+        <v>1.73346</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>2.0279999999999854</v>
+        <v>3.3379999999999965</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2559,23 @@
         <v>27</v>
       </c>
       <c r="B80" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C80">
-        <v>1.7304600000000001</v>
+        <v>1.7245299999999999</v>
       </c>
       <c r="D80">
-        <v>1.74152</v>
+        <v>1.7431099999999999</v>
       </c>
       <c r="E80">
-        <v>1.7212400000000001</v>
+        <v>1.70973</v>
       </c>
       <c r="F80">
-        <v>1.7251000000000001</v>
+        <v>1.73491</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.214000000000004</v>
+        <v>2.0279999999999854</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2583,23 @@
         <v>27</v>
       </c>
       <c r="B81" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C81">
-        <v>1.7316800000000001</v>
+        <v>1.7304600000000001</v>
       </c>
       <c r="D81">
-        <v>1.73359</v>
+        <v>1.74152</v>
       </c>
       <c r="E81">
-        <v>1.7214499999999999</v>
+        <v>1.7212400000000001</v>
       </c>
       <c r="F81">
-        <v>1.7301599999999999</v>
+        <v>1.7251000000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.1009999999999973</v>
+        <v>1.214000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2607,23 @@
         <v>27</v>
       </c>
       <c r="B82" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C82">
-        <v>1.74116</v>
+        <v>1.7316800000000001</v>
       </c>
       <c r="D82">
-        <v>1.75099</v>
+        <v>1.73359</v>
       </c>
       <c r="E82">
-        <v>1.7299800000000001</v>
+        <v>1.7214499999999999</v>
       </c>
       <c r="F82">
-        <v>1.7320500000000001</v>
+        <v>1.7301599999999999</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>4.9000000000000155</v>
+        <v>2.1009999999999973</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2631,23 @@
         <v>27</v>
       </c>
       <c r="B83" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C83">
-        <v>1.78149</v>
+        <v>1.74116</v>
       </c>
       <c r="D83">
-        <v>1.7844500000000001</v>
+        <v>1.75099</v>
       </c>
       <c r="E83">
-        <v>1.7354499999999999</v>
+        <v>1.7299800000000001</v>
       </c>
       <c r="F83">
-        <v>1.74329</v>
+        <v>1.7320500000000001</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>5.0850000000000062</v>
+        <v>4.9000000000000155</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2655,23 @@
         <v>27</v>
       </c>
       <c r="B84" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C84">
-        <v>1.7703100000000001</v>
+        <v>1.78149</v>
       </c>
       <c r="D84">
-        <v>1.79965</v>
+        <v>1.7844500000000001</v>
       </c>
       <c r="E84">
-        <v>1.7487999999999999</v>
+        <v>1.7354499999999999</v>
       </c>
       <c r="F84">
-        <v>1.7845299999999999</v>
+        <v>1.74329</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>5.4619999999999891</v>
+        <v>5.0850000000000062</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2679,23 @@
         <v>27</v>
       </c>
       <c r="B85" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C85">
-        <v>1.7491399999999999</v>
+        <v>1.7703100000000001</v>
       </c>
       <c r="D85">
-        <v>1.7908299999999999</v>
+        <v>1.79965</v>
       </c>
       <c r="E85">
-        <v>1.73621</v>
+        <v>1.7487999999999999</v>
       </c>
       <c r="F85">
-        <v>1.77088</v>
+        <v>1.7845299999999999</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.8199999999999994</v>
+        <v>5.4619999999999891</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2703,23 @@
         <v>27</v>
       </c>
       <c r="B86" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C86">
-        <v>1.7467600000000001</v>
+        <v>1.7491399999999999</v>
       </c>
       <c r="D86">
-        <v>1.7597400000000001</v>
+        <v>1.7908299999999999</v>
       </c>
       <c r="E86">
-        <v>1.7415400000000001</v>
+        <v>1.73621</v>
       </c>
       <c r="F86">
-        <v>1.7492399999999999</v>
+        <v>1.77088</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>4.8750000000000071</v>
+        <v>1.8199999999999994</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2727,23 @@
         <v>27</v>
       </c>
       <c r="B87" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C87">
-        <v>1.71956</v>
+        <v>1.7467600000000001</v>
       </c>
       <c r="D87">
-        <v>1.7565500000000001</v>
+        <v>1.7597400000000001</v>
       </c>
       <c r="E87">
-        <v>1.7078</v>
+        <v>1.7415400000000001</v>
       </c>
       <c r="F87">
-        <v>1.7468300000000001</v>
+        <v>1.7492399999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>2.2310000000000052</v>
+        <v>4.8750000000000071</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2751,23 @@
         <v>27</v>
       </c>
       <c r="B88" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C88">
-        <v>1.7085399999999999</v>
+        <v>1.71956</v>
       </c>
       <c r="D88">
-        <v>1.72593</v>
+        <v>1.7565500000000001</v>
       </c>
       <c r="E88">
-        <v>1.7036199999999999</v>
+        <v>1.7078</v>
       </c>
       <c r="F88">
-        <v>1.7219599999999999</v>
+        <v>1.7468300000000001</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>4.713999999999996</v>
+        <v>2.2310000000000052</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2775,23 @@
         <v>27</v>
       </c>
       <c r="B89" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C89">
-        <v>1.7107600000000001</v>
+        <v>1.7085399999999999</v>
       </c>
       <c r="D89">
-        <v>1.73664</v>
+        <v>1.72593</v>
       </c>
       <c r="E89">
-        <v>1.6895</v>
+        <v>1.7036199999999999</v>
       </c>
       <c r="F89">
-        <v>1.7087699999999999</v>
+        <v>1.7219599999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>4.0330000000000199</v>
+        <v>4.713999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2799,23 @@
         <v>27</v>
       </c>
       <c r="B90" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C90">
-        <v>1.6869799999999999</v>
+        <v>1.7107600000000001</v>
       </c>
       <c r="D90">
-        <v>1.7239500000000001</v>
+        <v>1.73664</v>
       </c>
       <c r="E90">
-        <v>1.6836199999999999</v>
+        <v>1.6895</v>
       </c>
       <c r="F90">
-        <v>1.71113</v>
+        <v>1.7087699999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>2.3349999999999982</v>
+        <v>4.0330000000000199</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2823,23 @@
         <v>27</v>
       </c>
       <c r="B91" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C91">
-        <v>1.6858299999999999</v>
+        <v>1.6869799999999999</v>
       </c>
       <c r="D91">
-        <v>1.6917199999999999</v>
+        <v>1.7239500000000001</v>
       </c>
       <c r="E91">
-        <v>1.6683699999999999</v>
+        <v>1.6836199999999999</v>
       </c>
       <c r="F91">
-        <v>1.6870499999999999</v>
+        <v>1.71113</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>2.1120000000000028</v>
+        <v>2.3349999999999982</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2847,23 @@
         <v>27</v>
       </c>
       <c r="B92" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C92">
-        <v>1.6816599999999999</v>
+        <v>1.6858299999999999</v>
       </c>
       <c r="D92">
-        <v>1.7005300000000001</v>
+        <v>1.6917199999999999</v>
       </c>
       <c r="E92">
-        <v>1.6794100000000001</v>
+        <v>1.6683699999999999</v>
       </c>
       <c r="F92">
-        <v>1.6850000000000001</v>
+        <v>1.6870499999999999</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>3.1820000000000181</v>
+        <v>2.1120000000000028</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2871,23 @@
         <v>27</v>
       </c>
       <c r="B93" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C93">
-        <v>1.70713</v>
+        <v>1.6816599999999999</v>
       </c>
       <c r="D93">
-        <v>1.7098500000000001</v>
+        <v>1.7005300000000001</v>
       </c>
       <c r="E93">
-        <v>1.6780299999999999</v>
+        <v>1.6794100000000001</v>
       </c>
       <c r="F93">
-        <v>1.6810400000000001</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>2.5240000000000151</v>
+        <v>3.1820000000000181</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2895,23 @@
         <v>27</v>
       </c>
       <c r="B94" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C94">
-        <v>1.69523</v>
+        <v>1.70713</v>
       </c>
       <c r="D94">
-        <v>1.7181200000000001</v>
+        <v>1.7098500000000001</v>
       </c>
       <c r="E94">
-        <v>1.6928799999999999</v>
+        <v>1.6780299999999999</v>
       </c>
       <c r="F94">
-        <v>1.7092099999999999</v>
+        <v>1.6810400000000001</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>3.8210000000000077</v>
+        <v>2.5240000000000151</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2919,23 @@
         <v>27</v>
       </c>
       <c r="B95" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C95">
-        <v>1.6986300000000001</v>
+        <v>1.69523</v>
       </c>
       <c r="D95">
-        <v>1.71668</v>
+        <v>1.7181200000000001</v>
       </c>
       <c r="E95">
-        <v>1.6784699999999999</v>
+        <v>1.6928799999999999</v>
       </c>
       <c r="F95">
-        <v>1.69374</v>
+        <v>1.7092099999999999</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>6.4889999999999892</v>
+        <v>3.8210000000000077</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2943,23 @@
         <v>27</v>
       </c>
       <c r="B96" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C96">
-        <v>1.6371199999999999</v>
+        <v>1.6986300000000001</v>
       </c>
       <c r="D96">
-        <v>1.70007</v>
+        <v>1.71668</v>
       </c>
       <c r="E96">
-        <v>1.6351800000000001</v>
+        <v>1.6784699999999999</v>
       </c>
       <c r="F96">
-        <v>1.6989799999999999</v>
+        <v>1.69374</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>2.2759999999999891</v>
+        <v>6.4889999999999892</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2967,23 @@
         <v>27</v>
       </c>
       <c r="B97" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C97">
-        <v>1.6295500000000001</v>
+        <v>1.6371199999999999</v>
       </c>
       <c r="D97">
-        <v>1.6395599999999999</v>
+        <v>1.70007</v>
       </c>
       <c r="E97">
-        <v>1.6168</v>
+        <v>1.6351800000000001</v>
       </c>
       <c r="F97">
-        <v>1.6391800000000001</v>
+        <v>1.6989799999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>2.2759999999999891</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2991,23 @@
         <v>27</v>
       </c>
       <c r="B98" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C98">
-        <v>1.6270100000000001</v>
+        <v>1.6295500000000001</v>
       </c>
       <c r="D98">
-        <v>1.6377900000000001</v>
+        <v>1.6395599999999999</v>
       </c>
       <c r="E98">
-        <v>1.6166</v>
+        <v>1.6168</v>
       </c>
       <c r="F98">
-        <v>1.6260600000000001</v>
+        <v>1.6391800000000001</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.1400000000000077</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3015,23 @@
         <v>27</v>
       </c>
       <c r="B99" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C99">
-        <v>1.6231899999999999</v>
+        <v>1.6270100000000001</v>
       </c>
       <c r="D99">
-        <v>1.62754</v>
+        <v>1.6377900000000001</v>
       </c>
       <c r="E99">
-        <v>1.6161399999999999</v>
+        <v>1.6166</v>
       </c>
       <c r="F99">
-        <v>1.62242</v>
+        <v>1.6260600000000001</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>3.6590000000000122</v>
+        <v>1.1400000000000077</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3039,23 @@
         <v>27</v>
       </c>
       <c r="B100" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C100">
-        <v>1.64822</v>
+        <v>1.6231899999999999</v>
       </c>
       <c r="D100">
-        <v>1.6550400000000001</v>
+        <v>1.62754</v>
       </c>
       <c r="E100">
-        <v>1.6184499999999999</v>
+        <v>1.6161399999999999</v>
       </c>
       <c r="F100">
-        <v>1.62382</v>
+        <v>1.62242</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.7709999999999892</v>
+        <v>3.6590000000000122</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3063,23 @@
         <v>27</v>
       </c>
       <c r="B101" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C101">
-        <v>1.6447700000000001</v>
+        <v>1.64822</v>
       </c>
       <c r="D101">
-        <v>1.65665</v>
+        <v>1.6550400000000001</v>
       </c>
       <c r="E101">
-        <v>1.6389400000000001</v>
+        <v>1.6184499999999999</v>
       </c>
       <c r="F101">
-        <v>1.64859</v>
+        <v>1.62382</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>3.1560000000000032</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3087,23 @@
         <v>27</v>
       </c>
       <c r="B102" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C102">
-        <v>1.64486</v>
+        <v>1.6447700000000001</v>
       </c>
       <c r="D102">
-        <v>1.6735599999999999</v>
+        <v>1.65665</v>
       </c>
       <c r="E102">
-        <v>1.6419999999999999</v>
+        <v>1.6389400000000001</v>
       </c>
       <c r="F102">
-        <v>1.6446799999999999</v>
+        <v>1.64859</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>2.2440000000000015</v>
+        <v>3.1560000000000032</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3111,23 @@
         <v>27</v>
       </c>
       <c r="B103" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C103">
-        <v>1.64188</v>
+        <v>1.64486</v>
       </c>
       <c r="D103">
-        <v>1.6526700000000001</v>
+        <v>1.6735599999999999</v>
       </c>
       <c r="E103">
-        <v>1.6302300000000001</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="F103">
-        <v>1.64534</v>
+        <v>1.6446799999999999</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>5.0769999999999982</v>
+        <v>2.2440000000000015</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3135,23 @@
         <v>27</v>
       </c>
       <c r="B104" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C104">
-        <v>1.67465</v>
+        <v>1.64188</v>
       </c>
       <c r="D104">
-        <v>1.67757</v>
+        <v>1.6526700000000001</v>
       </c>
       <c r="E104">
-        <v>1.6268</v>
+        <v>1.6302300000000001</v>
       </c>
       <c r="F104">
-        <v>1.6410800000000001</v>
+        <v>1.64534</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>3.6459999999999937</v>
+        <v>5.0769999999999982</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3159,23 @@
         <v>27</v>
       </c>
       <c r="B105" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C105">
-        <v>1.6956100000000001</v>
+        <v>1.67465</v>
       </c>
       <c r="D105">
-        <v>1.69848</v>
+        <v>1.67757</v>
       </c>
       <c r="E105">
-        <v>1.6620200000000001</v>
+        <v>1.6268</v>
       </c>
       <c r="F105">
-        <v>1.67428</v>
+        <v>1.6410800000000001</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>2.7150000000000007</v>
+        <v>3.6459999999999937</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3183,23 @@
         <v>27</v>
       </c>
       <c r="B106" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C106">
-        <v>1.6946000000000001</v>
+        <v>1.6956100000000001</v>
       </c>
       <c r="D106">
-        <v>1.7121999999999999</v>
+        <v>1.69848</v>
       </c>
       <c r="E106">
-        <v>1.6850499999999999</v>
+        <v>1.6620200000000001</v>
       </c>
       <c r="F106">
-        <v>1.6946300000000001</v>
+        <v>1.67428</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>3.3630000000000049</v>
+        <v>2.7150000000000007</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3207,23 @@
         <v>27</v>
       </c>
       <c r="B107" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C107">
-        <v>1.68363</v>
+        <v>1.6946000000000001</v>
       </c>
       <c r="D107">
-        <v>1.7042200000000001</v>
+        <v>1.7121999999999999</v>
       </c>
       <c r="E107">
-        <v>1.67059</v>
+        <v>1.6850499999999999</v>
       </c>
       <c r="F107">
-        <v>1.69411</v>
+        <v>1.6946300000000001</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>2.5390000000000024</v>
+        <v>3.3630000000000049</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3231,23 @@
         <v>27</v>
       </c>
       <c r="B108" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C108">
-        <v>1.6740600000000001</v>
+        <v>1.68363</v>
       </c>
       <c r="D108">
-        <v>1.68648</v>
+        <v>1.7042200000000001</v>
       </c>
       <c r="E108">
-        <v>1.66109</v>
+        <v>1.67059</v>
       </c>
       <c r="F108">
-        <v>1.68085</v>
+        <v>1.69411</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>2.7609999999999912</v>
+        <v>2.5390000000000024</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3255,23 @@
         <v>27</v>
       </c>
       <c r="B109" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C109">
-        <v>1.69011</v>
+        <v>1.6740600000000001</v>
       </c>
       <c r="D109">
-        <v>1.69597</v>
+        <v>1.68648</v>
       </c>
       <c r="E109">
-        <v>1.6683600000000001</v>
+        <v>1.66109</v>
       </c>
       <c r="F109">
-        <v>1.67615</v>
+        <v>1.68085</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>5.6230000000000002</v>
+        <v>2.7609999999999912</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3279,23 @@
         <v>27</v>
       </c>
       <c r="B110" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C110">
-        <v>1.73119</v>
+        <v>1.69011</v>
       </c>
       <c r="D110">
-        <v>1.7332000000000001</v>
+        <v>1.69597</v>
       </c>
       <c r="E110">
-        <v>1.6769700000000001</v>
+        <v>1.6683600000000001</v>
       </c>
       <c r="F110">
-        <v>1.6916199999999999</v>
+        <v>1.67615</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>3.5199999999999898</v>
+        <v>5.6230000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3303,23 @@
         <v>27</v>
       </c>
       <c r="B111" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C111">
-        <v>1.7215199999999999</v>
+        <v>1.73119</v>
       </c>
       <c r="D111">
-        <v>1.74912</v>
+        <v>1.7332000000000001</v>
       </c>
       <c r="E111">
-        <v>1.7139200000000001</v>
+        <v>1.6769700000000001</v>
       </c>
       <c r="F111">
-        <v>1.73092</v>
+        <v>1.6916199999999999</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>3.1270000000000131</v>
+        <v>3.5199999999999898</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3327,23 @@
         <v>27</v>
       </c>
       <c r="B112" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C112">
-        <v>1.7477799999999999</v>
+        <v>1.7215199999999999</v>
       </c>
       <c r="D112">
-        <v>1.7481800000000001</v>
+        <v>1.74912</v>
       </c>
       <c r="E112">
-        <v>1.7169099999999999</v>
+        <v>1.7139200000000001</v>
       </c>
       <c r="F112">
-        <v>1.72058</v>
+        <v>1.73092</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>2.3799999999999821</v>
+        <v>3.1270000000000131</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3351,23 @@
         <v>27</v>
       </c>
       <c r="B113" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C113">
-        <v>1.74315</v>
+        <v>1.7477799999999999</v>
       </c>
       <c r="D113">
-        <v>1.7573399999999999</v>
+        <v>1.7481800000000001</v>
       </c>
       <c r="E113">
-        <v>1.7335400000000001</v>
+        <v>1.7169099999999999</v>
       </c>
       <c r="F113">
-        <v>1.74763</v>
+        <v>1.72058</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>2.9469999999999885</v>
+        <v>2.3799999999999821</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3375,23 @@
         <v>27</v>
       </c>
       <c r="B114" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C114">
-        <v>1.7516400000000001</v>
+        <v>1.74315</v>
       </c>
       <c r="D114">
-        <v>1.7650699999999999</v>
+        <v>1.7573399999999999</v>
       </c>
       <c r="E114">
-        <v>1.7356</v>
+        <v>1.7335400000000001</v>
       </c>
       <c r="F114">
-        <v>1.74343</v>
+        <v>1.74763</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>4.6710000000000029</v>
+        <v>2.9469999999999885</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3399,23 @@
         <v>27</v>
       </c>
       <c r="B115" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C115">
-        <v>1.72888</v>
+        <v>1.7516400000000001</v>
       </c>
       <c r="D115">
-        <v>1.75346</v>
+        <v>1.7650699999999999</v>
       </c>
       <c r="E115">
-        <v>1.70675</v>
+        <v>1.7356</v>
       </c>
       <c r="F115">
-        <v>1.7492099999999999</v>
+        <v>1.74343</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>4.8459999999999948</v>
+        <v>4.6710000000000029</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3423,23 @@
         <v>27</v>
       </c>
       <c r="B116" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C116">
-        <v>1.69275</v>
+        <v>1.72888</v>
       </c>
       <c r="D116">
-        <v>1.73641</v>
+        <v>1.75346</v>
       </c>
       <c r="E116">
-        <v>1.6879500000000001</v>
+        <v>1.70675</v>
       </c>
       <c r="F116">
-        <v>1.72925</v>
+        <v>1.7492099999999999</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>6.0359999999999969</v>
+        <v>4.8459999999999948</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3447,23 @@
         <v>27</v>
       </c>
       <c r="B117" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C117">
-        <v>1.6536200000000001</v>
+        <v>1.69275</v>
       </c>
       <c r="D117">
-        <v>1.71102</v>
+        <v>1.73641</v>
       </c>
       <c r="E117">
-        <v>1.65066</v>
+        <v>1.6879500000000001</v>
       </c>
       <c r="F117">
-        <v>1.69801</v>
+        <v>1.72925</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>2.4700000000000166</v>
+        <v>6.0359999999999969</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3471,23 @@
         <v>27</v>
       </c>
       <c r="B118" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C118">
-        <v>1.6501999999999999</v>
+        <v>1.6536200000000001</v>
       </c>
       <c r="D118">
-        <v>1.6722600000000001</v>
+        <v>1.71102</v>
       </c>
       <c r="E118">
-        <v>1.6475599999999999</v>
+        <v>1.65066</v>
       </c>
       <c r="F118">
-        <v>1.6530499999999999</v>
+        <v>1.69801</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>2.022999999999997</v>
+        <v>2.4700000000000166</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3495,23 @@
         <v>27</v>
       </c>
       <c r="B119" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C119">
-        <v>1.6420600000000001</v>
+        <v>1.6501999999999999</v>
       </c>
       <c r="D119">
-        <v>1.65838</v>
+        <v>1.6722600000000001</v>
       </c>
       <c r="E119">
-        <v>1.63815</v>
+        <v>1.6475599999999999</v>
       </c>
       <c r="F119">
-        <v>1.64825</v>
+        <v>1.6530499999999999</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>3.8719999999999866</v>
+        <v>2.022999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3519,23 @@
         <v>27</v>
       </c>
       <c r="B120" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C120">
-        <v>1.63645</v>
+        <v>1.6420600000000001</v>
       </c>
       <c r="D120">
-        <v>1.6567799999999999</v>
+        <v>1.65838</v>
       </c>
       <c r="E120">
-        <v>1.6180600000000001</v>
+        <v>1.63815</v>
       </c>
       <c r="F120">
-        <v>1.64228</v>
+        <v>1.64825</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>4.669000000000012</v>
+        <v>3.8719999999999866</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3543,23 @@
         <v>27</v>
       </c>
       <c r="B121" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C121">
-        <v>1.6083499999999999</v>
+        <v>1.63645</v>
       </c>
       <c r="D121">
-        <v>1.6426000000000001</v>
+        <v>1.6567799999999999</v>
       </c>
       <c r="E121">
-        <v>1.5959099999999999</v>
+        <v>1.6180600000000001</v>
       </c>
       <c r="F121">
-        <v>1.6377999999999999</v>
+        <v>1.64228</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>2.6490000000000125</v>
+        <v>4.669000000000012</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3567,23 @@
         <v>27</v>
       </c>
       <c r="B122" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C122">
-        <v>1.61178</v>
+        <v>1.6083499999999999</v>
       </c>
       <c r="D122">
-        <v>1.6168800000000001</v>
+        <v>1.6426000000000001</v>
       </c>
       <c r="E122">
-        <v>1.59039</v>
+        <v>1.5959099999999999</v>
       </c>
       <c r="F122">
-        <v>1.6084499999999999</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>2.2029999999999994</v>
+        <v>2.6490000000000125</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3591,23 @@
         <v>27</v>
       </c>
       <c r="B123" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C123">
-        <v>1.6186799999999999</v>
+        <v>1.61178</v>
       </c>
       <c r="D123">
-        <v>1.62354</v>
+        <v>1.6168800000000001</v>
       </c>
       <c r="E123">
-        <v>1.60151</v>
+        <v>1.59039</v>
       </c>
       <c r="F123">
-        <v>1.61243</v>
+        <v>1.6084499999999999</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.7670000000000083</v>
+        <v>2.2029999999999994</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3615,23 @@
         <v>27</v>
       </c>
       <c r="B124" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C124">
-        <v>1.6234</v>
+        <v>1.6186799999999999</v>
       </c>
       <c r="D124">
-        <v>1.62693</v>
+        <v>1.62354</v>
       </c>
       <c r="E124">
-        <v>1.5992599999999999</v>
+        <v>1.60151</v>
       </c>
       <c r="F124">
-        <v>1.619</v>
+        <v>1.61243</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.1179999999999977</v>
+        <v>2.7670000000000083</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3639,23 @@
         <v>27</v>
       </c>
       <c r="B125" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C125">
-        <v>1.61633</v>
+        <v>1.6234</v>
       </c>
       <c r="D125">
-        <v>1.6360399999999999</v>
+        <v>1.62693</v>
       </c>
       <c r="E125">
-        <v>1.61486</v>
+        <v>1.5992599999999999</v>
       </c>
       <c r="F125">
-        <v>1.62443</v>
+        <v>1.619</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.7819999999999956</v>
+        <v>2.1179999999999977</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3663,23 @@
         <v>27</v>
       </c>
       <c r="B126" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C126">
-        <v>1.62425</v>
+        <v>1.61633</v>
       </c>
       <c r="D126">
-        <v>1.6400999999999999</v>
+        <v>1.6360399999999999</v>
       </c>
       <c r="E126">
-        <v>1.6122799999999999</v>
+        <v>1.61486</v>
       </c>
       <c r="F126">
-        <v>1.6190500000000001</v>
+        <v>1.62443</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>2.8279999999999861</v>
+        <v>2.7819999999999956</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3687,23 @@
         <v>27</v>
       </c>
       <c r="B127" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C127">
-        <v>1.62635</v>
+        <v>1.62425</v>
       </c>
       <c r="D127">
-        <v>1.6483399999999999</v>
+        <v>1.6400999999999999</v>
       </c>
       <c r="E127">
-        <v>1.6200600000000001</v>
+        <v>1.6122799999999999</v>
       </c>
       <c r="F127">
-        <v>1.6272500000000001</v>
+        <v>1.6190500000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>5.1530000000000076</v>
+        <v>2.8279999999999861</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3711,23 @@
         <v>27</v>
       </c>
       <c r="B128" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C128">
-        <v>1.66448</v>
+        <v>1.62635</v>
       </c>
       <c r="D128">
-        <v>1.67405</v>
+        <v>1.6483399999999999</v>
       </c>
       <c r="E128">
-        <v>1.62252</v>
+        <v>1.6200600000000001</v>
       </c>
       <c r="F128">
-        <v>1.62538</v>
+        <v>1.6272500000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>4.1300000000000114</v>
+        <v>5.1530000000000076</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3735,23 @@
         <v>27</v>
       </c>
       <c r="B129" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C129">
-        <v>1.6370899999999999</v>
+        <v>1.66448</v>
       </c>
       <c r="D129">
-        <v>1.6766700000000001</v>
+        <v>1.67405</v>
       </c>
       <c r="E129">
-        <v>1.63537</v>
+        <v>1.62252</v>
       </c>
       <c r="F129">
-        <v>1.66208</v>
+        <v>1.62538</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>4.231000000000007</v>
+        <v>4.1300000000000114</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3759,23 @@
         <v>27</v>
       </c>
       <c r="B130" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C130">
-        <v>1.60284</v>
+        <v>1.6370899999999999</v>
       </c>
       <c r="D130">
-        <v>1.6430400000000001</v>
+        <v>1.6766700000000001</v>
       </c>
       <c r="E130">
-        <v>1.60073</v>
+        <v>1.63537</v>
       </c>
       <c r="F130">
-        <v>1.6364300000000001</v>
+        <v>1.66208</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>6.1039999999999983</v>
+        <v>4.231000000000007</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3783,23 @@
         <v>27</v>
       </c>
       <c r="B131" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C131">
-        <v>1.67848</v>
+        <v>1.60284</v>
       </c>
       <c r="D131">
-        <v>1.6810799999999999</v>
+        <v>1.6430400000000001</v>
       </c>
       <c r="E131">
-        <v>1.6200399999999999</v>
+        <v>1.60073</v>
       </c>
       <c r="F131">
-        <v>1.6249800000000001</v>
+        <v>1.6364300000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.9879999999999907</v>
+        <v>6.1039999999999983</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3807,23 @@
         <v>27</v>
       </c>
       <c r="B132" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C132">
-        <v>1.7075499999999999</v>
+        <v>1.67848</v>
       </c>
       <c r="D132">
-        <v>1.70855</v>
+        <v>1.6810799999999999</v>
       </c>
       <c r="E132">
-        <v>1.6786700000000001</v>
+        <v>1.6200399999999999</v>
       </c>
       <c r="F132">
-        <v>1.6834800000000001</v>
+        <v>1.6249800000000001</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>2.0340000000000025</v>
+        <v>2.9879999999999907</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3831,23 @@
         <v>27</v>
       </c>
       <c r="B133" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C133">
-        <v>1.7087000000000001</v>
+        <v>1.7075499999999999</v>
       </c>
       <c r="D133">
-        <v>1.71374</v>
+        <v>1.70855</v>
       </c>
       <c r="E133">
-        <v>1.6934</v>
+        <v>1.6786700000000001</v>
       </c>
       <c r="F133">
-        <v>1.7099500000000001</v>
+        <v>1.6834800000000001</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>1.7100000000000115</v>
+        <v>2.0340000000000025</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3855,23 @@
         <v>27</v>
       </c>
       <c r="B134" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C134">
-        <v>1.7129000000000001</v>
+        <v>1.7087000000000001</v>
       </c>
       <c r="D134">
-        <v>1.7155</v>
+        <v>1.71374</v>
       </c>
       <c r="E134">
-        <v>1.6983999999999999</v>
+        <v>1.6934</v>
       </c>
       <c r="F134">
-        <v>1.71231</v>
+        <v>1.7099500000000001</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>3.3079999999999998</v>
+        <v>1.7100000000000115</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3879,23 @@
         <v>27</v>
       </c>
       <c r="B135" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C135">
-        <v>1.68824</v>
+        <v>1.7129000000000001</v>
       </c>
       <c r="D135">
-        <v>1.71414</v>
+        <v>1.7155</v>
       </c>
       <c r="E135">
-        <v>1.68106</v>
+        <v>1.6983999999999999</v>
       </c>
       <c r="F135">
-        <v>1.71018</v>
+        <v>1.71231</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>3.6389999999999922</v>
+        <v>3.3079999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3903,23 @@
         <v>27</v>
       </c>
       <c r="B136" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C136">
-        <v>1.7004300000000001</v>
+        <v>1.68824</v>
       </c>
       <c r="D136">
-        <v>1.71729</v>
+        <v>1.71414</v>
       </c>
       <c r="E136">
-        <v>1.6809000000000001</v>
+        <v>1.68106</v>
       </c>
       <c r="F136">
-        <v>1.68835</v>
+        <v>1.71018</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>6.0719999999999885</v>
+        <v>3.6389999999999922</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3927,23 @@
         <v>27</v>
       </c>
       <c r="B137" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C137">
-        <v>1.67248</v>
+        <v>1.7004300000000001</v>
       </c>
       <c r="D137">
-        <v>1.7154799999999999</v>
+        <v>1.71729</v>
       </c>
       <c r="E137">
-        <v>1.65476</v>
+        <v>1.6809000000000001</v>
       </c>
       <c r="F137">
-        <v>1.70705</v>
+        <v>1.68835</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>3.3259999999999845</v>
+        <v>6.0719999999999885</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3951,23 @@
         <v>27</v>
       </c>
       <c r="B138" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C138">
-        <v>1.6825000000000001</v>
+        <v>1.67248</v>
       </c>
       <c r="D138">
-        <v>1.69783</v>
+        <v>1.7154799999999999</v>
       </c>
       <c r="E138">
-        <v>1.6645700000000001</v>
+        <v>1.65476</v>
       </c>
       <c r="F138">
-        <v>1.67621</v>
+        <v>1.70705</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>4.5039999999999969</v>
+        <v>3.3259999999999845</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3975,23 @@
         <v>27</v>
       </c>
       <c r="B139" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C139">
-        <v>1.6655500000000001</v>
+        <v>1.6825000000000001</v>
       </c>
       <c r="D139">
-        <v>1.6853499999999999</v>
+        <v>1.69783</v>
       </c>
       <c r="E139">
-        <v>1.6403099999999999</v>
+        <v>1.6645700000000001</v>
       </c>
       <c r="F139">
-        <v>1.6828000000000001</v>
+        <v>1.67621</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>8.5370000000000168</v>
+        <v>4.5039999999999969</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3999,23 @@
         <v>27</v>
       </c>
       <c r="B140" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C140">
-        <v>1.62018</v>
+        <v>1.6655500000000001</v>
       </c>
       <c r="D140">
-        <v>1.6752800000000001</v>
+        <v>1.6853499999999999</v>
       </c>
       <c r="E140">
-        <v>1.5899099999999999</v>
+        <v>1.6403099999999999</v>
       </c>
       <c r="F140">
-        <v>1.6695800000000001</v>
+        <v>1.6828000000000001</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>4.8349999999999893</v>
+        <v>8.5370000000000168</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4023,23 @@
         <v>27</v>
       </c>
       <c r="B141" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C141">
-        <v>1.60361</v>
+        <v>1.62018</v>
       </c>
       <c r="D141">
-        <v>1.63798</v>
+        <v>1.6752800000000001</v>
       </c>
       <c r="E141">
-        <v>1.5896300000000001</v>
+        <v>1.5899099999999999</v>
       </c>
       <c r="F141">
-        <v>1.62978</v>
+        <v>1.6695800000000001</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>3.2340000000000035</v>
+        <v>4.8349999999999893</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4047,23 @@
         <v>27</v>
       </c>
       <c r="B142" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C142">
-        <v>1.6068199999999999</v>
+        <v>1.60361</v>
       </c>
       <c r="D142">
-        <v>1.6113299999999999</v>
+        <v>1.63798</v>
       </c>
       <c r="E142">
-        <v>1.5789899999999999</v>
+        <v>1.5896300000000001</v>
       </c>
       <c r="F142">
-        <v>1.60433</v>
+        <v>1.62978</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.3009999999999975</v>
+        <v>3.2340000000000035</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4071,23 @@
         <v>27</v>
       </c>
       <c r="B143" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C143">
-        <v>1.5970500000000001</v>
+        <v>1.6068199999999999</v>
       </c>
       <c r="D143">
-        <v>1.6107899999999999</v>
+        <v>1.6113299999999999</v>
       </c>
       <c r="E143">
-        <v>1.58778</v>
+        <v>1.5789899999999999</v>
       </c>
       <c r="F143">
-        <v>1.6079300000000001</v>
+        <v>1.60433</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>4.2519999999999891</v>
+        <v>2.3009999999999975</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4095,23 @@
         <v>27</v>
       </c>
       <c r="B144" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C144">
-        <v>1.63554</v>
+        <v>1.5970500000000001</v>
       </c>
       <c r="D144">
-        <v>1.6382399999999999</v>
+        <v>1.6107899999999999</v>
       </c>
       <c r="E144">
-        <v>1.59572</v>
+        <v>1.58778</v>
       </c>
       <c r="F144">
-        <v>1.6015699999999999</v>
+        <v>1.6079300000000001</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>19.363999999999983</v>
+        <v>4.2519999999999891</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4119,23 @@
         <v>27</v>
       </c>
       <c r="B145" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C145">
-        <v>1.6889099999999999</v>
+        <v>1.63554</v>
       </c>
       <c r="D145">
-        <v>1.6924699999999999</v>
+        <v>1.6382399999999999</v>
       </c>
       <c r="E145">
-        <v>1.4988300000000001</v>
+        <v>1.59572</v>
       </c>
       <c r="F145">
-        <v>1.63985</v>
+        <v>1.6015699999999999</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.0089999999999941</v>
+        <v>19.363999999999983</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4143,23 @@
         <v>27</v>
       </c>
       <c r="B146" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C146">
-        <v>1.7018599999999999</v>
+        <v>1.6889099999999999</v>
       </c>
       <c r="D146">
-        <v>1.7071799999999999</v>
+        <v>1.6924699999999999</v>
       </c>
       <c r="E146">
-        <v>1.68709</v>
+        <v>1.4988300000000001</v>
       </c>
       <c r="F146">
-        <v>1.6942299999999999</v>
+        <v>1.63985</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>4.4009999999999883</v>
+        <v>2.0089999999999941</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4167,23 @@
         <v>27</v>
       </c>
       <c r="B147" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C147">
-        <v>1.7372000000000001</v>
+        <v>1.7018599999999999</v>
       </c>
       <c r="D147">
-        <v>1.73827</v>
+        <v>1.7071799999999999</v>
       </c>
       <c r="E147">
-        <v>1.6942600000000001</v>
+        <v>1.68709</v>
       </c>
       <c r="F147">
-        <v>1.7012499999999999</v>
+        <v>1.6942299999999999</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>4.4789999999999885</v>
+        <v>4.4009999999999883</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4191,23 @@
         <v>27</v>
       </c>
       <c r="B148" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C148">
-        <v>1.75871</v>
+        <v>1.7372000000000001</v>
       </c>
       <c r="D148">
-        <v>1.77999</v>
+        <v>1.73827</v>
       </c>
       <c r="E148">
-        <v>1.7352000000000001</v>
+        <v>1.6942600000000001</v>
       </c>
       <c r="F148">
-        <v>1.7358100000000001</v>
+        <v>1.7012499999999999</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>3.4899999999999931</v>
+        <v>4.4789999999999885</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4215,23 @@
         <v>27</v>
       </c>
       <c r="B149" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C149">
-        <v>1.7556499999999999</v>
+        <v>1.75871</v>
       </c>
       <c r="D149">
-        <v>1.7614799999999999</v>
+        <v>1.77999</v>
       </c>
       <c r="E149">
-        <v>1.72658</v>
+        <v>1.7352000000000001</v>
       </c>
       <c r="F149">
-        <v>1.7608999999999999</v>
+        <v>1.7358100000000001</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>4.1059999999999874</v>
+        <v>3.4899999999999931</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4239,23 @@
         <v>27</v>
       </c>
       <c r="B150" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C150">
-        <v>1.7360800000000001</v>
+        <v>1.7556499999999999</v>
       </c>
       <c r="D150">
-        <v>1.76718</v>
+        <v>1.7614799999999999</v>
       </c>
       <c r="E150">
-        <v>1.7261200000000001</v>
+        <v>1.72658</v>
       </c>
       <c r="F150">
-        <v>1.7563500000000001</v>
+        <v>1.7608999999999999</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.1059999999999874</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4263,23 @@
         <v>27</v>
       </c>
       <c r="B151" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C151">
-        <v>1.7168600000000001</v>
+        <v>1.7360800000000001</v>
       </c>
       <c r="D151">
-        <v>1.7416499999999999</v>
+        <v>1.76718</v>
       </c>
       <c r="E151">
-        <v>1.71373</v>
+        <v>1.7261200000000001</v>
       </c>
       <c r="F151">
-        <v>1.7372300000000001</v>
+        <v>1.7563500000000001</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>5.3949999999999942</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4287,23 @@
         <v>27</v>
       </c>
       <c r="B152" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C152">
-        <v>1.68699</v>
+        <v>1.7168600000000001</v>
       </c>
       <c r="D152">
-        <v>1.7259199999999999</v>
+        <v>1.7416499999999999</v>
       </c>
       <c r="E152">
-        <v>1.67197</v>
+        <v>1.71373</v>
       </c>
       <c r="F152">
-        <v>1.7153799999999999</v>
+        <v>1.7372300000000001</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>4.3619999999999992</v>
+        <v>5.3949999999999942</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4311,23 @@
         <v>27</v>
       </c>
       <c r="B153" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C153">
-        <v>1.71953</v>
+        <v>1.68699</v>
       </c>
       <c r="D153">
-        <v>1.72228</v>
+        <v>1.7259199999999999</v>
       </c>
       <c r="E153">
-        <v>1.67866</v>
+        <v>1.67197</v>
       </c>
       <c r="F153">
-        <v>1.6876500000000001</v>
+        <v>1.7153799999999999</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>5.4929999999999923</v>
+        <v>4.3619999999999992</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4335,23 @@
         <v>27</v>
       </c>
       <c r="B154" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C154">
-        <v>1.7424999999999999</v>
+        <v>1.71953</v>
       </c>
       <c r="D154">
-        <v>1.7617499999999999</v>
+        <v>1.72228</v>
       </c>
       <c r="E154">
-        <v>1.70682</v>
+        <v>1.67866</v>
       </c>
       <c r="F154">
-        <v>1.71513</v>
+        <v>1.6876500000000001</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>3.2189999999999941</v>
+        <v>5.4929999999999923</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4359,23 @@
         <v>27</v>
       </c>
       <c r="B155" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C155">
-        <v>1.7583200000000001</v>
+        <v>1.7424999999999999</v>
       </c>
       <c r="D155">
-        <v>1.7679199999999999</v>
+        <v>1.7617499999999999</v>
       </c>
       <c r="E155">
-        <v>1.73573</v>
+        <v>1.70682</v>
       </c>
       <c r="F155">
-        <v>1.7396199999999999</v>
+        <v>1.71513</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>4.0680000000000049</v>
+        <v>3.2189999999999941</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4383,23 @@
         <v>27</v>
       </c>
       <c r="B156" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C156">
-        <v>1.7383500000000001</v>
+        <v>1.7583200000000001</v>
       </c>
       <c r="D156">
-        <v>1.77871</v>
+        <v>1.7679199999999999</v>
       </c>
       <c r="E156">
-        <v>1.73803</v>
+        <v>1.73573</v>
       </c>
       <c r="F156">
-        <v>1.7556799999999999</v>
+        <v>1.7396199999999999</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>5.9120000000000061</v>
+        <v>4.0680000000000049</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4407,23 @@
         <v>27</v>
       </c>
       <c r="B157" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C157">
-        <v>1.7117199999999999</v>
+        <v>1.7383500000000001</v>
       </c>
       <c r="D157">
-        <v>1.76353</v>
+        <v>1.77871</v>
       </c>
       <c r="E157">
-        <v>1.70441</v>
+        <v>1.73803</v>
       </c>
       <c r="F157">
-        <v>1.73803</v>
+        <v>1.7556799999999999</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>7.0259999999999989</v>
+        <v>5.9120000000000061</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4431,23 @@
         <v>27</v>
       </c>
       <c r="B158" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C158">
-        <v>1.78016</v>
+        <v>1.7117199999999999</v>
       </c>
       <c r="D158">
-        <v>1.78023</v>
+        <v>1.76353</v>
       </c>
       <c r="E158">
-        <v>1.70997</v>
+        <v>1.70441</v>
       </c>
       <c r="F158">
-        <v>1.71139</v>
+        <v>1.73803</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>4.9339999999999939</v>
+        <v>7.0259999999999989</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4455,23 @@
         <v>27</v>
       </c>
       <c r="B159" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C159">
-        <v>1.80535</v>
+        <v>1.78016</v>
       </c>
       <c r="D159">
-        <v>1.8191299999999999</v>
+        <v>1.78023</v>
       </c>
       <c r="E159">
-        <v>1.76979</v>
+        <v>1.70997</v>
       </c>
       <c r="F159">
-        <v>1.7715099999999999</v>
+        <v>1.71139</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>17.331999999999994</v>
+        <v>4.9339999999999939</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4479,23 @@
         <v>27</v>
       </c>
       <c r="B160" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C160">
-        <v>1.94547</v>
+        <v>1.80535</v>
       </c>
       <c r="D160">
-        <v>1.9737199999999999</v>
+        <v>1.8191299999999999</v>
       </c>
       <c r="E160">
-        <v>1.8004</v>
+        <v>1.76979</v>
       </c>
       <c r="F160">
-        <v>1.83073</v>
+        <v>1.7715099999999999</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>4.0959999999999885</v>
+        <v>17.331999999999994</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4503,23 @@
         <v>27</v>
       </c>
       <c r="B161" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C161">
-        <v>1.9313499999999999</v>
+        <v>1.94547</v>
       </c>
       <c r="D161">
-        <v>1.9445699999999999</v>
+        <v>1.9737199999999999</v>
       </c>
       <c r="E161">
-        <v>1.90361</v>
+        <v>1.8004</v>
       </c>
       <c r="F161">
-        <v>1.94198</v>
+        <v>1.83073</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>6.01799999999999</v>
+        <v>4.0959999999999885</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4527,23 @@
         <v>27</v>
       </c>
       <c r="B162" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C162">
-        <v>1.96573</v>
+        <v>1.9313499999999999</v>
       </c>
       <c r="D162">
-        <v>1.9836499999999999</v>
+        <v>1.9445699999999999</v>
       </c>
       <c r="E162">
-        <v>1.92347</v>
+        <v>1.90361</v>
       </c>
       <c r="F162">
-        <v>1.9342600000000001</v>
+        <v>1.94198</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>7.3670000000000124</v>
+        <v>6.01799999999999</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4551,23 @@
         <v>27</v>
       </c>
       <c r="B163" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C163">
-        <v>2.03443</v>
+        <v>1.96573</v>
       </c>
       <c r="D163">
-        <v>2.0437400000000001</v>
+        <v>1.9836499999999999</v>
       </c>
       <c r="E163">
-        <v>1.97007</v>
+        <v>1.92347</v>
       </c>
       <c r="F163">
-        <v>1.97027</v>
+        <v>1.9342600000000001</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>5.2340000000000053</v>
+        <v>7.3670000000000124</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4575,23 @@
         <v>27</v>
       </c>
       <c r="B164" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C164">
-        <v>2.0055800000000001</v>
+        <v>2.03443</v>
       </c>
       <c r="D164">
-        <v>2.0524499999999999</v>
+        <v>2.0437400000000001</v>
       </c>
       <c r="E164">
-        <v>2.0001099999999998</v>
+        <v>1.97007</v>
       </c>
       <c r="F164">
-        <v>2.03268</v>
+        <v>1.97027</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>6.9320000000000048</v>
+        <v>5.2340000000000053</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4599,23 @@
         <v>27</v>
       </c>
       <c r="B165" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C165">
-        <v>1.9771700000000001</v>
+        <v>2.0055800000000001</v>
       </c>
       <c r="D165">
-        <v>2.03525</v>
+        <v>2.0524499999999999</v>
       </c>
       <c r="E165">
-        <v>1.96593</v>
+        <v>2.0001099999999998</v>
       </c>
       <c r="F165">
-        <v>2.0067599999999999</v>
+        <v>2.03268</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.737999999999996</v>
+        <v>6.9320000000000048</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4623,23 @@
         <v>27</v>
       </c>
       <c r="B166" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C166">
-        <v>1.9578199999999999</v>
+        <v>1.9771700000000001</v>
       </c>
       <c r="D166">
-        <v>1.9803599999999999</v>
+        <v>2.03525</v>
       </c>
       <c r="E166">
-        <v>1.9529799999999999</v>
+        <v>1.96593</v>
       </c>
       <c r="F166">
-        <v>1.97628</v>
+        <v>2.0067599999999999</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>7.0680000000000076</v>
+        <v>2.737999999999996</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4647,23 @@
         <v>27</v>
       </c>
       <c r="B167" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C167">
-        <v>1.91726</v>
+        <v>1.9578199999999999</v>
       </c>
       <c r="D167">
-        <v>1.97265</v>
+        <v>1.9803599999999999</v>
       </c>
       <c r="E167">
-        <v>1.9019699999999999</v>
+        <v>1.9529799999999999</v>
       </c>
       <c r="F167">
-        <v>1.9577</v>
+        <v>1.97628</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>5.6849999999999845</v>
+        <v>7.0680000000000076</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4671,23 @@
         <v>27</v>
       </c>
       <c r="B168" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C168">
-        <v>1.87521</v>
+        <v>1.91726</v>
       </c>
       <c r="D168">
-        <v>1.9245699999999999</v>
+        <v>1.97265</v>
       </c>
       <c r="E168">
-        <v>1.86772</v>
+        <v>1.9019699999999999</v>
       </c>
       <c r="F168">
-        <v>1.9204000000000001</v>
+        <v>1.9577</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>4.3570000000000109</v>
+        <v>5.6849999999999845</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4695,23 @@
         <v>27</v>
       </c>
       <c r="B169" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C169">
-        <v>1.8510500000000001</v>
+        <v>1.87521</v>
       </c>
       <c r="D169">
-        <v>1.8708</v>
+        <v>1.9245699999999999</v>
       </c>
       <c r="E169">
-        <v>1.8272299999999999</v>
+        <v>1.86772</v>
       </c>
       <c r="F169">
-        <v>1.87035</v>
+        <v>1.9204000000000001</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>5.4980000000000029</v>
+        <v>4.3570000000000109</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4719,23 @@
         <v>27</v>
       </c>
       <c r="B170" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C170">
-        <v>1.8705799999999999</v>
+        <v>1.8510500000000001</v>
       </c>
       <c r="D170">
-        <v>1.8855299999999999</v>
+        <v>1.8708</v>
       </c>
       <c r="E170">
-        <v>1.8305499999999999</v>
+        <v>1.8272299999999999</v>
       </c>
       <c r="F170">
-        <v>1.84005</v>
+        <v>1.87035</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>3.8059999999999983</v>
+        <v>5.4980000000000029</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4743,23 @@
         <v>27</v>
       </c>
       <c r="B171" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C171">
-        <v>1.8517399999999999</v>
+        <v>1.8705799999999999</v>
       </c>
       <c r="D171">
-        <v>1.8889499999999999</v>
+        <v>1.8855299999999999</v>
       </c>
       <c r="E171">
-        <v>1.8508899999999999</v>
+        <v>1.8305499999999999</v>
       </c>
       <c r="F171">
-        <v>1.8709</v>
+        <v>1.84005</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>5.1470000000000127</v>
+        <v>3.8059999999999983</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4767,23 @@
         <v>27</v>
       </c>
       <c r="B172" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C172">
-        <v>1.8815500000000001</v>
+        <v>1.8517399999999999</v>
       </c>
       <c r="D172">
-        <v>1.9002600000000001</v>
+        <v>1.8889499999999999</v>
       </c>
       <c r="E172">
-        <v>1.8487899999999999</v>
+        <v>1.8508899999999999</v>
       </c>
       <c r="F172">
-        <v>1.8521000000000001</v>
+        <v>1.8709</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>4.9670000000000103</v>
+        <v>5.1470000000000127</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4791,23 @@
         <v>27</v>
       </c>
       <c r="B173" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C173">
-        <v>1.9028799999999999</v>
+        <v>1.8815500000000001</v>
       </c>
       <c r="D173">
-        <v>1.9087000000000001</v>
+        <v>1.9002600000000001</v>
       </c>
       <c r="E173">
-        <v>1.85903</v>
+        <v>1.8487899999999999</v>
       </c>
       <c r="F173">
-        <v>1.88409</v>
+        <v>1.8521000000000001</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>4.5259999999999856</v>
+        <v>4.9670000000000103</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4815,23 @@
         <v>27</v>
       </c>
       <c r="B174" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C174">
-        <v>1.90371</v>
+        <v>1.9028799999999999</v>
       </c>
       <c r="D174">
-        <v>1.9106399999999999</v>
+        <v>1.9087000000000001</v>
       </c>
       <c r="E174">
-        <v>1.86538</v>
+        <v>1.85903</v>
       </c>
       <c r="F174">
-        <v>1.9040999999999999</v>
+        <v>1.88409</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>3.6270000000000024</v>
+        <v>4.5259999999999856</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4839,23 @@
         <v>27</v>
       </c>
       <c r="B175" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C175">
-        <v>1.91988</v>
+        <v>1.90371</v>
       </c>
       <c r="D175">
-        <v>1.92469</v>
+        <v>1.9106399999999999</v>
       </c>
       <c r="E175">
-        <v>1.88842</v>
+        <v>1.86538</v>
       </c>
       <c r="F175">
-        <v>1.9031499999999999</v>
+        <v>1.9040999999999999</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>5.4769999999999985</v>
+        <v>3.6270000000000024</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4863,23 @@
         <v>27</v>
       </c>
       <c r="B176" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C176">
-        <v>1.9454199999999999</v>
+        <v>1.91988</v>
       </c>
       <c r="D176">
-        <v>1.9602999999999999</v>
+        <v>1.92469</v>
       </c>
       <c r="E176">
-        <v>1.9055299999999999</v>
+        <v>1.88842</v>
       </c>
       <c r="F176">
-        <v>1.9137299999999999</v>
+        <v>1.9031499999999999</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>7.7090000000000103</v>
+        <v>5.4769999999999985</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4887,23 @@
         <v>27</v>
       </c>
       <c r="B177" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C177">
-        <v>1.9923999999999999</v>
+        <v>1.9454199999999999</v>
       </c>
       <c r="D177">
-        <v>2.0033300000000001</v>
+        <v>1.9602999999999999</v>
       </c>
       <c r="E177">
-        <v>1.92624</v>
+        <v>1.9055299999999999</v>
       </c>
       <c r="F177">
-        <v>1.9455</v>
+        <v>1.9137299999999999</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>5.3680000000000172</v>
+        <v>7.7090000000000103</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4911,23 @@
         <v>27</v>
       </c>
       <c r="B178" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C178">
-        <v>2.0388299999999999</v>
+        <v>1.9923999999999999</v>
       </c>
       <c r="D178">
-        <v>2.0419800000000001</v>
+        <v>2.0033300000000001</v>
       </c>
       <c r="E178">
-        <v>1.9883</v>
+        <v>1.92624</v>
       </c>
       <c r="F178">
-        <v>2.0116000000000001</v>
+        <v>1.9455</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>3.8689999999999891</v>
+        <v>5.3680000000000172</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4935,23 @@
         <v>27</v>
       </c>
       <c r="B179" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C179">
-        <v>2.04684</v>
+        <v>2.0388299999999999</v>
       </c>
       <c r="D179">
-        <v>2.0662799999999999</v>
+        <v>2.0419800000000001</v>
       </c>
       <c r="E179">
-        <v>2.02759</v>
+        <v>1.9883</v>
       </c>
       <c r="F179">
-        <v>2.04088</v>
+        <v>2.0116000000000001</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>4.6949999999999825</v>
+        <v>3.8689999999999891</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4959,23 @@
         <v>27</v>
       </c>
       <c r="B180" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C180">
-        <v>2.0108799999999998</v>
+        <v>2.04684</v>
       </c>
       <c r="D180">
-        <v>2.0567799999999998</v>
+        <v>2.0662799999999999</v>
       </c>
       <c r="E180">
-        <v>2.00983</v>
+        <v>2.02759</v>
       </c>
       <c r="F180">
-        <v>2.0497299999999998</v>
+        <v>2.04088</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>5.3620000000000001</v>
+        <v>4.6949999999999825</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4983,23 @@
         <v>27</v>
       </c>
       <c r="B181" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C181">
-        <v>2.0353699999999999</v>
+        <v>2.0108799999999998</v>
       </c>
       <c r="D181">
-        <v>2.0532300000000001</v>
+        <v>2.0567799999999998</v>
       </c>
       <c r="E181">
-        <v>1.9996100000000001</v>
+        <v>2.00983</v>
       </c>
       <c r="F181">
-        <v>2.0122800000000001</v>
+        <v>2.0497299999999998</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>6.1029999999999696</v>
+        <v>5.3620000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5007,23 @@
         <v>27</v>
       </c>
       <c r="B182" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C182">
-        <v>2.0832799999999998</v>
+        <v>2.0353699999999999</v>
       </c>
       <c r="D182">
-        <v>2.0832799999999998</v>
+        <v>2.0532300000000001</v>
       </c>
       <c r="E182">
-        <v>2.0222500000000001</v>
+        <v>1.9996100000000001</v>
       </c>
       <c r="F182">
-        <v>2.0359799999999999</v>
+        <v>2.0122800000000001</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>4.980999999999991</v>
+        <v>6.1029999999999696</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5031,23 @@
         <v>27</v>
       </c>
       <c r="B183" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C183">
-        <v>2.08291</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="D183">
-        <v>2.0976900000000001</v>
+        <v>2.0832799999999998</v>
       </c>
       <c r="E183">
-        <v>2.0478800000000001</v>
+        <v>2.0222500000000001</v>
       </c>
       <c r="F183">
-        <v>2.0749</v>
+        <v>2.0359799999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>7.2830000000000172</v>
+        <v>4.980999999999991</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5055,23 @@
         <v>27</v>
       </c>
       <c r="B184" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C184">
-        <v>2.02075</v>
+        <v>2.08291</v>
       </c>
       <c r="D184">
-        <v>2.0905800000000001</v>
+        <v>2.0976900000000001</v>
       </c>
       <c r="E184">
-        <v>2.0177499999999999</v>
+        <v>2.0478800000000001</v>
       </c>
       <c r="F184">
-        <v>2.0846499999999999</v>
+        <v>2.0749</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>3.9410000000000167</v>
+        <v>7.2830000000000172</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5079,23 @@
         <v>27</v>
       </c>
       <c r="B185" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C185">
-        <v>2.0453800000000002</v>
+        <v>2.02075</v>
       </c>
       <c r="D185">
-        <v>2.0565600000000002</v>
+        <v>2.0905800000000001</v>
       </c>
       <c r="E185">
-        <v>2.01715</v>
+        <v>2.0177499999999999</v>
       </c>
       <c r="F185">
-        <v>2.0242499999999999</v>
+        <v>2.0846499999999999</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>3.9959999999999773</v>
+        <v>3.9410000000000167</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5103,23 @@
         <v>27</v>
       </c>
       <c r="B186" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C186">
-        <v>2.07795</v>
+        <v>2.0453800000000002</v>
       </c>
       <c r="D186">
-        <v>2.0840999999999998</v>
+        <v>2.0565600000000002</v>
       </c>
       <c r="E186">
-        <v>2.0441400000000001</v>
+        <v>2.01715</v>
       </c>
       <c r="F186">
-        <v>2.0489099999999998</v>
+        <v>2.0242499999999999</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>5.1400000000000112</v>
+        <v>3.9959999999999773</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5127,23 @@
         <v>27</v>
       </c>
       <c r="B187" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C187">
-        <v>2.11374</v>
+        <v>2.07795</v>
       </c>
       <c r="D187">
-        <v>2.1216900000000001</v>
+        <v>2.0840999999999998</v>
       </c>
       <c r="E187">
-        <v>2.07029</v>
+        <v>2.0441400000000001</v>
       </c>
       <c r="F187">
-        <v>2.0785999999999998</v>
+        <v>2.0489099999999998</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>6.2519999999999687</v>
+        <v>5.1400000000000112</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5151,23 @@
         <v>27</v>
       </c>
       <c r="B188" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C188">
-        <v>2.0563600000000002</v>
+        <v>2.11374</v>
       </c>
       <c r="D188">
-        <v>2.1188799999999999</v>
+        <v>2.1216900000000001</v>
       </c>
       <c r="E188">
-        <v>2.0563600000000002</v>
+        <v>2.07029</v>
       </c>
       <c r="F188">
-        <v>2.1173000000000002</v>
+        <v>2.0785999999999998</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>6.1900000000000066</v>
+        <v>6.2519999999999687</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5175,23 @@
         <v>27</v>
       </c>
       <c r="B189" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C189">
-        <v>2.08996</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="D189">
-        <v>2.09599</v>
+        <v>2.1188799999999999</v>
       </c>
       <c r="E189">
-        <v>2.03409</v>
+        <v>2.0563600000000002</v>
       </c>
       <c r="F189">
-        <v>2.0584500000000001</v>
+        <v>2.1173000000000002</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>4.4019999999999726</v>
+        <v>6.1900000000000066</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5199,23 @@
         <v>27</v>
       </c>
       <c r="B190" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C190">
-        <v>2.09918</v>
+        <v>2.08996</v>
       </c>
       <c r="D190">
-        <v>2.1170599999999999</v>
+        <v>2.09599</v>
       </c>
       <c r="E190">
-        <v>2.0730400000000002</v>
+        <v>2.03409</v>
       </c>
       <c r="F190">
-        <v>2.09</v>
+        <v>2.0584500000000001</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>5.4419999999999913</v>
+        <v>4.4019999999999726</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5223,23 @@
         <v>27</v>
       </c>
       <c r="B191" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C191">
-        <v>2.13768</v>
+        <v>2.09918</v>
       </c>
       <c r="D191">
-        <v>2.1513499999999999</v>
+        <v>2.1170599999999999</v>
       </c>
       <c r="E191">
-        <v>2.09693</v>
+        <v>2.0730400000000002</v>
       </c>
       <c r="F191">
-        <v>2.09918</v>
+        <v>2.09</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>3.3100000000000129</v>
+        <v>5.4419999999999913</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5247,23 @@
         <v>27</v>
       </c>
       <c r="B192" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C192">
-        <v>2.1417000000000002</v>
+        <v>2.13768</v>
       </c>
       <c r="D192">
-        <v>2.1571500000000001</v>
+        <v>2.1513499999999999</v>
       </c>
       <c r="E192">
-        <v>2.12405</v>
+        <v>2.09693</v>
       </c>
       <c r="F192">
-        <v>2.1373000000000002</v>
+        <v>2.09918</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>5.8140000000000303</v>
+        <v>3.3100000000000129</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5271,23 @@
         <v>27</v>
       </c>
       <c r="B193" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C193">
-        <v>2.1713800000000001</v>
+        <v>2.1417000000000002</v>
       </c>
       <c r="D193">
-        <v>2.1713800000000001</v>
+        <v>2.1571500000000001</v>
       </c>
       <c r="E193">
-        <v>2.1132399999999998</v>
+        <v>2.12405</v>
       </c>
       <c r="F193">
-        <v>2.1365500000000002</v>
+        <v>2.1373000000000002</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>5.9060000000000112</v>
+        <v>5.8140000000000303</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5295,23 @@
         <v>27</v>
       </c>
       <c r="B194" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C194">
-        <v>2.1217800000000002</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="D194">
-        <v>2.1690800000000001</v>
+        <v>2.1713800000000001</v>
       </c>
       <c r="E194">
-        <v>2.11002</v>
+        <v>2.1132399999999998</v>
       </c>
       <c r="F194">
-        <v>2.1624300000000001</v>
+        <v>2.1365500000000002</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>3.907000000000016</v>
+        <v>5.9060000000000112</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5319,23 @@
         <v>27</v>
       </c>
       <c r="B195" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C195">
-        <v>2.12459</v>
+        <v>2.1217800000000002</v>
       </c>
       <c r="D195">
-        <v>2.1485500000000002</v>
+        <v>2.1690800000000001</v>
       </c>
       <c r="E195">
-        <v>2.10948</v>
+        <v>2.11002</v>
       </c>
       <c r="F195">
-        <v>2.1212399999999998</v>
+        <v>2.1624300000000001</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>5.168000000000017</v>
+        <v>3.907000000000016</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5343,23 @@
         <v>27</v>
       </c>
       <c r="B196" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C196">
-        <v>2.0911</v>
+        <v>2.12459</v>
       </c>
       <c r="D196">
-        <v>2.13063</v>
+        <v>2.1485500000000002</v>
       </c>
       <c r="E196">
-        <v>2.0789499999999999</v>
+        <v>2.10948</v>
       </c>
       <c r="F196">
-        <v>2.1221299999999998</v>
+        <v>2.1212399999999998</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>7.1470000000000145</v>
+        <v>5.168000000000017</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5367,23 @@
         <v>27</v>
       </c>
       <c r="B197" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C197">
-        <v>2.1492599999999999</v>
+        <v>2.0911</v>
       </c>
       <c r="D197">
-        <v>2.1570800000000001</v>
+        <v>2.13063</v>
       </c>
       <c r="E197">
-        <v>2.08561</v>
+        <v>2.0789499999999999</v>
       </c>
       <c r="F197">
-        <v>2.08928</v>
+        <v>2.1221299999999998</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>4.8669999999999991</v>
+        <v>7.1470000000000145</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5391,23 @@
         <v>27</v>
       </c>
       <c r="B198" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C198">
-        <v>2.1646899999999998</v>
+        <v>2.1492599999999999</v>
       </c>
       <c r="D198">
-        <v>2.1862699999999999</v>
+        <v>2.1570800000000001</v>
       </c>
       <c r="E198">
-        <v>2.1375999999999999</v>
+        <v>2.08561</v>
       </c>
       <c r="F198">
-        <v>2.1524999999999999</v>
+        <v>2.08928</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>4.5319999999999805</v>
+        <v>4.8669999999999991</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5415,23 @@
         <v>27</v>
       </c>
       <c r="B199" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C199">
-        <v>2.1593399999999998</v>
+        <v>2.1646899999999998</v>
       </c>
       <c r="D199">
-        <v>2.2008299999999998</v>
+        <v>2.1862699999999999</v>
       </c>
       <c r="E199">
-        <v>2.15551</v>
+        <v>2.1375999999999999</v>
       </c>
       <c r="F199">
-        <v>2.1633800000000001</v>
+        <v>2.1524999999999999</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>5.1610000000000156</v>
+        <v>4.5319999999999805</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,19 +5439,19 @@
         <v>27</v>
       </c>
       <c r="B200" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C200">
-        <v>2.1772</v>
+        <v>2.1593399999999998</v>
       </c>
       <c r="D200">
-        <v>2.1869800000000001</v>
+        <v>2.2008299999999998</v>
       </c>
       <c r="E200">
-        <v>2.13537</v>
+        <v>2.15551</v>
       </c>
       <c r="F200">
-        <v>2.1593900000000001</v>
+        <v>2.1633800000000001</v>
       </c>
     </row>
   </sheetData>
